--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 5_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 5_2020.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DOANH THU'!$A$6:$P$121</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$6:$G$77</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1084,10 +1084,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
@@ -1820,15 +1820,15 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="630">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2107,16 +2107,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2920,6 +2920,48 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2932,67 +2974,100 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="47" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3004,81 +3079,6 @@
     <xf numFmtId="167" fontId="47" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="34" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="34" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="34" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3088,6 +3088,168 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3100,9 +3262,6 @@
     <xf numFmtId="167" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3118,177 +3277,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="32" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3302,15 +3314,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3337,17 +3340,44 @@
     <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3364,35 +3394,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="27" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3401,6 +3446,69 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3412,113 +3520,23 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="46" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3570,24 +3588,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3658,7 +3658,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3693,7 +3693,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3975,21 +3975,21 @@
       <c r="L3" s="133"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="420" t="s">
+      <c r="A4" s="407" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="420"/>
-      <c r="C4" s="420"/>
-      <c r="D4" s="420"/>
-      <c r="E4" s="420"/>
-      <c r="F4" s="420"/>
-      <c r="G4" s="420"/>
+      <c r="B4" s="407"/>
+      <c r="C4" s="407"/>
+      <c r="D4" s="407"/>
+      <c r="E4" s="407"/>
+      <c r="F4" s="407"/>
+      <c r="G4" s="407"/>
       <c r="H4" s="133"/>
-      <c r="I4" s="420" t="s">
+      <c r="I4" s="407" t="s">
         <v>318</v>
       </c>
-      <c r="J4" s="420"/>
-      <c r="K4" s="420"/>
+      <c r="J4" s="407"/>
+      <c r="K4" s="407"/>
       <c r="L4" s="133"/>
     </row>
     <row r="5" spans="1:12" s="131" customFormat="1" x14ac:dyDescent="0.25">
@@ -4001,37 +4001,37 @@
       <c r="G5" s="130"/>
     </row>
     <row r="6" spans="1:12" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="411" t="s">
+      <c r="A6" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="411" t="s">
+      <c r="B6" s="412" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="413" t="s">
+      <c r="C6" s="414" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="415" t="s">
+      <c r="D6" s="416" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="415"/>
-      <c r="F6" s="415" t="s">
+      <c r="E6" s="416"/>
+      <c r="F6" s="416" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="415"/>
-      <c r="I6" s="411" t="s">
+      <c r="G6" s="416"/>
+      <c r="I6" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="413" t="s">
+      <c r="J6" s="414" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="421" t="s">
+      <c r="K6" s="408" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="131" customFormat="1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="412"/>
-      <c r="B7" s="412"/>
-      <c r="C7" s="414"/>
+      <c r="A7" s="413"/>
+      <c r="B7" s="413"/>
+      <c r="C7" s="415"/>
       <c r="D7" s="135" t="s">
         <v>100</v>
       </c>
@@ -4044,9 +4044,9 @@
       <c r="G7" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="412"/>
-      <c r="J7" s="414"/>
-      <c r="K7" s="422"/>
+      <c r="I7" s="413"/>
+      <c r="J7" s="415"/>
+      <c r="K7" s="409"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="180">
@@ -4495,10 +4495,10 @@
       <c r="E25" s="136"/>
       <c r="F25" s="119"/>
       <c r="G25" s="136"/>
-      <c r="I25" s="423" t="s">
+      <c r="I25" s="410" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="424"/>
+      <c r="J25" s="411"/>
       <c r="K25" s="141">
         <f>SUM(K8:K24)</f>
         <v>8766920</v>
@@ -5223,11 +5223,11 @@
       <c r="G76" s="138"/>
     </row>
     <row r="77" spans="1:9" s="142" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="417" t="s">
+      <c r="A77" s="418" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="418"/>
-      <c r="C77" s="419"/>
+      <c r="B77" s="419"/>
+      <c r="C77" s="420"/>
       <c r="D77" s="141">
         <f>SUM(D8:D76)</f>
         <v>132665000</v>
@@ -5257,10 +5257,10 @@
       <c r="I78" s="143"/>
     </row>
     <row r="79" spans="1:9" s="142" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="416" t="s">
+      <c r="A79" s="417" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="416"/>
+      <c r="B79" s="417"/>
       <c r="C79" s="144"/>
       <c r="D79" s="145"/>
       <c r="E79" s="145"/>
@@ -5280,10 +5280,10 @@
     </row>
     <row r="81" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="181"/>
-      <c r="B81" s="410" t="s">
+      <c r="B81" s="424" t="s">
         <v>297</v>
       </c>
-      <c r="C81" s="410"/>
+      <c r="C81" s="424"/>
       <c r="D81" s="145"/>
       <c r="E81" s="145"/>
       <c r="F81" s="145"/>
@@ -5291,29 +5291,29 @@
       <c r="I81" s="143"/>
     </row>
     <row r="82" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="411" t="s">
+      <c r="A82" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="B82" s="411" t="s">
+      <c r="B82" s="412" t="s">
         <v>5</v>
       </c>
-      <c r="C82" s="413" t="s">
+      <c r="C82" s="414" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="415" t="s">
+      <c r="D82" s="416" t="s">
         <v>7</v>
       </c>
-      <c r="E82" s="415"/>
-      <c r="F82" s="415" t="s">
+      <c r="E82" s="416"/>
+      <c r="F82" s="416" t="s">
         <v>8</v>
       </c>
-      <c r="G82" s="415"/>
+      <c r="G82" s="416"/>
       <c r="I82" s="143"/>
     </row>
     <row r="83" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="412"/>
-      <c r="B83" s="412"/>
-      <c r="C83" s="414"/>
+      <c r="A83" s="413"/>
+      <c r="B83" s="413"/>
+      <c r="C83" s="415"/>
       <c r="D83" s="135" t="s">
         <v>100</v>
       </c>
@@ -5365,11 +5365,11 @@
       <c r="I85" s="143"/>
     </row>
     <row r="86" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="407" t="s">
+      <c r="A86" s="421" t="s">
         <v>296</v>
       </c>
-      <c r="B86" s="408"/>
-      <c r="C86" s="409"/>
+      <c r="B86" s="422"/>
+      <c r="C86" s="423"/>
       <c r="D86" s="141"/>
       <c r="E86" s="141"/>
       <c r="F86" s="141">
@@ -5391,10 +5391,10 @@
     </row>
     <row r="88" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="181"/>
-      <c r="B88" s="410" t="s">
+      <c r="B88" s="424" t="s">
         <v>303</v>
       </c>
-      <c r="C88" s="410"/>
+      <c r="C88" s="424"/>
       <c r="D88" s="145"/>
       <c r="E88" s="145"/>
       <c r="F88" s="145"/>
@@ -5402,29 +5402,29 @@
       <c r="I88" s="143"/>
     </row>
     <row r="89" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A89" s="411" t="s">
+      <c r="A89" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="B89" s="411" t="s">
+      <c r="B89" s="412" t="s">
         <v>5</v>
       </c>
-      <c r="C89" s="413" t="s">
+      <c r="C89" s="414" t="s">
         <v>6</v>
       </c>
-      <c r="D89" s="415" t="s">
+      <c r="D89" s="416" t="s">
         <v>7</v>
       </c>
-      <c r="E89" s="415"/>
-      <c r="F89" s="415" t="s">
+      <c r="E89" s="416"/>
+      <c r="F89" s="416" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="415"/>
+      <c r="G89" s="416"/>
       <c r="I89" s="143"/>
     </row>
     <row r="90" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="412"/>
-      <c r="B90" s="412"/>
-      <c r="C90" s="414"/>
+      <c r="A90" s="413"/>
+      <c r="B90" s="413"/>
+      <c r="C90" s="415"/>
       <c r="D90" s="135" t="s">
         <v>100</v>
       </c>
@@ -5548,11 +5548,11 @@
       <c r="I96" s="143"/>
     </row>
     <row r="97" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="407" t="s">
+      <c r="A97" s="421" t="s">
         <v>296</v>
       </c>
-      <c r="B97" s="408"/>
-      <c r="C97" s="409"/>
+      <c r="B97" s="422"/>
+      <c r="C97" s="423"/>
       <c r="D97" s="141"/>
       <c r="E97" s="141"/>
       <c r="F97" s="141"/>
@@ -5574,10 +5574,10 @@
     </row>
     <row r="99" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="181"/>
-      <c r="B99" s="410" t="s">
+      <c r="B99" s="424" t="s">
         <v>302</v>
       </c>
-      <c r="C99" s="410"/>
+      <c r="C99" s="424"/>
       <c r="D99" s="145"/>
       <c r="E99" s="145"/>
       <c r="F99" s="145"/>
@@ -5585,29 +5585,29 @@
       <c r="I99" s="143"/>
     </row>
     <row r="100" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="411" t="s">
+      <c r="A100" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="B100" s="411" t="s">
+      <c r="B100" s="412" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="413" t="s">
+      <c r="C100" s="414" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="415" t="s">
+      <c r="D100" s="416" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="415"/>
-      <c r="F100" s="415" t="s">
+      <c r="E100" s="416"/>
+      <c r="F100" s="416" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="415"/>
+      <c r="G100" s="416"/>
       <c r="I100" s="143"/>
     </row>
     <row r="101" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A101" s="412"/>
-      <c r="B101" s="412"/>
-      <c r="C101" s="414"/>
+      <c r="A101" s="413"/>
+      <c r="B101" s="413"/>
+      <c r="C101" s="415"/>
       <c r="D101" s="135" t="s">
         <v>100</v>
       </c>
@@ -5874,11 +5874,11 @@
       <c r="G115" s="138"/>
     </row>
     <row r="116" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A116" s="407" t="s">
+      <c r="A116" s="421" t="s">
         <v>296</v>
       </c>
-      <c r="B116" s="408"/>
-      <c r="C116" s="409"/>
+      <c r="B116" s="422"/>
+      <c r="C116" s="423"/>
       <c r="D116" s="141">
         <f>SUBTOTAL(9,D102:D114)</f>
         <v>132665000</v>
@@ -5903,10 +5903,10 @@
     </row>
     <row r="118" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="181"/>
-      <c r="B118" s="410" t="s">
+      <c r="B118" s="424" t="s">
         <v>11</v>
       </c>
-      <c r="C118" s="410"/>
+      <c r="C118" s="424"/>
       <c r="D118" s="145"/>
       <c r="E118" s="145"/>
       <c r="F118" s="145"/>
@@ -5914,29 +5914,29 @@
       <c r="I118" s="143"/>
     </row>
     <row r="119" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A119" s="411" t="s">
+      <c r="A119" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="B119" s="411" t="s">
+      <c r="B119" s="412" t="s">
         <v>5</v>
       </c>
-      <c r="C119" s="413" t="s">
+      <c r="C119" s="414" t="s">
         <v>6</v>
       </c>
-      <c r="D119" s="415" t="s">
+      <c r="D119" s="416" t="s">
         <v>7</v>
       </c>
-      <c r="E119" s="415"/>
-      <c r="F119" s="415" t="s">
+      <c r="E119" s="416"/>
+      <c r="F119" s="416" t="s">
         <v>8</v>
       </c>
-      <c r="G119" s="415"/>
+      <c r="G119" s="416"/>
       <c r="I119" s="143"/>
     </row>
     <row r="120" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A120" s="412"/>
-      <c r="B120" s="412"/>
-      <c r="C120" s="414"/>
+      <c r="A120" s="413"/>
+      <c r="B120" s="413"/>
+      <c r="C120" s="415"/>
       <c r="D120" s="135" t="s">
         <v>100</v>
       </c>
@@ -6078,11 +6078,11 @@
       <c r="I127" s="143"/>
     </row>
     <row r="128" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A128" s="407" t="s">
+      <c r="A128" s="421" t="s">
         <v>296</v>
       </c>
-      <c r="B128" s="408"/>
-      <c r="C128" s="409"/>
+      <c r="B128" s="422"/>
+      <c r="C128" s="423"/>
       <c r="D128" s="141"/>
       <c r="E128" s="141"/>
       <c r="F128" s="141">
@@ -6107,10 +6107,10 @@
     </row>
     <row r="130" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="181"/>
-      <c r="B130" s="410" t="s">
+      <c r="B130" s="424" t="s">
         <v>301</v>
       </c>
-      <c r="C130" s="410"/>
+      <c r="C130" s="424"/>
       <c r="D130" s="145"/>
       <c r="E130" s="145"/>
       <c r="F130" s="145"/>
@@ -6118,29 +6118,29 @@
       <c r="I130" s="143"/>
     </row>
     <row r="131" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A131" s="411" t="s">
+      <c r="A131" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="B131" s="411" t="s">
+      <c r="B131" s="412" t="s">
         <v>5</v>
       </c>
-      <c r="C131" s="413" t="s">
+      <c r="C131" s="414" t="s">
         <v>6</v>
       </c>
-      <c r="D131" s="415" t="s">
+      <c r="D131" s="416" t="s">
         <v>7</v>
       </c>
-      <c r="E131" s="415"/>
-      <c r="F131" s="415" t="s">
+      <c r="E131" s="416"/>
+      <c r="F131" s="416" t="s">
         <v>8</v>
       </c>
-      <c r="G131" s="415"/>
+      <c r="G131" s="416"/>
       <c r="I131" s="143"/>
     </row>
     <row r="132" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A132" s="412"/>
-      <c r="B132" s="412"/>
-      <c r="C132" s="414"/>
+      <c r="A132" s="413"/>
+      <c r="B132" s="413"/>
+      <c r="C132" s="415"/>
       <c r="D132" s="135" t="s">
         <v>100</v>
       </c>
@@ -6282,11 +6282,11 @@
       <c r="I139" s="143"/>
     </row>
     <row r="140" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A140" s="407" t="s">
+      <c r="A140" s="421" t="s">
         <v>296</v>
       </c>
-      <c r="B140" s="408"/>
-      <c r="C140" s="409"/>
+      <c r="B140" s="422"/>
+      <c r="C140" s="423"/>
       <c r="D140" s="141"/>
       <c r="E140" s="141"/>
       <c r="F140" s="141">
@@ -6311,10 +6311,10 @@
     </row>
     <row r="142" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="181"/>
-      <c r="B142" s="410" t="s">
+      <c r="B142" s="424" t="s">
         <v>300</v>
       </c>
-      <c r="C142" s="410"/>
+      <c r="C142" s="424"/>
       <c r="D142" s="145"/>
       <c r="E142" s="145"/>
       <c r="F142" s="145"/>
@@ -6322,29 +6322,29 @@
       <c r="I142" s="143"/>
     </row>
     <row r="143" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A143" s="411" t="s">
+      <c r="A143" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="B143" s="411" t="s">
+      <c r="B143" s="412" t="s">
         <v>5</v>
       </c>
-      <c r="C143" s="413" t="s">
+      <c r="C143" s="414" t="s">
         <v>6</v>
       </c>
-      <c r="D143" s="415" t="s">
+      <c r="D143" s="416" t="s">
         <v>7</v>
       </c>
-      <c r="E143" s="415"/>
-      <c r="F143" s="415" t="s">
+      <c r="E143" s="416"/>
+      <c r="F143" s="416" t="s">
         <v>8</v>
       </c>
-      <c r="G143" s="415"/>
+      <c r="G143" s="416"/>
       <c r="I143" s="143"/>
     </row>
     <row r="144" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A144" s="412"/>
-      <c r="B144" s="412"/>
-      <c r="C144" s="414"/>
+      <c r="A144" s="413"/>
+      <c r="B144" s="413"/>
+      <c r="C144" s="415"/>
       <c r="D144" s="135" t="s">
         <v>100</v>
       </c>
@@ -6432,11 +6432,11 @@
       <c r="I148" s="143"/>
     </row>
     <row r="149" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A149" s="407" t="s">
+      <c r="A149" s="421" t="s">
         <v>296</v>
       </c>
-      <c r="B149" s="408"/>
-      <c r="C149" s="409"/>
+      <c r="B149" s="422"/>
+      <c r="C149" s="423"/>
       <c r="D149" s="141"/>
       <c r="E149" s="141"/>
       <c r="F149" s="141"/>
@@ -6458,10 +6458,10 @@
     </row>
     <row r="151" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="181"/>
-      <c r="B151" s="410" t="s">
+      <c r="B151" s="424" t="s">
         <v>299</v>
       </c>
-      <c r="C151" s="410"/>
+      <c r="C151" s="424"/>
       <c r="D151" s="145"/>
       <c r="E151" s="145"/>
       <c r="F151" s="145"/>
@@ -6469,29 +6469,29 @@
       <c r="I151" s="143"/>
     </row>
     <row r="152" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A152" s="411" t="s">
+      <c r="A152" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="B152" s="411" t="s">
+      <c r="B152" s="412" t="s">
         <v>5</v>
       </c>
-      <c r="C152" s="413" t="s">
+      <c r="C152" s="414" t="s">
         <v>6</v>
       </c>
-      <c r="D152" s="415" t="s">
+      <c r="D152" s="416" t="s">
         <v>7</v>
       </c>
-      <c r="E152" s="415"/>
-      <c r="F152" s="415" t="s">
+      <c r="E152" s="416"/>
+      <c r="F152" s="416" t="s">
         <v>8</v>
       </c>
-      <c r="G152" s="415"/>
+      <c r="G152" s="416"/>
       <c r="I152" s="143"/>
     </row>
     <row r="153" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A153" s="412"/>
-      <c r="B153" s="412"/>
-      <c r="C153" s="414"/>
+      <c r="A153" s="413"/>
+      <c r="B153" s="413"/>
+      <c r="C153" s="415"/>
       <c r="D153" s="135" t="s">
         <v>100</v>
       </c>
@@ -6525,11 +6525,11 @@
       <c r="I154" s="143"/>
     </row>
     <row r="155" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A155" s="407" t="s">
+      <c r="A155" s="421" t="s">
         <v>296</v>
       </c>
-      <c r="B155" s="408"/>
-      <c r="C155" s="409"/>
+      <c r="B155" s="422"/>
+      <c r="C155" s="423"/>
       <c r="D155" s="141"/>
       <c r="E155" s="141"/>
       <c r="F155" s="141"/>
@@ -6551,10 +6551,10 @@
     </row>
     <row r="157" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="181"/>
-      <c r="B157" s="410" t="s">
+      <c r="B157" s="424" t="s">
         <v>298</v>
       </c>
-      <c r="C157" s="410"/>
+      <c r="C157" s="424"/>
       <c r="D157" s="145"/>
       <c r="E157" s="145"/>
       <c r="F157" s="145"/>
@@ -6562,29 +6562,29 @@
       <c r="I157" s="143"/>
     </row>
     <row r="158" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A158" s="411" t="s">
+      <c r="A158" s="412" t="s">
         <v>4</v>
       </c>
-      <c r="B158" s="411" t="s">
+      <c r="B158" s="412" t="s">
         <v>5</v>
       </c>
-      <c r="C158" s="413" t="s">
+      <c r="C158" s="414" t="s">
         <v>6</v>
       </c>
-      <c r="D158" s="415" t="s">
+      <c r="D158" s="416" t="s">
         <v>7</v>
       </c>
-      <c r="E158" s="415"/>
-      <c r="F158" s="415" t="s">
+      <c r="E158" s="416"/>
+      <c r="F158" s="416" t="s">
         <v>8</v>
       </c>
-      <c r="G158" s="415"/>
+      <c r="G158" s="416"/>
       <c r="I158" s="143"/>
     </row>
     <row r="159" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A159" s="412"/>
-      <c r="B159" s="412"/>
-      <c r="C159" s="414"/>
+      <c r="A159" s="413"/>
+      <c r="B159" s="413"/>
+      <c r="C159" s="415"/>
       <c r="D159" s="135" t="s">
         <v>100</v>
       </c>
@@ -6726,11 +6726,11 @@
       <c r="I166" s="143"/>
     </row>
     <row r="167" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A167" s="407" t="s">
+      <c r="A167" s="421" t="s">
         <v>296</v>
       </c>
-      <c r="B167" s="408"/>
-      <c r="C167" s="409"/>
+      <c r="B167" s="422"/>
+      <c r="C167" s="423"/>
       <c r="D167" s="141"/>
       <c r="E167" s="141"/>
       <c r="F167" s="141">
@@ -6794,59 +6794,6 @@
     <filterColumn colId="5" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="69">
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="F158:G158"/>
     <mergeCell ref="A149:C149"/>
     <mergeCell ref="A155:C155"/>
     <mergeCell ref="A167:C167"/>
@@ -6863,6 +6810,59 @@
     <mergeCell ref="A116:C116"/>
     <mergeCell ref="A128:C128"/>
     <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.21" top="0.46" bottom="0.45" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -6874,8 +6874,8 @@
   <dimension ref="A1:P128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N114" sqref="N114"/>
+      <pane ySplit="8" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -6899,13 +6899,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="364" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="451" t="s">
+      <c r="A1" s="442" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="451"/>
-      <c r="C1" s="451"/>
-      <c r="D1" s="451"/>
-      <c r="E1" s="451"/>
+      <c r="B1" s="442"/>
+      <c r="C1" s="442"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="442"/>
       <c r="H1" s="365"/>
       <c r="I1" s="365"/>
       <c r="J1" s="365"/>
@@ -6933,159 +6933,159 @@
       <c r="O2" s="365"/>
     </row>
     <row r="3" spans="1:16" s="364" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="452" t="s">
+      <c r="A3" s="443" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="452"/>
-      <c r="C3" s="452"/>
-      <c r="D3" s="452"/>
-      <c r="E3" s="452"/>
-      <c r="F3" s="452"/>
-      <c r="G3" s="452"/>
-      <c r="H3" s="452"/>
-      <c r="I3" s="452"/>
-      <c r="J3" s="452"/>
-      <c r="K3" s="452"/>
-      <c r="L3" s="452"/>
-      <c r="M3" s="452"/>
-      <c r="N3" s="452"/>
-      <c r="O3" s="452"/>
-      <c r="P3" s="452"/>
+      <c r="B3" s="443"/>
+      <c r="C3" s="443"/>
+      <c r="D3" s="443"/>
+      <c r="E3" s="443"/>
+      <c r="F3" s="443"/>
+      <c r="G3" s="443"/>
+      <c r="H3" s="443"/>
+      <c r="I3" s="443"/>
+      <c r="J3" s="443"/>
+      <c r="K3" s="443"/>
+      <c r="L3" s="443"/>
+      <c r="M3" s="443"/>
+      <c r="N3" s="443"/>
+      <c r="O3" s="443"/>
+      <c r="P3" s="443"/>
     </row>
     <row r="4" spans="1:16" s="364" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="452" t="s">
+      <c r="A4" s="443" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="452"/>
-      <c r="C4" s="452"/>
-      <c r="D4" s="452"/>
-      <c r="E4" s="452"/>
-      <c r="F4" s="452"/>
-      <c r="G4" s="452"/>
-      <c r="H4" s="452"/>
-      <c r="I4" s="452"/>
-      <c r="J4" s="452"/>
-      <c r="K4" s="452"/>
-      <c r="L4" s="452"/>
-      <c r="M4" s="452"/>
-      <c r="N4" s="452"/>
-      <c r="O4" s="452"/>
-      <c r="P4" s="452"/>
+      <c r="B4" s="443"/>
+      <c r="C4" s="443"/>
+      <c r="D4" s="443"/>
+      <c r="E4" s="443"/>
+      <c r="F4" s="443"/>
+      <c r="G4" s="443"/>
+      <c r="H4" s="443"/>
+      <c r="I4" s="443"/>
+      <c r="J4" s="443"/>
+      <c r="K4" s="443"/>
+      <c r="L4" s="443"/>
+      <c r="M4" s="443"/>
+      <c r="N4" s="443"/>
+      <c r="O4" s="443"/>
+      <c r="P4" s="443"/>
     </row>
     <row r="5" spans="1:16" s="364" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="452"/>
-      <c r="B5" s="452"/>
-      <c r="C5" s="452"/>
-      <c r="D5" s="452"/>
-      <c r="E5" s="452"/>
-      <c r="F5" s="452"/>
-      <c r="G5" s="452"/>
-      <c r="H5" s="452"/>
-      <c r="I5" s="452"/>
-      <c r="J5" s="452"/>
-      <c r="K5" s="453"/>
-      <c r="L5" s="453"/>
+      <c r="A5" s="443"/>
+      <c r="B5" s="443"/>
+      <c r="C5" s="443"/>
+      <c r="D5" s="443"/>
+      <c r="E5" s="443"/>
+      <c r="F5" s="443"/>
+      <c r="G5" s="443"/>
+      <c r="H5" s="443"/>
+      <c r="I5" s="443"/>
+      <c r="J5" s="443"/>
+      <c r="K5" s="444"/>
+      <c r="L5" s="444"/>
       <c r="M5" s="365"/>
       <c r="N5" s="365"/>
       <c r="O5" s="365"/>
     </row>
     <row r="6" spans="1:16" s="364" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="448" t="s">
+      <c r="A6" s="439" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="454" t="s">
+      <c r="B6" s="445" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="448" t="s">
+      <c r="C6" s="439" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="456" t="s">
+      <c r="D6" s="447" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="456"/>
-      <c r="F6" s="443" t="s">
+      <c r="E6" s="447"/>
+      <c r="F6" s="448" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="443"/>
-      <c r="H6" s="443"/>
-      <c r="I6" s="443"/>
-      <c r="J6" s="443"/>
-      <c r="K6" s="443"/>
-      <c r="L6" s="443"/>
-      <c r="M6" s="457"/>
-      <c r="N6" s="457"/>
-      <c r="O6" s="457"/>
-      <c r="P6" s="458" t="s">
+      <c r="G6" s="448"/>
+      <c r="H6" s="448"/>
+      <c r="I6" s="448"/>
+      <c r="J6" s="448"/>
+      <c r="K6" s="448"/>
+      <c r="L6" s="448"/>
+      <c r="M6" s="449"/>
+      <c r="N6" s="449"/>
+      <c r="O6" s="449"/>
+      <c r="P6" s="450" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="364" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="449"/>
-      <c r="B7" s="455"/>
-      <c r="C7" s="449"/>
-      <c r="D7" s="448" t="s">
+      <c r="A7" s="440"/>
+      <c r="B7" s="446"/>
+      <c r="C7" s="440"/>
+      <c r="D7" s="439" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="448" t="s">
+      <c r="E7" s="439" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="448" t="s">
+      <c r="F7" s="439" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="448" t="s">
+      <c r="G7" s="439" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="446" t="s">
+      <c r="H7" s="437" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="446" t="s">
+      <c r="I7" s="437" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="450" t="s">
+      <c r="J7" s="441" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="450"/>
-      <c r="L7" s="446" t="s">
+      <c r="K7" s="441"/>
+      <c r="L7" s="437" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="446" t="s">
+      <c r="M7" s="437" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="446" t="s">
+      <c r="N7" s="437" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="446" t="s">
+      <c r="O7" s="437" t="s">
         <v>55</v>
       </c>
-      <c r="P7" s="459"/>
+      <c r="P7" s="451"/>
     </row>
     <row r="8" spans="1:16" s="364" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="449"/>
-      <c r="B8" s="455"/>
-      <c r="C8" s="449"/>
-      <c r="D8" s="449"/>
-      <c r="E8" s="449"/>
-      <c r="F8" s="449"/>
-      <c r="G8" s="449"/>
-      <c r="H8" s="447"/>
-      <c r="I8" s="447"/>
+      <c r="A8" s="440"/>
+      <c r="B8" s="446"/>
+      <c r="C8" s="440"/>
+      <c r="D8" s="440"/>
+      <c r="E8" s="440"/>
+      <c r="F8" s="440"/>
+      <c r="G8" s="440"/>
+      <c r="H8" s="438"/>
+      <c r="I8" s="438"/>
       <c r="J8" s="369" t="s">
         <v>112</v>
       </c>
       <c r="K8" s="370" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="447"/>
-      <c r="M8" s="447"/>
-      <c r="N8" s="447"/>
-      <c r="O8" s="447"/>
-      <c r="P8" s="459"/>
+      <c r="L8" s="438"/>
+      <c r="M8" s="438"/>
+      <c r="N8" s="438"/>
+      <c r="O8" s="438"/>
+      <c r="P8" s="451"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="425">
         <v>461</v>
       </c>
-      <c r="B9" s="427">
+      <c r="B9" s="452">
         <v>43951</v>
       </c>
       <c r="C9" s="425" t="s">
@@ -7129,11 +7129,11 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="429"/>
-      <c r="B10" s="430"/>
-      <c r="C10" s="429"/>
-      <c r="D10" s="429"/>
-      <c r="E10" s="429"/>
+      <c r="A10" s="432"/>
+      <c r="B10" s="453"/>
+      <c r="C10" s="432"/>
+      <c r="D10" s="432"/>
+      <c r="E10" s="432"/>
       <c r="F10" s="371" t="s">
         <v>37</v>
       </c>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="426"/>
-      <c r="B11" s="428"/>
+      <c r="B11" s="454"/>
       <c r="C11" s="426"/>
       <c r="D11" s="426"/>
       <c r="E11" s="426"/>
@@ -7298,16 +7298,16 @@
       <c r="A14" s="425">
         <v>464</v>
       </c>
-      <c r="B14" s="427">
+      <c r="B14" s="452">
         <v>43955</v>
       </c>
       <c r="C14" s="425" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="438" t="s">
+      <c r="D14" s="434" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="438" t="s">
+      <c r="E14" s="434" t="s">
         <v>120</v>
       </c>
       <c r="F14" s="371" t="s">
@@ -7340,11 +7340,11 @@
       <c r="P14" s="379"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="429"/>
-      <c r="B15" s="430"/>
-      <c r="C15" s="429"/>
-      <c r="D15" s="445"/>
-      <c r="E15" s="445"/>
+      <c r="A15" s="432"/>
+      <c r="B15" s="453"/>
+      <c r="C15" s="432"/>
+      <c r="D15" s="435"/>
+      <c r="E15" s="435"/>
       <c r="F15" s="371" t="s">
         <v>37</v>
       </c>
@@ -7375,11 +7375,11 @@
       <c r="P15" s="379"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="429"/>
-      <c r="B16" s="430"/>
-      <c r="C16" s="429"/>
-      <c r="D16" s="445"/>
-      <c r="E16" s="445"/>
+      <c r="A16" s="432"/>
+      <c r="B16" s="453"/>
+      <c r="C16" s="432"/>
+      <c r="D16" s="435"/>
+      <c r="E16" s="435"/>
       <c r="F16" s="371" t="s">
         <v>40</v>
       </c>
@@ -7410,11 +7410,11 @@
       <c r="P16" s="379"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="429"/>
-      <c r="B17" s="430"/>
-      <c r="C17" s="429"/>
-      <c r="D17" s="445"/>
-      <c r="E17" s="445"/>
+      <c r="A17" s="432"/>
+      <c r="B17" s="453"/>
+      <c r="C17" s="432"/>
+      <c r="D17" s="435"/>
+      <c r="E17" s="435"/>
       <c r="F17" s="371" t="s">
         <v>42</v>
       </c>
@@ -7445,11 +7445,11 @@
       <c r="P17" s="379"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="429"/>
-      <c r="B18" s="430"/>
-      <c r="C18" s="429"/>
-      <c r="D18" s="445"/>
-      <c r="E18" s="445"/>
+      <c r="A18" s="432"/>
+      <c r="B18" s="453"/>
+      <c r="C18" s="432"/>
+      <c r="D18" s="435"/>
+      <c r="E18" s="435"/>
       <c r="F18" s="371" t="s">
         <v>41</v>
       </c>
@@ -7480,11 +7480,11 @@
       <c r="P18" s="379"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="429"/>
-      <c r="B19" s="430"/>
-      <c r="C19" s="429"/>
-      <c r="D19" s="445"/>
-      <c r="E19" s="445"/>
+      <c r="A19" s="432"/>
+      <c r="B19" s="453"/>
+      <c r="C19" s="432"/>
+      <c r="D19" s="435"/>
+      <c r="E19" s="435"/>
       <c r="F19" s="371" t="s">
         <v>38</v>
       </c>
@@ -7515,11 +7515,11 @@
       <c r="P19" s="379"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="429"/>
-      <c r="B20" s="430"/>
-      <c r="C20" s="429"/>
-      <c r="D20" s="445"/>
-      <c r="E20" s="445"/>
+      <c r="A20" s="432"/>
+      <c r="B20" s="453"/>
+      <c r="C20" s="432"/>
+      <c r="D20" s="435"/>
+      <c r="E20" s="435"/>
       <c r="F20" s="371" t="s">
         <v>39</v>
       </c>
@@ -7551,10 +7551,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="426"/>
-      <c r="B21" s="428"/>
+      <c r="B21" s="454"/>
       <c r="C21" s="426"/>
-      <c r="D21" s="439"/>
-      <c r="E21" s="439"/>
+      <c r="D21" s="436"/>
+      <c r="E21" s="436"/>
       <c r="F21" s="371" t="s">
         <v>67</v>
       </c>
@@ -7588,7 +7588,7 @@
       <c r="A22" s="425">
         <v>466</v>
       </c>
-      <c r="B22" s="427">
+      <c r="B22" s="452">
         <v>43955</v>
       </c>
       <c r="C22" s="425" t="s">
@@ -7613,17 +7613,17 @@
         <f t="shared" si="0"/>
         <v>455000</v>
       </c>
-      <c r="J22" s="432">
+      <c r="J22" s="457">
         <v>395000</v>
       </c>
       <c r="K22" s="373">
         <v>0</v>
       </c>
-      <c r="L22" s="435">
+      <c r="L22" s="429">
         <f>I22+I23+I24-J22</f>
         <v>1000000</v>
       </c>
-      <c r="M22" s="435">
+      <c r="M22" s="429">
         <f>L22</f>
         <v>1000000</v>
       </c>
@@ -7632,11 +7632,11 @@
       <c r="P22" s="379"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="429"/>
-      <c r="B23" s="430"/>
-      <c r="C23" s="429"/>
-      <c r="D23" s="429"/>
-      <c r="E23" s="429"/>
+      <c r="A23" s="432"/>
+      <c r="B23" s="453"/>
+      <c r="C23" s="432"/>
+      <c r="D23" s="432"/>
+      <c r="E23" s="432"/>
       <c r="F23" s="371" t="s">
         <v>37</v>
       </c>
@@ -7650,19 +7650,19 @@
         <f t="shared" si="0"/>
         <v>465000</v>
       </c>
-      <c r="J23" s="433"/>
+      <c r="J23" s="458"/>
       <c r="K23" s="373">
         <v>0</v>
       </c>
-      <c r="L23" s="436"/>
-      <c r="M23" s="436"/>
+      <c r="L23" s="430"/>
+      <c r="M23" s="430"/>
       <c r="N23" s="372"/>
       <c r="O23" s="372"/>
       <c r="P23" s="371"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="426"/>
-      <c r="B24" s="428"/>
+      <c r="B24" s="454"/>
       <c r="C24" s="426"/>
       <c r="D24" s="426"/>
       <c r="E24" s="426"/>
@@ -7679,12 +7679,12 @@
         <f t="shared" si="0"/>
         <v>475000</v>
       </c>
-      <c r="J24" s="434"/>
+      <c r="J24" s="459"/>
       <c r="K24" s="373">
         <v>0</v>
       </c>
-      <c r="L24" s="437"/>
-      <c r="M24" s="437"/>
+      <c r="L24" s="431"/>
+      <c r="M24" s="431"/>
       <c r="N24" s="372"/>
       <c r="O24" s="372"/>
       <c r="P24" s="371"/>
@@ -7693,7 +7693,7 @@
       <c r="A25" s="425">
         <v>468</v>
       </c>
-      <c r="B25" s="427">
+      <c r="B25" s="452">
         <v>43956</v>
       </c>
       <c r="C25" s="425" t="s">
@@ -7702,7 +7702,7 @@
       <c r="D25" s="425" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="438" t="s">
+      <c r="E25" s="434" t="s">
         <v>114</v>
       </c>
       <c r="F25" s="371" t="s">
@@ -7718,7 +7718,7 @@
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="J25" s="432">
+      <c r="J25" s="457">
         <v>200000</v>
       </c>
       <c r="K25" s="373">
@@ -7737,11 +7737,11 @@
       <c r="P25" s="371"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="429"/>
-      <c r="B26" s="430"/>
-      <c r="C26" s="429"/>
-      <c r="D26" s="429"/>
-      <c r="E26" s="445"/>
+      <c r="A26" s="432"/>
+      <c r="B26" s="453"/>
+      <c r="C26" s="432"/>
+      <c r="D26" s="432"/>
+      <c r="E26" s="435"/>
       <c r="F26" s="371" t="s">
         <v>42</v>
       </c>
@@ -7755,7 +7755,7 @@
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-      <c r="J26" s="433"/>
+      <c r="J26" s="458"/>
       <c r="K26" s="373">
         <v>0.41</v>
       </c>
@@ -7773,10 +7773,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="426"/>
-      <c r="B27" s="428"/>
+      <c r="B27" s="454"/>
       <c r="C27" s="426"/>
       <c r="D27" s="426"/>
-      <c r="E27" s="439"/>
+      <c r="E27" s="436"/>
       <c r="F27" s="371" t="s">
         <v>41</v>
       </c>
@@ -7790,7 +7790,7 @@
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-      <c r="J27" s="434"/>
+      <c r="J27" s="459"/>
       <c r="K27" s="373">
         <v>0.41</v>
       </c>
@@ -7904,7 +7904,7 @@
       <c r="A30" s="425">
         <v>1150</v>
       </c>
-      <c r="B30" s="440" t="s">
+      <c r="B30" s="427" t="s">
         <v>138</v>
       </c>
       <c r="C30" s="425" t="s">
@@ -7913,7 +7913,7 @@
       <c r="D30" s="425" t="s">
         <v>127</v>
       </c>
-      <c r="E30" s="438" t="s">
+      <c r="E30" s="434" t="s">
         <v>132</v>
       </c>
       <c r="F30" s="371" t="s">
@@ -7947,10 +7947,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="426"/>
-      <c r="B31" s="428"/>
+      <c r="B31" s="454"/>
       <c r="C31" s="426"/>
       <c r="D31" s="426"/>
-      <c r="E31" s="439"/>
+      <c r="E31" s="436"/>
       <c r="F31" s="371" t="s">
         <v>67</v>
       </c>
@@ -7984,13 +7984,13 @@
       <c r="A32" s="425">
         <v>501</v>
       </c>
-      <c r="B32" s="427">
+      <c r="B32" s="452">
         <v>43956</v>
       </c>
       <c r="C32" s="425" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="438" t="s">
+      <c r="D32" s="434" t="s">
         <v>133</v>
       </c>
       <c r="E32" s="425" t="s">
@@ -8024,11 +8024,11 @@
       <c r="P32" s="371"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="429"/>
-      <c r="B33" s="430"/>
-      <c r="C33" s="429"/>
-      <c r="D33" s="445"/>
-      <c r="E33" s="429"/>
+      <c r="A33" s="432"/>
+      <c r="B33" s="453"/>
+      <c r="C33" s="432"/>
+      <c r="D33" s="435"/>
+      <c r="E33" s="432"/>
       <c r="F33" s="371" t="s">
         <v>36</v>
       </c>
@@ -8057,11 +8057,11 @@
       <c r="P33" s="371"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="429"/>
-      <c r="B34" s="430"/>
-      <c r="C34" s="429"/>
-      <c r="D34" s="445"/>
-      <c r="E34" s="429"/>
+      <c r="A34" s="432"/>
+      <c r="B34" s="453"/>
+      <c r="C34" s="432"/>
+      <c r="D34" s="435"/>
+      <c r="E34" s="432"/>
       <c r="F34" s="371" t="s">
         <v>37</v>
       </c>
@@ -8090,11 +8090,11 @@
       <c r="P34" s="371"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="429"/>
-      <c r="B35" s="430"/>
-      <c r="C35" s="429"/>
-      <c r="D35" s="445"/>
-      <c r="E35" s="429"/>
+      <c r="A35" s="432"/>
+      <c r="B35" s="453"/>
+      <c r="C35" s="432"/>
+      <c r="D35" s="435"/>
+      <c r="E35" s="432"/>
       <c r="F35" s="371" t="s">
         <v>40</v>
       </c>
@@ -8123,11 +8123,11 @@
       <c r="P35" s="371"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="429"/>
-      <c r="B36" s="430"/>
-      <c r="C36" s="429"/>
-      <c r="D36" s="445"/>
-      <c r="E36" s="429"/>
+      <c r="A36" s="432"/>
+      <c r="B36" s="453"/>
+      <c r="C36" s="432"/>
+      <c r="D36" s="435"/>
+      <c r="E36" s="432"/>
       <c r="F36" s="371" t="s">
         <v>42</v>
       </c>
@@ -8156,11 +8156,11 @@
       <c r="P36" s="371"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="429"/>
-      <c r="B37" s="430"/>
-      <c r="C37" s="429"/>
-      <c r="D37" s="445"/>
-      <c r="E37" s="429"/>
+      <c r="A37" s="432"/>
+      <c r="B37" s="453"/>
+      <c r="C37" s="432"/>
+      <c r="D37" s="435"/>
+      <c r="E37" s="432"/>
       <c r="F37" s="371" t="s">
         <v>41</v>
       </c>
@@ -8189,11 +8189,11 @@
       <c r="P37" s="371"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="429"/>
-      <c r="B38" s="430"/>
-      <c r="C38" s="429"/>
-      <c r="D38" s="445"/>
-      <c r="E38" s="429"/>
+      <c r="A38" s="432"/>
+      <c r="B38" s="453"/>
+      <c r="C38" s="432"/>
+      <c r="D38" s="435"/>
+      <c r="E38" s="432"/>
       <c r="F38" s="371" t="s">
         <v>38</v>
       </c>
@@ -8222,11 +8222,11 @@
       <c r="P38" s="371"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="429"/>
-      <c r="B39" s="430"/>
-      <c r="C39" s="429"/>
-      <c r="D39" s="445"/>
-      <c r="E39" s="429"/>
+      <c r="A39" s="432"/>
+      <c r="B39" s="453"/>
+      <c r="C39" s="432"/>
+      <c r="D39" s="435"/>
+      <c r="E39" s="432"/>
       <c r="F39" s="371" t="s">
         <v>39</v>
       </c>
@@ -8256,9 +8256,9 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="426"/>
-      <c r="B40" s="428"/>
+      <c r="B40" s="454"/>
       <c r="C40" s="426"/>
-      <c r="D40" s="439"/>
+      <c r="D40" s="436"/>
       <c r="E40" s="426"/>
       <c r="F40" s="371" t="s">
         <v>67</v>
@@ -8291,13 +8291,13 @@
       <c r="A41" s="425">
         <v>502</v>
       </c>
-      <c r="B41" s="427">
+      <c r="B41" s="452">
         <v>43956</v>
       </c>
       <c r="C41" s="425" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="438" t="s">
+      <c r="D41" s="434" t="s">
         <v>135</v>
       </c>
       <c r="E41" s="425"/>
@@ -8331,11 +8331,11 @@
       <c r="P41" s="371"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="429"/>
-      <c r="B42" s="430"/>
-      <c r="C42" s="429"/>
-      <c r="D42" s="445"/>
-      <c r="E42" s="429"/>
+      <c r="A42" s="432"/>
+      <c r="B42" s="453"/>
+      <c r="C42" s="432"/>
+      <c r="D42" s="435"/>
+      <c r="E42" s="432"/>
       <c r="F42" s="371" t="s">
         <v>37</v>
       </c>
@@ -8366,11 +8366,11 @@
       <c r="P42" s="371"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="429"/>
-      <c r="B43" s="430"/>
-      <c r="C43" s="429"/>
-      <c r="D43" s="445"/>
-      <c r="E43" s="429"/>
+      <c r="A43" s="432"/>
+      <c r="B43" s="453"/>
+      <c r="C43" s="432"/>
+      <c r="D43" s="435"/>
+      <c r="E43" s="432"/>
       <c r="F43" s="371" t="s">
         <v>40</v>
       </c>
@@ -8401,11 +8401,11 @@
       <c r="P43" s="371"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="429"/>
-      <c r="B44" s="430"/>
-      <c r="C44" s="429"/>
-      <c r="D44" s="445"/>
-      <c r="E44" s="429"/>
+      <c r="A44" s="432"/>
+      <c r="B44" s="453"/>
+      <c r="C44" s="432"/>
+      <c r="D44" s="435"/>
+      <c r="E44" s="432"/>
       <c r="F44" s="371" t="s">
         <v>42</v>
       </c>
@@ -8436,11 +8436,11 @@
       <c r="P44" s="371"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="429"/>
-      <c r="B45" s="430"/>
-      <c r="C45" s="429"/>
-      <c r="D45" s="445"/>
-      <c r="E45" s="429"/>
+      <c r="A45" s="432"/>
+      <c r="B45" s="453"/>
+      <c r="C45" s="432"/>
+      <c r="D45" s="435"/>
+      <c r="E45" s="432"/>
       <c r="F45" s="371" t="s">
         <v>41</v>
       </c>
@@ -8472,9 +8472,9 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="426"/>
-      <c r="B46" s="428"/>
+      <c r="B46" s="454"/>
       <c r="C46" s="426"/>
-      <c r="D46" s="439"/>
+      <c r="D46" s="436"/>
       <c r="E46" s="426"/>
       <c r="F46" s="371" t="s">
         <v>38</v>
@@ -8556,13 +8556,13 @@
       <c r="A48" s="425">
         <v>505</v>
       </c>
-      <c r="B48" s="440" t="s">
+      <c r="B48" s="427" t="s">
         <v>138</v>
       </c>
       <c r="C48" s="425" t="s">
         <v>105</v>
       </c>
-      <c r="D48" s="438" t="s">
+      <c r="D48" s="434" t="s">
         <v>136</v>
       </c>
       <c r="E48" s="425" t="s">
@@ -8596,11 +8596,11 @@
       <c r="P48" s="371"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="429"/>
-      <c r="B49" s="430"/>
-      <c r="C49" s="429"/>
-      <c r="D49" s="445"/>
-      <c r="E49" s="429"/>
+      <c r="A49" s="432"/>
+      <c r="B49" s="453"/>
+      <c r="C49" s="432"/>
+      <c r="D49" s="435"/>
+      <c r="E49" s="432"/>
       <c r="F49" s="371" t="s">
         <v>37</v>
       </c>
@@ -8629,11 +8629,11 @@
       <c r="P49" s="371"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="429"/>
-      <c r="B50" s="430"/>
-      <c r="C50" s="429"/>
-      <c r="D50" s="445"/>
-      <c r="E50" s="429"/>
+      <c r="A50" s="432"/>
+      <c r="B50" s="453"/>
+      <c r="C50" s="432"/>
+      <c r="D50" s="435"/>
+      <c r="E50" s="432"/>
       <c r="F50" s="371" t="s">
         <v>40</v>
       </c>
@@ -8662,11 +8662,11 @@
       <c r="P50" s="371"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="429"/>
-      <c r="B51" s="430"/>
-      <c r="C51" s="429"/>
-      <c r="D51" s="445"/>
-      <c r="E51" s="429"/>
+      <c r="A51" s="432"/>
+      <c r="B51" s="453"/>
+      <c r="C51" s="432"/>
+      <c r="D51" s="435"/>
+      <c r="E51" s="432"/>
       <c r="F51" s="371" t="s">
         <v>42</v>
       </c>
@@ -8695,11 +8695,11 @@
       <c r="P51" s="371"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="429"/>
-      <c r="B52" s="430"/>
-      <c r="C52" s="429"/>
-      <c r="D52" s="445"/>
-      <c r="E52" s="429"/>
+      <c r="A52" s="432"/>
+      <c r="B52" s="453"/>
+      <c r="C52" s="432"/>
+      <c r="D52" s="435"/>
+      <c r="E52" s="432"/>
       <c r="F52" s="371" t="s">
         <v>38</v>
       </c>
@@ -8728,11 +8728,11 @@
       <c r="P52" s="371"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="429"/>
-      <c r="B53" s="430"/>
-      <c r="C53" s="429"/>
-      <c r="D53" s="445"/>
-      <c r="E53" s="429"/>
+      <c r="A53" s="432"/>
+      <c r="B53" s="453"/>
+      <c r="C53" s="432"/>
+      <c r="D53" s="435"/>
+      <c r="E53" s="432"/>
       <c r="F53" s="371" t="s">
         <v>39</v>
       </c>
@@ -8762,9 +8762,9 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="426"/>
-      <c r="B54" s="428"/>
+      <c r="B54" s="454"/>
       <c r="C54" s="426"/>
-      <c r="D54" s="439"/>
+      <c r="D54" s="436"/>
       <c r="E54" s="426"/>
       <c r="F54" s="371" t="s">
         <v>67</v>
@@ -8797,13 +8797,13 @@
       <c r="A55" s="425">
         <v>513</v>
       </c>
-      <c r="B55" s="427">
+      <c r="B55" s="452">
         <v>43987</v>
       </c>
       <c r="C55" s="425" t="s">
         <v>105</v>
       </c>
-      <c r="D55" s="438" t="s">
+      <c r="D55" s="434" t="s">
         <v>143</v>
       </c>
       <c r="E55" s="425" t="s">
@@ -8840,9 +8840,9 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="426"/>
-      <c r="B56" s="428"/>
+      <c r="B56" s="454"/>
       <c r="C56" s="426"/>
-      <c r="D56" s="439"/>
+      <c r="D56" s="436"/>
       <c r="E56" s="426"/>
       <c r="F56" s="371" t="s">
         <v>38</v>
@@ -8969,7 +8969,7 @@
       <c r="A59" s="425">
         <v>472</v>
       </c>
-      <c r="B59" s="427">
+      <c r="B59" s="452">
         <v>43960</v>
       </c>
       <c r="C59" s="425" t="s">
@@ -9006,11 +9006,11 @@
       <c r="P59" s="371"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="429"/>
-      <c r="B60" s="430"/>
-      <c r="C60" s="429"/>
-      <c r="D60" s="429"/>
-      <c r="E60" s="429"/>
+      <c r="A60" s="432"/>
+      <c r="B60" s="453"/>
+      <c r="C60" s="432"/>
+      <c r="D60" s="432"/>
+      <c r="E60" s="432"/>
       <c r="F60" s="371" t="s">
         <v>42</v>
       </c>
@@ -9039,7 +9039,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="426"/>
-      <c r="B61" s="428"/>
+      <c r="B61" s="454"/>
       <c r="C61" s="426"/>
       <c r="D61" s="426"/>
       <c r="E61" s="426"/>
@@ -9073,13 +9073,13 @@
       <c r="A62" s="425">
         <v>473</v>
       </c>
-      <c r="B62" s="427">
+      <c r="B62" s="452">
         <v>43960</v>
       </c>
       <c r="C62" s="425" t="s">
         <v>105</v>
       </c>
-      <c r="D62" s="438" t="s">
+      <c r="D62" s="434" t="s">
         <v>124</v>
       </c>
       <c r="E62" s="425" t="s">
@@ -9116,9 +9116,9 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="426"/>
-      <c r="B63" s="428"/>
+      <c r="B63" s="454"/>
       <c r="C63" s="426"/>
-      <c r="D63" s="439"/>
+      <c r="D63" s="436"/>
       <c r="E63" s="426"/>
       <c r="F63" s="371" t="s">
         <v>36</v>
@@ -9200,7 +9200,7 @@
       <c r="A65" s="425">
         <v>508</v>
       </c>
-      <c r="B65" s="440" t="s">
+      <c r="B65" s="427" t="s">
         <v>137</v>
       </c>
       <c r="C65" s="425" t="s">
@@ -9245,7 +9245,7 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="426"/>
-      <c r="B66" s="442"/>
+      <c r="B66" s="428"/>
       <c r="C66" s="426"/>
       <c r="D66" s="426"/>
       <c r="E66" s="426"/>
@@ -9376,13 +9376,13 @@
       <c r="A69" s="425">
         <v>521</v>
       </c>
-      <c r="B69" s="440">
+      <c r="B69" s="427">
         <v>43961</v>
       </c>
       <c r="C69" s="425" t="s">
         <v>105</v>
       </c>
-      <c r="D69" s="438" t="s">
+      <c r="D69" s="434" t="s">
         <v>159</v>
       </c>
       <c r="E69" s="425" t="s">
@@ -9418,11 +9418,11 @@
       <c r="P69" s="371"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="429"/>
-      <c r="B70" s="441"/>
-      <c r="C70" s="429"/>
-      <c r="D70" s="445"/>
-      <c r="E70" s="429"/>
+      <c r="A70" s="432"/>
+      <c r="B70" s="433"/>
+      <c r="C70" s="432"/>
+      <c r="D70" s="435"/>
+      <c r="E70" s="432"/>
       <c r="F70" s="371" t="s">
         <v>37</v>
       </c>
@@ -9453,11 +9453,11 @@
       <c r="P70" s="371"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="429"/>
-      <c r="B71" s="441"/>
-      <c r="C71" s="429"/>
-      <c r="D71" s="445"/>
-      <c r="E71" s="429"/>
+      <c r="A71" s="432"/>
+      <c r="B71" s="433"/>
+      <c r="C71" s="432"/>
+      <c r="D71" s="435"/>
+      <c r="E71" s="432"/>
       <c r="F71" s="371" t="s">
         <v>40</v>
       </c>
@@ -9488,11 +9488,11 @@
       <c r="P71" s="371"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="429"/>
-      <c r="B72" s="441"/>
-      <c r="C72" s="429"/>
-      <c r="D72" s="445"/>
-      <c r="E72" s="429"/>
+      <c r="A72" s="432"/>
+      <c r="B72" s="433"/>
+      <c r="C72" s="432"/>
+      <c r="D72" s="435"/>
+      <c r="E72" s="432"/>
       <c r="F72" s="371" t="s">
         <v>42</v>
       </c>
@@ -9523,11 +9523,11 @@
       <c r="P72" s="371"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="429"/>
-      <c r="B73" s="441"/>
-      <c r="C73" s="429"/>
-      <c r="D73" s="445"/>
-      <c r="E73" s="429"/>
+      <c r="A73" s="432"/>
+      <c r="B73" s="433"/>
+      <c r="C73" s="432"/>
+      <c r="D73" s="435"/>
+      <c r="E73" s="432"/>
       <c r="F73" s="371" t="s">
         <v>41</v>
       </c>
@@ -9559,9 +9559,9 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="426"/>
-      <c r="B74" s="442"/>
+      <c r="B74" s="428"/>
       <c r="C74" s="426"/>
-      <c r="D74" s="439"/>
+      <c r="D74" s="436"/>
       <c r="E74" s="426"/>
       <c r="F74" s="371" t="s">
         <v>38</v>
@@ -9596,7 +9596,7 @@
       <c r="A75" s="425">
         <v>515</v>
       </c>
-      <c r="B75" s="440">
+      <c r="B75" s="427">
         <v>43962</v>
       </c>
       <c r="C75" s="425" t="s">
@@ -9637,7 +9637,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="426"/>
-      <c r="B76" s="442"/>
+      <c r="B76" s="428"/>
       <c r="C76" s="426"/>
       <c r="D76" s="426"/>
       <c r="E76" s="371"/>
@@ -9766,7 +9766,7 @@
       <c r="A79" s="425">
         <v>525</v>
       </c>
-      <c r="B79" s="440">
+      <c r="B79" s="427">
         <v>43965</v>
       </c>
       <c r="C79" s="425" t="s">
@@ -9811,7 +9811,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="426"/>
-      <c r="B80" s="442"/>
+      <c r="B80" s="428"/>
       <c r="C80" s="426"/>
       <c r="D80" s="426"/>
       <c r="E80" s="426"/>
@@ -9850,7 +9850,7 @@
       <c r="A81" s="425">
         <v>526</v>
       </c>
-      <c r="B81" s="440">
+      <c r="B81" s="427">
         <v>43965</v>
       </c>
       <c r="C81" s="425" t="s">
@@ -9892,11 +9892,11 @@
       <c r="P81" s="371"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="429"/>
-      <c r="B82" s="441"/>
-      <c r="C82" s="429"/>
-      <c r="D82" s="429"/>
-      <c r="E82" s="429"/>
+      <c r="A82" s="432"/>
+      <c r="B82" s="433"/>
+      <c r="C82" s="432"/>
+      <c r="D82" s="432"/>
+      <c r="E82" s="432"/>
       <c r="F82" s="371" t="s">
         <v>41</v>
       </c>
@@ -9927,11 +9927,11 @@
       <c r="P82" s="371"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="429"/>
-      <c r="B83" s="441"/>
-      <c r="C83" s="429"/>
-      <c r="D83" s="429"/>
-      <c r="E83" s="429"/>
+      <c r="A83" s="432"/>
+      <c r="B83" s="433"/>
+      <c r="C83" s="432"/>
+      <c r="D83" s="432"/>
+      <c r="E83" s="432"/>
       <c r="F83" s="371" t="s">
         <v>39</v>
       </c>
@@ -9963,7 +9963,7 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="426"/>
-      <c r="B84" s="442"/>
+      <c r="B84" s="428"/>
       <c r="C84" s="426"/>
       <c r="D84" s="426"/>
       <c r="E84" s="426"/>
@@ -10000,7 +10000,7 @@
       <c r="A85" s="425">
         <v>527</v>
       </c>
-      <c r="B85" s="440">
+      <c r="B85" s="427">
         <v>43967</v>
       </c>
       <c r="C85" s="425" t="s">
@@ -10025,7 +10025,7 @@
         <f t="shared" si="12"/>
         <v>4550000</v>
       </c>
-      <c r="J85" s="435">
+      <c r="J85" s="429">
         <v>150000</v>
       </c>
       <c r="K85" s="373">
@@ -10044,11 +10044,11 @@
       <c r="P85" s="371"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="429"/>
-      <c r="B86" s="441"/>
-      <c r="C86" s="429"/>
-      <c r="D86" s="429"/>
-      <c r="E86" s="429"/>
+      <c r="A86" s="432"/>
+      <c r="B86" s="433"/>
+      <c r="C86" s="432"/>
+      <c r="D86" s="432"/>
+      <c r="E86" s="432"/>
       <c r="F86" s="371" t="s">
         <v>37</v>
       </c>
@@ -10062,7 +10062,7 @@
         <f t="shared" si="12"/>
         <v>7440000</v>
       </c>
-      <c r="J86" s="436"/>
+      <c r="J86" s="430"/>
       <c r="K86" s="373">
         <v>0.41</v>
       </c>
@@ -10080,7 +10080,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="426"/>
-      <c r="B87" s="442"/>
+      <c r="B87" s="428"/>
       <c r="C87" s="426"/>
       <c r="D87" s="426"/>
       <c r="E87" s="426"/>
@@ -10097,7 +10097,7 @@
         <f t="shared" si="12"/>
         <v>3300000</v>
       </c>
-      <c r="J87" s="437"/>
+      <c r="J87" s="431"/>
       <c r="K87" s="373">
         <v>0.41</v>
       </c>
@@ -10143,16 +10143,18 @@
         <v>5820000</v>
       </c>
       <c r="J88" s="372"/>
-      <c r="K88" s="373"/>
+      <c r="K88" s="373">
+        <v>0.41</v>
+      </c>
       <c r="L88" s="372">
         <f t="shared" si="13"/>
-        <v>5820000</v>
+        <v>3433800.0000000005</v>
       </c>
       <c r="M88" s="372"/>
       <c r="N88" s="372"/>
       <c r="O88" s="372">
         <f>L88</f>
-        <v>5820000</v>
+        <v>3433800.0000000005</v>
       </c>
       <c r="P88" s="371"/>
     </row>
@@ -10160,16 +10162,16 @@
       <c r="A89" s="425">
         <v>530</v>
       </c>
-      <c r="B89" s="440">
+      <c r="B89" s="427">
         <v>43968</v>
       </c>
       <c r="C89" s="425" t="s">
         <v>105</v>
       </c>
-      <c r="D89" s="438" t="s">
+      <c r="D89" s="434" t="s">
         <v>113</v>
       </c>
-      <c r="E89" s="438" t="s">
+      <c r="E89" s="434" t="s">
         <v>114</v>
       </c>
       <c r="F89" s="371" t="s">
@@ -10185,7 +10187,7 @@
         <f t="shared" si="12"/>
         <v>16380000</v>
       </c>
-      <c r="J89" s="435">
+      <c r="J89" s="429">
         <v>350000</v>
       </c>
       <c r="K89" s="373">
@@ -10204,11 +10206,11 @@
       <c r="P89" s="371"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="429"/>
-      <c r="B90" s="441"/>
-      <c r="C90" s="429"/>
-      <c r="D90" s="445"/>
-      <c r="E90" s="445"/>
+      <c r="A90" s="432"/>
+      <c r="B90" s="433"/>
+      <c r="C90" s="432"/>
+      <c r="D90" s="435"/>
+      <c r="E90" s="435"/>
       <c r="F90" s="371" t="s">
         <v>37</v>
       </c>
@@ -10222,7 +10224,7 @@
         <f t="shared" si="12"/>
         <v>11160000</v>
       </c>
-      <c r="J90" s="436"/>
+      <c r="J90" s="430"/>
       <c r="K90" s="373">
         <v>0.41</v>
       </c>
@@ -10239,11 +10241,11 @@
       <c r="P90" s="371"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="429"/>
-      <c r="B91" s="441"/>
-      <c r="C91" s="429"/>
-      <c r="D91" s="445"/>
-      <c r="E91" s="445"/>
+      <c r="A91" s="432"/>
+      <c r="B91" s="433"/>
+      <c r="C91" s="432"/>
+      <c r="D91" s="435"/>
+      <c r="E91" s="435"/>
       <c r="F91" s="371" t="s">
         <v>42</v>
       </c>
@@ -10257,7 +10259,7 @@
         <f t="shared" si="12"/>
         <v>5820000</v>
       </c>
-      <c r="J91" s="436"/>
+      <c r="J91" s="430"/>
       <c r="K91" s="373">
         <v>0.41</v>
       </c>
@@ -10275,10 +10277,10 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="426"/>
-      <c r="B92" s="442"/>
+      <c r="B92" s="428"/>
       <c r="C92" s="426"/>
-      <c r="D92" s="439"/>
-      <c r="E92" s="439"/>
+      <c r="D92" s="436"/>
+      <c r="E92" s="436"/>
       <c r="F92" s="371" t="s">
         <v>41</v>
       </c>
@@ -10292,7 +10294,7 @@
         <f t="shared" si="12"/>
         <v>5820000</v>
       </c>
-      <c r="J92" s="437"/>
+      <c r="J92" s="431"/>
       <c r="K92" s="373">
         <v>0.41</v>
       </c>
@@ -10359,7 +10361,7 @@
       <c r="A94" s="425">
         <v>532</v>
       </c>
-      <c r="B94" s="440">
+      <c r="B94" s="427">
         <v>43969</v>
       </c>
       <c r="C94" s="425" t="s">
@@ -10404,7 +10406,7 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="426"/>
-      <c r="B95" s="442"/>
+      <c r="B95" s="428"/>
       <c r="C95" s="426"/>
       <c r="D95" s="426"/>
       <c r="E95" s="426"/>
@@ -10443,7 +10445,7 @@
       <c r="A96" s="425">
         <v>533</v>
       </c>
-      <c r="B96" s="440">
+      <c r="B96" s="427">
         <v>43969</v>
       </c>
       <c r="C96" s="425" t="s">
@@ -10488,7 +10490,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="426"/>
-      <c r="B97" s="442"/>
+      <c r="B97" s="428"/>
       <c r="C97" s="426"/>
       <c r="D97" s="426"/>
       <c r="E97" s="426"/>
@@ -10713,7 +10715,7 @@
       <c r="A102" s="425">
         <v>541</v>
       </c>
-      <c r="B102" s="427">
+      <c r="B102" s="452">
         <v>43971</v>
       </c>
       <c r="C102" s="425" t="s">
@@ -10755,11 +10757,11 @@
       <c r="P102" s="371"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="429"/>
-      <c r="B103" s="430"/>
-      <c r="C103" s="429"/>
-      <c r="D103" s="429"/>
-      <c r="E103" s="429"/>
+      <c r="A103" s="432"/>
+      <c r="B103" s="453"/>
+      <c r="C103" s="432"/>
+      <c r="D103" s="432"/>
+      <c r="E103" s="432"/>
       <c r="F103" s="371" t="s">
         <v>37</v>
       </c>
@@ -10790,11 +10792,11 @@
       <c r="P103" s="371"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="429"/>
-      <c r="B104" s="430"/>
-      <c r="C104" s="429"/>
-      <c r="D104" s="429"/>
-      <c r="E104" s="429"/>
+      <c r="A104" s="432"/>
+      <c r="B104" s="453"/>
+      <c r="C104" s="432"/>
+      <c r="D104" s="432"/>
+      <c r="E104" s="432"/>
       <c r="F104" s="371" t="s">
         <v>40</v>
       </c>
@@ -10825,11 +10827,11 @@
       <c r="P104" s="371"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="429"/>
-      <c r="B105" s="430"/>
-      <c r="C105" s="429"/>
-      <c r="D105" s="429"/>
-      <c r="E105" s="429"/>
+      <c r="A105" s="432"/>
+      <c r="B105" s="453"/>
+      <c r="C105" s="432"/>
+      <c r="D105" s="432"/>
+      <c r="E105" s="432"/>
       <c r="F105" s="371" t="s">
         <v>42</v>
       </c>
@@ -10860,11 +10862,11 @@
       <c r="P105" s="371"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="429"/>
-      <c r="B106" s="430"/>
-      <c r="C106" s="429"/>
-      <c r="D106" s="429"/>
-      <c r="E106" s="429"/>
+      <c r="A106" s="432"/>
+      <c r="B106" s="453"/>
+      <c r="C106" s="432"/>
+      <c r="D106" s="432"/>
+      <c r="E106" s="432"/>
       <c r="F106" s="371" t="s">
         <v>131</v>
       </c>
@@ -10895,11 +10897,11 @@
       <c r="P106" s="371"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="429"/>
-      <c r="B107" s="430"/>
-      <c r="C107" s="429"/>
-      <c r="D107" s="429"/>
-      <c r="E107" s="429"/>
+      <c r="A107" s="432"/>
+      <c r="B107" s="453"/>
+      <c r="C107" s="432"/>
+      <c r="D107" s="432"/>
+      <c r="E107" s="432"/>
       <c r="F107" s="371" t="s">
         <v>38</v>
       </c>
@@ -10931,7 +10933,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="426"/>
-      <c r="B108" s="428"/>
+      <c r="B108" s="454"/>
       <c r="C108" s="426"/>
       <c r="D108" s="426"/>
       <c r="E108" s="426"/>
@@ -11008,7 +11010,7 @@
       <c r="A110" s="425">
         <v>549</v>
       </c>
-      <c r="B110" s="427">
+      <c r="B110" s="452">
         <v>43974</v>
       </c>
       <c r="C110" s="425" t="s">
@@ -11051,7 +11053,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="426"/>
-      <c r="B111" s="428"/>
+      <c r="B111" s="454"/>
       <c r="C111" s="426"/>
       <c r="D111" s="426"/>
       <c r="E111" s="426"/>
@@ -11088,7 +11090,7 @@
       <c r="A112" s="425">
         <v>565</v>
       </c>
-      <c r="B112" s="427">
+      <c r="B112" s="452">
         <v>43976</v>
       </c>
       <c r="C112" s="425" t="s">
@@ -11128,11 +11130,11 @@
       <c r="P112" s="371"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="429"/>
-      <c r="B113" s="430"/>
-      <c r="C113" s="429"/>
-      <c r="D113" s="429"/>
-      <c r="E113" s="429"/>
+      <c r="A113" s="432"/>
+      <c r="B113" s="453"/>
+      <c r="C113" s="432"/>
+      <c r="D113" s="432"/>
+      <c r="E113" s="432"/>
       <c r="F113" s="371" t="s">
         <v>37</v>
       </c>
@@ -11164,7 +11166,7 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="426"/>
-      <c r="B114" s="428"/>
+      <c r="B114" s="454"/>
       <c r="C114" s="426"/>
       <c r="D114" s="426"/>
       <c r="E114" s="426"/>
@@ -11280,14 +11282,14 @@
       <c r="P116" s="371"/>
     </row>
     <row r="117" spans="1:16" s="176" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="443" t="s">
+      <c r="A117" s="448" t="s">
         <v>96</v>
       </c>
-      <c r="B117" s="443"/>
-      <c r="C117" s="443"/>
-      <c r="D117" s="443"/>
-      <c r="E117" s="443"/>
-      <c r="F117" s="443"/>
+      <c r="B117" s="448"/>
+      <c r="C117" s="448"/>
+      <c r="D117" s="448"/>
+      <c r="E117" s="448"/>
+      <c r="F117" s="448"/>
       <c r="G117" s="171">
         <f>SUM(G9:G116)</f>
         <v>1791</v>
@@ -11301,22 +11303,22 @@
       <c r="K117" s="173"/>
       <c r="L117" s="175">
         <f>SUM(L9:L116)</f>
-        <v>580467600</v>
+        <v>578081400</v>
       </c>
       <c r="M117" s="172"/>
       <c r="N117" s="172"/>
       <c r="O117" s="172"/>
-      <c r="P117" s="444"/>
+      <c r="P117" s="456"/>
     </row>
     <row r="118" spans="1:16" s="176" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="431" t="s">
+      <c r="A118" s="455" t="s">
         <v>126</v>
       </c>
-      <c r="B118" s="431"/>
-      <c r="C118" s="431"/>
-      <c r="D118" s="431"/>
-      <c r="E118" s="431"/>
-      <c r="F118" s="431"/>
+      <c r="B118" s="455"/>
+      <c r="C118" s="455"/>
+      <c r="D118" s="455"/>
+      <c r="E118" s="455"/>
+      <c r="F118" s="455"/>
       <c r="G118" s="171">
         <f>G117</f>
         <v>1791</v>
@@ -11327,22 +11329,22 @@
       <c r="K118" s="173"/>
       <c r="L118" s="175">
         <f>L117</f>
-        <v>580467600</v>
+        <v>578081400</v>
       </c>
       <c r="M118" s="174"/>
       <c r="N118" s="174"/>
       <c r="O118" s="174"/>
-      <c r="P118" s="444"/>
+      <c r="P118" s="456"/>
     </row>
     <row r="119" spans="1:16" s="176" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="431" t="s">
+      <c r="A119" s="455" t="s">
         <v>97</v>
       </c>
-      <c r="B119" s="431"/>
-      <c r="C119" s="431"/>
-      <c r="D119" s="431"/>
-      <c r="E119" s="431"/>
-      <c r="F119" s="431"/>
+      <c r="B119" s="455"/>
+      <c r="C119" s="455"/>
+      <c r="D119" s="455"/>
+      <c r="E119" s="455"/>
+      <c r="F119" s="455"/>
       <c r="G119" s="363" t="s">
         <v>57</v>
       </c>
@@ -11359,14 +11361,14 @@
       <c r="O119" s="174"/>
     </row>
     <row r="120" spans="1:16" s="176" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="431" t="s">
+      <c r="A120" s="455" t="s">
         <v>98</v>
       </c>
-      <c r="B120" s="431"/>
-      <c r="C120" s="431"/>
-      <c r="D120" s="431"/>
-      <c r="E120" s="431"/>
-      <c r="F120" s="431"/>
+      <c r="B120" s="455"/>
+      <c r="C120" s="455"/>
+      <c r="D120" s="455"/>
+      <c r="E120" s="455"/>
+      <c r="F120" s="455"/>
       <c r="G120" s="363"/>
       <c r="H120" s="174"/>
       <c r="I120" s="172"/>
@@ -11381,14 +11383,14 @@
       <c r="O120" s="174"/>
     </row>
     <row r="121" spans="1:16" s="176" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="431" t="s">
+      <c r="A121" s="455" t="s">
         <v>99</v>
       </c>
-      <c r="B121" s="431"/>
-      <c r="C121" s="431"/>
-      <c r="D121" s="431"/>
-      <c r="E121" s="431"/>
-      <c r="F121" s="431"/>
+      <c r="B121" s="455"/>
+      <c r="C121" s="455"/>
+      <c r="D121" s="455"/>
+      <c r="E121" s="455"/>
+      <c r="F121" s="455"/>
       <c r="G121" s="363"/>
       <c r="H121" s="174"/>
       <c r="I121" s="172"/>
@@ -11396,7 +11398,7 @@
       <c r="K121" s="173"/>
       <c r="L121" s="175">
         <f>SUM(O9:O116)</f>
-        <v>541096450</v>
+        <v>538710250</v>
       </c>
       <c r="M121" s="174"/>
       <c r="N121" s="174"/>
@@ -11461,61 +11463,75 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="J89:J92"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="E89:E92"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="D69:D74"/>
-    <mergeCell ref="C69:C74"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="A102:A108"/>
+    <mergeCell ref="B102:B108"/>
+    <mergeCell ref="C102:C108"/>
+    <mergeCell ref="D102:D108"/>
+    <mergeCell ref="E102:E108"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="E81:E84"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="P117:P118"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C32:C40"/>
+    <mergeCell ref="D32:D40"/>
+    <mergeCell ref="E32:E40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E69:E74"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
@@ -11540,75 +11556,61 @@
     <mergeCell ref="C48:C54"/>
     <mergeCell ref="D48:D54"/>
     <mergeCell ref="E48:E54"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="P117:P118"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C32:C40"/>
-    <mergeCell ref="D32:D40"/>
-    <mergeCell ref="E32:E40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="E41:E46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E69:E74"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A102:A108"/>
-    <mergeCell ref="B102:B108"/>
-    <mergeCell ref="C102:C108"/>
-    <mergeCell ref="D102:D108"/>
-    <mergeCell ref="E102:E108"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="E81:E84"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="D69:D74"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="J89:J92"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="E89:E92"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.27" top="0.53" bottom="0.39" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11731,7 +11733,7 @@
       </c>
       <c r="D8" s="79">
         <f>'DOANH THU'!L118</f>
-        <v>580467600</v>
+        <v>578081400</v>
       </c>
       <c r="E8" s="78"/>
       <c r="F8" s="70"/>
@@ -11791,7 +11793,7 @@
       <c r="C12" s="86"/>
       <c r="D12" s="87">
         <f>D8-D9-D10</f>
-        <v>541096450</v>
+        <v>538710250</v>
       </c>
       <c r="E12" s="84"/>
       <c r="F12" s="70"/>
@@ -12036,13 +12038,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="520" t="s">
+      <c r="A1" s="482" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="520"/>
-      <c r="C1" s="520"/>
-      <c r="D1" s="520"/>
-      <c r="E1" s="520"/>
+      <c r="B1" s="482"/>
+      <c r="C1" s="482"/>
+      <c r="D1" s="482"/>
+      <c r="E1" s="482"/>
       <c r="F1" s="72"/>
       <c r="G1" s="72"/>
       <c r="H1" s="72"/>
@@ -12070,144 +12072,144 @@
       <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="521" t="s">
+      <c r="A4" s="463" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="521"/>
-      <c r="C4" s="521"/>
-      <c r="D4" s="521"/>
-      <c r="E4" s="521"/>
-      <c r="F4" s="521"/>
-      <c r="G4" s="521"/>
-      <c r="H4" s="521"/>
-      <c r="I4" s="521"/>
-      <c r="J4" s="521"/>
-      <c r="K4" s="521"/>
-      <c r="L4" s="521"/>
-      <c r="M4" s="521"/>
-      <c r="N4" s="521"/>
-      <c r="O4" s="521"/>
+      <c r="B4" s="463"/>
+      <c r="C4" s="463"/>
+      <c r="D4" s="463"/>
+      <c r="E4" s="463"/>
+      <c r="F4" s="463"/>
+      <c r="G4" s="463"/>
+      <c r="H4" s="463"/>
+      <c r="I4" s="463"/>
+      <c r="J4" s="463"/>
+      <c r="K4" s="463"/>
+      <c r="L4" s="463"/>
+      <c r="M4" s="463"/>
+      <c r="N4" s="463"/>
+      <c r="O4" s="463"/>
     </row>
     <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="468" t="s">
+      <c r="A5" s="521" t="s">
         <v>266</v>
       </c>
-      <c r="B5" s="468"/>
-      <c r="C5" s="468"/>
-      <c r="D5" s="468"/>
-      <c r="E5" s="468"/>
-      <c r="F5" s="468"/>
-      <c r="G5" s="468"/>
-      <c r="H5" s="468"/>
-      <c r="I5" s="468"/>
-      <c r="J5" s="468"/>
-      <c r="K5" s="468"/>
-      <c r="L5" s="468"/>
-      <c r="M5" s="468"/>
-      <c r="N5" s="468"/>
-      <c r="O5" s="468"/>
+      <c r="B5" s="521"/>
+      <c r="C5" s="521"/>
+      <c r="D5" s="521"/>
+      <c r="E5" s="521"/>
+      <c r="F5" s="521"/>
+      <c r="G5" s="521"/>
+      <c r="H5" s="521"/>
+      <c r="I5" s="521"/>
+      <c r="J5" s="521"/>
+      <c r="K5" s="521"/>
+      <c r="L5" s="521"/>
+      <c r="M5" s="521"/>
+      <c r="N5" s="521"/>
+      <c r="O5" s="521"/>
     </row>
     <row r="6" spans="1:15" s="165" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="496" t="s">
+      <c r="A6" s="481" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="504" t="s">
+      <c r="B6" s="493" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="496" t="s">
+      <c r="C6" s="481" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="496" t="s">
+      <c r="D6" s="481" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="496"/>
-      <c r="F6" s="505" t="s">
+      <c r="E6" s="481"/>
+      <c r="F6" s="487" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="505"/>
-      <c r="H6" s="505"/>
-      <c r="I6" s="505"/>
-      <c r="J6" s="505"/>
-      <c r="K6" s="505"/>
-      <c r="L6" s="505"/>
-      <c r="M6" s="522"/>
-      <c r="N6" s="522"/>
-      <c r="O6" s="522"/>
+      <c r="G6" s="487"/>
+      <c r="H6" s="487"/>
+      <c r="I6" s="487"/>
+      <c r="J6" s="487"/>
+      <c r="K6" s="487"/>
+      <c r="L6" s="487"/>
+      <c r="M6" s="484"/>
+      <c r="N6" s="484"/>
+      <c r="O6" s="484"/>
     </row>
     <row r="7" spans="1:15" s="165" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="496"/>
-      <c r="B7" s="504"/>
-      <c r="C7" s="496"/>
-      <c r="D7" s="496" t="s">
+      <c r="A7" s="481"/>
+      <c r="B7" s="493"/>
+      <c r="C7" s="481"/>
+      <c r="D7" s="481" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="496" t="s">
+      <c r="E7" s="481" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="496" t="s">
+      <c r="F7" s="481" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="496" t="s">
+      <c r="G7" s="481" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="497" t="s">
+      <c r="H7" s="483" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="497" t="s">
+      <c r="I7" s="483" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="498" t="s">
+      <c r="J7" s="485" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="498"/>
-      <c r="L7" s="497" t="s">
+      <c r="K7" s="485"/>
+      <c r="L7" s="483" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="497" t="s">
+      <c r="M7" s="483" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="497" t="s">
+      <c r="N7" s="483" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="497" t="s">
+      <c r="O7" s="483" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="165" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="496"/>
-      <c r="B8" s="504"/>
-      <c r="C8" s="496"/>
-      <c r="D8" s="496"/>
-      <c r="E8" s="496"/>
-      <c r="F8" s="496"/>
-      <c r="G8" s="496"/>
-      <c r="H8" s="497"/>
-      <c r="I8" s="497"/>
+      <c r="A8" s="481"/>
+      <c r="B8" s="493"/>
+      <c r="C8" s="481"/>
+      <c r="D8" s="481"/>
+      <c r="E8" s="481"/>
+      <c r="F8" s="481"/>
+      <c r="G8" s="481"/>
+      <c r="H8" s="483"/>
+      <c r="I8" s="483"/>
       <c r="J8" s="204" t="s">
         <v>112</v>
       </c>
       <c r="K8" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="497"/>
-      <c r="M8" s="497"/>
-      <c r="N8" s="497"/>
-      <c r="O8" s="497"/>
+      <c r="L8" s="483"/>
+      <c r="M8" s="483"/>
+      <c r="N8" s="483"/>
+      <c r="O8" s="483"/>
     </row>
     <row r="9" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="507">
+      <c r="A9" s="468">
         <v>461</v>
       </c>
-      <c r="B9" s="510">
+      <c r="B9" s="488">
         <v>43951</v>
       </c>
-      <c r="C9" s="507" t="s">
+      <c r="C9" s="468" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="507" t="s">
+      <c r="D9" s="468" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="507" t="s">
+      <c r="E9" s="468" t="s">
         <v>108</v>
       </c>
       <c r="F9" s="201" t="s">
@@ -12236,11 +12238,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="508"/>
-      <c r="B10" s="511"/>
-      <c r="C10" s="508"/>
-      <c r="D10" s="508"/>
-      <c r="E10" s="508"/>
+      <c r="A10" s="469"/>
+      <c r="B10" s="489"/>
+      <c r="C10" s="469"/>
+      <c r="D10" s="469"/>
+      <c r="E10" s="469"/>
       <c r="F10" s="202" t="s">
         <v>37</v>
       </c>
@@ -12267,11 +12269,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="509"/>
-      <c r="B11" s="512"/>
-      <c r="C11" s="509"/>
-      <c r="D11" s="509"/>
-      <c r="E11" s="509"/>
+      <c r="A11" s="470"/>
+      <c r="B11" s="490"/>
+      <c r="C11" s="470"/>
+      <c r="D11" s="470"/>
+      <c r="E11" s="470"/>
       <c r="F11" s="203" t="s">
         <v>40</v>
       </c>
@@ -12460,19 +12462,19 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="513">
+      <c r="A16" s="491">
         <v>508</v>
       </c>
-      <c r="B16" s="515" t="s">
+      <c r="B16" s="465" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="507" t="s">
+      <c r="C16" s="468" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="507" t="s">
+      <c r="D16" s="468" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="507" t="s">
+      <c r="E16" s="468" t="s">
         <v>108</v>
       </c>
       <c r="F16" s="201" t="s">
@@ -12501,11 +12503,11 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="514"/>
-      <c r="B17" s="516"/>
-      <c r="C17" s="509"/>
-      <c r="D17" s="509"/>
-      <c r="E17" s="509"/>
+      <c r="A17" s="492"/>
+      <c r="B17" s="467"/>
+      <c r="C17" s="470"/>
+      <c r="D17" s="470"/>
+      <c r="E17" s="470"/>
       <c r="F17" s="203" t="s">
         <v>37</v>
       </c>
@@ -12614,19 +12616,19 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="507">
+      <c r="A20" s="468">
         <v>527</v>
       </c>
-      <c r="B20" s="515">
+      <c r="B20" s="465">
         <v>43967</v>
       </c>
-      <c r="C20" s="507" t="s">
+      <c r="C20" s="468" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="507" t="s">
+      <c r="D20" s="468" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="507" t="s">
+      <c r="E20" s="468" t="s">
         <v>108</v>
       </c>
       <c r="F20" s="201" t="s">
@@ -12641,7 +12643,7 @@
       <c r="I20" s="186">
         <v>4550000</v>
       </c>
-      <c r="J20" s="517">
+      <c r="J20" s="494">
         <v>150000</v>
       </c>
       <c r="K20" s="187">
@@ -12657,11 +12659,11 @@
       <c r="O20" s="186"/>
     </row>
     <row r="21" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="508"/>
-      <c r="B21" s="524"/>
-      <c r="C21" s="508"/>
-      <c r="D21" s="508"/>
-      <c r="E21" s="508"/>
+      <c r="A21" s="469"/>
+      <c r="B21" s="466"/>
+      <c r="C21" s="469"/>
+      <c r="D21" s="469"/>
+      <c r="E21" s="469"/>
       <c r="F21" s="202" t="s">
         <v>37</v>
       </c>
@@ -12674,7 +12676,7 @@
       <c r="I21" s="188">
         <v>7440000</v>
       </c>
-      <c r="J21" s="518"/>
+      <c r="J21" s="495"/>
       <c r="K21" s="189">
         <v>0.41</v>
       </c>
@@ -12688,11 +12690,11 @@
       <c r="O21" s="188"/>
     </row>
     <row r="22" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="509"/>
-      <c r="B22" s="516"/>
-      <c r="C22" s="509"/>
-      <c r="D22" s="509"/>
-      <c r="E22" s="509"/>
+      <c r="A22" s="470"/>
+      <c r="B22" s="467"/>
+      <c r="C22" s="470"/>
+      <c r="D22" s="470"/>
+      <c r="E22" s="470"/>
       <c r="F22" s="203" t="s">
         <v>38</v>
       </c>
@@ -12705,7 +12707,7 @@
       <c r="I22" s="190">
         <v>3300000</v>
       </c>
-      <c r="J22" s="519"/>
+      <c r="J22" s="496"/>
       <c r="K22" s="191">
         <v>0.41</v>
       </c>
@@ -12763,19 +12765,19 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="507">
+      <c r="A24" s="468">
         <v>532</v>
       </c>
-      <c r="B24" s="515">
+      <c r="B24" s="465">
         <v>43969</v>
       </c>
-      <c r="C24" s="507" t="s">
+      <c r="C24" s="468" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="507" t="s">
+      <c r="D24" s="468" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="507" t="s">
+      <c r="E24" s="468" t="s">
         <v>108</v>
       </c>
       <c r="F24" s="201" t="s">
@@ -12804,11 +12806,11 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="509"/>
-      <c r="B25" s="516"/>
-      <c r="C25" s="509"/>
-      <c r="D25" s="509"/>
-      <c r="E25" s="509"/>
+      <c r="A25" s="470"/>
+      <c r="B25" s="467"/>
+      <c r="C25" s="470"/>
+      <c r="D25" s="470"/>
+      <c r="E25" s="470"/>
       <c r="F25" s="203" t="s">
         <v>40</v>
       </c>
@@ -12835,19 +12837,19 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="507">
+      <c r="A26" s="468">
         <v>533</v>
       </c>
-      <c r="B26" s="515">
+      <c r="B26" s="465">
         <v>43969</v>
       </c>
-      <c r="C26" s="507" t="s">
+      <c r="C26" s="468" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="507" t="s">
+      <c r="D26" s="468" t="s">
         <v>165</v>
       </c>
-      <c r="E26" s="507" t="s">
+      <c r="E26" s="468" t="s">
         <v>166</v>
       </c>
       <c r="F26" s="201" t="s">
@@ -12876,11 +12878,11 @@
       </c>
     </row>
     <row r="27" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="509"/>
-      <c r="B27" s="516"/>
-      <c r="C27" s="509"/>
-      <c r="D27" s="509"/>
-      <c r="E27" s="509"/>
+      <c r="A27" s="470"/>
+      <c r="B27" s="467"/>
+      <c r="C27" s="470"/>
+      <c r="D27" s="470"/>
+      <c r="E27" s="470"/>
       <c r="F27" s="203" t="s">
         <v>40</v>
       </c>
@@ -13002,16 +13004,16 @@
       <c r="O31" s="194"/>
     </row>
     <row r="32" spans="1:15" s="239" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="473" t="s">
+      <c r="A32" s="471" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="474"/>
-      <c r="C32" s="474"/>
-      <c r="D32" s="474"/>
-      <c r="E32" s="474"/>
-      <c r="F32" s="474"/>
-      <c r="G32" s="474"/>
-      <c r="H32" s="467"/>
+      <c r="B32" s="472"/>
+      <c r="C32" s="472"/>
+      <c r="D32" s="472"/>
+      <c r="E32" s="472"/>
+      <c r="F32" s="472"/>
+      <c r="G32" s="472"/>
+      <c r="H32" s="473"/>
       <c r="I32" s="240">
         <f>SUM(I9:I31)</f>
         <v>34105000</v>
@@ -13049,20 +13051,20 @@
     <row r="34" spans="1:15" s="248" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="246"/>
       <c r="B34" s="246"/>
-      <c r="C34" s="521" t="s">
+      <c r="C34" s="463" t="s">
         <v>199</v>
       </c>
-      <c r="D34" s="521"/>
-      <c r="E34" s="521"/>
+      <c r="D34" s="463"/>
+      <c r="E34" s="463"/>
       <c r="F34" s="246"/>
       <c r="G34" s="246"/>
       <c r="H34" s="246"/>
       <c r="I34" s="247"/>
       <c r="L34" s="247"/>
-      <c r="M34" s="523" t="s">
+      <c r="M34" s="464" t="s">
         <v>249</v>
       </c>
-      <c r="N34" s="523"/>
+      <c r="N34" s="464"/>
       <c r="O34" s="247"/>
     </row>
     <row r="35" spans="1:15" s="248" customFormat="1" x14ac:dyDescent="0.25">
@@ -13094,108 +13096,108 @@
       <c r="O36" s="247"/>
     </row>
     <row r="37" spans="1:15" s="170" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="525" t="s">
+      <c r="A37" s="474" t="s">
         <v>200</v>
       </c>
-      <c r="B37" s="526"/>
-      <c r="C37" s="526"/>
-      <c r="D37" s="526"/>
-      <c r="E37" s="526"/>
-      <c r="F37" s="526"/>
-      <c r="G37" s="526"/>
-      <c r="H37" s="526"/>
-      <c r="I37" s="526"/>
-      <c r="J37" s="526"/>
-      <c r="K37" s="526"/>
-      <c r="L37" s="526"/>
-      <c r="M37" s="526"/>
-      <c r="N37" s="526"/>
-      <c r="O37" s="526"/>
+      <c r="B37" s="475"/>
+      <c r="C37" s="475"/>
+      <c r="D37" s="475"/>
+      <c r="E37" s="475"/>
+      <c r="F37" s="475"/>
+      <c r="G37" s="475"/>
+      <c r="H37" s="475"/>
+      <c r="I37" s="475"/>
+      <c r="J37" s="475"/>
+      <c r="K37" s="475"/>
+      <c r="L37" s="475"/>
+      <c r="M37" s="475"/>
+      <c r="N37" s="475"/>
+      <c r="O37" s="475"/>
     </row>
     <row r="38" spans="1:15" s="165" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="496" t="s">
+      <c r="A38" s="481" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="504" t="s">
+      <c r="B38" s="493" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="496" t="s">
+      <c r="C38" s="481" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="496" t="s">
+      <c r="D38" s="481" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="496"/>
-      <c r="F38" s="505" t="s">
+      <c r="E38" s="481"/>
+      <c r="F38" s="487" t="s">
         <v>29</v>
       </c>
-      <c r="G38" s="505"/>
-      <c r="H38" s="505"/>
-      <c r="I38" s="505"/>
-      <c r="J38" s="505"/>
-      <c r="K38" s="505"/>
-      <c r="L38" s="505"/>
-      <c r="M38" s="499" t="s">
+      <c r="G38" s="487"/>
+      <c r="H38" s="487"/>
+      <c r="I38" s="487"/>
+      <c r="J38" s="487"/>
+      <c r="K38" s="487"/>
+      <c r="L38" s="487"/>
+      <c r="M38" s="497" t="s">
         <v>58</v>
       </c>
-      <c r="N38" s="500"/>
-      <c r="O38" s="527" t="s">
+      <c r="N38" s="498"/>
+      <c r="O38" s="478" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="165" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="496"/>
-      <c r="B39" s="504"/>
-      <c r="C39" s="496"/>
-      <c r="D39" s="496" t="s">
+      <c r="A39" s="481"/>
+      <c r="B39" s="493"/>
+      <c r="C39" s="481"/>
+      <c r="D39" s="481" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="496" t="s">
+      <c r="E39" s="481" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="496" t="s">
+      <c r="F39" s="481" t="s">
         <v>31</v>
       </c>
-      <c r="G39" s="496" t="s">
+      <c r="G39" s="481" t="s">
         <v>32</v>
       </c>
-      <c r="H39" s="497" t="s">
+      <c r="H39" s="483" t="s">
         <v>33</v>
       </c>
-      <c r="I39" s="497" t="s">
+      <c r="I39" s="483" t="s">
         <v>51</v>
       </c>
-      <c r="J39" s="498" t="s">
+      <c r="J39" s="485" t="s">
         <v>35</v>
       </c>
-      <c r="K39" s="498"/>
-      <c r="L39" s="497" t="s">
+      <c r="K39" s="485"/>
+      <c r="L39" s="483" t="s">
         <v>52</v>
       </c>
-      <c r="M39" s="501"/>
-      <c r="N39" s="502"/>
-      <c r="O39" s="528"/>
+      <c r="M39" s="499"/>
+      <c r="N39" s="500"/>
+      <c r="O39" s="479"/>
     </row>
     <row r="40" spans="1:15" s="165" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="496"/>
-      <c r="B40" s="504"/>
-      <c r="C40" s="496"/>
-      <c r="D40" s="496"/>
-      <c r="E40" s="496"/>
-      <c r="F40" s="496"/>
-      <c r="G40" s="496"/>
-      <c r="H40" s="497"/>
-      <c r="I40" s="497"/>
+      <c r="A40" s="481"/>
+      <c r="B40" s="493"/>
+      <c r="C40" s="481"/>
+      <c r="D40" s="481"/>
+      <c r="E40" s="481"/>
+      <c r="F40" s="481"/>
+      <c r="G40" s="481"/>
+      <c r="H40" s="483"/>
+      <c r="I40" s="483"/>
       <c r="J40" s="204" t="s">
         <v>112</v>
       </c>
       <c r="K40" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="L40" s="497"/>
-      <c r="M40" s="501"/>
-      <c r="N40" s="502"/>
-      <c r="O40" s="529"/>
+      <c r="L40" s="483"/>
+      <c r="M40" s="499"/>
+      <c r="N40" s="500"/>
+      <c r="O40" s="480"/>
     </row>
     <row r="41" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="196">
@@ -13234,11 +13236,11 @@
         <f>I41*(1-K41)</f>
         <v>550000</v>
       </c>
-      <c r="M41" s="503">
+      <c r="M41" s="501">
         <f>L41</f>
         <v>550000</v>
       </c>
-      <c r="N41" s="503"/>
+      <c r="N41" s="501"/>
       <c r="O41" s="238"/>
     </row>
     <row r="42" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -13278,11 +13280,11 @@
         <f t="shared" ref="L42:L47" si="1">I42*(1-K42)</f>
         <v>295750</v>
       </c>
-      <c r="M42" s="492">
+      <c r="M42" s="476">
         <f>L42</f>
         <v>295750</v>
       </c>
-      <c r="N42" s="493"/>
+      <c r="N42" s="477"/>
       <c r="O42" s="168"/>
     </row>
     <row r="43" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -13322,11 +13324,11 @@
         <f t="shared" si="1"/>
         <v>550000</v>
       </c>
-      <c r="M43" s="492">
+      <c r="M43" s="476">
         <f t="shared" ref="M43:M47" si="2">L43</f>
         <v>550000</v>
       </c>
-      <c r="N43" s="493"/>
+      <c r="N43" s="477"/>
       <c r="O43" s="168"/>
     </row>
     <row r="44" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -13368,11 +13370,11 @@
         <f>I44*(1-K44)-J44</f>
         <v>388000</v>
       </c>
-      <c r="M44" s="492">
+      <c r="M44" s="476">
         <f t="shared" si="2"/>
         <v>388000</v>
       </c>
-      <c r="N44" s="493"/>
+      <c r="N44" s="477"/>
       <c r="O44" s="168"/>
     </row>
     <row r="45" spans="1:15" s="170" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -13394,11 +13396,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M45" s="492">
+      <c r="M45" s="476">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N45" s="493"/>
+      <c r="N45" s="477"/>
       <c r="O45" s="168"/>
     </row>
     <row r="46" spans="1:15" s="170" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -13420,11 +13422,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M46" s="492">
+      <c r="M46" s="476">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N46" s="493"/>
+      <c r="N46" s="477"/>
       <c r="O46" s="168"/>
     </row>
     <row r="47" spans="1:15" s="170" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -13446,24 +13448,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M47" s="492">
+      <c r="M47" s="476">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N47" s="493"/>
+      <c r="N47" s="477"/>
       <c r="O47" s="168"/>
     </row>
     <row r="48" spans="1:15" s="239" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="473" t="s">
+      <c r="A48" s="471" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="474"/>
-      <c r="C48" s="474"/>
-      <c r="D48" s="474"/>
-      <c r="E48" s="474"/>
-      <c r="F48" s="474"/>
-      <c r="G48" s="474"/>
-      <c r="H48" s="467"/>
+      <c r="B48" s="472"/>
+      <c r="C48" s="472"/>
+      <c r="D48" s="472"/>
+      <c r="E48" s="472"/>
+      <c r="F48" s="472"/>
+      <c r="G48" s="472"/>
+      <c r="H48" s="473"/>
       <c r="I48" s="240">
         <f>SUM(I41:I47)</f>
         <v>2040000</v>
@@ -13474,373 +13476,373 @@
         <f>SUM(L41:L47)</f>
         <v>1783750</v>
       </c>
-      <c r="M48" s="494">
+      <c r="M48" s="512">
         <f>SUM(M41:N47)</f>
         <v>1783750</v>
       </c>
-      <c r="N48" s="495"/>
+      <c r="N48" s="513"/>
       <c r="O48" s="242"/>
     </row>
     <row r="49" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="491" t="s">
+      <c r="A49" s="502" t="s">
         <v>217</v>
       </c>
-      <c r="B49" s="491"/>
-      <c r="C49" s="491"/>
-      <c r="D49" s="491"/>
-      <c r="E49" s="491"/>
-      <c r="F49" s="491"/>
-      <c r="G49" s="491"/>
-      <c r="H49" s="491"/>
-      <c r="I49" s="491"/>
-      <c r="J49" s="491"/>
-      <c r="K49" s="491"/>
-      <c r="L49" s="491"/>
-      <c r="M49" s="491"/>
-      <c r="N49" s="491"/>
-      <c r="O49" s="491"/>
+      <c r="B49" s="502"/>
+      <c r="C49" s="502"/>
+      <c r="D49" s="502"/>
+      <c r="E49" s="502"/>
+      <c r="F49" s="502"/>
+      <c r="G49" s="502"/>
+      <c r="H49" s="502"/>
+      <c r="I49" s="502"/>
+      <c r="J49" s="502"/>
+      <c r="K49" s="502"/>
+      <c r="L49" s="502"/>
+      <c r="M49" s="502"/>
+      <c r="N49" s="502"/>
+      <c r="O49" s="502"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="476" t="s">
+      <c r="A50" s="503" t="s">
         <v>207</v>
       </c>
-      <c r="B50" s="476"/>
-      <c r="C50" s="476"/>
-      <c r="D50" s="476"/>
-      <c r="E50" s="476"/>
-      <c r="F50" s="476"/>
-      <c r="G50" s="476"/>
-      <c r="H50" s="476" t="s">
+      <c r="B50" s="503"/>
+      <c r="C50" s="503"/>
+      <c r="D50" s="503"/>
+      <c r="E50" s="503"/>
+      <c r="F50" s="503"/>
+      <c r="G50" s="503"/>
+      <c r="H50" s="503" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="476"/>
-      <c r="J50" s="476" t="s">
+      <c r="I50" s="503"/>
+      <c r="J50" s="503" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="476"/>
-      <c r="L50" s="476"/>
+      <c r="K50" s="503"/>
+      <c r="L50" s="503"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="483" t="s">
+      <c r="A51" s="504" t="s">
         <v>208</v>
       </c>
-      <c r="B51" s="484"/>
-      <c r="C51" s="484"/>
-      <c r="D51" s="484"/>
-      <c r="E51" s="484"/>
-      <c r="F51" s="484"/>
-      <c r="G51" s="485"/>
-      <c r="H51" s="486">
+      <c r="B51" s="505"/>
+      <c r="C51" s="505"/>
+      <c r="D51" s="505"/>
+      <c r="E51" s="505"/>
+      <c r="F51" s="505"/>
+      <c r="G51" s="506"/>
+      <c r="H51" s="507">
         <v>523000</v>
       </c>
-      <c r="I51" s="487"/>
-      <c r="J51" s="479" t="s">
+      <c r="I51" s="508"/>
+      <c r="J51" s="509" t="s">
         <v>209</v>
       </c>
-      <c r="K51" s="480"/>
-      <c r="L51" s="481"/>
+      <c r="K51" s="510"/>
+      <c r="L51" s="511"/>
     </row>
     <row r="52" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="488" t="s">
+      <c r="A52" s="514" t="s">
         <v>221</v>
       </c>
-      <c r="B52" s="489"/>
-      <c r="C52" s="489"/>
-      <c r="D52" s="489"/>
-      <c r="E52" s="489"/>
-      <c r="F52" s="489"/>
-      <c r="G52" s="490"/>
-      <c r="H52" s="486">
+      <c r="B52" s="515"/>
+      <c r="C52" s="515"/>
+      <c r="D52" s="515"/>
+      <c r="E52" s="515"/>
+      <c r="F52" s="515"/>
+      <c r="G52" s="516"/>
+      <c r="H52" s="507">
         <v>2079000</v>
       </c>
-      <c r="I52" s="487"/>
-      <c r="J52" s="479" t="s">
+      <c r="I52" s="508"/>
+      <c r="J52" s="509" t="s">
         <v>209</v>
       </c>
-      <c r="K52" s="480"/>
-      <c r="L52" s="481"/>
+      <c r="K52" s="510"/>
+      <c r="L52" s="511"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="483" t="s">
+      <c r="A53" s="504" t="s">
         <v>210</v>
       </c>
-      <c r="B53" s="484"/>
-      <c r="C53" s="484"/>
-      <c r="D53" s="484"/>
-      <c r="E53" s="484"/>
-      <c r="F53" s="484"/>
-      <c r="G53" s="485"/>
-      <c r="H53" s="486">
+      <c r="B53" s="505"/>
+      <c r="C53" s="505"/>
+      <c r="D53" s="505"/>
+      <c r="E53" s="505"/>
+      <c r="F53" s="505"/>
+      <c r="G53" s="506"/>
+      <c r="H53" s="507">
         <v>2563000</v>
       </c>
-      <c r="I53" s="487"/>
-      <c r="J53" s="479" t="s">
+      <c r="I53" s="508"/>
+      <c r="J53" s="509" t="s">
         <v>209</v>
       </c>
-      <c r="K53" s="480"/>
-      <c r="L53" s="481"/>
+      <c r="K53" s="510"/>
+      <c r="L53" s="511"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="483" t="s">
+      <c r="A54" s="504" t="s">
         <v>218</v>
       </c>
-      <c r="B54" s="484"/>
-      <c r="C54" s="484"/>
-      <c r="D54" s="484"/>
-      <c r="E54" s="484"/>
-      <c r="F54" s="484"/>
-      <c r="G54" s="485"/>
-      <c r="H54" s="486">
+      <c r="B54" s="505"/>
+      <c r="C54" s="505"/>
+      <c r="D54" s="505"/>
+      <c r="E54" s="505"/>
+      <c r="F54" s="505"/>
+      <c r="G54" s="506"/>
+      <c r="H54" s="507">
         <v>82000</v>
       </c>
-      <c r="I54" s="487"/>
-      <c r="J54" s="479" t="s">
+      <c r="I54" s="508"/>
+      <c r="J54" s="509" t="s">
         <v>209</v>
       </c>
-      <c r="K54" s="480"/>
-      <c r="L54" s="481"/>
+      <c r="K54" s="510"/>
+      <c r="L54" s="511"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="483" t="s">
+      <c r="A55" s="504" t="s">
         <v>222</v>
       </c>
-      <c r="B55" s="484"/>
-      <c r="C55" s="484"/>
-      <c r="D55" s="484"/>
-      <c r="E55" s="484"/>
-      <c r="F55" s="484"/>
-      <c r="G55" s="485"/>
-      <c r="H55" s="486">
+      <c r="B55" s="505"/>
+      <c r="C55" s="505"/>
+      <c r="D55" s="505"/>
+      <c r="E55" s="505"/>
+      <c r="F55" s="505"/>
+      <c r="G55" s="506"/>
+      <c r="H55" s="507">
         <v>866000</v>
       </c>
-      <c r="I55" s="487"/>
-      <c r="J55" s="479" t="s">
+      <c r="I55" s="508"/>
+      <c r="J55" s="509" t="s">
         <v>209</v>
       </c>
-      <c r="K55" s="480"/>
-      <c r="L55" s="481"/>
+      <c r="K55" s="510"/>
+      <c r="L55" s="511"/>
     </row>
     <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="483"/>
-      <c r="B56" s="484"/>
-      <c r="C56" s="484"/>
-      <c r="D56" s="484"/>
-      <c r="E56" s="484"/>
-      <c r="F56" s="484"/>
-      <c r="G56" s="485"/>
-      <c r="H56" s="486"/>
-      <c r="I56" s="487"/>
-      <c r="J56" s="479" t="s">
+      <c r="A56" s="504"/>
+      <c r="B56" s="505"/>
+      <c r="C56" s="505"/>
+      <c r="D56" s="505"/>
+      <c r="E56" s="505"/>
+      <c r="F56" s="505"/>
+      <c r="G56" s="506"/>
+      <c r="H56" s="507"/>
+      <c r="I56" s="508"/>
+      <c r="J56" s="509" t="s">
         <v>209</v>
       </c>
-      <c r="K56" s="480"/>
-      <c r="L56" s="481"/>
+      <c r="K56" s="510"/>
+      <c r="L56" s="511"/>
     </row>
     <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="483"/>
-      <c r="B57" s="484"/>
-      <c r="C57" s="484"/>
-      <c r="D57" s="484"/>
-      <c r="E57" s="484"/>
-      <c r="F57" s="484"/>
-      <c r="G57" s="485"/>
-      <c r="H57" s="486"/>
-      <c r="I57" s="487"/>
-      <c r="J57" s="479" t="s">
+      <c r="A57" s="504"/>
+      <c r="B57" s="505"/>
+      <c r="C57" s="505"/>
+      <c r="D57" s="505"/>
+      <c r="E57" s="505"/>
+      <c r="F57" s="505"/>
+      <c r="G57" s="506"/>
+      <c r="H57" s="507"/>
+      <c r="I57" s="508"/>
+      <c r="J57" s="509" t="s">
         <v>209</v>
       </c>
-      <c r="K57" s="480"/>
-      <c r="L57" s="481"/>
+      <c r="K57" s="510"/>
+      <c r="L57" s="511"/>
     </row>
     <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="483"/>
-      <c r="B58" s="484"/>
-      <c r="C58" s="484"/>
-      <c r="D58" s="484"/>
-      <c r="E58" s="484"/>
-      <c r="F58" s="484"/>
-      <c r="G58" s="485"/>
-      <c r="H58" s="486"/>
-      <c r="I58" s="487"/>
-      <c r="J58" s="479" t="s">
+      <c r="A58" s="504"/>
+      <c r="B58" s="505"/>
+      <c r="C58" s="505"/>
+      <c r="D58" s="505"/>
+      <c r="E58" s="505"/>
+      <c r="F58" s="505"/>
+      <c r="G58" s="506"/>
+      <c r="H58" s="507"/>
+      <c r="I58" s="508"/>
+      <c r="J58" s="509" t="s">
         <v>209</v>
       </c>
-      <c r="K58" s="480"/>
-      <c r="L58" s="481"/>
+      <c r="K58" s="510"/>
+      <c r="L58" s="511"/>
     </row>
     <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="483"/>
-      <c r="B59" s="484"/>
-      <c r="C59" s="484"/>
-      <c r="D59" s="484"/>
-      <c r="E59" s="484"/>
-      <c r="F59" s="484"/>
-      <c r="G59" s="485"/>
-      <c r="H59" s="486"/>
-      <c r="I59" s="487"/>
-      <c r="J59" s="479" t="s">
+      <c r="A59" s="504"/>
+      <c r="B59" s="505"/>
+      <c r="C59" s="505"/>
+      <c r="D59" s="505"/>
+      <c r="E59" s="505"/>
+      <c r="F59" s="505"/>
+      <c r="G59" s="506"/>
+      <c r="H59" s="507"/>
+      <c r="I59" s="508"/>
+      <c r="J59" s="509" t="s">
         <v>209</v>
       </c>
-      <c r="K59" s="480"/>
-      <c r="L59" s="481"/>
+      <c r="K59" s="510"/>
+      <c r="L59" s="511"/>
     </row>
     <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="483"/>
-      <c r="B60" s="484"/>
-      <c r="C60" s="484"/>
-      <c r="D60" s="484"/>
-      <c r="E60" s="484"/>
-      <c r="F60" s="484"/>
-      <c r="G60" s="485"/>
-      <c r="H60" s="486"/>
-      <c r="I60" s="487"/>
-      <c r="J60" s="479" t="s">
+      <c r="A60" s="504"/>
+      <c r="B60" s="505"/>
+      <c r="C60" s="505"/>
+      <c r="D60" s="505"/>
+      <c r="E60" s="505"/>
+      <c r="F60" s="505"/>
+      <c r="G60" s="506"/>
+      <c r="H60" s="507"/>
+      <c r="I60" s="508"/>
+      <c r="J60" s="509" t="s">
         <v>209</v>
       </c>
-      <c r="K60" s="480"/>
-      <c r="L60" s="481"/>
+      <c r="K60" s="510"/>
+      <c r="L60" s="511"/>
     </row>
     <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="483"/>
-      <c r="B61" s="484"/>
-      <c r="C61" s="484"/>
-      <c r="D61" s="484"/>
-      <c r="E61" s="484"/>
-      <c r="F61" s="484"/>
-      <c r="G61" s="485"/>
-      <c r="H61" s="486"/>
-      <c r="I61" s="487"/>
-      <c r="J61" s="479" t="s">
+      <c r="A61" s="504"/>
+      <c r="B61" s="505"/>
+      <c r="C61" s="505"/>
+      <c r="D61" s="505"/>
+      <c r="E61" s="505"/>
+      <c r="F61" s="505"/>
+      <c r="G61" s="506"/>
+      <c r="H61" s="507"/>
+      <c r="I61" s="508"/>
+      <c r="J61" s="509" t="s">
         <v>209</v>
       </c>
-      <c r="K61" s="480"/>
-      <c r="L61" s="481"/>
+      <c r="K61" s="510"/>
+      <c r="L61" s="511"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="473" t="s">
+      <c r="A62" s="471" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="474"/>
-      <c r="C62" s="474"/>
-      <c r="D62" s="474"/>
-      <c r="E62" s="474"/>
-      <c r="F62" s="474"/>
-      <c r="G62" s="467"/>
-      <c r="H62" s="477">
+      <c r="B62" s="472"/>
+      <c r="C62" s="472"/>
+      <c r="D62" s="472"/>
+      <c r="E62" s="472"/>
+      <c r="F62" s="472"/>
+      <c r="G62" s="473"/>
+      <c r="H62" s="527">
         <f>SUM(H51:I61)</f>
         <v>6113000</v>
       </c>
-      <c r="I62" s="478"/>
-      <c r="J62" s="479"/>
-      <c r="K62" s="480"/>
-      <c r="L62" s="481"/>
+      <c r="I62" s="528"/>
+      <c r="J62" s="509"/>
+      <c r="K62" s="510"/>
+      <c r="L62" s="511"/>
     </row>
     <row r="63" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="482" t="s">
+      <c r="A63" s="529" t="s">
         <v>211</v>
       </c>
-      <c r="B63" s="482"/>
-      <c r="C63" s="482"/>
-      <c r="D63" s="482"/>
-      <c r="E63" s="482"/>
-      <c r="F63" s="482"/>
-      <c r="G63" s="482"/>
-      <c r="H63" s="482"/>
-      <c r="I63" s="482"/>
+      <c r="B63" s="529"/>
+      <c r="C63" s="529"/>
+      <c r="D63" s="529"/>
+      <c r="E63" s="529"/>
+      <c r="F63" s="529"/>
+      <c r="G63" s="529"/>
+      <c r="H63" s="529"/>
+      <c r="I63" s="529"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="473" t="s">
+      <c r="B64" s="471" t="s">
         <v>207</v>
       </c>
-      <c r="C64" s="474"/>
-      <c r="D64" s="474"/>
-      <c r="E64" s="474"/>
-      <c r="F64" s="474"/>
-      <c r="G64" s="474"/>
-      <c r="H64" s="467"/>
-      <c r="I64" s="476" t="s">
+      <c r="C64" s="472"/>
+      <c r="D64" s="472"/>
+      <c r="E64" s="472"/>
+      <c r="F64" s="472"/>
+      <c r="G64" s="472"/>
+      <c r="H64" s="473"/>
+      <c r="I64" s="503" t="s">
         <v>213</v>
       </c>
-      <c r="J64" s="476"/>
+      <c r="J64" s="503"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="74">
         <v>1</v>
       </c>
-      <c r="B65" s="463" t="s">
+      <c r="B65" s="517" t="s">
         <v>214</v>
       </c>
-      <c r="C65" s="464"/>
-      <c r="D65" s="464"/>
-      <c r="E65" s="464"/>
-      <c r="F65" s="464"/>
-      <c r="G65" s="464"/>
-      <c r="H65" s="465"/>
-      <c r="I65" s="466">
+      <c r="C65" s="518"/>
+      <c r="D65" s="518"/>
+      <c r="E65" s="518"/>
+      <c r="F65" s="518"/>
+      <c r="G65" s="518"/>
+      <c r="H65" s="519"/>
+      <c r="I65" s="520">
         <f>L32</f>
         <v>19849100.000000004</v>
       </c>
-      <c r="J65" s="467"/>
+      <c r="J65" s="473"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="74">
         <v>2</v>
       </c>
-      <c r="B66" s="463" t="s">
+      <c r="B66" s="517" t="s">
         <v>215</v>
       </c>
-      <c r="C66" s="464"/>
-      <c r="D66" s="464"/>
-      <c r="E66" s="464"/>
-      <c r="F66" s="464"/>
-      <c r="G66" s="464"/>
-      <c r="H66" s="465"/>
-      <c r="I66" s="475">
+      <c r="C66" s="518"/>
+      <c r="D66" s="518"/>
+      <c r="E66" s="518"/>
+      <c r="F66" s="518"/>
+      <c r="G66" s="518"/>
+      <c r="H66" s="519"/>
+      <c r="I66" s="526">
         <f>M48</f>
         <v>1783750</v>
       </c>
-      <c r="J66" s="475"/>
+      <c r="J66" s="526"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="74">
         <v>3</v>
       </c>
-      <c r="B67" s="463" t="s">
+      <c r="B67" s="517" t="s">
         <v>216</v>
       </c>
-      <c r="C67" s="464"/>
-      <c r="D67" s="464"/>
-      <c r="E67" s="464"/>
-      <c r="F67" s="464"/>
-      <c r="G67" s="464"/>
-      <c r="H67" s="465"/>
-      <c r="I67" s="475">
+      <c r="C67" s="518"/>
+      <c r="D67" s="518"/>
+      <c r="E67" s="518"/>
+      <c r="F67" s="518"/>
+      <c r="G67" s="518"/>
+      <c r="H67" s="519"/>
+      <c r="I67" s="526">
         <f>N32</f>
         <v>9000000.0000000019</v>
       </c>
-      <c r="J67" s="475"/>
+      <c r="J67" s="526"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="74">
         <v>4</v>
       </c>
-      <c r="B68" s="463" t="s">
+      <c r="B68" s="517" t="s">
         <v>212</v>
       </c>
-      <c r="C68" s="464"/>
-      <c r="D68" s="464"/>
-      <c r="E68" s="464"/>
-      <c r="F68" s="464"/>
-      <c r="G68" s="464"/>
-      <c r="H68" s="465"/>
-      <c r="I68" s="475">
+      <c r="C68" s="518"/>
+      <c r="D68" s="518"/>
+      <c r="E68" s="518"/>
+      <c r="F68" s="518"/>
+      <c r="G68" s="518"/>
+      <c r="H68" s="519"/>
+      <c r="I68" s="526">
         <f>H62</f>
         <v>6113000</v>
       </c>
-      <c r="J68" s="475"/>
+      <c r="J68" s="526"/>
       <c r="L68" s="258"/>
       <c r="M68" s="258"/>
     </row>
@@ -13848,39 +13850,39 @@
       <c r="A69" s="74">
         <v>5</v>
       </c>
-      <c r="B69" s="463" t="s">
+      <c r="B69" s="517" t="s">
         <v>267</v>
       </c>
-      <c r="C69" s="464"/>
-      <c r="D69" s="464"/>
-      <c r="E69" s="464"/>
-      <c r="F69" s="464"/>
-      <c r="G69" s="464"/>
-      <c r="H69" s="465"/>
-      <c r="I69" s="466">
+      <c r="C69" s="518"/>
+      <c r="D69" s="518"/>
+      <c r="E69" s="518"/>
+      <c r="F69" s="518"/>
+      <c r="G69" s="518"/>
+      <c r="H69" s="519"/>
+      <c r="I69" s="520">
         <f>'Bảng lương'!K18</f>
         <v>4407604.153846154</v>
       </c>
-      <c r="J69" s="469"/>
+      <c r="J69" s="522"/>
     </row>
     <row r="70" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="74">
         <v>6</v>
       </c>
-      <c r="B70" s="470" t="s">
+      <c r="B70" s="523" t="s">
         <v>220</v>
       </c>
-      <c r="C70" s="471"/>
-      <c r="D70" s="471"/>
-      <c r="E70" s="471"/>
-      <c r="F70" s="471"/>
-      <c r="G70" s="471"/>
-      <c r="H70" s="472"/>
-      <c r="I70" s="475">
+      <c r="C70" s="524"/>
+      <c r="D70" s="524"/>
+      <c r="E70" s="524"/>
+      <c r="F70" s="524"/>
+      <c r="G70" s="524"/>
+      <c r="H70" s="525"/>
+      <c r="I70" s="526">
         <f>I65+I66-I67-I68-I69</f>
         <v>2112245.8461538479</v>
       </c>
-      <c r="J70" s="475"/>
+      <c r="J70" s="526"/>
       <c r="N70" s="258"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -13896,19 +13898,19 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="111"/>
-      <c r="B72" s="521" t="s">
+      <c r="B72" s="463" t="s">
         <v>196</v>
       </c>
-      <c r="C72" s="521"/>
-      <c r="D72" s="521"/>
+      <c r="C72" s="463"/>
+      <c r="D72" s="463"/>
       <c r="E72" s="111"/>
       <c r="F72" s="111"/>
       <c r="G72" s="111"/>
       <c r="H72" s="111"/>
-      <c r="I72" s="521" t="s">
+      <c r="I72" s="463" t="s">
         <v>249</v>
       </c>
-      <c r="J72" s="521"/>
+      <c r="J72" s="463"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="111"/>
@@ -13988,8 +13990,8 @@
       <c r="I79" s="244"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="506"/>
-      <c r="B80" s="506"/>
+      <c r="A80" s="486"/>
+      <c r="B80" s="486"/>
       <c r="E80" s="37"/>
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
@@ -13999,8 +14001,8 @@
       <c r="H82" s="245"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="506"/>
-      <c r="B84" s="506"/>
+      <c r="A84" s="486"/>
+      <c r="B84" s="486"/>
       <c r="E84" s="37"/>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -14008,6 +14010,115 @@
     </row>
   </sheetData>
   <mergeCells count="133">
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="A49:O49"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M38:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:L38"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="B72:D72"/>
@@ -14032,115 +14143,6 @@
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M38:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:L38"/>
-    <mergeCell ref="A49:O49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="H61:I61"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -14678,16 +14680,16 @@
       <c r="C1" s="206"/>
       <c r="D1" s="206"/>
       <c r="E1" s="206"/>
-      <c r="Z1" s="535" t="s">
+      <c r="Z1" s="547" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="536"/>
-      <c r="AB1" s="536"/>
-      <c r="AC1" s="536"/>
-      <c r="AD1" s="536"/>
-      <c r="AE1" s="536"/>
-      <c r="AF1" s="536"/>
-      <c r="AG1" s="537"/>
+      <c r="AA1" s="548"/>
+      <c r="AB1" s="548"/>
+      <c r="AC1" s="548"/>
+      <c r="AD1" s="548"/>
+      <c r="AE1" s="548"/>
+      <c r="AF1" s="548"/>
+      <c r="AG1" s="549"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="209" t="s">
@@ -14697,18 +14699,18 @@
       <c r="C2" s="210"/>
       <c r="D2" s="210"/>
       <c r="E2" s="210"/>
-      <c r="Z2" s="530" t="s">
+      <c r="Z2" s="534" t="s">
         <v>173</v>
       </c>
-      <c r="AA2" s="531"/>
-      <c r="AB2" s="531"/>
-      <c r="AC2" s="531"/>
-      <c r="AD2" s="531"/>
-      <c r="AE2" s="532"/>
-      <c r="AF2" s="533" t="s">
+      <c r="AA2" s="535"/>
+      <c r="AB2" s="535"/>
+      <c r="AC2" s="535"/>
+      <c r="AD2" s="535"/>
+      <c r="AE2" s="536"/>
+      <c r="AF2" s="537" t="s">
         <v>174</v>
       </c>
-      <c r="AG2" s="534"/>
+      <c r="AG2" s="538"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="209" t="s">
@@ -14718,18 +14720,18 @@
       <c r="C3" s="90"/>
       <c r="D3" s="90"/>
       <c r="E3" s="90"/>
-      <c r="Z3" s="530" t="s">
+      <c r="Z3" s="534" t="s">
         <v>176</v>
       </c>
-      <c r="AA3" s="531"/>
-      <c r="AB3" s="531"/>
-      <c r="AC3" s="531"/>
-      <c r="AD3" s="531"/>
-      <c r="AE3" s="532"/>
-      <c r="AF3" s="533" t="s">
+      <c r="AA3" s="535"/>
+      <c r="AB3" s="535"/>
+      <c r="AC3" s="535"/>
+      <c r="AD3" s="535"/>
+      <c r="AE3" s="536"/>
+      <c r="AF3" s="537" t="s">
         <v>177</v>
       </c>
-      <c r="AG3" s="534"/>
+      <c r="AG3" s="538"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="209" t="s">
@@ -14739,18 +14741,18 @@
       <c r="C4" s="90"/>
       <c r="D4" s="90"/>
       <c r="E4" s="90"/>
-      <c r="Z4" s="530" t="s">
+      <c r="Z4" s="534" t="s">
         <v>179</v>
       </c>
-      <c r="AA4" s="531"/>
-      <c r="AB4" s="531"/>
-      <c r="AC4" s="531"/>
-      <c r="AD4" s="531"/>
-      <c r="AE4" s="532"/>
-      <c r="AF4" s="533" t="s">
+      <c r="AA4" s="535"/>
+      <c r="AB4" s="535"/>
+      <c r="AC4" s="535"/>
+      <c r="AD4" s="535"/>
+      <c r="AE4" s="536"/>
+      <c r="AF4" s="537" t="s">
         <v>180</v>
       </c>
-      <c r="AG4" s="534"/>
+      <c r="AG4" s="538"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="209" t="s">
@@ -14760,18 +14762,18 @@
       <c r="C5" s="90"/>
       <c r="D5" s="90"/>
       <c r="E5" s="90"/>
-      <c r="Z5" s="530" t="s">
+      <c r="Z5" s="534" t="s">
         <v>182</v>
       </c>
-      <c r="AA5" s="531"/>
-      <c r="AB5" s="531"/>
-      <c r="AC5" s="531"/>
-      <c r="AD5" s="531"/>
-      <c r="AE5" s="532"/>
-      <c r="AF5" s="533" t="s">
+      <c r="AA5" s="535"/>
+      <c r="AB5" s="535"/>
+      <c r="AC5" s="535"/>
+      <c r="AD5" s="535"/>
+      <c r="AE5" s="536"/>
+      <c r="AF5" s="537" t="s">
         <v>183</v>
       </c>
-      <c r="AG5" s="534"/>
+      <c r="AG5" s="538"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="211"/>
@@ -14781,95 +14783,95 @@
       <c r="E6" s="211"/>
     </row>
     <row r="7" spans="1:35" s="213" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="538" t="s">
+      <c r="A7" s="539" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="538"/>
-      <c r="C7" s="538"/>
-      <c r="D7" s="538"/>
-      <c r="E7" s="538"/>
-      <c r="F7" s="538"/>
-      <c r="G7" s="538"/>
-      <c r="H7" s="538"/>
-      <c r="I7" s="538"/>
-      <c r="J7" s="538"/>
-      <c r="K7" s="538"/>
-      <c r="L7" s="538"/>
-      <c r="M7" s="538"/>
-      <c r="N7" s="538"/>
-      <c r="O7" s="538"/>
-      <c r="P7" s="538"/>
-      <c r="Q7" s="538"/>
-      <c r="R7" s="538"/>
-      <c r="S7" s="538"/>
-      <c r="T7" s="538"/>
-      <c r="U7" s="538"/>
-      <c r="V7" s="538"/>
-      <c r="W7" s="538"/>
-      <c r="X7" s="538"/>
-      <c r="Y7" s="538"/>
-      <c r="Z7" s="538"/>
-      <c r="AA7" s="538"/>
-      <c r="AB7" s="538"/>
-      <c r="AC7" s="538"/>
-      <c r="AD7" s="538"/>
-      <c r="AE7" s="538"/>
-      <c r="AF7" s="538"/>
-      <c r="AG7" s="538"/>
-      <c r="AH7" s="538"/>
-      <c r="AI7" s="538"/>
+      <c r="B7" s="539"/>
+      <c r="C7" s="539"/>
+      <c r="D7" s="539"/>
+      <c r="E7" s="539"/>
+      <c r="F7" s="539"/>
+      <c r="G7" s="539"/>
+      <c r="H7" s="539"/>
+      <c r="I7" s="539"/>
+      <c r="J7" s="539"/>
+      <c r="K7" s="539"/>
+      <c r="L7" s="539"/>
+      <c r="M7" s="539"/>
+      <c r="N7" s="539"/>
+      <c r="O7" s="539"/>
+      <c r="P7" s="539"/>
+      <c r="Q7" s="539"/>
+      <c r="R7" s="539"/>
+      <c r="S7" s="539"/>
+      <c r="T7" s="539"/>
+      <c r="U7" s="539"/>
+      <c r="V7" s="539"/>
+      <c r="W7" s="539"/>
+      <c r="X7" s="539"/>
+      <c r="Y7" s="539"/>
+      <c r="Z7" s="539"/>
+      <c r="AA7" s="539"/>
+      <c r="AB7" s="539"/>
+      <c r="AC7" s="539"/>
+      <c r="AD7" s="539"/>
+      <c r="AE7" s="539"/>
+      <c r="AF7" s="539"/>
+      <c r="AG7" s="539"/>
+      <c r="AH7" s="539"/>
+      <c r="AI7" s="539"/>
     </row>
     <row r="9" spans="1:35" s="214" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="539" t="s">
+      <c r="A9" s="540" t="s">
         <v>184</v>
       </c>
-      <c r="B9" s="539" t="s">
+      <c r="B9" s="540" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="539" t="s">
+      <c r="C9" s="540" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="542" t="s">
+      <c r="D9" s="543" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="543"/>
-      <c r="F9" s="543"/>
-      <c r="G9" s="543"/>
-      <c r="H9" s="543"/>
-      <c r="I9" s="543"/>
-      <c r="J9" s="543"/>
-      <c r="K9" s="543"/>
-      <c r="L9" s="543"/>
-      <c r="M9" s="543"/>
-      <c r="N9" s="543"/>
-      <c r="O9" s="543"/>
-      <c r="P9" s="543"/>
-      <c r="Q9" s="543"/>
-      <c r="R9" s="543"/>
-      <c r="S9" s="543"/>
-      <c r="T9" s="543"/>
-      <c r="U9" s="543"/>
-      <c r="V9" s="543"/>
-      <c r="W9" s="543"/>
-      <c r="X9" s="543"/>
-      <c r="Y9" s="543"/>
-      <c r="Z9" s="543"/>
-      <c r="AA9" s="543"/>
-      <c r="AB9" s="543"/>
-      <c r="AC9" s="543"/>
-      <c r="AD9" s="543"/>
-      <c r="AE9" s="543"/>
-      <c r="AF9" s="543"/>
-      <c r="AG9" s="543"/>
-      <c r="AH9" s="544"/>
-      <c r="AI9" s="545" t="s">
+      <c r="E9" s="544"/>
+      <c r="F9" s="544"/>
+      <c r="G9" s="544"/>
+      <c r="H9" s="544"/>
+      <c r="I9" s="544"/>
+      <c r="J9" s="544"/>
+      <c r="K9" s="544"/>
+      <c r="L9" s="544"/>
+      <c r="M9" s="544"/>
+      <c r="N9" s="544"/>
+      <c r="O9" s="544"/>
+      <c r="P9" s="544"/>
+      <c r="Q9" s="544"/>
+      <c r="R9" s="544"/>
+      <c r="S9" s="544"/>
+      <c r="T9" s="544"/>
+      <c r="U9" s="544"/>
+      <c r="V9" s="544"/>
+      <c r="W9" s="544"/>
+      <c r="X9" s="544"/>
+      <c r="Y9" s="544"/>
+      <c r="Z9" s="544"/>
+      <c r="AA9" s="544"/>
+      <c r="AB9" s="544"/>
+      <c r="AC9" s="544"/>
+      <c r="AD9" s="544"/>
+      <c r="AE9" s="544"/>
+      <c r="AF9" s="544"/>
+      <c r="AG9" s="544"/>
+      <c r="AH9" s="545"/>
+      <c r="AI9" s="546" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:35" s="214" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="540"/>
-      <c r="B10" s="540"/>
-      <c r="C10" s="540"/>
+      <c r="A10" s="541"/>
+      <c r="B10" s="541"/>
+      <c r="C10" s="541"/>
       <c r="D10" s="215">
         <v>1</v>
       </c>
@@ -14963,12 +14965,12 @@
       <c r="AH10" s="215">
         <v>31</v>
       </c>
-      <c r="AI10" s="545"/>
+      <c r="AI10" s="546"/>
     </row>
     <row r="11" spans="1:35" s="222" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="541"/>
-      <c r="B11" s="541"/>
-      <c r="C11" s="541"/>
+      <c r="A11" s="542"/>
+      <c r="B11" s="542"/>
+      <c r="C11" s="542"/>
       <c r="D11" s="215" t="s">
         <v>189</v>
       </c>
@@ -15062,7 +15064,7 @@
       <c r="AH11" s="220" t="s">
         <v>191</v>
       </c>
-      <c r="AI11" s="545"/>
+      <c r="AI11" s="546"/>
     </row>
     <row r="12" spans="1:35" s="222" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="249">
@@ -15581,10 +15583,10 @@
       </c>
     </row>
     <row r="18" spans="1:35" s="222" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="546" t="s">
+      <c r="A18" s="530" t="s">
         <v>198</v>
       </c>
-      <c r="B18" s="547"/>
+      <c r="B18" s="531"/>
       <c r="C18" s="230"/>
       <c r="D18" s="230"/>
       <c r="E18" s="231"/>
@@ -15623,53 +15625,55 @@
       </c>
     </row>
     <row r="20" spans="1:35" s="236" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="548" t="s">
+      <c r="A20" s="532" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="548"/>
-      <c r="C20" s="548"/>
-      <c r="D20" s="548"/>
-      <c r="E20" s="548"/>
-      <c r="F20" s="548"/>
-      <c r="G20" s="548"/>
+      <c r="B20" s="532"/>
+      <c r="C20" s="532"/>
+      <c r="D20" s="532"/>
+      <c r="E20" s="532"/>
+      <c r="F20" s="532"/>
+      <c r="G20" s="532"/>
       <c r="H20" s="232"/>
-      <c r="I20" s="549"/>
-      <c r="J20" s="549"/>
-      <c r="K20" s="549"/>
-      <c r="L20" s="549"/>
-      <c r="M20" s="549"/>
+      <c r="I20" s="533"/>
+      <c r="J20" s="533"/>
+      <c r="K20" s="533"/>
+      <c r="L20" s="533"/>
+      <c r="M20" s="533"/>
       <c r="N20" s="233"/>
-      <c r="O20" s="549" t="s">
+      <c r="O20" s="533" t="s">
         <v>199</v>
       </c>
-      <c r="P20" s="549"/>
-      <c r="Q20" s="549"/>
-      <c r="R20" s="549"/>
-      <c r="S20" s="549"/>
-      <c r="T20" s="549"/>
-      <c r="U20" s="549"/>
-      <c r="V20" s="549"/>
-      <c r="W20" s="549"/>
-      <c r="X20" s="549"/>
-      <c r="Y20" s="549"/>
+      <c r="P20" s="533"/>
+      <c r="Q20" s="533"/>
+      <c r="R20" s="533"/>
+      <c r="S20" s="533"/>
+      <c r="T20" s="533"/>
+      <c r="U20" s="533"/>
+      <c r="V20" s="533"/>
+      <c r="W20" s="533"/>
+      <c r="X20" s="533"/>
+      <c r="Y20" s="533"/>
       <c r="Z20" s="234"/>
       <c r="AA20" s="234"/>
       <c r="AB20" s="235"/>
-      <c r="AC20" s="549"/>
-      <c r="AD20" s="549"/>
-      <c r="AE20" s="549"/>
-      <c r="AF20" s="549"/>
-      <c r="AG20" s="549"/>
-      <c r="AH20" s="549"/>
-      <c r="AI20" s="549"/>
+      <c r="AC20" s="533"/>
+      <c r="AD20" s="533"/>
+      <c r="AE20" s="533"/>
+      <c r="AF20" s="533"/>
+      <c r="AG20" s="533"/>
+      <c r="AH20" s="533"/>
+      <c r="AI20" s="533"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="O20:Y20"/>
-    <mergeCell ref="AC20:AI20"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
     <mergeCell ref="A7:AI7"/>
@@ -15678,13 +15682,11 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:AH9"/>
     <mergeCell ref="AI9:AI11"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="O20:Y20"/>
+    <mergeCell ref="AC20:AI20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -16536,40 +16538,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="40" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="550" t="s">
+      <c r="A1" s="560" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="550"/>
-      <c r="C1" s="550"/>
-      <c r="D1" s="550"/>
+      <c r="B1" s="560"/>
+      <c r="C1" s="560"/>
+      <c r="D1" s="560"/>
       <c r="E1" s="91"/>
-      <c r="F1" s="551" t="s">
+      <c r="F1" s="561" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="551"/>
-      <c r="H1" s="551"/>
-      <c r="I1" s="551"/>
-      <c r="J1" s="551"/>
-      <c r="K1" s="551"/>
-      <c r="L1" s="551"/>
+      <c r="G1" s="561"/>
+      <c r="H1" s="561"/>
+      <c r="I1" s="561"/>
+      <c r="J1" s="561"/>
+      <c r="K1" s="561"/>
+      <c r="L1" s="561"/>
     </row>
     <row r="2" spans="1:13" s="40" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="552" t="s">
+      <c r="A2" s="562" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="552"/>
-      <c r="C2" s="552"/>
-      <c r="D2" s="552"/>
+      <c r="B2" s="562"/>
+      <c r="C2" s="562"/>
+      <c r="D2" s="562"/>
       <c r="E2" s="91"/>
-      <c r="F2" s="553" t="s">
+      <c r="F2" s="563" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="553"/>
-      <c r="H2" s="553"/>
-      <c r="I2" s="553"/>
-      <c r="J2" s="553"/>
-      <c r="K2" s="553"/>
-      <c r="L2" s="553"/>
+      <c r="G2" s="563"/>
+      <c r="H2" s="563"/>
+      <c r="I2" s="563"/>
+      <c r="J2" s="563"/>
+      <c r="K2" s="563"/>
+      <c r="L2" s="563"/>
     </row>
     <row r="3" spans="1:13" s="40" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
@@ -16583,45 +16585,45 @@
       <c r="J3" s="92"/>
     </row>
     <row r="4" spans="1:13" s="43" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="554" t="s">
+      <c r="A4" s="564" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="554"/>
-      <c r="C4" s="554"/>
-      <c r="D4" s="554"/>
-      <c r="E4" s="554"/>
-      <c r="F4" s="554"/>
-      <c r="G4" s="554"/>
-      <c r="H4" s="554"/>
-      <c r="I4" s="554"/>
-      <c r="J4" s="554"/>
-      <c r="K4" s="554"/>
-      <c r="L4" s="554"/>
-      <c r="M4" s="554"/>
+      <c r="B4" s="564"/>
+      <c r="C4" s="564"/>
+      <c r="D4" s="564"/>
+      <c r="E4" s="564"/>
+      <c r="F4" s="564"/>
+      <c r="G4" s="564"/>
+      <c r="H4" s="564"/>
+      <c r="I4" s="564"/>
+      <c r="J4" s="564"/>
+      <c r="K4" s="564"/>
+      <c r="L4" s="564"/>
+      <c r="M4" s="564"/>
     </row>
     <row r="5" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="555" t="s">
+      <c r="A5" s="550" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="555"/>
-      <c r="C5" s="555"/>
-      <c r="D5" s="555"/>
-      <c r="E5" s="555"/>
-      <c r="F5" s="555"/>
-      <c r="G5" s="555"/>
-      <c r="H5" s="555"/>
-      <c r="I5" s="555"/>
-      <c r="J5" s="555"/>
-      <c r="K5" s="555"/>
-      <c r="L5" s="555"/>
-      <c r="M5" s="555"/>
+      <c r="B5" s="550"/>
+      <c r="C5" s="550"/>
+      <c r="D5" s="550"/>
+      <c r="E5" s="550"/>
+      <c r="F5" s="550"/>
+      <c r="G5" s="550"/>
+      <c r="H5" s="550"/>
+      <c r="I5" s="550"/>
+      <c r="J5" s="550"/>
+      <c r="K5" s="550"/>
+      <c r="L5" s="550"/>
+      <c r="M5" s="550"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K6" s="556" t="s">
+      <c r="K6" s="551" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="556"/>
-      <c r="M6" s="556"/>
+      <c r="L6" s="551"/>
+      <c r="M6" s="551"/>
     </row>
     <row r="7" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
@@ -16692,10 +16694,10 @@
       <c r="M8" s="52"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="557" t="s">
+      <c r="A9" s="552" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="558"/>
+      <c r="B9" s="553"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
       <c r="E9" s="53"/>
@@ -16876,11 +16878,11 @@
       <c r="M13" s="60"/>
     </row>
     <row r="14" spans="1:13" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="562" t="s">
+      <c r="A14" s="557" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="563"/>
-      <c r="C14" s="564"/>
+      <c r="B14" s="558"/>
+      <c r="C14" s="559"/>
       <c r="D14" s="100">
         <f>SUM(D10:D13)</f>
         <v>37000000</v>
@@ -16914,10 +16916,10 @@
       <c r="M14" s="102"/>
     </row>
     <row r="15" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="559" t="s">
+      <c r="A15" s="554" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="560"/>
+      <c r="B15" s="555"/>
       <c r="C15" s="94"/>
       <c r="D15" s="95"/>
       <c r="E15" s="109"/>
@@ -17050,11 +17052,11 @@
       <c r="M18" s="64"/>
     </row>
     <row r="19" spans="1:13" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="562" t="s">
+      <c r="A19" s="557" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="563"/>
-      <c r="C19" s="564"/>
+      <c r="B19" s="558"/>
+      <c r="C19" s="559"/>
       <c r="D19" s="103">
         <f>SUM(D16:D18)</f>
         <v>18000000</v>
@@ -17088,14 +17090,14 @@
       <c r="M19" s="102"/>
     </row>
     <row r="21" spans="1:13" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="561"/>
-      <c r="C21" s="561"/>
-      <c r="D21" s="561"/>
+      <c r="B21" s="556"/>
+      <c r="C21" s="556"/>
+      <c r="D21" s="556"/>
       <c r="E21" s="93"/>
-      <c r="I21" s="561"/>
-      <c r="J21" s="561"/>
-      <c r="K21" s="561"/>
-      <c r="L21" s="561"/>
+      <c r="I21" s="556"/>
+      <c r="J21" s="556"/>
+      <c r="K21" s="556"/>
+      <c r="L21" s="556"/>
     </row>
     <row r="22" spans="1:13" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" s="110" t="s">
@@ -17138,6 +17140,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="A9:B9"/>
@@ -17146,11 +17153,6 @@
     <mergeCell ref="I21:L21"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.26" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -17195,77 +17197,77 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="590" t="s">
+      <c r="A3" s="566" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="590"/>
-      <c r="C3" s="590"/>
-      <c r="D3" s="590"/>
-      <c r="E3" s="590"/>
-      <c r="F3" s="590"/>
-      <c r="G3" s="590"/>
-      <c r="H3" s="590"/>
-      <c r="I3" s="590"/>
-      <c r="J3" s="590"/>
-      <c r="K3" s="590"/>
-      <c r="L3" s="590"/>
-      <c r="M3" s="590"/>
-      <c r="N3" s="590"/>
-      <c r="O3" s="590"/>
+      <c r="B3" s="566"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="566"/>
+      <c r="E3" s="566"/>
+      <c r="F3" s="566"/>
+      <c r="G3" s="566"/>
+      <c r="H3" s="566"/>
+      <c r="I3" s="566"/>
+      <c r="J3" s="566"/>
+      <c r="K3" s="566"/>
+      <c r="L3" s="566"/>
+      <c r="M3" s="566"/>
+      <c r="N3" s="566"/>
+      <c r="O3" s="566"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="591" t="s">
+      <c r="A4" s="567" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="591"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="591"/>
-      <c r="E4" s="591"/>
-      <c r="F4" s="591"/>
-      <c r="G4" s="591"/>
-      <c r="H4" s="591"/>
-      <c r="I4" s="591"/>
-      <c r="J4" s="592"/>
-      <c r="K4" s="591"/>
-      <c r="L4" s="591"/>
-      <c r="M4" s="591"/>
-      <c r="N4" s="591"/>
-      <c r="O4" s="591"/>
+      <c r="B4" s="567"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="567"/>
+      <c r="E4" s="567"/>
+      <c r="F4" s="567"/>
+      <c r="G4" s="567"/>
+      <c r="H4" s="567"/>
+      <c r="I4" s="567"/>
+      <c r="J4" s="568"/>
+      <c r="K4" s="567"/>
+      <c r="L4" s="567"/>
+      <c r="M4" s="567"/>
+      <c r="N4" s="567"/>
+      <c r="O4" s="567"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="593" t="s">
+      <c r="A5" s="569" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="595" t="s">
+      <c r="B5" s="571" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="597" t="s">
+      <c r="C5" s="573" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="597"/>
-      <c r="E5" s="597"/>
-      <c r="F5" s="598" t="s">
+      <c r="D5" s="573"/>
+      <c r="E5" s="573"/>
+      <c r="F5" s="574" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="598"/>
-      <c r="H5" s="598"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600" t="s">
+      <c r="G5" s="574"/>
+      <c r="H5" s="574"/>
+      <c r="I5" s="574"/>
+      <c r="J5" s="575"/>
+      <c r="K5" s="576" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="598" t="s">
+      <c r="L5" s="574" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="598"/>
-      <c r="N5" s="598"/>
-      <c r="O5" s="602" t="s">
+      <c r="M5" s="574"/>
+      <c r="N5" s="574"/>
+      <c r="O5" s="578" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="594"/>
-      <c r="B6" s="596"/>
+      <c r="A6" s="570"/>
+      <c r="B6" s="572"/>
       <c r="C6" s="88" t="s">
         <v>48</v>
       </c>
@@ -17290,7 +17292,7 @@
       <c r="J6" s="276" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="601"/>
+      <c r="K6" s="577"/>
       <c r="L6" s="88" t="s">
         <v>53</v>
       </c>
@@ -17300,7 +17302,7 @@
       <c r="N6" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="603"/>
+      <c r="O6" s="579"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="290">
@@ -17342,19 +17344,19 @@
       <c r="O7" s="164"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="565">
+      <c r="A8" s="580">
         <v>1149</v>
       </c>
-      <c r="B8" s="577">
+      <c r="B8" s="583">
         <v>43987</v>
       </c>
-      <c r="C8" s="574" t="s">
+      <c r="C8" s="586" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="604" t="s">
+      <c r="D8" s="589" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="574"/>
+      <c r="E8" s="586"/>
       <c r="F8" s="259" t="s">
         <v>129</v>
       </c>
@@ -17381,11 +17383,11 @@
       <c r="O8" s="263"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="566"/>
-      <c r="B9" s="578"/>
-      <c r="C9" s="575"/>
-      <c r="D9" s="605"/>
-      <c r="E9" s="575"/>
+      <c r="A9" s="581"/>
+      <c r="B9" s="584"/>
+      <c r="C9" s="587"/>
+      <c r="D9" s="590"/>
+      <c r="E9" s="587"/>
       <c r="F9" s="264" t="s">
         <v>130</v>
       </c>
@@ -17412,11 +17414,11 @@
       <c r="O9" s="268"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="567"/>
-      <c r="B10" s="579"/>
-      <c r="C10" s="576"/>
-      <c r="D10" s="606"/>
-      <c r="E10" s="576"/>
+      <c r="A10" s="582"/>
+      <c r="B10" s="585"/>
+      <c r="C10" s="588"/>
+      <c r="D10" s="591"/>
+      <c r="E10" s="588"/>
       <c r="F10" s="269" t="s">
         <v>131</v>
       </c>
@@ -17517,17 +17519,17 @@
       <c r="O12" s="164"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="565">
+      <c r="A13" s="580">
         <v>544</v>
       </c>
-      <c r="B13" s="577">
+      <c r="B13" s="583">
         <v>43973</v>
       </c>
-      <c r="C13" s="580" t="s">
+      <c r="C13" s="595" t="s">
         <v>257</v>
       </c>
-      <c r="D13" s="583"/>
-      <c r="E13" s="583"/>
+      <c r="D13" s="592"/>
+      <c r="E13" s="592"/>
       <c r="F13" s="259" t="s">
         <v>117</v>
       </c>
@@ -17552,11 +17554,11 @@
       <c r="O13" s="263"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="566"/>
-      <c r="B14" s="578"/>
-      <c r="C14" s="581"/>
-      <c r="D14" s="584"/>
-      <c r="E14" s="584"/>
+      <c r="A14" s="581"/>
+      <c r="B14" s="584"/>
+      <c r="C14" s="596"/>
+      <c r="D14" s="593"/>
+      <c r="E14" s="593"/>
       <c r="F14" s="264" t="s">
         <v>36</v>
       </c>
@@ -17581,11 +17583,11 @@
       <c r="O14" s="268"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="566"/>
-      <c r="B15" s="578"/>
-      <c r="C15" s="581"/>
-      <c r="D15" s="584"/>
-      <c r="E15" s="584"/>
+      <c r="A15" s="581"/>
+      <c r="B15" s="584"/>
+      <c r="C15" s="596"/>
+      <c r="D15" s="593"/>
+      <c r="E15" s="593"/>
       <c r="F15" s="264" t="s">
         <v>37</v>
       </c>
@@ -17610,11 +17612,11 @@
       <c r="O15" s="268"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="566"/>
-      <c r="B16" s="578"/>
-      <c r="C16" s="581"/>
-      <c r="D16" s="584"/>
-      <c r="E16" s="584"/>
+      <c r="A16" s="581"/>
+      <c r="B16" s="584"/>
+      <c r="C16" s="596"/>
+      <c r="D16" s="593"/>
+      <c r="E16" s="593"/>
       <c r="F16" s="264" t="s">
         <v>40</v>
       </c>
@@ -17639,11 +17641,11 @@
       <c r="O16" s="268"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="566"/>
-      <c r="B17" s="578"/>
-      <c r="C17" s="581"/>
-      <c r="D17" s="584"/>
-      <c r="E17" s="584"/>
+      <c r="A17" s="581"/>
+      <c r="B17" s="584"/>
+      <c r="C17" s="596"/>
+      <c r="D17" s="593"/>
+      <c r="E17" s="593"/>
       <c r="F17" s="264" t="s">
         <v>42</v>
       </c>
@@ -17668,11 +17670,11 @@
       <c r="O17" s="268"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="566"/>
-      <c r="B18" s="578"/>
-      <c r="C18" s="581"/>
-      <c r="D18" s="584"/>
-      <c r="E18" s="584"/>
+      <c r="A18" s="581"/>
+      <c r="B18" s="584"/>
+      <c r="C18" s="596"/>
+      <c r="D18" s="593"/>
+      <c r="E18" s="593"/>
       <c r="F18" s="264" t="s">
         <v>41</v>
       </c>
@@ -17697,11 +17699,11 @@
       <c r="O18" s="268"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="566"/>
-      <c r="B19" s="578"/>
-      <c r="C19" s="581"/>
-      <c r="D19" s="584"/>
-      <c r="E19" s="584"/>
+      <c r="A19" s="581"/>
+      <c r="B19" s="584"/>
+      <c r="C19" s="596"/>
+      <c r="D19" s="593"/>
+      <c r="E19" s="593"/>
       <c r="F19" s="264" t="s">
         <v>38</v>
       </c>
@@ -17726,11 +17728,11 @@
       <c r="O19" s="268"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="566"/>
-      <c r="B20" s="578"/>
-      <c r="C20" s="581"/>
-      <c r="D20" s="584"/>
-      <c r="E20" s="584"/>
+      <c r="A20" s="581"/>
+      <c r="B20" s="584"/>
+      <c r="C20" s="596"/>
+      <c r="D20" s="593"/>
+      <c r="E20" s="593"/>
       <c r="F20" s="264" t="s">
         <v>39</v>
       </c>
@@ -17755,11 +17757,11 @@
       <c r="O20" s="268"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="567"/>
-      <c r="B21" s="579"/>
-      <c r="C21" s="582"/>
-      <c r="D21" s="585"/>
-      <c r="E21" s="585"/>
+      <c r="A21" s="582"/>
+      <c r="B21" s="585"/>
+      <c r="C21" s="597"/>
+      <c r="D21" s="594"/>
+      <c r="E21" s="594"/>
       <c r="F21" s="269" t="s">
         <v>67</v>
       </c>
@@ -17823,16 +17825,16 @@
       <c r="O22" s="277"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="565">
+      <c r="A23" s="580">
         <v>552</v>
       </c>
-      <c r="B23" s="571">
+      <c r="B23" s="601">
         <v>43975</v>
       </c>
-      <c r="C23" s="568" t="s">
+      <c r="C23" s="604" t="s">
         <v>273</v>
       </c>
-      <c r="D23" s="565" t="s">
+      <c r="D23" s="580" t="s">
         <v>119</v>
       </c>
       <c r="E23" s="278"/>
@@ -17862,10 +17864,10 @@
       <c r="O23" s="278"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="566"/>
-      <c r="B24" s="572"/>
-      <c r="C24" s="569"/>
-      <c r="D24" s="566"/>
+      <c r="A24" s="581"/>
+      <c r="B24" s="602"/>
+      <c r="C24" s="605"/>
+      <c r="D24" s="581"/>
       <c r="E24" s="279"/>
       <c r="F24" s="279" t="s">
         <v>38</v>
@@ -17893,10 +17895,10 @@
       <c r="O24" s="279"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="566"/>
-      <c r="B25" s="572"/>
-      <c r="C25" s="569"/>
-      <c r="D25" s="566"/>
+      <c r="A25" s="581"/>
+      <c r="B25" s="602"/>
+      <c r="C25" s="605"/>
+      <c r="D25" s="581"/>
       <c r="E25" s="279"/>
       <c r="F25" s="279" t="s">
         <v>255</v>
@@ -17924,10 +17926,10 @@
       <c r="O25" s="279"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="567"/>
-      <c r="B26" s="573"/>
-      <c r="C26" s="570"/>
-      <c r="D26" s="567"/>
+      <c r="A26" s="582"/>
+      <c r="B26" s="603"/>
+      <c r="C26" s="606"/>
+      <c r="D26" s="582"/>
       <c r="E26" s="280"/>
       <c r="F26" s="280" t="s">
         <v>39</v>
@@ -17955,13 +17957,13 @@
       <c r="O26" s="280"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="565">
+      <c r="A27" s="580">
         <v>553</v>
       </c>
-      <c r="B27" s="571">
+      <c r="B27" s="601">
         <v>43975</v>
       </c>
-      <c r="C27" s="586" t="s">
+      <c r="C27" s="598" t="s">
         <v>274</v>
       </c>
       <c r="D27" s="278"/>
@@ -17992,9 +17994,9 @@
       <c r="O27" s="278"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="566"/>
-      <c r="B28" s="572"/>
-      <c r="C28" s="587"/>
+      <c r="A28" s="581"/>
+      <c r="B28" s="602"/>
+      <c r="C28" s="599"/>
       <c r="D28" s="279"/>
       <c r="E28" s="279"/>
       <c r="F28" s="279" t="s">
@@ -18023,9 +18025,9 @@
       <c r="O28" s="279"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="567"/>
-      <c r="B29" s="573"/>
-      <c r="C29" s="588"/>
+      <c r="A29" s="582"/>
+      <c r="B29" s="603"/>
+      <c r="C29" s="600"/>
       <c r="D29" s="280"/>
       <c r="E29" s="280"/>
       <c r="F29" s="280" t="s">
@@ -18074,13 +18076,13 @@
       <c r="O30" s="277"/>
     </row>
     <row r="31" spans="1:15" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="589" t="s">
+      <c r="A31" s="565" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="589"/>
-      <c r="C31" s="589"/>
-      <c r="D31" s="589"/>
-      <c r="E31" s="589"/>
+      <c r="B31" s="565"/>
+      <c r="C31" s="565"/>
+      <c r="D31" s="565"/>
+      <c r="E31" s="565"/>
       <c r="F31" s="149"/>
       <c r="G31" s="149">
         <f>SUM(G7:G29)</f>
@@ -18165,6 +18167,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A4:O4"/>
@@ -18181,17 +18194,6 @@
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="A13:A21"/>
     <mergeCell ref="E13:E21"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="C13:C21"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <pageMargins left="0.36" right="0.2" top="0.48" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -18220,13 +18222,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="624" t="s">
+      <c r="A1" s="607" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="624"/>
-      <c r="C1" s="624"/>
-      <c r="D1" s="624"/>
-      <c r="E1" s="624"/>
+      <c r="B1" s="607"/>
+      <c r="C1" s="607"/>
+      <c r="D1" s="607"/>
+      <c r="E1" s="607"/>
       <c r="F1" s="314"/>
       <c r="G1" s="314"/>
       <c r="H1" s="314"/>
@@ -18263,16 +18265,16 @@
       <c r="K3" s="315"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="625" t="s">
+      <c r="A4" s="608" t="s">
         <v>307</v>
       </c>
-      <c r="B4" s="625"/>
-      <c r="C4" s="625"/>
-      <c r="D4" s="625"/>
-      <c r="E4" s="625"/>
-      <c r="F4" s="625"/>
-      <c r="G4" s="625"/>
-      <c r="H4" s="625"/>
+      <c r="B4" s="608"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="608"/>
+      <c r="E4" s="608"/>
+      <c r="F4" s="608"/>
+      <c r="G4" s="608"/>
+      <c r="H4" s="608"/>
       <c r="I4" s="320"/>
       <c r="J4" s="315"/>
       <c r="K4" s="315"/>
@@ -18291,31 +18293,31 @@
       <c r="K5" s="315"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="626" t="s">
+      <c r="A6" s="609" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="627" t="s">
+      <c r="B6" s="610" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="628" t="s">
+      <c r="C6" s="611" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="628"/>
-      <c r="E6" s="628"/>
-      <c r="F6" s="628"/>
-      <c r="G6" s="629"/>
-      <c r="H6" s="626" t="s">
+      <c r="D6" s="611"/>
+      <c r="E6" s="611"/>
+      <c r="F6" s="611"/>
+      <c r="G6" s="612"/>
+      <c r="H6" s="609" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="608" t="s">
+      <c r="I6" s="614" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="315"/>
       <c r="K6" s="315"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="626"/>
-      <c r="B7" s="627"/>
+      <c r="A7" s="609"/>
+      <c r="B7" s="610"/>
       <c r="C7" s="324" t="s">
         <v>31</v>
       </c>
@@ -18331,8 +18333,8 @@
       <c r="G7" s="325" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="626"/>
-      <c r="I7" s="609"/>
+      <c r="H7" s="609"/>
+      <c r="I7" s="615"/>
       <c r="J7" s="315"/>
       <c r="K7" s="315"/>
     </row>
@@ -18366,10 +18368,10 @@
       <c r="K8" s="315"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="610">
+      <c r="A9" s="616">
         <v>452</v>
       </c>
-      <c r="B9" s="613">
+      <c r="B9" s="619">
         <v>43942</v>
       </c>
       <c r="C9" s="335" t="s">
@@ -18395,8 +18397,8 @@
       <c r="K9" s="315"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="611"/>
-      <c r="B10" s="614"/>
+      <c r="A10" s="617"/>
+      <c r="B10" s="620"/>
       <c r="C10" s="341" t="s">
         <v>39</v>
       </c>
@@ -18420,8 +18422,8 @@
       <c r="K10" s="315"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="612"/>
-      <c r="B11" s="615"/>
+      <c r="A11" s="618"/>
+      <c r="B11" s="621"/>
       <c r="C11" s="347" t="s">
         <v>67</v>
       </c>
@@ -18466,16 +18468,16 @@
       <c r="K12" s="315"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="616" t="s">
+      <c r="A13" s="622" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="616"/>
-      <c r="C13" s="616"/>
-      <c r="D13" s="616"/>
-      <c r="E13" s="616"/>
-      <c r="F13" s="616"/>
-      <c r="G13" s="616"/>
-      <c r="H13" s="616"/>
+      <c r="B13" s="622"/>
+      <c r="C13" s="622"/>
+      <c r="D13" s="622"/>
+      <c r="E13" s="622"/>
+      <c r="F13" s="622"/>
+      <c r="G13" s="622"/>
+      <c r="H13" s="622"/>
       <c r="I13" s="358">
         <v>19328400.000000004</v>
       </c>
@@ -18483,16 +18485,16 @@
       <c r="K13" s="315"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="616" t="s">
+      <c r="A14" s="622" t="s">
         <v>309</v>
       </c>
-      <c r="B14" s="616"/>
-      <c r="C14" s="616"/>
-      <c r="D14" s="616"/>
-      <c r="E14" s="616"/>
-      <c r="F14" s="616"/>
-      <c r="G14" s="616"/>
-      <c r="H14" s="616"/>
+      <c r="B14" s="622"/>
+      <c r="C14" s="622"/>
+      <c r="D14" s="622"/>
+      <c r="E14" s="622"/>
+      <c r="F14" s="622"/>
+      <c r="G14" s="622"/>
+      <c r="H14" s="622"/>
       <c r="I14" s="358">
         <v>23794300</v>
       </c>
@@ -18500,16 +18502,16 @@
       <c r="K14" s="315"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="617" t="s">
+      <c r="A15" s="623" t="s">
         <v>310</v>
       </c>
-      <c r="B15" s="618"/>
-      <c r="C15" s="618"/>
-      <c r="D15" s="618"/>
-      <c r="E15" s="618"/>
-      <c r="F15" s="618"/>
-      <c r="G15" s="618"/>
-      <c r="H15" s="619"/>
+      <c r="B15" s="624"/>
+      <c r="C15" s="624"/>
+      <c r="D15" s="624"/>
+      <c r="E15" s="624"/>
+      <c r="F15" s="624"/>
+      <c r="G15" s="624"/>
+      <c r="H15" s="625"/>
       <c r="I15" s="358">
         <v>10000000</v>
       </c>
@@ -18517,16 +18519,16 @@
       <c r="K15" s="315"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="617" t="s">
+      <c r="A16" s="623" t="s">
         <v>311</v>
       </c>
-      <c r="B16" s="618"/>
-      <c r="C16" s="618"/>
-      <c r="D16" s="618"/>
-      <c r="E16" s="618"/>
-      <c r="F16" s="618"/>
-      <c r="G16" s="618"/>
-      <c r="H16" s="619"/>
+      <c r="B16" s="624"/>
+      <c r="C16" s="624"/>
+      <c r="D16" s="624"/>
+      <c r="E16" s="624"/>
+      <c r="F16" s="624"/>
+      <c r="G16" s="624"/>
+      <c r="H16" s="625"/>
       <c r="I16" s="358">
         <v>7538461.538461539</v>
       </c>
@@ -18534,16 +18536,16 @@
       <c r="K16" s="315"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="617" t="s">
+      <c r="A17" s="623" t="s">
         <v>312</v>
       </c>
-      <c r="B17" s="618"/>
-      <c r="C17" s="618"/>
-      <c r="D17" s="618"/>
-      <c r="E17" s="618"/>
-      <c r="F17" s="618"/>
-      <c r="G17" s="618"/>
-      <c r="H17" s="619"/>
+      <c r="B17" s="624"/>
+      <c r="C17" s="624"/>
+      <c r="D17" s="624"/>
+      <c r="E17" s="624"/>
+      <c r="F17" s="624"/>
+      <c r="G17" s="624"/>
+      <c r="H17" s="625"/>
       <c r="I17" s="358">
         <v>1783100</v>
       </c>
@@ -18551,16 +18553,16 @@
       <c r="K17" s="315"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="620" t="s">
+      <c r="A18" s="626" t="s">
         <v>313</v>
       </c>
-      <c r="B18" s="621"/>
-      <c r="C18" s="621"/>
-      <c r="D18" s="621"/>
-      <c r="E18" s="621"/>
-      <c r="F18" s="621"/>
-      <c r="G18" s="621"/>
-      <c r="H18" s="622"/>
+      <c r="B18" s="627"/>
+      <c r="C18" s="627"/>
+      <c r="D18" s="627"/>
+      <c r="E18" s="627"/>
+      <c r="F18" s="627"/>
+      <c r="G18" s="627"/>
+      <c r="H18" s="628"/>
       <c r="I18" s="359">
         <f>I13+I14-I15-I16-I17</f>
         <v>23801138.46153846</v>
@@ -18578,8 +18580,8 @@
       <c r="I19" s="361"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="623"/>
-      <c r="B20" s="623"/>
+      <c r="A20" s="629"/>
+      <c r="B20" s="629"/>
       <c r="C20" s="362" t="s">
         <v>314</v>
       </c>
@@ -18602,8 +18604,8 @@
       <c r="I22" s="315"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="623"/>
-      <c r="B24" s="623"/>
+      <c r="A24" s="629"/>
+      <c r="B24" s="629"/>
       <c r="C24" s="315"/>
       <c r="D24" s="315"/>
       <c r="E24" s="362"/>
@@ -18613,26 +18615,20 @@
       <c r="I24" s="315"/>
     </row>
     <row r="27" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="607" t="s">
+      <c r="A27" s="613" t="s">
         <v>315</v>
       </c>
-      <c r="B27" s="607"/>
-      <c r="C27" s="607"/>
-      <c r="D27" s="607"/>
-      <c r="E27" s="607"/>
-      <c r="F27" s="607"/>
-      <c r="G27" s="607"/>
-      <c r="H27" s="607"/>
-      <c r="I27" s="607"/>
+      <c r="B27" s="613"/>
+      <c r="C27" s="613"/>
+      <c r="D27" s="613"/>
+      <c r="E27" s="613"/>
+      <c r="F27" s="613"/>
+      <c r="G27" s="613"/>
+      <c r="H27" s="613"/>
+      <c r="I27" s="613"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="A9:A11"/>
@@ -18645,6 +18641,12 @@
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 5_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 5_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="323">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1073,6 +1073,12 @@
   </si>
   <si>
     <t>dịch vụ dừng đỗ xe</t>
+  </si>
+  <si>
+    <t>Công ty nợ 9tr8</t>
+  </si>
+  <si>
+    <t>Sơn trả 37 soy CK 35</t>
   </si>
 </sst>
 </file>
@@ -1824,7 +1830,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="642">
+  <cellXfs count="643">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2944,6 +2950,57 @@
     <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2956,55 +3013,13 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3016,16 +3031,91 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="47" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3037,90 +3127,6 @@
     <xf numFmtId="167" fontId="47" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="34" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="34" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="34" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3130,6 +3136,168 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3142,9 +3310,6 @@
     <xf numFmtId="167" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3160,177 +3325,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="32" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3344,15 +3362,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3379,17 +3388,44 @@
     <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3406,35 +3442,71 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3478,71 +3550,23 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3595,24 +3619,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3998,21 +4005,21 @@
       <c r="L3" s="133"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="435" t="s">
+      <c r="A4" s="419" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="435"/>
-      <c r="C4" s="435"/>
-      <c r="D4" s="435"/>
-      <c r="E4" s="435"/>
-      <c r="F4" s="435"/>
-      <c r="G4" s="435"/>
+      <c r="B4" s="419"/>
+      <c r="C4" s="419"/>
+      <c r="D4" s="419"/>
+      <c r="E4" s="419"/>
+      <c r="F4" s="419"/>
+      <c r="G4" s="419"/>
       <c r="H4" s="133"/>
-      <c r="I4" s="435" t="s">
+      <c r="I4" s="419" t="s">
         <v>313</v>
       </c>
-      <c r="J4" s="435"/>
-      <c r="K4" s="435"/>
+      <c r="J4" s="419"/>
+      <c r="K4" s="419"/>
       <c r="L4" s="133"/>
     </row>
     <row r="5" spans="1:12" s="131" customFormat="1" x14ac:dyDescent="0.25">
@@ -4024,37 +4031,37 @@
       <c r="G5" s="130"/>
     </row>
     <row r="6" spans="1:12" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="423" t="s">
+      <c r="A6" s="424" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="423" t="s">
+      <c r="B6" s="424" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="425" t="s">
+      <c r="C6" s="426" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="427" t="s">
+      <c r="D6" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="427"/>
-      <c r="F6" s="427" t="s">
+      <c r="E6" s="435"/>
+      <c r="F6" s="435" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="427"/>
-      <c r="I6" s="423" t="s">
+      <c r="G6" s="435"/>
+      <c r="I6" s="424" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="425" t="s">
+      <c r="J6" s="426" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="436" t="s">
+      <c r="K6" s="420" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="131" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="424"/>
-      <c r="B7" s="424"/>
-      <c r="C7" s="426"/>
+      <c r="A7" s="425"/>
+      <c r="B7" s="425"/>
+      <c r="C7" s="427"/>
       <c r="D7" s="135" t="s">
         <v>100</v>
       </c>
@@ -4067,9 +4074,9 @@
       <c r="G7" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="424"/>
-      <c r="J7" s="426"/>
-      <c r="K7" s="437"/>
+      <c r="I7" s="425"/>
+      <c r="J7" s="427"/>
+      <c r="K7" s="421"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="180">
@@ -4538,10 +4545,10 @@
       <c r="G26" s="136">
         <v>642000</v>
       </c>
-      <c r="I26" s="438" t="s">
+      <c r="I26" s="422" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="439"/>
+      <c r="J26" s="423"/>
       <c r="K26" s="141">
         <f>SUM(K8:K25)</f>
         <v>8766920</v>
@@ -5415,10 +5422,10 @@
     </row>
     <row r="78" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="181"/>
-      <c r="B78" s="422" t="s">
+      <c r="B78" s="439" t="s">
         <v>293</v>
       </c>
-      <c r="C78" s="422"/>
+      <c r="C78" s="439"/>
       <c r="D78" s="145"/>
       <c r="E78" s="145"/>
       <c r="F78" s="145"/>
@@ -5500,11 +5507,11 @@
       <c r="I82" s="143"/>
     </row>
     <row r="83" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="419" t="s">
+      <c r="A83" s="436" t="s">
         <v>292</v>
       </c>
-      <c r="B83" s="420"/>
-      <c r="C83" s="421"/>
+      <c r="B83" s="437"/>
+      <c r="C83" s="438"/>
       <c r="D83" s="141"/>
       <c r="E83" s="141"/>
       <c r="F83" s="141">
@@ -5526,10 +5533,10 @@
     </row>
     <row r="85" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="181"/>
-      <c r="B85" s="422" t="s">
+      <c r="B85" s="439" t="s">
         <v>299</v>
       </c>
-      <c r="C85" s="422"/>
+      <c r="C85" s="439"/>
       <c r="D85" s="145"/>
       <c r="E85" s="145"/>
       <c r="F85" s="145"/>
@@ -5953,11 +5960,11 @@
       <c r="I108" s="143"/>
     </row>
     <row r="109" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A109" s="419" t="s">
+      <c r="A109" s="436" t="s">
         <v>292</v>
       </c>
-      <c r="B109" s="420"/>
-      <c r="C109" s="421"/>
+      <c r="B109" s="437"/>
+      <c r="C109" s="438"/>
       <c r="D109" s="141"/>
       <c r="E109" s="141"/>
       <c r="F109" s="141"/>
@@ -5979,10 +5986,10 @@
     </row>
     <row r="111" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="181"/>
-      <c r="B111" s="422" t="s">
+      <c r="B111" s="439" t="s">
         <v>298</v>
       </c>
-      <c r="C111" s="422"/>
+      <c r="C111" s="439"/>
       <c r="D111" s="145"/>
       <c r="E111" s="145"/>
       <c r="F111" s="145"/>
@@ -5990,29 +5997,29 @@
       <c r="I111" s="143"/>
     </row>
     <row r="112" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A112" s="423" t="s">
+      <c r="A112" s="424" t="s">
         <v>4</v>
       </c>
-      <c r="B112" s="423" t="s">
+      <c r="B112" s="424" t="s">
         <v>5</v>
       </c>
-      <c r="C112" s="425" t="s">
+      <c r="C112" s="426" t="s">
         <v>6</v>
       </c>
-      <c r="D112" s="427" t="s">
+      <c r="D112" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="E112" s="427"/>
-      <c r="F112" s="427" t="s">
+      <c r="E112" s="435"/>
+      <c r="F112" s="435" t="s">
         <v>8</v>
       </c>
-      <c r="G112" s="427"/>
+      <c r="G112" s="435"/>
       <c r="I112" s="143"/>
     </row>
     <row r="113" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A113" s="424"/>
-      <c r="B113" s="424"/>
-      <c r="C113" s="426"/>
+      <c r="A113" s="425"/>
+      <c r="B113" s="425"/>
+      <c r="C113" s="427"/>
       <c r="D113" s="135" t="s">
         <v>100</v>
       </c>
@@ -6279,11 +6286,11 @@
       <c r="G127" s="138"/>
     </row>
     <row r="128" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A128" s="419" t="s">
+      <c r="A128" s="436" t="s">
         <v>292</v>
       </c>
-      <c r="B128" s="420"/>
-      <c r="C128" s="421"/>
+      <c r="B128" s="437"/>
+      <c r="C128" s="438"/>
       <c r="D128" s="141">
         <f>SUBTOTAL(9,D114:D126)</f>
         <v>132665000</v>
@@ -6308,10 +6315,10 @@
     </row>
     <row r="130" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="181"/>
-      <c r="B130" s="422" t="s">
+      <c r="B130" s="439" t="s">
         <v>11</v>
       </c>
-      <c r="C130" s="422"/>
+      <c r="C130" s="439"/>
       <c r="D130" s="145"/>
       <c r="E130" s="145"/>
       <c r="F130" s="145"/>
@@ -6319,29 +6326,29 @@
       <c r="I130" s="143"/>
     </row>
     <row r="131" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A131" s="423" t="s">
+      <c r="A131" s="424" t="s">
         <v>4</v>
       </c>
-      <c r="B131" s="423" t="s">
+      <c r="B131" s="424" t="s">
         <v>5</v>
       </c>
-      <c r="C131" s="425" t="s">
+      <c r="C131" s="426" t="s">
         <v>6</v>
       </c>
-      <c r="D131" s="427" t="s">
+      <c r="D131" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="E131" s="427"/>
-      <c r="F131" s="427" t="s">
+      <c r="E131" s="435"/>
+      <c r="F131" s="435" t="s">
         <v>8</v>
       </c>
-      <c r="G131" s="427"/>
+      <c r="G131" s="435"/>
       <c r="I131" s="143"/>
     </row>
     <row r="132" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A132" s="424"/>
-      <c r="B132" s="424"/>
-      <c r="C132" s="426"/>
+      <c r="A132" s="425"/>
+      <c r="B132" s="425"/>
+      <c r="C132" s="427"/>
       <c r="D132" s="135" t="s">
         <v>100</v>
       </c>
@@ -6483,11 +6490,11 @@
       <c r="I139" s="143"/>
     </row>
     <row r="140" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A140" s="419" t="s">
+      <c r="A140" s="436" t="s">
         <v>292</v>
       </c>
-      <c r="B140" s="420"/>
-      <c r="C140" s="421"/>
+      <c r="B140" s="437"/>
+      <c r="C140" s="438"/>
       <c r="D140" s="141"/>
       <c r="E140" s="141"/>
       <c r="F140" s="141">
@@ -6512,10 +6519,10 @@
     </row>
     <row r="142" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="181"/>
-      <c r="B142" s="422" t="s">
+      <c r="B142" s="439" t="s">
         <v>297</v>
       </c>
-      <c r="C142" s="422"/>
+      <c r="C142" s="439"/>
       <c r="D142" s="145"/>
       <c r="E142" s="145"/>
       <c r="F142" s="145"/>
@@ -6723,11 +6730,11 @@
       <c r="I153" s="143"/>
     </row>
     <row r="154" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A154" s="419" t="s">
+      <c r="A154" s="436" t="s">
         <v>292</v>
       </c>
-      <c r="B154" s="420"/>
-      <c r="C154" s="421"/>
+      <c r="B154" s="437"/>
+      <c r="C154" s="438"/>
       <c r="D154" s="141"/>
       <c r="E154" s="141"/>
       <c r="F154" s="141">
@@ -6752,10 +6759,10 @@
     </row>
     <row r="156" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="181"/>
-      <c r="B156" s="422" t="s">
+      <c r="B156" s="439" t="s">
         <v>296</v>
       </c>
-      <c r="C156" s="422"/>
+      <c r="C156" s="439"/>
       <c r="D156" s="145"/>
       <c r="E156" s="145"/>
       <c r="F156" s="145"/>
@@ -6763,29 +6770,29 @@
       <c r="I156" s="143"/>
     </row>
     <row r="157" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A157" s="423" t="s">
+      <c r="A157" s="424" t="s">
         <v>4</v>
       </c>
-      <c r="B157" s="423" t="s">
+      <c r="B157" s="424" t="s">
         <v>5</v>
       </c>
-      <c r="C157" s="425" t="s">
+      <c r="C157" s="426" t="s">
         <v>6</v>
       </c>
-      <c r="D157" s="427" t="s">
+      <c r="D157" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="E157" s="427"/>
-      <c r="F157" s="427" t="s">
+      <c r="E157" s="435"/>
+      <c r="F157" s="435" t="s">
         <v>8</v>
       </c>
-      <c r="G157" s="427"/>
+      <c r="G157" s="435"/>
       <c r="I157" s="143"/>
     </row>
     <row r="158" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A158" s="424"/>
-      <c r="B158" s="424"/>
-      <c r="C158" s="426"/>
+      <c r="A158" s="425"/>
+      <c r="B158" s="425"/>
+      <c r="C158" s="427"/>
       <c r="D158" s="135" t="s">
         <v>100</v>
       </c>
@@ -6873,11 +6880,11 @@
       <c r="I162" s="143"/>
     </row>
     <row r="163" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A163" s="419" t="s">
+      <c r="A163" s="436" t="s">
         <v>292</v>
       </c>
-      <c r="B163" s="420"/>
-      <c r="C163" s="421"/>
+      <c r="B163" s="437"/>
+      <c r="C163" s="438"/>
       <c r="D163" s="141"/>
       <c r="E163" s="141"/>
       <c r="F163" s="141"/>
@@ -6899,10 +6906,10 @@
     </row>
     <row r="165" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="181"/>
-      <c r="B165" s="422" t="s">
+      <c r="B165" s="439" t="s">
         <v>295</v>
       </c>
-      <c r="C165" s="422"/>
+      <c r="C165" s="439"/>
       <c r="D165" s="145"/>
       <c r="E165" s="145"/>
       <c r="F165" s="145"/>
@@ -6910,29 +6917,29 @@
       <c r="I165" s="143"/>
     </row>
     <row r="166" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A166" s="423" t="s">
+      <c r="A166" s="424" t="s">
         <v>4</v>
       </c>
-      <c r="B166" s="423" t="s">
+      <c r="B166" s="424" t="s">
         <v>5</v>
       </c>
-      <c r="C166" s="425" t="s">
+      <c r="C166" s="426" t="s">
         <v>6</v>
       </c>
-      <c r="D166" s="427" t="s">
+      <c r="D166" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="E166" s="427"/>
-      <c r="F166" s="427" t="s">
+      <c r="E166" s="435"/>
+      <c r="F166" s="435" t="s">
         <v>8</v>
       </c>
-      <c r="G166" s="427"/>
+      <c r="G166" s="435"/>
       <c r="I166" s="143"/>
     </row>
     <row r="167" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A167" s="424"/>
-      <c r="B167" s="424"/>
-      <c r="C167" s="426"/>
+      <c r="A167" s="425"/>
+      <c r="B167" s="425"/>
+      <c r="C167" s="427"/>
       <c r="D167" s="135" t="s">
         <v>100</v>
       </c>
@@ -6966,11 +6973,11 @@
       <c r="I168" s="143"/>
     </row>
     <row r="169" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A169" s="419" t="s">
+      <c r="A169" s="436" t="s">
         <v>292</v>
       </c>
-      <c r="B169" s="420"/>
-      <c r="C169" s="421"/>
+      <c r="B169" s="437"/>
+      <c r="C169" s="438"/>
       <c r="D169" s="141"/>
       <c r="E169" s="141"/>
       <c r="F169" s="141"/>
@@ -6992,10 +6999,10 @@
     </row>
     <row r="171" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="181"/>
-      <c r="B171" s="422" t="s">
+      <c r="B171" s="439" t="s">
         <v>294</v>
       </c>
-      <c r="C171" s="422"/>
+      <c r="C171" s="439"/>
       <c r="D171" s="145"/>
       <c r="E171" s="145"/>
       <c r="F171" s="145"/>
@@ -7003,29 +7010,29 @@
       <c r="I171" s="143"/>
     </row>
     <row r="172" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A172" s="423" t="s">
+      <c r="A172" s="424" t="s">
         <v>4</v>
       </c>
-      <c r="B172" s="423" t="s">
+      <c r="B172" s="424" t="s">
         <v>5</v>
       </c>
-      <c r="C172" s="425" t="s">
+      <c r="C172" s="426" t="s">
         <v>6</v>
       </c>
-      <c r="D172" s="427" t="s">
+      <c r="D172" s="435" t="s">
         <v>7</v>
       </c>
-      <c r="E172" s="427"/>
-      <c r="F172" s="427" t="s">
+      <c r="E172" s="435"/>
+      <c r="F172" s="435" t="s">
         <v>8</v>
       </c>
-      <c r="G172" s="427"/>
+      <c r="G172" s="435"/>
       <c r="I172" s="143"/>
     </row>
     <row r="173" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A173" s="424"/>
-      <c r="B173" s="424"/>
-      <c r="C173" s="426"/>
+      <c r="A173" s="425"/>
+      <c r="B173" s="425"/>
+      <c r="C173" s="427"/>
       <c r="D173" s="135" t="s">
         <v>100</v>
       </c>
@@ -7167,11 +7174,11 @@
       <c r="I180" s="143"/>
     </row>
     <row r="181" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A181" s="419" t="s">
+      <c r="A181" s="436" t="s">
         <v>292</v>
       </c>
-      <c r="B181" s="420"/>
-      <c r="C181" s="421"/>
+      <c r="B181" s="437"/>
+      <c r="C181" s="438"/>
       <c r="D181" s="141"/>
       <c r="E181" s="141"/>
       <c r="F181" s="141">
@@ -7230,59 +7237,6 @@
     <filterColumn colId="5" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="69">
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="F172:G172"/>
     <mergeCell ref="A163:C163"/>
     <mergeCell ref="A169:C169"/>
     <mergeCell ref="A181:C181"/>
@@ -7299,6 +7253,59 @@
     <mergeCell ref="A128:C128"/>
     <mergeCell ref="A140:C140"/>
     <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="F172:G172"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.21" top="0.46" bottom="0.45" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -7335,13 +7342,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="364" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="466" t="s">
+      <c r="A1" s="464" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="466"/>
-      <c r="C1" s="466"/>
-      <c r="D1" s="466"/>
-      <c r="E1" s="466"/>
+      <c r="B1" s="464"/>
+      <c r="C1" s="464"/>
+      <c r="D1" s="464"/>
+      <c r="E1" s="464"/>
       <c r="H1" s="365"/>
       <c r="I1" s="365"/>
       <c r="J1" s="365"/>
@@ -7369,168 +7376,168 @@
       <c r="O2" s="365"/>
     </row>
     <row r="3" spans="1:16" s="364" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="467" t="s">
+      <c r="A3" s="465" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="467"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="467"/>
-      <c r="E3" s="467"/>
-      <c r="F3" s="467"/>
-      <c r="G3" s="467"/>
-      <c r="H3" s="467"/>
-      <c r="I3" s="467"/>
-      <c r="J3" s="467"/>
-      <c r="K3" s="467"/>
-      <c r="L3" s="467"/>
-      <c r="M3" s="467"/>
-      <c r="N3" s="467"/>
-      <c r="O3" s="467"/>
-      <c r="P3" s="467"/>
+      <c r="B3" s="465"/>
+      <c r="C3" s="465"/>
+      <c r="D3" s="465"/>
+      <c r="E3" s="465"/>
+      <c r="F3" s="465"/>
+      <c r="G3" s="465"/>
+      <c r="H3" s="465"/>
+      <c r="I3" s="465"/>
+      <c r="J3" s="465"/>
+      <c r="K3" s="465"/>
+      <c r="L3" s="465"/>
+      <c r="M3" s="465"/>
+      <c r="N3" s="465"/>
+      <c r="O3" s="465"/>
+      <c r="P3" s="465"/>
     </row>
     <row r="4" spans="1:16" s="364" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="467" t="s">
+      <c r="A4" s="465" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="467"/>
-      <c r="C4" s="467"/>
-      <c r="D4" s="467"/>
-      <c r="E4" s="467"/>
-      <c r="F4" s="467"/>
-      <c r="G4" s="467"/>
-      <c r="H4" s="467"/>
-      <c r="I4" s="467"/>
-      <c r="J4" s="467"/>
-      <c r="K4" s="467"/>
-      <c r="L4" s="467"/>
-      <c r="M4" s="467"/>
-      <c r="N4" s="467"/>
-      <c r="O4" s="467"/>
-      <c r="P4" s="467"/>
+      <c r="B4" s="465"/>
+      <c r="C4" s="465"/>
+      <c r="D4" s="465"/>
+      <c r="E4" s="465"/>
+      <c r="F4" s="465"/>
+      <c r="G4" s="465"/>
+      <c r="H4" s="465"/>
+      <c r="I4" s="465"/>
+      <c r="J4" s="465"/>
+      <c r="K4" s="465"/>
+      <c r="L4" s="465"/>
+      <c r="M4" s="465"/>
+      <c r="N4" s="465"/>
+      <c r="O4" s="465"/>
+      <c r="P4" s="465"/>
     </row>
     <row r="5" spans="1:16" s="364" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="467"/>
-      <c r="B5" s="467"/>
-      <c r="C5" s="467"/>
-      <c r="D5" s="467"/>
-      <c r="E5" s="467"/>
-      <c r="F5" s="467"/>
-      <c r="G5" s="467"/>
-      <c r="H5" s="467"/>
-      <c r="I5" s="467"/>
-      <c r="J5" s="467"/>
-      <c r="K5" s="468"/>
-      <c r="L5" s="468"/>
+      <c r="A5" s="465"/>
+      <c r="B5" s="465"/>
+      <c r="C5" s="465"/>
+      <c r="D5" s="465"/>
+      <c r="E5" s="465"/>
+      <c r="F5" s="465"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
+      <c r="I5" s="465"/>
+      <c r="J5" s="465"/>
+      <c r="K5" s="466"/>
+      <c r="L5" s="466"/>
       <c r="M5" s="365"/>
       <c r="N5" s="365"/>
       <c r="O5" s="365"/>
     </row>
     <row r="6" spans="1:16" s="364" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="463" t="s">
+      <c r="A6" s="461" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="469" t="s">
+      <c r="B6" s="467" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="463" t="s">
+      <c r="C6" s="461" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="471" t="s">
+      <c r="D6" s="469" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="471"/>
-      <c r="F6" s="458" t="s">
+      <c r="E6" s="469"/>
+      <c r="F6" s="470" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="458"/>
-      <c r="H6" s="458"/>
-      <c r="I6" s="458"/>
-      <c r="J6" s="458"/>
-      <c r="K6" s="458"/>
-      <c r="L6" s="458"/>
-      <c r="M6" s="472"/>
-      <c r="N6" s="472"/>
-      <c r="O6" s="472"/>
-      <c r="P6" s="473" t="s">
+      <c r="G6" s="470"/>
+      <c r="H6" s="470"/>
+      <c r="I6" s="470"/>
+      <c r="J6" s="470"/>
+      <c r="K6" s="470"/>
+      <c r="L6" s="470"/>
+      <c r="M6" s="471"/>
+      <c r="N6" s="471"/>
+      <c r="O6" s="471"/>
+      <c r="P6" s="472" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="364" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="464"/>
-      <c r="B7" s="470"/>
-      <c r="C7" s="464"/>
-      <c r="D7" s="463" t="s">
+      <c r="A7" s="462"/>
+      <c r="B7" s="468"/>
+      <c r="C7" s="462"/>
+      <c r="D7" s="461" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="463" t="s">
+      <c r="E7" s="461" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="463" t="s">
+      <c r="F7" s="461" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="463" t="s">
+      <c r="G7" s="461" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="461" t="s">
+      <c r="H7" s="459" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="461" t="s">
+      <c r="I7" s="459" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="465" t="s">
+      <c r="J7" s="463" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="465"/>
-      <c r="L7" s="461" t="s">
+      <c r="K7" s="463"/>
+      <c r="L7" s="459" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="461" t="s">
+      <c r="M7" s="459" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="461" t="s">
+      <c r="N7" s="459" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="461" t="s">
+      <c r="O7" s="459" t="s">
         <v>55</v>
       </c>
-      <c r="P7" s="474"/>
+      <c r="P7" s="473"/>
     </row>
     <row r="8" spans="1:16" s="364" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="464"/>
-      <c r="B8" s="470"/>
-      <c r="C8" s="464"/>
-      <c r="D8" s="464"/>
-      <c r="E8" s="464"/>
-      <c r="F8" s="464"/>
-      <c r="G8" s="464"/>
-      <c r="H8" s="462"/>
-      <c r="I8" s="462"/>
+      <c r="A8" s="462"/>
+      <c r="B8" s="468"/>
+      <c r="C8" s="462"/>
+      <c r="D8" s="462"/>
+      <c r="E8" s="462"/>
+      <c r="F8" s="462"/>
+      <c r="G8" s="462"/>
+      <c r="H8" s="460"/>
+      <c r="I8" s="460"/>
       <c r="J8" s="369" t="s">
         <v>112</v>
       </c>
       <c r="K8" s="370" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="462"/>
-      <c r="M8" s="462"/>
-      <c r="N8" s="462"/>
-      <c r="O8" s="462"/>
-      <c r="P8" s="474"/>
+      <c r="L8" s="460"/>
+      <c r="M8" s="460"/>
+      <c r="N8" s="460"/>
+      <c r="O8" s="460"/>
+      <c r="P8" s="473"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="440">
+      <c r="A9" s="443">
         <v>461</v>
       </c>
-      <c r="B9" s="443">
+      <c r="B9" s="440">
         <v>43951</v>
       </c>
-      <c r="C9" s="440" t="s">
+      <c r="C9" s="443" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="440" t="s">
+      <c r="D9" s="443" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="440" t="s">
+      <c r="E9" s="443" t="s">
         <v>108</v>
       </c>
       <c r="F9" s="371" t="s">
@@ -7565,11 +7572,11 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="441"/>
-      <c r="B10" s="444"/>
-      <c r="C10" s="441"/>
-      <c r="D10" s="441"/>
-      <c r="E10" s="441"/>
+      <c r="A10" s="444"/>
+      <c r="B10" s="441"/>
+      <c r="C10" s="444"/>
+      <c r="D10" s="444"/>
+      <c r="E10" s="444"/>
       <c r="F10" s="371" t="s">
         <v>37</v>
       </c>
@@ -7602,11 +7609,11 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="442"/>
-      <c r="B11" s="445"/>
-      <c r="C11" s="442"/>
-      <c r="D11" s="442"/>
-      <c r="E11" s="442"/>
+      <c r="A11" s="445"/>
+      <c r="B11" s="442"/>
+      <c r="C11" s="445"/>
+      <c r="D11" s="445"/>
+      <c r="E11" s="445"/>
       <c r="F11" s="371" t="s">
         <v>40</v>
       </c>
@@ -7731,19 +7738,19 @@
       <c r="P13" s="379"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="440">
+      <c r="A14" s="443">
         <v>464</v>
       </c>
-      <c r="B14" s="443">
+      <c r="B14" s="440">
         <v>43955</v>
       </c>
-      <c r="C14" s="440" t="s">
+      <c r="C14" s="443" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="453" t="s">
+      <c r="D14" s="455" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="453" t="s">
+      <c r="E14" s="455" t="s">
         <v>120</v>
       </c>
       <c r="F14" s="371" t="s">
@@ -7776,11 +7783,11 @@
       <c r="P14" s="379"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="441"/>
-      <c r="B15" s="444"/>
-      <c r="C15" s="441"/>
-      <c r="D15" s="460"/>
-      <c r="E15" s="460"/>
+      <c r="A15" s="444"/>
+      <c r="B15" s="441"/>
+      <c r="C15" s="444"/>
+      <c r="D15" s="456"/>
+      <c r="E15" s="456"/>
       <c r="F15" s="371" t="s">
         <v>37</v>
       </c>
@@ -7811,11 +7818,11 @@
       <c r="P15" s="379"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="441"/>
-      <c r="B16" s="444"/>
-      <c r="C16" s="441"/>
-      <c r="D16" s="460"/>
-      <c r="E16" s="460"/>
+      <c r="A16" s="444"/>
+      <c r="B16" s="441"/>
+      <c r="C16" s="444"/>
+      <c r="D16" s="456"/>
+      <c r="E16" s="456"/>
       <c r="F16" s="371" t="s">
         <v>40</v>
       </c>
@@ -7846,11 +7853,11 @@
       <c r="P16" s="379"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="441"/>
-      <c r="B17" s="444"/>
-      <c r="C17" s="441"/>
-      <c r="D17" s="460"/>
-      <c r="E17" s="460"/>
+      <c r="A17" s="444"/>
+      <c r="B17" s="441"/>
+      <c r="C17" s="444"/>
+      <c r="D17" s="456"/>
+      <c r="E17" s="456"/>
       <c r="F17" s="371" t="s">
         <v>42</v>
       </c>
@@ -7881,11 +7888,11 @@
       <c r="P17" s="379"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="441"/>
-      <c r="B18" s="444"/>
-      <c r="C18" s="441"/>
-      <c r="D18" s="460"/>
-      <c r="E18" s="460"/>
+      <c r="A18" s="444"/>
+      <c r="B18" s="441"/>
+      <c r="C18" s="444"/>
+      <c r="D18" s="456"/>
+      <c r="E18" s="456"/>
       <c r="F18" s="371" t="s">
         <v>41</v>
       </c>
@@ -7916,11 +7923,11 @@
       <c r="P18" s="379"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="441"/>
-      <c r="B19" s="444"/>
-      <c r="C19" s="441"/>
-      <c r="D19" s="460"/>
-      <c r="E19" s="460"/>
+      <c r="A19" s="444"/>
+      <c r="B19" s="441"/>
+      <c r="C19" s="444"/>
+      <c r="D19" s="456"/>
+      <c r="E19" s="456"/>
       <c r="F19" s="371" t="s">
         <v>38</v>
       </c>
@@ -7951,11 +7958,11 @@
       <c r="P19" s="379"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="441"/>
-      <c r="B20" s="444"/>
-      <c r="C20" s="441"/>
-      <c r="D20" s="460"/>
-      <c r="E20" s="460"/>
+      <c r="A20" s="444"/>
+      <c r="B20" s="441"/>
+      <c r="C20" s="444"/>
+      <c r="D20" s="456"/>
+      <c r="E20" s="456"/>
       <c r="F20" s="371" t="s">
         <v>39</v>
       </c>
@@ -7986,11 +7993,11 @@
       <c r="P20" s="379"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="442"/>
-      <c r="B21" s="445"/>
-      <c r="C21" s="442"/>
-      <c r="D21" s="454"/>
-      <c r="E21" s="454"/>
+      <c r="A21" s="445"/>
+      <c r="B21" s="442"/>
+      <c r="C21" s="445"/>
+      <c r="D21" s="457"/>
+      <c r="E21" s="457"/>
       <c r="F21" s="371" t="s">
         <v>67</v>
       </c>
@@ -8021,19 +8028,19 @@
       <c r="P21" s="379"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="440">
+      <c r="A22" s="443">
         <v>466</v>
       </c>
-      <c r="B22" s="443">
+      <c r="B22" s="440">
         <v>43955</v>
       </c>
-      <c r="C22" s="440" t="s">
+      <c r="C22" s="443" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="440" t="s">
+      <c r="D22" s="443" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="440" t="s">
+      <c r="E22" s="443" t="s">
         <v>69</v>
       </c>
       <c r="F22" s="371" t="s">
@@ -8049,17 +8056,17 @@
         <f t="shared" si="0"/>
         <v>455000</v>
       </c>
-      <c r="J22" s="447">
+      <c r="J22" s="475">
         <v>395000</v>
       </c>
       <c r="K22" s="373">
         <v>0</v>
       </c>
-      <c r="L22" s="450">
+      <c r="L22" s="451">
         <f>I22+I23+I24-J22</f>
         <v>1000000</v>
       </c>
-      <c r="M22" s="450">
+      <c r="M22" s="451">
         <f>L22</f>
         <v>1000000</v>
       </c>
@@ -8068,11 +8075,11 @@
       <c r="P22" s="379"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="441"/>
-      <c r="B23" s="444"/>
-      <c r="C23" s="441"/>
-      <c r="D23" s="441"/>
-      <c r="E23" s="441"/>
+      <c r="A23" s="444"/>
+      <c r="B23" s="441"/>
+      <c r="C23" s="444"/>
+      <c r="D23" s="444"/>
+      <c r="E23" s="444"/>
       <c r="F23" s="371" t="s">
         <v>37</v>
       </c>
@@ -8086,22 +8093,22 @@
         <f t="shared" si="0"/>
         <v>465000</v>
       </c>
-      <c r="J23" s="448"/>
+      <c r="J23" s="476"/>
       <c r="K23" s="373">
         <v>0</v>
       </c>
-      <c r="L23" s="451"/>
-      <c r="M23" s="451"/>
+      <c r="L23" s="452"/>
+      <c r="M23" s="452"/>
       <c r="N23" s="372"/>
       <c r="O23" s="372"/>
       <c r="P23" s="371"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="442"/>
-      <c r="B24" s="445"/>
-      <c r="C24" s="442"/>
-      <c r="D24" s="442"/>
-      <c r="E24" s="442"/>
+      <c r="A24" s="445"/>
+      <c r="B24" s="442"/>
+      <c r="C24" s="445"/>
+      <c r="D24" s="445"/>
+      <c r="E24" s="445"/>
       <c r="F24" s="371" t="s">
         <v>40</v>
       </c>
@@ -8115,30 +8122,30 @@
         <f t="shared" si="0"/>
         <v>475000</v>
       </c>
-      <c r="J24" s="449"/>
+      <c r="J24" s="477"/>
       <c r="K24" s="373">
         <v>0</v>
       </c>
-      <c r="L24" s="452"/>
-      <c r="M24" s="452"/>
+      <c r="L24" s="453"/>
+      <c r="M24" s="453"/>
       <c r="N24" s="372"/>
       <c r="O24" s="372"/>
       <c r="P24" s="371"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="440">
+      <c r="A25" s="443">
         <v>468</v>
       </c>
-      <c r="B25" s="443">
+      <c r="B25" s="440">
         <v>43956</v>
       </c>
-      <c r="C25" s="440" t="s">
+      <c r="C25" s="443" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="440" t="s">
+      <c r="D25" s="443" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="453" t="s">
+      <c r="E25" s="455" t="s">
         <v>114</v>
       </c>
       <c r="F25" s="371" t="s">
@@ -8154,7 +8161,7 @@
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="J25" s="447">
+      <c r="J25" s="475">
         <v>200000</v>
       </c>
       <c r="K25" s="373">
@@ -8173,11 +8180,11 @@
       <c r="P25" s="371"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="441"/>
-      <c r="B26" s="444"/>
-      <c r="C26" s="441"/>
-      <c r="D26" s="441"/>
-      <c r="E26" s="460"/>
+      <c r="A26" s="444"/>
+      <c r="B26" s="441"/>
+      <c r="C26" s="444"/>
+      <c r="D26" s="444"/>
+      <c r="E26" s="456"/>
       <c r="F26" s="371" t="s">
         <v>42</v>
       </c>
@@ -8191,7 +8198,7 @@
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-      <c r="J26" s="448"/>
+      <c r="J26" s="476"/>
       <c r="K26" s="373">
         <v>0.41</v>
       </c>
@@ -8208,11 +8215,11 @@
       <c r="P26" s="371"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="442"/>
-      <c r="B27" s="445"/>
-      <c r="C27" s="442"/>
-      <c r="D27" s="442"/>
-      <c r="E27" s="454"/>
+      <c r="A27" s="445"/>
+      <c r="B27" s="442"/>
+      <c r="C27" s="445"/>
+      <c r="D27" s="445"/>
+      <c r="E27" s="457"/>
       <c r="F27" s="371" t="s">
         <v>41</v>
       </c>
@@ -8226,7 +8233,7 @@
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-      <c r="J27" s="449"/>
+      <c r="J27" s="477"/>
       <c r="K27" s="373">
         <v>0.41</v>
       </c>
@@ -8337,19 +8344,19 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="440">
+      <c r="A30" s="443">
         <v>1150</v>
       </c>
-      <c r="B30" s="455" t="s">
+      <c r="B30" s="446" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="440" t="s">
+      <c r="C30" s="443" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="440" t="s">
+      <c r="D30" s="443" t="s">
         <v>127</v>
       </c>
-      <c r="E30" s="453" t="s">
+      <c r="E30" s="455" t="s">
         <v>132</v>
       </c>
       <c r="F30" s="371" t="s">
@@ -8382,11 +8389,11 @@
       <c r="P30" s="371"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="442"/>
-      <c r="B31" s="445"/>
-      <c r="C31" s="442"/>
-      <c r="D31" s="442"/>
-      <c r="E31" s="454"/>
+      <c r="A31" s="445"/>
+      <c r="B31" s="442"/>
+      <c r="C31" s="445"/>
+      <c r="D31" s="445"/>
+      <c r="E31" s="457"/>
       <c r="F31" s="371" t="s">
         <v>67</v>
       </c>
@@ -8417,19 +8424,19 @@
       <c r="P31" s="371"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="440">
+      <c r="A32" s="443">
         <v>502</v>
       </c>
-      <c r="B32" s="443">
+      <c r="B32" s="440">
         <v>43956</v>
       </c>
-      <c r="C32" s="440" t="s">
+      <c r="C32" s="443" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="453" t="s">
+      <c r="D32" s="455" t="s">
         <v>133</v>
       </c>
-      <c r="E32" s="440"/>
+      <c r="E32" s="443"/>
       <c r="F32" s="371" t="s">
         <v>36</v>
       </c>
@@ -8460,11 +8467,11 @@
       <c r="P32" s="371"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="441"/>
-      <c r="B33" s="444"/>
-      <c r="C33" s="441"/>
-      <c r="D33" s="460"/>
-      <c r="E33" s="441"/>
+      <c r="A33" s="444"/>
+      <c r="B33" s="441"/>
+      <c r="C33" s="444"/>
+      <c r="D33" s="456"/>
+      <c r="E33" s="444"/>
       <c r="F33" s="371" t="s">
         <v>37</v>
       </c>
@@ -8495,11 +8502,11 @@
       <c r="P33" s="371"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="441"/>
-      <c r="B34" s="444"/>
-      <c r="C34" s="441"/>
-      <c r="D34" s="460"/>
-      <c r="E34" s="441"/>
+      <c r="A34" s="444"/>
+      <c r="B34" s="441"/>
+      <c r="C34" s="444"/>
+      <c r="D34" s="456"/>
+      <c r="E34" s="444"/>
       <c r="F34" s="371" t="s">
         <v>40</v>
       </c>
@@ -8530,11 +8537,11 @@
       <c r="P34" s="371"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="441"/>
-      <c r="B35" s="444"/>
-      <c r="C35" s="441"/>
-      <c r="D35" s="460"/>
-      <c r="E35" s="441"/>
+      <c r="A35" s="444"/>
+      <c r="B35" s="441"/>
+      <c r="C35" s="444"/>
+      <c r="D35" s="456"/>
+      <c r="E35" s="444"/>
       <c r="F35" s="371" t="s">
         <v>42</v>
       </c>
@@ -8565,11 +8572,11 @@
       <c r="P35" s="371"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="441"/>
-      <c r="B36" s="444"/>
-      <c r="C36" s="441"/>
-      <c r="D36" s="460"/>
-      <c r="E36" s="441"/>
+      <c r="A36" s="444"/>
+      <c r="B36" s="441"/>
+      <c r="C36" s="444"/>
+      <c r="D36" s="456"/>
+      <c r="E36" s="444"/>
       <c r="F36" s="371" t="s">
         <v>41</v>
       </c>
@@ -8600,11 +8607,11 @@
       <c r="P36" s="371"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="442"/>
-      <c r="B37" s="445"/>
-      <c r="C37" s="442"/>
-      <c r="D37" s="454"/>
-      <c r="E37" s="442"/>
+      <c r="A37" s="445"/>
+      <c r="B37" s="442"/>
+      <c r="C37" s="445"/>
+      <c r="D37" s="457"/>
+      <c r="E37" s="445"/>
       <c r="F37" s="371" t="s">
         <v>38</v>
       </c>
@@ -8682,19 +8689,19 @@
       <c r="P38" s="371"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="440">
+      <c r="A39" s="443">
         <v>513</v>
       </c>
-      <c r="B39" s="443">
+      <c r="B39" s="440">
         <v>43987</v>
       </c>
-      <c r="C39" s="440" t="s">
+      <c r="C39" s="443" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="453" t="s">
+      <c r="D39" s="455" t="s">
         <v>140</v>
       </c>
-      <c r="E39" s="440" t="s">
+      <c r="E39" s="443" t="s">
         <v>103</v>
       </c>
       <c r="F39" s="371" t="s">
@@ -8727,11 +8734,11 @@
       <c r="P39" s="371"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="442"/>
-      <c r="B40" s="445"/>
-      <c r="C40" s="442"/>
-      <c r="D40" s="454"/>
-      <c r="E40" s="442"/>
+      <c r="A40" s="445"/>
+      <c r="B40" s="442"/>
+      <c r="C40" s="445"/>
+      <c r="D40" s="457"/>
+      <c r="E40" s="445"/>
       <c r="F40" s="371" t="s">
         <v>38</v>
       </c>
@@ -8854,19 +8861,19 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="440">
+      <c r="A43" s="443">
         <v>472</v>
       </c>
-      <c r="B43" s="443">
+      <c r="B43" s="440">
         <v>43960</v>
       </c>
-      <c r="C43" s="440" t="s">
+      <c r="C43" s="443" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="440" t="s">
+      <c r="D43" s="443" t="s">
         <v>118</v>
       </c>
-      <c r="E43" s="440"/>
+      <c r="E43" s="443"/>
       <c r="F43" s="371" t="s">
         <v>36</v>
       </c>
@@ -8894,11 +8901,11 @@
       <c r="P43" s="371"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="441"/>
-      <c r="B44" s="444"/>
-      <c r="C44" s="441"/>
-      <c r="D44" s="441"/>
-      <c r="E44" s="441"/>
+      <c r="A44" s="444"/>
+      <c r="B44" s="441"/>
+      <c r="C44" s="444"/>
+      <c r="D44" s="444"/>
+      <c r="E44" s="444"/>
       <c r="F44" s="371" t="s">
         <v>42</v>
       </c>
@@ -8926,11 +8933,11 @@
       <c r="P44" s="371"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="442"/>
-      <c r="B45" s="445"/>
-      <c r="C45" s="442"/>
-      <c r="D45" s="442"/>
-      <c r="E45" s="442"/>
+      <c r="A45" s="445"/>
+      <c r="B45" s="442"/>
+      <c r="C45" s="445"/>
+      <c r="D45" s="445"/>
+      <c r="E45" s="445"/>
       <c r="F45" s="371" t="s">
         <v>39</v>
       </c>
@@ -8958,19 +8965,19 @@
       <c r="P45" s="371"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="440">
+      <c r="A46" s="443">
         <v>473</v>
       </c>
-      <c r="B46" s="443">
+      <c r="B46" s="440">
         <v>43960</v>
       </c>
-      <c r="C46" s="440" t="s">
+      <c r="C46" s="443" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="453" t="s">
+      <c r="D46" s="455" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="440" t="s">
+      <c r="E46" s="443" t="s">
         <v>119</v>
       </c>
       <c r="F46" s="371" t="s">
@@ -9003,11 +9010,11 @@
       <c r="P46" s="371"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="442"/>
-      <c r="B47" s="445"/>
-      <c r="C47" s="442"/>
-      <c r="D47" s="454"/>
-      <c r="E47" s="442"/>
+      <c r="A47" s="445"/>
+      <c r="B47" s="442"/>
+      <c r="C47" s="445"/>
+      <c r="D47" s="457"/>
+      <c r="E47" s="445"/>
       <c r="F47" s="371" t="s">
         <v>36</v>
       </c>
@@ -9085,19 +9092,19 @@
       <c r="P48" s="371"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="440">
+      <c r="A49" s="443">
         <v>508</v>
       </c>
-      <c r="B49" s="455" t="s">
+      <c r="B49" s="446" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="440" t="s">
+      <c r="C49" s="443" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="440" t="s">
+      <c r="D49" s="443" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="440" t="s">
+      <c r="E49" s="443" t="s">
         <v>108</v>
       </c>
       <c r="F49" s="371" t="s">
@@ -9132,11 +9139,11 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="442"/>
-      <c r="B50" s="457"/>
-      <c r="C50" s="442"/>
-      <c r="D50" s="442"/>
-      <c r="E50" s="442"/>
+      <c r="A50" s="445"/>
+      <c r="B50" s="447"/>
+      <c r="C50" s="445"/>
+      <c r="D50" s="445"/>
+      <c r="E50" s="445"/>
       <c r="F50" s="371" t="s">
         <v>37</v>
       </c>
@@ -9261,19 +9268,19 @@
       <c r="P52" s="371"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="440">
+      <c r="A53" s="443">
         <v>521</v>
       </c>
-      <c r="B53" s="455">
+      <c r="B53" s="446">
         <v>43961</v>
       </c>
-      <c r="C53" s="440" t="s">
+      <c r="C53" s="443" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="453" t="s">
+      <c r="D53" s="455" t="s">
         <v>156</v>
       </c>
-      <c r="E53" s="440" t="s">
+      <c r="E53" s="443" t="s">
         <v>103</v>
       </c>
       <c r="F53" s="371" t="s">
@@ -9306,11 +9313,11 @@
       <c r="P53" s="371"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="441"/>
-      <c r="B54" s="456"/>
-      <c r="C54" s="441"/>
-      <c r="D54" s="460"/>
-      <c r="E54" s="441"/>
+      <c r="A54" s="444"/>
+      <c r="B54" s="454"/>
+      <c r="C54" s="444"/>
+      <c r="D54" s="456"/>
+      <c r="E54" s="444"/>
       <c r="F54" s="371" t="s">
         <v>37</v>
       </c>
@@ -9341,11 +9348,11 @@
       <c r="P54" s="371"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="441"/>
-      <c r="B55" s="456"/>
-      <c r="C55" s="441"/>
-      <c r="D55" s="460"/>
-      <c r="E55" s="441"/>
+      <c r="A55" s="444"/>
+      <c r="B55" s="454"/>
+      <c r="C55" s="444"/>
+      <c r="D55" s="456"/>
+      <c r="E55" s="444"/>
       <c r="F55" s="371" t="s">
         <v>40</v>
       </c>
@@ -9376,11 +9383,11 @@
       <c r="P55" s="371"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="441"/>
-      <c r="B56" s="456"/>
-      <c r="C56" s="441"/>
-      <c r="D56" s="460"/>
-      <c r="E56" s="441"/>
+      <c r="A56" s="444"/>
+      <c r="B56" s="454"/>
+      <c r="C56" s="444"/>
+      <c r="D56" s="456"/>
+      <c r="E56" s="444"/>
       <c r="F56" s="371" t="s">
         <v>42</v>
       </c>
@@ -9411,11 +9418,11 @@
       <c r="P56" s="371"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="441"/>
-      <c r="B57" s="456"/>
-      <c r="C57" s="441"/>
-      <c r="D57" s="460"/>
-      <c r="E57" s="441"/>
+      <c r="A57" s="444"/>
+      <c r="B57" s="454"/>
+      <c r="C57" s="444"/>
+      <c r="D57" s="456"/>
+      <c r="E57" s="444"/>
       <c r="F57" s="371" t="s">
         <v>41</v>
       </c>
@@ -9446,11 +9453,11 @@
       <c r="P57" s="371"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="442"/>
-      <c r="B58" s="457"/>
-      <c r="C58" s="442"/>
-      <c r="D58" s="454"/>
-      <c r="E58" s="442"/>
+      <c r="A58" s="445"/>
+      <c r="B58" s="447"/>
+      <c r="C58" s="445"/>
+      <c r="D58" s="457"/>
+      <c r="E58" s="445"/>
       <c r="F58" s="371" t="s">
         <v>38</v>
       </c>
@@ -9481,16 +9488,16 @@
       <c r="P58" s="371"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="440">
+      <c r="A59" s="443">
         <v>515</v>
       </c>
-      <c r="B59" s="455">
+      <c r="B59" s="446">
         <v>43962</v>
       </c>
-      <c r="C59" s="440" t="s">
+      <c r="C59" s="443" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="440" t="s">
+      <c r="D59" s="443" t="s">
         <v>150</v>
       </c>
       <c r="E59" s="371"/>
@@ -9524,10 +9531,10 @@
       <c r="P59" s="371"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="442"/>
-      <c r="B60" s="457"/>
-      <c r="C60" s="442"/>
-      <c r="D60" s="442"/>
+      <c r="A60" s="445"/>
+      <c r="B60" s="447"/>
+      <c r="C60" s="445"/>
+      <c r="D60" s="445"/>
       <c r="E60" s="371"/>
       <c r="F60" s="371" t="s">
         <v>37</v>
@@ -9651,19 +9658,19 @@
       <c r="P62" s="371"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="440">
+      <c r="A63" s="443">
         <v>525</v>
       </c>
-      <c r="B63" s="455">
+      <c r="B63" s="446">
         <v>43965</v>
       </c>
-      <c r="C63" s="440" t="s">
+      <c r="C63" s="443" t="s">
         <v>157</v>
       </c>
-      <c r="D63" s="440" t="s">
+      <c r="D63" s="443" t="s">
         <v>157</v>
       </c>
-      <c r="E63" s="440" t="s">
+      <c r="E63" s="443" t="s">
         <v>103</v>
       </c>
       <c r="F63" s="371" t="s">
@@ -9698,11 +9705,11 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="442"/>
-      <c r="B64" s="457"/>
-      <c r="C64" s="442"/>
-      <c r="D64" s="442"/>
-      <c r="E64" s="442"/>
+      <c r="A64" s="445"/>
+      <c r="B64" s="447"/>
+      <c r="C64" s="445"/>
+      <c r="D64" s="445"/>
+      <c r="E64" s="445"/>
       <c r="F64" s="371" t="s">
         <v>37</v>
       </c>
@@ -9735,19 +9742,19 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="440">
+      <c r="A65" s="443">
         <v>526</v>
       </c>
-      <c r="B65" s="455">
+      <c r="B65" s="446">
         <v>43965</v>
       </c>
-      <c r="C65" s="440" t="s">
+      <c r="C65" s="443" t="s">
         <v>105</v>
       </c>
-      <c r="D65" s="440" t="s">
+      <c r="D65" s="443" t="s">
         <v>158</v>
       </c>
-      <c r="E65" s="440" t="s">
+      <c r="E65" s="443" t="s">
         <v>159</v>
       </c>
       <c r="F65" s="371" t="s">
@@ -9780,11 +9787,11 @@
       <c r="P65" s="371"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="441"/>
-      <c r="B66" s="456"/>
-      <c r="C66" s="441"/>
-      <c r="D66" s="441"/>
-      <c r="E66" s="441"/>
+      <c r="A66" s="444"/>
+      <c r="B66" s="454"/>
+      <c r="C66" s="444"/>
+      <c r="D66" s="444"/>
+      <c r="E66" s="444"/>
       <c r="F66" s="371" t="s">
         <v>41</v>
       </c>
@@ -9815,11 +9822,11 @@
       <c r="P66" s="371"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="441"/>
-      <c r="B67" s="456"/>
-      <c r="C67" s="441"/>
-      <c r="D67" s="441"/>
-      <c r="E67" s="441"/>
+      <c r="A67" s="444"/>
+      <c r="B67" s="454"/>
+      <c r="C67" s="444"/>
+      <c r="D67" s="444"/>
+      <c r="E67" s="444"/>
       <c r="F67" s="371" t="s">
         <v>39</v>
       </c>
@@ -9850,11 +9857,11 @@
       <c r="P67" s="371"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="442"/>
-      <c r="B68" s="457"/>
-      <c r="C68" s="442"/>
-      <c r="D68" s="442"/>
-      <c r="E68" s="442"/>
+      <c r="A68" s="445"/>
+      <c r="B68" s="447"/>
+      <c r="C68" s="445"/>
+      <c r="D68" s="445"/>
+      <c r="E68" s="445"/>
       <c r="F68" s="371" t="s">
         <v>67</v>
       </c>
@@ -9885,19 +9892,19 @@
       <c r="P68" s="371"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="440">
+      <c r="A69" s="443">
         <v>527</v>
       </c>
-      <c r="B69" s="455">
+      <c r="B69" s="446">
         <v>43967</v>
       </c>
-      <c r="C69" s="440" t="s">
+      <c r="C69" s="443" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="440" t="s">
+      <c r="D69" s="443" t="s">
         <v>106</v>
       </c>
-      <c r="E69" s="440" t="s">
+      <c r="E69" s="443" t="s">
         <v>108</v>
       </c>
       <c r="F69" s="371" t="s">
@@ -9913,7 +9920,7 @@
         <f t="shared" si="11"/>
         <v>4550000</v>
       </c>
-      <c r="J69" s="450">
+      <c r="J69" s="451">
         <v>150000</v>
       </c>
       <c r="K69" s="373">
@@ -9932,11 +9939,11 @@
       <c r="P69" s="371"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="441"/>
-      <c r="B70" s="456"/>
-      <c r="C70" s="441"/>
-      <c r="D70" s="441"/>
-      <c r="E70" s="441"/>
+      <c r="A70" s="444"/>
+      <c r="B70" s="454"/>
+      <c r="C70" s="444"/>
+      <c r="D70" s="444"/>
+      <c r="E70" s="444"/>
       <c r="F70" s="371" t="s">
         <v>37</v>
       </c>
@@ -9950,7 +9957,7 @@
         <f t="shared" si="11"/>
         <v>7440000</v>
       </c>
-      <c r="J70" s="451"/>
+      <c r="J70" s="452"/>
       <c r="K70" s="373">
         <v>0.41</v>
       </c>
@@ -9967,11 +9974,11 @@
       <c r="P70" s="371"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="442"/>
-      <c r="B71" s="457"/>
-      <c r="C71" s="442"/>
-      <c r="D71" s="442"/>
-      <c r="E71" s="442"/>
+      <c r="A71" s="445"/>
+      <c r="B71" s="447"/>
+      <c r="C71" s="445"/>
+      <c r="D71" s="445"/>
+      <c r="E71" s="445"/>
       <c r="F71" s="371" t="s">
         <v>38</v>
       </c>
@@ -9985,7 +9992,7 @@
         <f t="shared" si="11"/>
         <v>3300000</v>
       </c>
-      <c r="J71" s="452"/>
+      <c r="J71" s="453"/>
       <c r="K71" s="373">
         <v>0.41</v>
       </c>
@@ -10047,19 +10054,19 @@
       <c r="P72" s="371"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="440">
+      <c r="A73" s="443">
         <v>530</v>
       </c>
-      <c r="B73" s="455">
+      <c r="B73" s="446">
         <v>43968</v>
       </c>
-      <c r="C73" s="440" t="s">
+      <c r="C73" s="443" t="s">
         <v>105</v>
       </c>
-      <c r="D73" s="453" t="s">
+      <c r="D73" s="455" t="s">
         <v>113</v>
       </c>
-      <c r="E73" s="453" t="s">
+      <c r="E73" s="455" t="s">
         <v>114</v>
       </c>
       <c r="F73" s="371" t="s">
@@ -10075,7 +10082,7 @@
         <f t="shared" si="11"/>
         <v>16380000</v>
       </c>
-      <c r="J73" s="450">
+      <c r="J73" s="451">
         <v>350000</v>
       </c>
       <c r="K73" s="373">
@@ -10094,11 +10101,11 @@
       <c r="P73" s="371"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="441"/>
-      <c r="B74" s="456"/>
-      <c r="C74" s="441"/>
-      <c r="D74" s="460"/>
-      <c r="E74" s="460"/>
+      <c r="A74" s="444"/>
+      <c r="B74" s="454"/>
+      <c r="C74" s="444"/>
+      <c r="D74" s="456"/>
+      <c r="E74" s="456"/>
       <c r="F74" s="371" t="s">
         <v>37</v>
       </c>
@@ -10112,7 +10119,7 @@
         <f t="shared" si="11"/>
         <v>11160000</v>
       </c>
-      <c r="J74" s="451"/>
+      <c r="J74" s="452"/>
       <c r="K74" s="373">
         <v>0.41</v>
       </c>
@@ -10129,11 +10136,11 @@
       <c r="P74" s="371"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="441"/>
-      <c r="B75" s="456"/>
-      <c r="C75" s="441"/>
-      <c r="D75" s="460"/>
-      <c r="E75" s="460"/>
+      <c r="A75" s="444"/>
+      <c r="B75" s="454"/>
+      <c r="C75" s="444"/>
+      <c r="D75" s="456"/>
+      <c r="E75" s="456"/>
       <c r="F75" s="371" t="s">
         <v>42</v>
       </c>
@@ -10147,7 +10154,7 @@
         <f t="shared" si="11"/>
         <v>5820000</v>
       </c>
-      <c r="J75" s="451"/>
+      <c r="J75" s="452"/>
       <c r="K75" s="373">
         <v>0.41</v>
       </c>
@@ -10164,11 +10171,11 @@
       <c r="P75" s="371"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="442"/>
-      <c r="B76" s="457"/>
-      <c r="C76" s="442"/>
-      <c r="D76" s="454"/>
-      <c r="E76" s="454"/>
+      <c r="A76" s="445"/>
+      <c r="B76" s="447"/>
+      <c r="C76" s="445"/>
+      <c r="D76" s="457"/>
+      <c r="E76" s="457"/>
       <c r="F76" s="371" t="s">
         <v>41</v>
       </c>
@@ -10182,7 +10189,7 @@
         <f t="shared" si="11"/>
         <v>5820000</v>
       </c>
-      <c r="J76" s="452"/>
+      <c r="J76" s="453"/>
       <c r="K76" s="373">
         <v>0.41</v>
       </c>
@@ -10246,19 +10253,19 @@
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="440">
+      <c r="A78" s="443">
         <v>532</v>
       </c>
-      <c r="B78" s="455">
+      <c r="B78" s="446">
         <v>43969</v>
       </c>
-      <c r="C78" s="440" t="s">
+      <c r="C78" s="443" t="s">
         <v>107</v>
       </c>
-      <c r="D78" s="440" t="s">
+      <c r="D78" s="443" t="s">
         <v>106</v>
       </c>
-      <c r="E78" s="440" t="s">
+      <c r="E78" s="443" t="s">
         <v>108</v>
       </c>
       <c r="F78" s="371" t="s">
@@ -10293,11 +10300,11 @@
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="442"/>
-      <c r="B79" s="457"/>
-      <c r="C79" s="442"/>
-      <c r="D79" s="442"/>
-      <c r="E79" s="442"/>
+      <c r="A79" s="445"/>
+      <c r="B79" s="447"/>
+      <c r="C79" s="445"/>
+      <c r="D79" s="445"/>
+      <c r="E79" s="445"/>
       <c r="F79" s="371" t="s">
         <v>40</v>
       </c>
@@ -10330,19 +10337,19 @@
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="440">
+      <c r="A80" s="443">
         <v>533</v>
       </c>
-      <c r="B80" s="455">
+      <c r="B80" s="446">
         <v>43969</v>
       </c>
-      <c r="C80" s="440" t="s">
+      <c r="C80" s="443" t="s">
         <v>107</v>
       </c>
-      <c r="D80" s="440" t="s">
+      <c r="D80" s="443" t="s">
         <v>162</v>
       </c>
-      <c r="E80" s="440" t="s">
+      <c r="E80" s="443" t="s">
         <v>163</v>
       </c>
       <c r="F80" s="371" t="s">
@@ -10377,11 +10384,11 @@
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="442"/>
-      <c r="B81" s="457"/>
-      <c r="C81" s="442"/>
-      <c r="D81" s="442"/>
-      <c r="E81" s="442"/>
+      <c r="A81" s="445"/>
+      <c r="B81" s="447"/>
+      <c r="C81" s="445"/>
+      <c r="D81" s="445"/>
+      <c r="E81" s="445"/>
       <c r="F81" s="371" t="s">
         <v>40</v>
       </c>
@@ -10600,19 +10607,19 @@
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="440">
+      <c r="A86" s="443">
         <v>541</v>
       </c>
-      <c r="B86" s="443">
+      <c r="B86" s="440">
         <v>43971</v>
       </c>
-      <c r="C86" s="440" t="s">
+      <c r="C86" s="443" t="s">
         <v>105</v>
       </c>
-      <c r="D86" s="440" t="s">
+      <c r="D86" s="443" t="s">
         <v>249</v>
       </c>
-      <c r="E86" s="440" t="s">
+      <c r="E86" s="443" t="s">
         <v>250</v>
       </c>
       <c r="F86" s="371" t="s">
@@ -10645,11 +10652,11 @@
       <c r="P86" s="371"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="441"/>
-      <c r="B87" s="444"/>
-      <c r="C87" s="441"/>
-      <c r="D87" s="441"/>
-      <c r="E87" s="441"/>
+      <c r="A87" s="444"/>
+      <c r="B87" s="441"/>
+      <c r="C87" s="444"/>
+      <c r="D87" s="444"/>
+      <c r="E87" s="444"/>
       <c r="F87" s="371" t="s">
         <v>37</v>
       </c>
@@ -10680,11 +10687,11 @@
       <c r="P87" s="371"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="441"/>
-      <c r="B88" s="444"/>
-      <c r="C88" s="441"/>
-      <c r="D88" s="441"/>
-      <c r="E88" s="441"/>
+      <c r="A88" s="444"/>
+      <c r="B88" s="441"/>
+      <c r="C88" s="444"/>
+      <c r="D88" s="444"/>
+      <c r="E88" s="444"/>
       <c r="F88" s="371" t="s">
         <v>40</v>
       </c>
@@ -10715,11 +10722,11 @@
       <c r="P88" s="371"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="441"/>
-      <c r="B89" s="444"/>
-      <c r="C89" s="441"/>
-      <c r="D89" s="441"/>
-      <c r="E89" s="441"/>
+      <c r="A89" s="444"/>
+      <c r="B89" s="441"/>
+      <c r="C89" s="444"/>
+      <c r="D89" s="444"/>
+      <c r="E89" s="444"/>
       <c r="F89" s="371" t="s">
         <v>42</v>
       </c>
@@ -10750,11 +10757,11 @@
       <c r="P89" s="371"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="441"/>
-      <c r="B90" s="444"/>
-      <c r="C90" s="441"/>
-      <c r="D90" s="441"/>
-      <c r="E90" s="441"/>
+      <c r="A90" s="444"/>
+      <c r="B90" s="441"/>
+      <c r="C90" s="444"/>
+      <c r="D90" s="444"/>
+      <c r="E90" s="444"/>
       <c r="F90" s="371" t="s">
         <v>131</v>
       </c>
@@ -10785,11 +10792,11 @@
       <c r="P90" s="371"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="441"/>
-      <c r="B91" s="444"/>
-      <c r="C91" s="441"/>
-      <c r="D91" s="441"/>
-      <c r="E91" s="441"/>
+      <c r="A91" s="444"/>
+      <c r="B91" s="441"/>
+      <c r="C91" s="444"/>
+      <c r="D91" s="444"/>
+      <c r="E91" s="444"/>
       <c r="F91" s="371" t="s">
         <v>38</v>
       </c>
@@ -10820,11 +10827,11 @@
       <c r="P91" s="371"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="442"/>
-      <c r="B92" s="445"/>
-      <c r="C92" s="442"/>
-      <c r="D92" s="442"/>
-      <c r="E92" s="442"/>
+      <c r="A92" s="445"/>
+      <c r="B92" s="442"/>
+      <c r="C92" s="445"/>
+      <c r="D92" s="445"/>
+      <c r="E92" s="445"/>
       <c r="F92" s="371" t="s">
         <v>39</v>
       </c>
@@ -10895,19 +10902,19 @@
       <c r="P93" s="371"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="440">
+      <c r="A94" s="443">
         <v>549</v>
       </c>
-      <c r="B94" s="443">
+      <c r="B94" s="440">
         <v>43974</v>
       </c>
-      <c r="C94" s="440" t="s">
+      <c r="C94" s="443" t="s">
         <v>105</v>
       </c>
-      <c r="D94" s="440" t="s">
+      <c r="D94" s="443" t="s">
         <v>267</v>
       </c>
-      <c r="E94" s="440" t="s">
+      <c r="E94" s="443" t="s">
         <v>268</v>
       </c>
       <c r="F94" s="371" t="s">
@@ -10940,11 +10947,11 @@
       <c r="P94" s="371"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="442"/>
-      <c r="B95" s="445"/>
-      <c r="C95" s="442"/>
-      <c r="D95" s="442"/>
-      <c r="E95" s="442"/>
+      <c r="A95" s="445"/>
+      <c r="B95" s="442"/>
+      <c r="C95" s="445"/>
+      <c r="D95" s="445"/>
+      <c r="E95" s="445"/>
       <c r="F95" s="371" t="s">
         <v>42</v>
       </c>
@@ -10975,19 +10982,19 @@
       <c r="P95" s="371"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="440">
+      <c r="A96" s="443">
         <v>565</v>
       </c>
-      <c r="B96" s="443">
+      <c r="B96" s="440">
         <v>43976</v>
       </c>
-      <c r="C96" s="440" t="s">
+      <c r="C96" s="443" t="s">
         <v>105</v>
       </c>
-      <c r="D96" s="440" t="s">
+      <c r="D96" s="443" t="s">
         <v>271</v>
       </c>
-      <c r="E96" s="440"/>
+      <c r="E96" s="443"/>
       <c r="F96" s="371" t="s">
         <v>36</v>
       </c>
@@ -11018,11 +11025,11 @@
       <c r="P96" s="371"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="441"/>
-      <c r="B97" s="444"/>
-      <c r="C97" s="441"/>
-      <c r="D97" s="441"/>
-      <c r="E97" s="441"/>
+      <c r="A97" s="444"/>
+      <c r="B97" s="441"/>
+      <c r="C97" s="444"/>
+      <c r="D97" s="444"/>
+      <c r="E97" s="444"/>
       <c r="F97" s="371" t="s">
         <v>37</v>
       </c>
@@ -11053,11 +11060,11 @@
       <c r="P97" s="371"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="442"/>
-      <c r="B98" s="445"/>
-      <c r="C98" s="442"/>
-      <c r="D98" s="442"/>
-      <c r="E98" s="442"/>
+      <c r="A98" s="445"/>
+      <c r="B98" s="442"/>
+      <c r="C98" s="445"/>
+      <c r="D98" s="445"/>
+      <c r="E98" s="445"/>
       <c r="F98" s="371" t="s">
         <v>40</v>
       </c>
@@ -11170,14 +11177,14 @@
       <c r="P100" s="371"/>
     </row>
     <row r="101" spans="1:16" s="176" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="458" t="s">
+      <c r="A101" s="470" t="s">
         <v>96</v>
       </c>
-      <c r="B101" s="458"/>
-      <c r="C101" s="458"/>
-      <c r="D101" s="458"/>
-      <c r="E101" s="458"/>
-      <c r="F101" s="458"/>
+      <c r="B101" s="470"/>
+      <c r="C101" s="470"/>
+      <c r="D101" s="470"/>
+      <c r="E101" s="470"/>
+      <c r="F101" s="470"/>
       <c r="G101" s="171">
         <f>SUM(G9:G100)</f>
         <v>1127</v>
@@ -11196,17 +11203,17 @@
       <c r="M101" s="172"/>
       <c r="N101" s="172"/>
       <c r="O101" s="172"/>
-      <c r="P101" s="459"/>
+      <c r="P101" s="474"/>
     </row>
     <row r="102" spans="1:16" s="176" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="446" t="s">
+      <c r="A102" s="458" t="s">
         <v>126</v>
       </c>
-      <c r="B102" s="446"/>
-      <c r="C102" s="446"/>
-      <c r="D102" s="446"/>
-      <c r="E102" s="446"/>
-      <c r="F102" s="446"/>
+      <c r="B102" s="458"/>
+      <c r="C102" s="458"/>
+      <c r="D102" s="458"/>
+      <c r="E102" s="458"/>
+      <c r="F102" s="458"/>
       <c r="G102" s="171">
         <f>G101</f>
         <v>1127</v>
@@ -11222,17 +11229,17 @@
       <c r="M102" s="174"/>
       <c r="N102" s="174"/>
       <c r="O102" s="174"/>
-      <c r="P102" s="459"/>
+      <c r="P102" s="474"/>
     </row>
     <row r="103" spans="1:16" s="176" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="446" t="s">
+      <c r="A103" s="458" t="s">
         <v>97</v>
       </c>
-      <c r="B103" s="446"/>
-      <c r="C103" s="446"/>
-      <c r="D103" s="446"/>
-      <c r="E103" s="446"/>
-      <c r="F103" s="446"/>
+      <c r="B103" s="458"/>
+      <c r="C103" s="458"/>
+      <c r="D103" s="458"/>
+      <c r="E103" s="458"/>
+      <c r="F103" s="458"/>
       <c r="G103" s="363" t="s">
         <v>57</v>
       </c>
@@ -11249,14 +11256,14 @@
       <c r="O103" s="174"/>
     </row>
     <row r="104" spans="1:16" s="176" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="446" t="s">
+      <c r="A104" s="458" t="s">
         <v>98</v>
       </c>
-      <c r="B104" s="446"/>
-      <c r="C104" s="446"/>
-      <c r="D104" s="446"/>
-      <c r="E104" s="446"/>
-      <c r="F104" s="446"/>
+      <c r="B104" s="458"/>
+      <c r="C104" s="458"/>
+      <c r="D104" s="458"/>
+      <c r="E104" s="458"/>
+      <c r="F104" s="458"/>
       <c r="G104" s="363"/>
       <c r="H104" s="174"/>
       <c r="I104" s="172"/>
@@ -11271,14 +11278,14 @@
       <c r="O104" s="174"/>
     </row>
     <row r="105" spans="1:16" s="417" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="475" t="s">
+      <c r="A105" s="448" t="s">
         <v>102</v>
       </c>
-      <c r="B105" s="476"/>
-      <c r="C105" s="476"/>
-      <c r="D105" s="476"/>
-      <c r="E105" s="476"/>
-      <c r="F105" s="477"/>
+      <c r="B105" s="449"/>
+      <c r="C105" s="449"/>
+      <c r="D105" s="449"/>
+      <c r="E105" s="449"/>
+      <c r="F105" s="450"/>
       <c r="G105" s="418"/>
       <c r="H105" s="174"/>
       <c r="I105" s="172"/>
@@ -11293,14 +11300,14 @@
       <c r="O105" s="174"/>
     </row>
     <row r="106" spans="1:16" s="176" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="446" t="s">
+      <c r="A106" s="458" t="s">
         <v>99</v>
       </c>
-      <c r="B106" s="446"/>
-      <c r="C106" s="446"/>
-      <c r="D106" s="446"/>
-      <c r="E106" s="446"/>
-      <c r="F106" s="446"/>
+      <c r="B106" s="458"/>
+      <c r="C106" s="458"/>
+      <c r="D106" s="458"/>
+      <c r="E106" s="458"/>
+      <c r="F106" s="458"/>
       <c r="G106" s="363"/>
       <c r="H106" s="174"/>
       <c r="I106" s="172"/>
@@ -11373,73 +11380,46 @@
     </row>
   </sheetData>
   <mergeCells count="139">
-    <mergeCell ref="B86:B92"/>
-    <mergeCell ref="C86:C92"/>
-    <mergeCell ref="D86:D92"/>
-    <mergeCell ref="E86:E92"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="J73:J76"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="E14:E21"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="L22:L24"/>
     <mergeCell ref="A106:F106"/>
     <mergeCell ref="A101:F101"/>
     <mergeCell ref="P101:P102"/>
@@ -11464,54 +11444,81 @@
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="E63:E64"/>
     <mergeCell ref="A86:A92"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="E14:E21"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="J73:J76"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="C86:C92"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="E86:E92"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A104:F104"/>
     <mergeCell ref="A94:A95"/>
     <mergeCell ref="B94:B95"/>
     <mergeCell ref="C94:C95"/>
     <mergeCell ref="D94:D95"/>
     <mergeCell ref="E94:E95"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
     <mergeCell ref="E96:E98"/>
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A103:F103"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.27" top="0.53" bottom="0.39" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11914,7 +11921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S64" sqref="S64"/>
     </sheetView>
   </sheetViews>
@@ -11939,13 +11946,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="538" t="s">
+      <c r="A1" s="500" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="538"/>
-      <c r="C1" s="538"/>
-      <c r="D1" s="538"/>
-      <c r="E1" s="538"/>
+      <c r="B1" s="500"/>
+      <c r="C1" s="500"/>
+      <c r="D1" s="500"/>
+      <c r="E1" s="500"/>
       <c r="F1" s="72"/>
       <c r="G1" s="72"/>
       <c r="H1" s="72"/>
@@ -11973,144 +11980,144 @@
       <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="539" t="s">
+      <c r="A4" s="481" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="539"/>
-      <c r="C4" s="539"/>
-      <c r="D4" s="539"/>
-      <c r="E4" s="539"/>
-      <c r="F4" s="539"/>
-      <c r="G4" s="539"/>
-      <c r="H4" s="539"/>
-      <c r="I4" s="539"/>
-      <c r="J4" s="539"/>
-      <c r="K4" s="539"/>
-      <c r="L4" s="539"/>
-      <c r="M4" s="539"/>
-      <c r="N4" s="539"/>
-      <c r="O4" s="539"/>
+      <c r="B4" s="481"/>
+      <c r="C4" s="481"/>
+      <c r="D4" s="481"/>
+      <c r="E4" s="481"/>
+      <c r="F4" s="481"/>
+      <c r="G4" s="481"/>
+      <c r="H4" s="481"/>
+      <c r="I4" s="481"/>
+      <c r="J4" s="481"/>
+      <c r="K4" s="481"/>
+      <c r="L4" s="481"/>
+      <c r="M4" s="481"/>
+      <c r="N4" s="481"/>
+      <c r="O4" s="481"/>
     </row>
     <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="486" t="s">
+      <c r="A5" s="539" t="s">
         <v>262</v>
       </c>
-      <c r="B5" s="486"/>
-      <c r="C5" s="486"/>
-      <c r="D5" s="486"/>
-      <c r="E5" s="486"/>
-      <c r="F5" s="486"/>
-      <c r="G5" s="486"/>
-      <c r="H5" s="486"/>
-      <c r="I5" s="486"/>
-      <c r="J5" s="486"/>
-      <c r="K5" s="486"/>
-      <c r="L5" s="486"/>
-      <c r="M5" s="486"/>
-      <c r="N5" s="486"/>
-      <c r="O5" s="486"/>
+      <c r="B5" s="539"/>
+      <c r="C5" s="539"/>
+      <c r="D5" s="539"/>
+      <c r="E5" s="539"/>
+      <c r="F5" s="539"/>
+      <c r="G5" s="539"/>
+      <c r="H5" s="539"/>
+      <c r="I5" s="539"/>
+      <c r="J5" s="539"/>
+      <c r="K5" s="539"/>
+      <c r="L5" s="539"/>
+      <c r="M5" s="539"/>
+      <c r="N5" s="539"/>
+      <c r="O5" s="539"/>
     </row>
     <row r="6" spans="1:15" s="165" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="514" t="s">
+      <c r="A6" s="499" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="522" t="s">
+      <c r="B6" s="511" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="514" t="s">
+      <c r="C6" s="499" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="514" t="s">
+      <c r="D6" s="499" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="514"/>
-      <c r="F6" s="523" t="s">
+      <c r="E6" s="499"/>
+      <c r="F6" s="505" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="523"/>
-      <c r="H6" s="523"/>
-      <c r="I6" s="523"/>
-      <c r="J6" s="523"/>
-      <c r="K6" s="523"/>
-      <c r="L6" s="523"/>
-      <c r="M6" s="540"/>
-      <c r="N6" s="540"/>
-      <c r="O6" s="540"/>
+      <c r="G6" s="505"/>
+      <c r="H6" s="505"/>
+      <c r="I6" s="505"/>
+      <c r="J6" s="505"/>
+      <c r="K6" s="505"/>
+      <c r="L6" s="505"/>
+      <c r="M6" s="502"/>
+      <c r="N6" s="502"/>
+      <c r="O6" s="502"/>
     </row>
     <row r="7" spans="1:15" s="165" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="514"/>
-      <c r="B7" s="522"/>
-      <c r="C7" s="514"/>
-      <c r="D7" s="514" t="s">
+      <c r="A7" s="499"/>
+      <c r="B7" s="511"/>
+      <c r="C7" s="499"/>
+      <c r="D7" s="499" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="514" t="s">
+      <c r="E7" s="499" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="514" t="s">
+      <c r="F7" s="499" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="514" t="s">
+      <c r="G7" s="499" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="515" t="s">
+      <c r="H7" s="501" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="515" t="s">
+      <c r="I7" s="501" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="516" t="s">
+      <c r="J7" s="503" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="516"/>
-      <c r="L7" s="515" t="s">
+      <c r="K7" s="503"/>
+      <c r="L7" s="501" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="515" t="s">
+      <c r="M7" s="501" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="515" t="s">
+      <c r="N7" s="501" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="515" t="s">
+      <c r="O7" s="501" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="165" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="514"/>
-      <c r="B8" s="522"/>
-      <c r="C8" s="514"/>
-      <c r="D8" s="514"/>
-      <c r="E8" s="514"/>
-      <c r="F8" s="514"/>
-      <c r="G8" s="514"/>
-      <c r="H8" s="515"/>
-      <c r="I8" s="515"/>
+      <c r="A8" s="499"/>
+      <c r="B8" s="511"/>
+      <c r="C8" s="499"/>
+      <c r="D8" s="499"/>
+      <c r="E8" s="499"/>
+      <c r="F8" s="499"/>
+      <c r="G8" s="499"/>
+      <c r="H8" s="501"/>
+      <c r="I8" s="501"/>
       <c r="J8" s="204" t="s">
         <v>112</v>
       </c>
       <c r="K8" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="515"/>
-      <c r="M8" s="515"/>
-      <c r="N8" s="515"/>
-      <c r="O8" s="515"/>
+      <c r="L8" s="501"/>
+      <c r="M8" s="501"/>
+      <c r="N8" s="501"/>
+      <c r="O8" s="501"/>
     </row>
     <row r="9" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="525">
+      <c r="A9" s="486">
         <v>461</v>
       </c>
-      <c r="B9" s="528">
+      <c r="B9" s="506">
         <v>43951</v>
       </c>
-      <c r="C9" s="525" t="s">
+      <c r="C9" s="486" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="525" t="s">
+      <c r="D9" s="486" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="525" t="s">
+      <c r="E9" s="486" t="s">
         <v>108</v>
       </c>
       <c r="F9" s="201" t="s">
@@ -12139,11 +12146,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="526"/>
-      <c r="B10" s="529"/>
-      <c r="C10" s="526"/>
-      <c r="D10" s="526"/>
-      <c r="E10" s="526"/>
+      <c r="A10" s="487"/>
+      <c r="B10" s="507"/>
+      <c r="C10" s="487"/>
+      <c r="D10" s="487"/>
+      <c r="E10" s="487"/>
       <c r="F10" s="202" t="s">
         <v>37</v>
       </c>
@@ -12170,11 +12177,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="527"/>
-      <c r="B11" s="530"/>
-      <c r="C11" s="527"/>
-      <c r="D11" s="527"/>
-      <c r="E11" s="527"/>
+      <c r="A11" s="488"/>
+      <c r="B11" s="508"/>
+      <c r="C11" s="488"/>
+      <c r="D11" s="488"/>
+      <c r="E11" s="488"/>
       <c r="F11" s="203" t="s">
         <v>40</v>
       </c>
@@ -12363,19 +12370,19 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="531">
+      <c r="A16" s="509">
         <v>508</v>
       </c>
-      <c r="B16" s="533" t="s">
+      <c r="B16" s="483" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="525" t="s">
+      <c r="C16" s="486" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="525" t="s">
+      <c r="D16" s="486" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="525" t="s">
+      <c r="E16" s="486" t="s">
         <v>108</v>
       </c>
       <c r="F16" s="201" t="s">
@@ -12404,11 +12411,11 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="532"/>
-      <c r="B17" s="534"/>
-      <c r="C17" s="527"/>
-      <c r="D17" s="527"/>
-      <c r="E17" s="527"/>
+      <c r="A17" s="510"/>
+      <c r="B17" s="485"/>
+      <c r="C17" s="488"/>
+      <c r="D17" s="488"/>
+      <c r="E17" s="488"/>
       <c r="F17" s="203" t="s">
         <v>37</v>
       </c>
@@ -12517,19 +12524,19 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="525">
+      <c r="A20" s="486">
         <v>527</v>
       </c>
-      <c r="B20" s="533">
+      <c r="B20" s="483">
         <v>43967</v>
       </c>
-      <c r="C20" s="525" t="s">
+      <c r="C20" s="486" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="525" t="s">
+      <c r="D20" s="486" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="525" t="s">
+      <c r="E20" s="486" t="s">
         <v>108</v>
       </c>
       <c r="F20" s="201" t="s">
@@ -12544,7 +12551,7 @@
       <c r="I20" s="186">
         <v>4550000</v>
       </c>
-      <c r="J20" s="535">
+      <c r="J20" s="512">
         <v>150000</v>
       </c>
       <c r="K20" s="187">
@@ -12560,11 +12567,11 @@
       <c r="O20" s="186"/>
     </row>
     <row r="21" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="526"/>
-      <c r="B21" s="542"/>
-      <c r="C21" s="526"/>
-      <c r="D21" s="526"/>
-      <c r="E21" s="526"/>
+      <c r="A21" s="487"/>
+      <c r="B21" s="484"/>
+      <c r="C21" s="487"/>
+      <c r="D21" s="487"/>
+      <c r="E21" s="487"/>
       <c r="F21" s="202" t="s">
         <v>37</v>
       </c>
@@ -12577,7 +12584,7 @@
       <c r="I21" s="188">
         <v>7440000</v>
       </c>
-      <c r="J21" s="536"/>
+      <c r="J21" s="513"/>
       <c r="K21" s="189">
         <v>0.41</v>
       </c>
@@ -12591,11 +12598,11 @@
       <c r="O21" s="188"/>
     </row>
     <row r="22" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="527"/>
-      <c r="B22" s="534"/>
-      <c r="C22" s="527"/>
-      <c r="D22" s="527"/>
-      <c r="E22" s="527"/>
+      <c r="A22" s="488"/>
+      <c r="B22" s="485"/>
+      <c r="C22" s="488"/>
+      <c r="D22" s="488"/>
+      <c r="E22" s="488"/>
       <c r="F22" s="203" t="s">
         <v>38</v>
       </c>
@@ -12608,7 +12615,7 @@
       <c r="I22" s="190">
         <v>3300000</v>
       </c>
-      <c r="J22" s="537"/>
+      <c r="J22" s="514"/>
       <c r="K22" s="191">
         <v>0.41</v>
       </c>
@@ -12666,19 +12673,19 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="525">
+      <c r="A24" s="486">
         <v>532</v>
       </c>
-      <c r="B24" s="533">
+      <c r="B24" s="483">
         <v>43969</v>
       </c>
-      <c r="C24" s="525" t="s">
+      <c r="C24" s="486" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="525" t="s">
+      <c r="D24" s="486" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="525" t="s">
+      <c r="E24" s="486" t="s">
         <v>108</v>
       </c>
       <c r="F24" s="201" t="s">
@@ -12707,11 +12714,11 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="527"/>
-      <c r="B25" s="534"/>
-      <c r="C25" s="527"/>
-      <c r="D25" s="527"/>
-      <c r="E25" s="527"/>
+      <c r="A25" s="488"/>
+      <c r="B25" s="485"/>
+      <c r="C25" s="488"/>
+      <c r="D25" s="488"/>
+      <c r="E25" s="488"/>
       <c r="F25" s="203" t="s">
         <v>40</v>
       </c>
@@ -12738,19 +12745,19 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="525">
+      <c r="A26" s="486">
         <v>533</v>
       </c>
-      <c r="B26" s="533">
+      <c r="B26" s="483">
         <v>43969</v>
       </c>
-      <c r="C26" s="525" t="s">
+      <c r="C26" s="486" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="525" t="s">
+      <c r="D26" s="486" t="s">
         <v>162</v>
       </c>
-      <c r="E26" s="525" t="s">
+      <c r="E26" s="486" t="s">
         <v>163</v>
       </c>
       <c r="F26" s="201" t="s">
@@ -12779,11 +12786,11 @@
       </c>
     </row>
     <row r="27" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="527"/>
-      <c r="B27" s="534"/>
-      <c r="C27" s="527"/>
-      <c r="D27" s="527"/>
-      <c r="E27" s="527"/>
+      <c r="A27" s="488"/>
+      <c r="B27" s="485"/>
+      <c r="C27" s="488"/>
+      <c r="D27" s="488"/>
+      <c r="E27" s="488"/>
       <c r="F27" s="203" t="s">
         <v>40</v>
       </c>
@@ -12905,16 +12912,16 @@
       <c r="O31" s="194"/>
     </row>
     <row r="32" spans="1:15" s="239" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="491" t="s">
+      <c r="A32" s="489" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="492"/>
-      <c r="C32" s="492"/>
-      <c r="D32" s="492"/>
-      <c r="E32" s="492"/>
-      <c r="F32" s="492"/>
-      <c r="G32" s="492"/>
-      <c r="H32" s="485"/>
+      <c r="B32" s="490"/>
+      <c r="C32" s="490"/>
+      <c r="D32" s="490"/>
+      <c r="E32" s="490"/>
+      <c r="F32" s="490"/>
+      <c r="G32" s="490"/>
+      <c r="H32" s="491"/>
       <c r="I32" s="240">
         <f>SUM(I9:I31)</f>
         <v>34105000</v>
@@ -12952,20 +12959,20 @@
     <row r="34" spans="1:15" s="248" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="246"/>
       <c r="B34" s="246"/>
-      <c r="C34" s="539" t="s">
+      <c r="C34" s="481" t="s">
         <v>196</v>
       </c>
-      <c r="D34" s="539"/>
-      <c r="E34" s="539"/>
+      <c r="D34" s="481"/>
+      <c r="E34" s="481"/>
       <c r="F34" s="246"/>
       <c r="G34" s="246"/>
       <c r="H34" s="246"/>
       <c r="I34" s="247"/>
       <c r="L34" s="247"/>
-      <c r="M34" s="541" t="s">
+      <c r="M34" s="482" t="s">
         <v>246</v>
       </c>
-      <c r="N34" s="541"/>
+      <c r="N34" s="482"/>
       <c r="O34" s="247"/>
     </row>
     <row r="35" spans="1:15" s="248" customFormat="1" x14ac:dyDescent="0.25">
@@ -12997,108 +13004,108 @@
       <c r="O36" s="247"/>
     </row>
     <row r="37" spans="1:15" s="170" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="543" t="s">
+      <c r="A37" s="492" t="s">
         <v>197</v>
       </c>
-      <c r="B37" s="544"/>
-      <c r="C37" s="544"/>
-      <c r="D37" s="544"/>
-      <c r="E37" s="544"/>
-      <c r="F37" s="544"/>
-      <c r="G37" s="544"/>
-      <c r="H37" s="544"/>
-      <c r="I37" s="544"/>
-      <c r="J37" s="544"/>
-      <c r="K37" s="544"/>
-      <c r="L37" s="544"/>
-      <c r="M37" s="544"/>
-      <c r="N37" s="544"/>
-      <c r="O37" s="544"/>
+      <c r="B37" s="493"/>
+      <c r="C37" s="493"/>
+      <c r="D37" s="493"/>
+      <c r="E37" s="493"/>
+      <c r="F37" s="493"/>
+      <c r="G37" s="493"/>
+      <c r="H37" s="493"/>
+      <c r="I37" s="493"/>
+      <c r="J37" s="493"/>
+      <c r="K37" s="493"/>
+      <c r="L37" s="493"/>
+      <c r="M37" s="493"/>
+      <c r="N37" s="493"/>
+      <c r="O37" s="493"/>
     </row>
     <row r="38" spans="1:15" s="165" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="514" t="s">
+      <c r="A38" s="499" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="522" t="s">
+      <c r="B38" s="511" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="514" t="s">
+      <c r="C38" s="499" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="514" t="s">
+      <c r="D38" s="499" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="514"/>
-      <c r="F38" s="523" t="s">
+      <c r="E38" s="499"/>
+      <c r="F38" s="505" t="s">
         <v>29</v>
       </c>
-      <c r="G38" s="523"/>
-      <c r="H38" s="523"/>
-      <c r="I38" s="523"/>
-      <c r="J38" s="523"/>
-      <c r="K38" s="523"/>
-      <c r="L38" s="523"/>
-      <c r="M38" s="517" t="s">
+      <c r="G38" s="505"/>
+      <c r="H38" s="505"/>
+      <c r="I38" s="505"/>
+      <c r="J38" s="505"/>
+      <c r="K38" s="505"/>
+      <c r="L38" s="505"/>
+      <c r="M38" s="515" t="s">
         <v>58</v>
       </c>
-      <c r="N38" s="518"/>
-      <c r="O38" s="545" t="s">
+      <c r="N38" s="516"/>
+      <c r="O38" s="496" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="165" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="514"/>
-      <c r="B39" s="522"/>
-      <c r="C39" s="514"/>
-      <c r="D39" s="514" t="s">
+      <c r="A39" s="499"/>
+      <c r="B39" s="511"/>
+      <c r="C39" s="499"/>
+      <c r="D39" s="499" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="514" t="s">
+      <c r="E39" s="499" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="514" t="s">
+      <c r="F39" s="499" t="s">
         <v>31</v>
       </c>
-      <c r="G39" s="514" t="s">
+      <c r="G39" s="499" t="s">
         <v>32</v>
       </c>
-      <c r="H39" s="515" t="s">
+      <c r="H39" s="501" t="s">
         <v>33</v>
       </c>
-      <c r="I39" s="515" t="s">
+      <c r="I39" s="501" t="s">
         <v>51</v>
       </c>
-      <c r="J39" s="516" t="s">
+      <c r="J39" s="503" t="s">
         <v>35</v>
       </c>
-      <c r="K39" s="516"/>
-      <c r="L39" s="515" t="s">
+      <c r="K39" s="503"/>
+      <c r="L39" s="501" t="s">
         <v>52</v>
       </c>
-      <c r="M39" s="519"/>
-      <c r="N39" s="520"/>
-      <c r="O39" s="546"/>
+      <c r="M39" s="517"/>
+      <c r="N39" s="518"/>
+      <c r="O39" s="497"/>
     </row>
     <row r="40" spans="1:15" s="165" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="514"/>
-      <c r="B40" s="522"/>
-      <c r="C40" s="514"/>
-      <c r="D40" s="514"/>
-      <c r="E40" s="514"/>
-      <c r="F40" s="514"/>
-      <c r="G40" s="514"/>
-      <c r="H40" s="515"/>
-      <c r="I40" s="515"/>
+      <c r="A40" s="499"/>
+      <c r="B40" s="511"/>
+      <c r="C40" s="499"/>
+      <c r="D40" s="499"/>
+      <c r="E40" s="499"/>
+      <c r="F40" s="499"/>
+      <c r="G40" s="499"/>
+      <c r="H40" s="501"/>
+      <c r="I40" s="501"/>
       <c r="J40" s="204" t="s">
         <v>112</v>
       </c>
       <c r="K40" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="L40" s="515"/>
-      <c r="M40" s="519"/>
-      <c r="N40" s="520"/>
-      <c r="O40" s="547"/>
+      <c r="L40" s="501"/>
+      <c r="M40" s="517"/>
+      <c r="N40" s="518"/>
+      <c r="O40" s="498"/>
     </row>
     <row r="41" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="196">
@@ -13137,11 +13144,11 @@
         <f>I41*(1-K41)</f>
         <v>550000</v>
       </c>
-      <c r="M41" s="521">
+      <c r="M41" s="519">
         <f>L41</f>
         <v>550000</v>
       </c>
-      <c r="N41" s="521"/>
+      <c r="N41" s="519"/>
       <c r="O41" s="238"/>
     </row>
     <row r="42" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -13181,11 +13188,11 @@
         <f t="shared" ref="L42:L47" si="1">I42*(1-K42)</f>
         <v>295750</v>
       </c>
-      <c r="M42" s="510">
+      <c r="M42" s="494">
         <f>L42</f>
         <v>295750</v>
       </c>
-      <c r="N42" s="511"/>
+      <c r="N42" s="495"/>
       <c r="O42" s="168"/>
     </row>
     <row r="43" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -13225,11 +13232,11 @@
         <f t="shared" si="1"/>
         <v>550000</v>
       </c>
-      <c r="M43" s="510">
+      <c r="M43" s="494">
         <f t="shared" ref="M43:M47" si="2">L43</f>
         <v>550000</v>
       </c>
-      <c r="N43" s="511"/>
+      <c r="N43" s="495"/>
       <c r="O43" s="168"/>
     </row>
     <row r="44" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -13271,11 +13278,11 @@
         <f>I44*(1-K44)-J44</f>
         <v>388000</v>
       </c>
-      <c r="M44" s="510">
+      <c r="M44" s="494">
         <f t="shared" si="2"/>
         <v>388000</v>
       </c>
-      <c r="N44" s="511"/>
+      <c r="N44" s="495"/>
       <c r="O44" s="168"/>
     </row>
     <row r="45" spans="1:15" s="170" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -13297,11 +13304,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M45" s="510">
+      <c r="M45" s="494">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N45" s="511"/>
+      <c r="N45" s="495"/>
       <c r="O45" s="168"/>
     </row>
     <row r="46" spans="1:15" s="170" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -13323,11 +13330,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M46" s="510">
+      <c r="M46" s="494">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N46" s="511"/>
+      <c r="N46" s="495"/>
       <c r="O46" s="168"/>
     </row>
     <row r="47" spans="1:15" s="170" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -13349,24 +13356,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M47" s="510">
+      <c r="M47" s="494">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N47" s="511"/>
+      <c r="N47" s="495"/>
       <c r="O47" s="168"/>
     </row>
     <row r="48" spans="1:15" s="239" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="491" t="s">
+      <c r="A48" s="489" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="492"/>
-      <c r="C48" s="492"/>
-      <c r="D48" s="492"/>
-      <c r="E48" s="492"/>
-      <c r="F48" s="492"/>
-      <c r="G48" s="492"/>
-      <c r="H48" s="485"/>
+      <c r="B48" s="490"/>
+      <c r="C48" s="490"/>
+      <c r="D48" s="490"/>
+      <c r="E48" s="490"/>
+      <c r="F48" s="490"/>
+      <c r="G48" s="490"/>
+      <c r="H48" s="491"/>
       <c r="I48" s="240">
         <f>SUM(I41:I47)</f>
         <v>2040000</v>
@@ -13377,373 +13384,373 @@
         <f>SUM(L41:L47)</f>
         <v>1783750</v>
       </c>
-      <c r="M48" s="512">
+      <c r="M48" s="530">
         <f>SUM(M41:N47)</f>
         <v>1783750</v>
       </c>
-      <c r="N48" s="513"/>
+      <c r="N48" s="531"/>
       <c r="O48" s="242"/>
     </row>
     <row r="49" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="509" t="s">
+      <c r="A49" s="520" t="s">
         <v>214</v>
       </c>
-      <c r="B49" s="509"/>
-      <c r="C49" s="509"/>
-      <c r="D49" s="509"/>
-      <c r="E49" s="509"/>
-      <c r="F49" s="509"/>
-      <c r="G49" s="509"/>
-      <c r="H49" s="509"/>
-      <c r="I49" s="509"/>
-      <c r="J49" s="509"/>
-      <c r="K49" s="509"/>
-      <c r="L49" s="509"/>
-      <c r="M49" s="509"/>
-      <c r="N49" s="509"/>
-      <c r="O49" s="509"/>
+      <c r="B49" s="520"/>
+      <c r="C49" s="520"/>
+      <c r="D49" s="520"/>
+      <c r="E49" s="520"/>
+      <c r="F49" s="520"/>
+      <c r="G49" s="520"/>
+      <c r="H49" s="520"/>
+      <c r="I49" s="520"/>
+      <c r="J49" s="520"/>
+      <c r="K49" s="520"/>
+      <c r="L49" s="520"/>
+      <c r="M49" s="520"/>
+      <c r="N49" s="520"/>
+      <c r="O49" s="520"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="494" t="s">
+      <c r="A50" s="521" t="s">
         <v>204</v>
       </c>
-      <c r="B50" s="494"/>
-      <c r="C50" s="494"/>
-      <c r="D50" s="494"/>
-      <c r="E50" s="494"/>
-      <c r="F50" s="494"/>
-      <c r="G50" s="494"/>
-      <c r="H50" s="494" t="s">
+      <c r="B50" s="521"/>
+      <c r="C50" s="521"/>
+      <c r="D50" s="521"/>
+      <c r="E50" s="521"/>
+      <c r="F50" s="521"/>
+      <c r="G50" s="521"/>
+      <c r="H50" s="521" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="494"/>
-      <c r="J50" s="494" t="s">
+      <c r="I50" s="521"/>
+      <c r="J50" s="521" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="494"/>
-      <c r="L50" s="494"/>
+      <c r="K50" s="521"/>
+      <c r="L50" s="521"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="501" t="s">
+      <c r="A51" s="522" t="s">
         <v>205</v>
       </c>
-      <c r="B51" s="502"/>
-      <c r="C51" s="502"/>
-      <c r="D51" s="502"/>
-      <c r="E51" s="502"/>
-      <c r="F51" s="502"/>
-      <c r="G51" s="503"/>
-      <c r="H51" s="504">
+      <c r="B51" s="523"/>
+      <c r="C51" s="523"/>
+      <c r="D51" s="523"/>
+      <c r="E51" s="523"/>
+      <c r="F51" s="523"/>
+      <c r="G51" s="524"/>
+      <c r="H51" s="525">
         <v>523000</v>
       </c>
-      <c r="I51" s="505"/>
-      <c r="J51" s="497" t="s">
+      <c r="I51" s="526"/>
+      <c r="J51" s="527" t="s">
         <v>206</v>
       </c>
-      <c r="K51" s="498"/>
-      <c r="L51" s="499"/>
+      <c r="K51" s="528"/>
+      <c r="L51" s="529"/>
     </row>
     <row r="52" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="506" t="s">
+      <c r="A52" s="532" t="s">
         <v>218</v>
       </c>
-      <c r="B52" s="507"/>
-      <c r="C52" s="507"/>
-      <c r="D52" s="507"/>
-      <c r="E52" s="507"/>
-      <c r="F52" s="507"/>
-      <c r="G52" s="508"/>
-      <c r="H52" s="504">
+      <c r="B52" s="533"/>
+      <c r="C52" s="533"/>
+      <c r="D52" s="533"/>
+      <c r="E52" s="533"/>
+      <c r="F52" s="533"/>
+      <c r="G52" s="534"/>
+      <c r="H52" s="525">
         <v>2079000</v>
       </c>
-      <c r="I52" s="505"/>
-      <c r="J52" s="497" t="s">
+      <c r="I52" s="526"/>
+      <c r="J52" s="527" t="s">
         <v>206</v>
       </c>
-      <c r="K52" s="498"/>
-      <c r="L52" s="499"/>
+      <c r="K52" s="528"/>
+      <c r="L52" s="529"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="501" t="s">
+      <c r="A53" s="522" t="s">
         <v>207</v>
       </c>
-      <c r="B53" s="502"/>
-      <c r="C53" s="502"/>
-      <c r="D53" s="502"/>
-      <c r="E53" s="502"/>
-      <c r="F53" s="502"/>
-      <c r="G53" s="503"/>
-      <c r="H53" s="504">
+      <c r="B53" s="523"/>
+      <c r="C53" s="523"/>
+      <c r="D53" s="523"/>
+      <c r="E53" s="523"/>
+      <c r="F53" s="523"/>
+      <c r="G53" s="524"/>
+      <c r="H53" s="525">
         <v>2563000</v>
       </c>
-      <c r="I53" s="505"/>
-      <c r="J53" s="497" t="s">
+      <c r="I53" s="526"/>
+      <c r="J53" s="527" t="s">
         <v>206</v>
       </c>
-      <c r="K53" s="498"/>
-      <c r="L53" s="499"/>
+      <c r="K53" s="528"/>
+      <c r="L53" s="529"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="501" t="s">
+      <c r="A54" s="522" t="s">
         <v>215</v>
       </c>
-      <c r="B54" s="502"/>
-      <c r="C54" s="502"/>
-      <c r="D54" s="502"/>
-      <c r="E54" s="502"/>
-      <c r="F54" s="502"/>
-      <c r="G54" s="503"/>
-      <c r="H54" s="504">
+      <c r="B54" s="523"/>
+      <c r="C54" s="523"/>
+      <c r="D54" s="523"/>
+      <c r="E54" s="523"/>
+      <c r="F54" s="523"/>
+      <c r="G54" s="524"/>
+      <c r="H54" s="525">
         <v>82000</v>
       </c>
-      <c r="I54" s="505"/>
-      <c r="J54" s="497" t="s">
+      <c r="I54" s="526"/>
+      <c r="J54" s="527" t="s">
         <v>206</v>
       </c>
-      <c r="K54" s="498"/>
-      <c r="L54" s="499"/>
+      <c r="K54" s="528"/>
+      <c r="L54" s="529"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="501" t="s">
+      <c r="A55" s="522" t="s">
         <v>219</v>
       </c>
-      <c r="B55" s="502"/>
-      <c r="C55" s="502"/>
-      <c r="D55" s="502"/>
-      <c r="E55" s="502"/>
-      <c r="F55" s="502"/>
-      <c r="G55" s="503"/>
-      <c r="H55" s="504">
+      <c r="B55" s="523"/>
+      <c r="C55" s="523"/>
+      <c r="D55" s="523"/>
+      <c r="E55" s="523"/>
+      <c r="F55" s="523"/>
+      <c r="G55" s="524"/>
+      <c r="H55" s="525">
         <v>866000</v>
       </c>
-      <c r="I55" s="505"/>
-      <c r="J55" s="497" t="s">
+      <c r="I55" s="526"/>
+      <c r="J55" s="527" t="s">
         <v>206</v>
       </c>
-      <c r="K55" s="498"/>
-      <c r="L55" s="499"/>
+      <c r="K55" s="528"/>
+      <c r="L55" s="529"/>
     </row>
     <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="501"/>
-      <c r="B56" s="502"/>
-      <c r="C56" s="502"/>
-      <c r="D56" s="502"/>
-      <c r="E56" s="502"/>
-      <c r="F56" s="502"/>
-      <c r="G56" s="503"/>
-      <c r="H56" s="504"/>
-      <c r="I56" s="505"/>
-      <c r="J56" s="497" t="s">
+      <c r="A56" s="522"/>
+      <c r="B56" s="523"/>
+      <c r="C56" s="523"/>
+      <c r="D56" s="523"/>
+      <c r="E56" s="523"/>
+      <c r="F56" s="523"/>
+      <c r="G56" s="524"/>
+      <c r="H56" s="525"/>
+      <c r="I56" s="526"/>
+      <c r="J56" s="527" t="s">
         <v>206</v>
       </c>
-      <c r="K56" s="498"/>
-      <c r="L56" s="499"/>
+      <c r="K56" s="528"/>
+      <c r="L56" s="529"/>
     </row>
     <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="501"/>
-      <c r="B57" s="502"/>
-      <c r="C57" s="502"/>
-      <c r="D57" s="502"/>
-      <c r="E57" s="502"/>
-      <c r="F57" s="502"/>
-      <c r="G57" s="503"/>
-      <c r="H57" s="504"/>
-      <c r="I57" s="505"/>
-      <c r="J57" s="497" t="s">
+      <c r="A57" s="522"/>
+      <c r="B57" s="523"/>
+      <c r="C57" s="523"/>
+      <c r="D57" s="523"/>
+      <c r="E57" s="523"/>
+      <c r="F57" s="523"/>
+      <c r="G57" s="524"/>
+      <c r="H57" s="525"/>
+      <c r="I57" s="526"/>
+      <c r="J57" s="527" t="s">
         <v>206</v>
       </c>
-      <c r="K57" s="498"/>
-      <c r="L57" s="499"/>
+      <c r="K57" s="528"/>
+      <c r="L57" s="529"/>
     </row>
     <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="501"/>
-      <c r="B58" s="502"/>
-      <c r="C58" s="502"/>
-      <c r="D58" s="502"/>
-      <c r="E58" s="502"/>
-      <c r="F58" s="502"/>
-      <c r="G58" s="503"/>
-      <c r="H58" s="504"/>
-      <c r="I58" s="505"/>
-      <c r="J58" s="497" t="s">
+      <c r="A58" s="522"/>
+      <c r="B58" s="523"/>
+      <c r="C58" s="523"/>
+      <c r="D58" s="523"/>
+      <c r="E58" s="523"/>
+      <c r="F58" s="523"/>
+      <c r="G58" s="524"/>
+      <c r="H58" s="525"/>
+      <c r="I58" s="526"/>
+      <c r="J58" s="527" t="s">
         <v>206</v>
       </c>
-      <c r="K58" s="498"/>
-      <c r="L58" s="499"/>
+      <c r="K58" s="528"/>
+      <c r="L58" s="529"/>
     </row>
     <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="501"/>
-      <c r="B59" s="502"/>
-      <c r="C59" s="502"/>
-      <c r="D59" s="502"/>
-      <c r="E59" s="502"/>
-      <c r="F59" s="502"/>
-      <c r="G59" s="503"/>
-      <c r="H59" s="504"/>
-      <c r="I59" s="505"/>
-      <c r="J59" s="497" t="s">
+      <c r="A59" s="522"/>
+      <c r="B59" s="523"/>
+      <c r="C59" s="523"/>
+      <c r="D59" s="523"/>
+      <c r="E59" s="523"/>
+      <c r="F59" s="523"/>
+      <c r="G59" s="524"/>
+      <c r="H59" s="525"/>
+      <c r="I59" s="526"/>
+      <c r="J59" s="527" t="s">
         <v>206</v>
       </c>
-      <c r="K59" s="498"/>
-      <c r="L59" s="499"/>
+      <c r="K59" s="528"/>
+      <c r="L59" s="529"/>
     </row>
     <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="501"/>
-      <c r="B60" s="502"/>
-      <c r="C60" s="502"/>
-      <c r="D60" s="502"/>
-      <c r="E60" s="502"/>
-      <c r="F60" s="502"/>
-      <c r="G60" s="503"/>
-      <c r="H60" s="504"/>
-      <c r="I60" s="505"/>
-      <c r="J60" s="497" t="s">
+      <c r="A60" s="522"/>
+      <c r="B60" s="523"/>
+      <c r="C60" s="523"/>
+      <c r="D60" s="523"/>
+      <c r="E60" s="523"/>
+      <c r="F60" s="523"/>
+      <c r="G60" s="524"/>
+      <c r="H60" s="525"/>
+      <c r="I60" s="526"/>
+      <c r="J60" s="527" t="s">
         <v>206</v>
       </c>
-      <c r="K60" s="498"/>
-      <c r="L60" s="499"/>
+      <c r="K60" s="528"/>
+      <c r="L60" s="529"/>
     </row>
     <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="501"/>
-      <c r="B61" s="502"/>
-      <c r="C61" s="502"/>
-      <c r="D61" s="502"/>
-      <c r="E61" s="502"/>
-      <c r="F61" s="502"/>
-      <c r="G61" s="503"/>
-      <c r="H61" s="504"/>
-      <c r="I61" s="505"/>
-      <c r="J61" s="497" t="s">
+      <c r="A61" s="522"/>
+      <c r="B61" s="523"/>
+      <c r="C61" s="523"/>
+      <c r="D61" s="523"/>
+      <c r="E61" s="523"/>
+      <c r="F61" s="523"/>
+      <c r="G61" s="524"/>
+      <c r="H61" s="525"/>
+      <c r="I61" s="526"/>
+      <c r="J61" s="527" t="s">
         <v>206</v>
       </c>
-      <c r="K61" s="498"/>
-      <c r="L61" s="499"/>
+      <c r="K61" s="528"/>
+      <c r="L61" s="529"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="491" t="s">
+      <c r="A62" s="489" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="492"/>
-      <c r="C62" s="492"/>
-      <c r="D62" s="492"/>
-      <c r="E62" s="492"/>
-      <c r="F62" s="492"/>
-      <c r="G62" s="485"/>
-      <c r="H62" s="495">
+      <c r="B62" s="490"/>
+      <c r="C62" s="490"/>
+      <c r="D62" s="490"/>
+      <c r="E62" s="490"/>
+      <c r="F62" s="490"/>
+      <c r="G62" s="491"/>
+      <c r="H62" s="545">
         <f>SUM(H51:I61)</f>
         <v>6113000</v>
       </c>
-      <c r="I62" s="496"/>
-      <c r="J62" s="497"/>
-      <c r="K62" s="498"/>
-      <c r="L62" s="499"/>
+      <c r="I62" s="546"/>
+      <c r="J62" s="527"/>
+      <c r="K62" s="528"/>
+      <c r="L62" s="529"/>
     </row>
     <row r="63" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="500" t="s">
+      <c r="A63" s="547" t="s">
         <v>208</v>
       </c>
-      <c r="B63" s="500"/>
-      <c r="C63" s="500"/>
-      <c r="D63" s="500"/>
-      <c r="E63" s="500"/>
-      <c r="F63" s="500"/>
-      <c r="G63" s="500"/>
-      <c r="H63" s="500"/>
-      <c r="I63" s="500"/>
+      <c r="B63" s="547"/>
+      <c r="C63" s="547"/>
+      <c r="D63" s="547"/>
+      <c r="E63" s="547"/>
+      <c r="F63" s="547"/>
+      <c r="G63" s="547"/>
+      <c r="H63" s="547"/>
+      <c r="I63" s="547"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="491" t="s">
+      <c r="B64" s="489" t="s">
         <v>204</v>
       </c>
-      <c r="C64" s="492"/>
-      <c r="D64" s="492"/>
-      <c r="E64" s="492"/>
-      <c r="F64" s="492"/>
-      <c r="G64" s="492"/>
-      <c r="H64" s="485"/>
-      <c r="I64" s="494" t="s">
+      <c r="C64" s="490"/>
+      <c r="D64" s="490"/>
+      <c r="E64" s="490"/>
+      <c r="F64" s="490"/>
+      <c r="G64" s="490"/>
+      <c r="H64" s="491"/>
+      <c r="I64" s="521" t="s">
         <v>210</v>
       </c>
-      <c r="J64" s="494"/>
+      <c r="J64" s="521"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="74">
         <v>1</v>
       </c>
-      <c r="B65" s="481" t="s">
+      <c r="B65" s="535" t="s">
         <v>211</v>
       </c>
-      <c r="C65" s="482"/>
-      <c r="D65" s="482"/>
-      <c r="E65" s="482"/>
-      <c r="F65" s="482"/>
-      <c r="G65" s="482"/>
-      <c r="H65" s="483"/>
-      <c r="I65" s="484">
+      <c r="C65" s="536"/>
+      <c r="D65" s="536"/>
+      <c r="E65" s="536"/>
+      <c r="F65" s="536"/>
+      <c r="G65" s="536"/>
+      <c r="H65" s="537"/>
+      <c r="I65" s="538">
         <f>L32</f>
         <v>19849100.000000004</v>
       </c>
-      <c r="J65" s="485"/>
+      <c r="J65" s="491"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="74">
         <v>2</v>
       </c>
-      <c r="B66" s="481" t="s">
+      <c r="B66" s="535" t="s">
         <v>212</v>
       </c>
-      <c r="C66" s="482"/>
-      <c r="D66" s="482"/>
-      <c r="E66" s="482"/>
-      <c r="F66" s="482"/>
-      <c r="G66" s="482"/>
-      <c r="H66" s="483"/>
-      <c r="I66" s="493">
+      <c r="C66" s="536"/>
+      <c r="D66" s="536"/>
+      <c r="E66" s="536"/>
+      <c r="F66" s="536"/>
+      <c r="G66" s="536"/>
+      <c r="H66" s="537"/>
+      <c r="I66" s="544">
         <f>M48</f>
         <v>1783750</v>
       </c>
-      <c r="J66" s="493"/>
+      <c r="J66" s="544"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="74">
         <v>3</v>
       </c>
-      <c r="B67" s="481" t="s">
+      <c r="B67" s="535" t="s">
         <v>213</v>
       </c>
-      <c r="C67" s="482"/>
-      <c r="D67" s="482"/>
-      <c r="E67" s="482"/>
-      <c r="F67" s="482"/>
-      <c r="G67" s="482"/>
-      <c r="H67" s="483"/>
-      <c r="I67" s="493">
+      <c r="C67" s="536"/>
+      <c r="D67" s="536"/>
+      <c r="E67" s="536"/>
+      <c r="F67" s="536"/>
+      <c r="G67" s="536"/>
+      <c r="H67" s="537"/>
+      <c r="I67" s="544">
         <f>N32</f>
         <v>9000000.0000000019</v>
       </c>
-      <c r="J67" s="493"/>
+      <c r="J67" s="544"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="74">
         <v>4</v>
       </c>
-      <c r="B68" s="481" t="s">
+      <c r="B68" s="535" t="s">
         <v>209</v>
       </c>
-      <c r="C68" s="482"/>
-      <c r="D68" s="482"/>
-      <c r="E68" s="482"/>
-      <c r="F68" s="482"/>
-      <c r="G68" s="482"/>
-      <c r="H68" s="483"/>
-      <c r="I68" s="493">
+      <c r="C68" s="536"/>
+      <c r="D68" s="536"/>
+      <c r="E68" s="536"/>
+      <c r="F68" s="536"/>
+      <c r="G68" s="536"/>
+      <c r="H68" s="537"/>
+      <c r="I68" s="544">
         <f>H62</f>
         <v>6113000</v>
       </c>
-      <c r="J68" s="493"/>
+      <c r="J68" s="544"/>
       <c r="L68" s="258"/>
       <c r="M68" s="258"/>
     </row>
@@ -13751,39 +13758,39 @@
       <c r="A69" s="74">
         <v>5</v>
       </c>
-      <c r="B69" s="481" t="s">
+      <c r="B69" s="535" t="s">
         <v>263</v>
       </c>
-      <c r="C69" s="482"/>
-      <c r="D69" s="482"/>
-      <c r="E69" s="482"/>
-      <c r="F69" s="482"/>
-      <c r="G69" s="482"/>
-      <c r="H69" s="483"/>
-      <c r="I69" s="484">
+      <c r="C69" s="536"/>
+      <c r="D69" s="536"/>
+      <c r="E69" s="536"/>
+      <c r="F69" s="536"/>
+      <c r="G69" s="536"/>
+      <c r="H69" s="537"/>
+      <c r="I69" s="538">
         <f>'Bảng lương'!K18</f>
         <v>4407604.153846154</v>
       </c>
-      <c r="J69" s="487"/>
+      <c r="J69" s="540"/>
     </row>
     <row r="70" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="74">
         <v>6</v>
       </c>
-      <c r="B70" s="488" t="s">
+      <c r="B70" s="541" t="s">
         <v>217</v>
       </c>
-      <c r="C70" s="489"/>
-      <c r="D70" s="489"/>
-      <c r="E70" s="489"/>
-      <c r="F70" s="489"/>
-      <c r="G70" s="489"/>
-      <c r="H70" s="490"/>
-      <c r="I70" s="493">
+      <c r="C70" s="542"/>
+      <c r="D70" s="542"/>
+      <c r="E70" s="542"/>
+      <c r="F70" s="542"/>
+      <c r="G70" s="542"/>
+      <c r="H70" s="543"/>
+      <c r="I70" s="544">
         <f>I65+I66-I67-I68-I69</f>
         <v>2112245.8461538479</v>
       </c>
-      <c r="J70" s="493"/>
+      <c r="J70" s="544"/>
       <c r="N70" s="258"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -13799,19 +13806,19 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="111"/>
-      <c r="B72" s="539" t="s">
+      <c r="B72" s="481" t="s">
         <v>193</v>
       </c>
-      <c r="C72" s="539"/>
-      <c r="D72" s="539"/>
+      <c r="C72" s="481"/>
+      <c r="D72" s="481"/>
       <c r="E72" s="111"/>
       <c r="F72" s="111"/>
       <c r="G72" s="111"/>
       <c r="H72" s="111"/>
-      <c r="K72" s="539" t="s">
+      <c r="K72" s="481" t="s">
         <v>246</v>
       </c>
-      <c r="L72" s="539"/>
+      <c r="L72" s="481"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="111"/>
@@ -13891,8 +13898,8 @@
       <c r="I79" s="244"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="524"/>
-      <c r="B80" s="524"/>
+      <c r="A80" s="504"/>
+      <c r="B80" s="504"/>
       <c r="E80" s="37"/>
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
@@ -13902,8 +13909,8 @@
       <c r="H82" s="245"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="524"/>
-      <c r="B84" s="524"/>
+      <c r="A84" s="504"/>
+      <c r="B84" s="504"/>
       <c r="E84" s="37"/>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -13911,6 +13918,115 @@
     </row>
   </sheetData>
   <mergeCells count="133">
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="A49:O49"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M38:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:L38"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="B72:D72"/>
@@ -13935,115 +14051,6 @@
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M38:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:L38"/>
-    <mergeCell ref="A49:O49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="H61:I61"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -14581,16 +14588,16 @@
       <c r="C1" s="206"/>
       <c r="D1" s="206"/>
       <c r="E1" s="206"/>
-      <c r="Z1" s="553" t="s">
+      <c r="Z1" s="565" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="554"/>
-      <c r="AB1" s="554"/>
-      <c r="AC1" s="554"/>
-      <c r="AD1" s="554"/>
-      <c r="AE1" s="554"/>
-      <c r="AF1" s="554"/>
-      <c r="AG1" s="555"/>
+      <c r="AA1" s="566"/>
+      <c r="AB1" s="566"/>
+      <c r="AC1" s="566"/>
+      <c r="AD1" s="566"/>
+      <c r="AE1" s="566"/>
+      <c r="AF1" s="566"/>
+      <c r="AG1" s="567"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="209" t="s">
@@ -14600,18 +14607,18 @@
       <c r="C2" s="210"/>
       <c r="D2" s="210"/>
       <c r="E2" s="210"/>
-      <c r="Z2" s="548" t="s">
+      <c r="Z2" s="552" t="s">
         <v>170</v>
       </c>
-      <c r="AA2" s="549"/>
-      <c r="AB2" s="549"/>
-      <c r="AC2" s="549"/>
-      <c r="AD2" s="549"/>
-      <c r="AE2" s="550"/>
-      <c r="AF2" s="551" t="s">
+      <c r="AA2" s="553"/>
+      <c r="AB2" s="553"/>
+      <c r="AC2" s="553"/>
+      <c r="AD2" s="553"/>
+      <c r="AE2" s="554"/>
+      <c r="AF2" s="555" t="s">
         <v>171</v>
       </c>
-      <c r="AG2" s="552"/>
+      <c r="AG2" s="556"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="209" t="s">
@@ -14621,18 +14628,18 @@
       <c r="C3" s="90"/>
       <c r="D3" s="90"/>
       <c r="E3" s="90"/>
-      <c r="Z3" s="548" t="s">
+      <c r="Z3" s="552" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" s="549"/>
-      <c r="AB3" s="549"/>
-      <c r="AC3" s="549"/>
-      <c r="AD3" s="549"/>
-      <c r="AE3" s="550"/>
-      <c r="AF3" s="551" t="s">
+      <c r="AA3" s="553"/>
+      <c r="AB3" s="553"/>
+      <c r="AC3" s="553"/>
+      <c r="AD3" s="553"/>
+      <c r="AE3" s="554"/>
+      <c r="AF3" s="555" t="s">
         <v>174</v>
       </c>
-      <c r="AG3" s="552"/>
+      <c r="AG3" s="556"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="209" t="s">
@@ -14642,18 +14649,18 @@
       <c r="C4" s="90"/>
       <c r="D4" s="90"/>
       <c r="E4" s="90"/>
-      <c r="Z4" s="548" t="s">
+      <c r="Z4" s="552" t="s">
         <v>176</v>
       </c>
-      <c r="AA4" s="549"/>
-      <c r="AB4" s="549"/>
-      <c r="AC4" s="549"/>
-      <c r="AD4" s="549"/>
-      <c r="AE4" s="550"/>
-      <c r="AF4" s="551" t="s">
+      <c r="AA4" s="553"/>
+      <c r="AB4" s="553"/>
+      <c r="AC4" s="553"/>
+      <c r="AD4" s="553"/>
+      <c r="AE4" s="554"/>
+      <c r="AF4" s="555" t="s">
         <v>177</v>
       </c>
-      <c r="AG4" s="552"/>
+      <c r="AG4" s="556"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="209" t="s">
@@ -14663,18 +14670,18 @@
       <c r="C5" s="90"/>
       <c r="D5" s="90"/>
       <c r="E5" s="90"/>
-      <c r="Z5" s="548" t="s">
+      <c r="Z5" s="552" t="s">
         <v>179</v>
       </c>
-      <c r="AA5" s="549"/>
-      <c r="AB5" s="549"/>
-      <c r="AC5" s="549"/>
-      <c r="AD5" s="549"/>
-      <c r="AE5" s="550"/>
-      <c r="AF5" s="551" t="s">
+      <c r="AA5" s="553"/>
+      <c r="AB5" s="553"/>
+      <c r="AC5" s="553"/>
+      <c r="AD5" s="553"/>
+      <c r="AE5" s="554"/>
+      <c r="AF5" s="555" t="s">
         <v>180</v>
       </c>
-      <c r="AG5" s="552"/>
+      <c r="AG5" s="556"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="211"/>
@@ -14684,95 +14691,95 @@
       <c r="E6" s="211"/>
     </row>
     <row r="7" spans="1:35" s="213" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="556" t="s">
+      <c r="A7" s="557" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="556"/>
-      <c r="C7" s="556"/>
-      <c r="D7" s="556"/>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="556"/>
-      <c r="I7" s="556"/>
-      <c r="J7" s="556"/>
-      <c r="K7" s="556"/>
-      <c r="L7" s="556"/>
-      <c r="M7" s="556"/>
-      <c r="N7" s="556"/>
-      <c r="O7" s="556"/>
-      <c r="P7" s="556"/>
-      <c r="Q7" s="556"/>
-      <c r="R7" s="556"/>
-      <c r="S7" s="556"/>
-      <c r="T7" s="556"/>
-      <c r="U7" s="556"/>
-      <c r="V7" s="556"/>
-      <c r="W7" s="556"/>
-      <c r="X7" s="556"/>
-      <c r="Y7" s="556"/>
-      <c r="Z7" s="556"/>
-      <c r="AA7" s="556"/>
-      <c r="AB7" s="556"/>
-      <c r="AC7" s="556"/>
-      <c r="AD7" s="556"/>
-      <c r="AE7" s="556"/>
-      <c r="AF7" s="556"/>
-      <c r="AG7" s="556"/>
-      <c r="AH7" s="556"/>
-      <c r="AI7" s="556"/>
+      <c r="B7" s="557"/>
+      <c r="C7" s="557"/>
+      <c r="D7" s="557"/>
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="557"/>
+      <c r="I7" s="557"/>
+      <c r="J7" s="557"/>
+      <c r="K7" s="557"/>
+      <c r="L7" s="557"/>
+      <c r="M7" s="557"/>
+      <c r="N7" s="557"/>
+      <c r="O7" s="557"/>
+      <c r="P7" s="557"/>
+      <c r="Q7" s="557"/>
+      <c r="R7" s="557"/>
+      <c r="S7" s="557"/>
+      <c r="T7" s="557"/>
+      <c r="U7" s="557"/>
+      <c r="V7" s="557"/>
+      <c r="W7" s="557"/>
+      <c r="X7" s="557"/>
+      <c r="Y7" s="557"/>
+      <c r="Z7" s="557"/>
+      <c r="AA7" s="557"/>
+      <c r="AB7" s="557"/>
+      <c r="AC7" s="557"/>
+      <c r="AD7" s="557"/>
+      <c r="AE7" s="557"/>
+      <c r="AF7" s="557"/>
+      <c r="AG7" s="557"/>
+      <c r="AH7" s="557"/>
+      <c r="AI7" s="557"/>
     </row>
     <row r="9" spans="1:35" s="214" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="557" t="s">
+      <c r="A9" s="558" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="557" t="s">
+      <c r="B9" s="558" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="557" t="s">
+      <c r="C9" s="558" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="560" t="s">
+      <c r="D9" s="561" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="561"/>
-      <c r="F9" s="561"/>
-      <c r="G9" s="561"/>
-      <c r="H9" s="561"/>
-      <c r="I9" s="561"/>
-      <c r="J9" s="561"/>
-      <c r="K9" s="561"/>
-      <c r="L9" s="561"/>
-      <c r="M9" s="561"/>
-      <c r="N9" s="561"/>
-      <c r="O9" s="561"/>
-      <c r="P9" s="561"/>
-      <c r="Q9" s="561"/>
-      <c r="R9" s="561"/>
-      <c r="S9" s="561"/>
-      <c r="T9" s="561"/>
-      <c r="U9" s="561"/>
-      <c r="V9" s="561"/>
-      <c r="W9" s="561"/>
-      <c r="X9" s="561"/>
-      <c r="Y9" s="561"/>
-      <c r="Z9" s="561"/>
-      <c r="AA9" s="561"/>
-      <c r="AB9" s="561"/>
-      <c r="AC9" s="561"/>
-      <c r="AD9" s="561"/>
-      <c r="AE9" s="561"/>
-      <c r="AF9" s="561"/>
-      <c r="AG9" s="561"/>
-      <c r="AH9" s="562"/>
-      <c r="AI9" s="563" t="s">
+      <c r="E9" s="562"/>
+      <c r="F9" s="562"/>
+      <c r="G9" s="562"/>
+      <c r="H9" s="562"/>
+      <c r="I9" s="562"/>
+      <c r="J9" s="562"/>
+      <c r="K9" s="562"/>
+      <c r="L9" s="562"/>
+      <c r="M9" s="562"/>
+      <c r="N9" s="562"/>
+      <c r="O9" s="562"/>
+      <c r="P9" s="562"/>
+      <c r="Q9" s="562"/>
+      <c r="R9" s="562"/>
+      <c r="S9" s="562"/>
+      <c r="T9" s="562"/>
+      <c r="U9" s="562"/>
+      <c r="V9" s="562"/>
+      <c r="W9" s="562"/>
+      <c r="X9" s="562"/>
+      <c r="Y9" s="562"/>
+      <c r="Z9" s="562"/>
+      <c r="AA9" s="562"/>
+      <c r="AB9" s="562"/>
+      <c r="AC9" s="562"/>
+      <c r="AD9" s="562"/>
+      <c r="AE9" s="562"/>
+      <c r="AF9" s="562"/>
+      <c r="AG9" s="562"/>
+      <c r="AH9" s="563"/>
+      <c r="AI9" s="564" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:35" s="214" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="558"/>
-      <c r="B10" s="558"/>
-      <c r="C10" s="558"/>
+      <c r="A10" s="559"/>
+      <c r="B10" s="559"/>
+      <c r="C10" s="559"/>
       <c r="D10" s="215">
         <v>1</v>
       </c>
@@ -14866,12 +14873,12 @@
       <c r="AH10" s="215">
         <v>31</v>
       </c>
-      <c r="AI10" s="563"/>
+      <c r="AI10" s="564"/>
     </row>
     <row r="11" spans="1:35" s="222" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="559"/>
-      <c r="B11" s="559"/>
-      <c r="C11" s="559"/>
+      <c r="A11" s="560"/>
+      <c r="B11" s="560"/>
+      <c r="C11" s="560"/>
       <c r="D11" s="215" t="s">
         <v>186</v>
       </c>
@@ -14965,7 +14972,7 @@
       <c r="AH11" s="220" t="s">
         <v>188</v>
       </c>
-      <c r="AI11" s="563"/>
+      <c r="AI11" s="564"/>
     </row>
     <row r="12" spans="1:35" s="222" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="249">
@@ -15580,10 +15587,10 @@
       </c>
     </row>
     <row r="19" spans="1:35" s="222" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="564" t="s">
+      <c r="A19" s="548" t="s">
         <v>195</v>
       </c>
-      <c r="B19" s="565"/>
+      <c r="B19" s="549"/>
       <c r="C19" s="230"/>
       <c r="D19" s="230"/>
       <c r="E19" s="231"/>
@@ -15622,53 +15629,55 @@
       </c>
     </row>
     <row r="21" spans="1:35" s="236" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="566" t="s">
+      <c r="A21" s="550" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="566"/>
-      <c r="C21" s="566"/>
-      <c r="D21" s="566"/>
-      <c r="E21" s="566"/>
-      <c r="F21" s="566"/>
-      <c r="G21" s="566"/>
+      <c r="B21" s="550"/>
+      <c r="C21" s="550"/>
+      <c r="D21" s="550"/>
+      <c r="E21" s="550"/>
+      <c r="F21" s="550"/>
+      <c r="G21" s="550"/>
       <c r="H21" s="232"/>
-      <c r="I21" s="567"/>
-      <c r="J21" s="567"/>
-      <c r="K21" s="567"/>
-      <c r="L21" s="567"/>
-      <c r="M21" s="567"/>
+      <c r="I21" s="551"/>
+      <c r="J21" s="551"/>
+      <c r="K21" s="551"/>
+      <c r="L21" s="551"/>
+      <c r="M21" s="551"/>
       <c r="N21" s="233"/>
-      <c r="O21" s="567" t="s">
+      <c r="O21" s="551" t="s">
         <v>196</v>
       </c>
-      <c r="P21" s="567"/>
-      <c r="Q21" s="567"/>
-      <c r="R21" s="567"/>
-      <c r="S21" s="567"/>
-      <c r="T21" s="567"/>
-      <c r="U21" s="567"/>
-      <c r="V21" s="567"/>
-      <c r="W21" s="567"/>
-      <c r="X21" s="567"/>
-      <c r="Y21" s="567"/>
+      <c r="P21" s="551"/>
+      <c r="Q21" s="551"/>
+      <c r="R21" s="551"/>
+      <c r="S21" s="551"/>
+      <c r="T21" s="551"/>
+      <c r="U21" s="551"/>
+      <c r="V21" s="551"/>
+      <c r="W21" s="551"/>
+      <c r="X21" s="551"/>
+      <c r="Y21" s="551"/>
       <c r="Z21" s="234"/>
       <c r="AA21" s="234"/>
       <c r="AB21" s="235"/>
-      <c r="AC21" s="567"/>
-      <c r="AD21" s="567"/>
-      <c r="AE21" s="567"/>
-      <c r="AF21" s="567"/>
-      <c r="AG21" s="567"/>
-      <c r="AH21" s="567"/>
-      <c r="AI21" s="567"/>
+      <c r="AC21" s="551"/>
+      <c r="AD21" s="551"/>
+      <c r="AE21" s="551"/>
+      <c r="AF21" s="551"/>
+      <c r="AG21" s="551"/>
+      <c r="AH21" s="551"/>
+      <c r="AI21" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="O21:Y21"/>
-    <mergeCell ref="AC21:AI21"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
     <mergeCell ref="A7:AI7"/>
@@ -15677,13 +15686,11 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:AH9"/>
     <mergeCell ref="AI9:AI11"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="O21:Y21"/>
+    <mergeCell ref="AC21:AI21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -16535,40 +16542,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="40" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="568" t="s">
+      <c r="A1" s="578" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="568"/>
-      <c r="C1" s="568"/>
-      <c r="D1" s="568"/>
+      <c r="B1" s="578"/>
+      <c r="C1" s="578"/>
+      <c r="D1" s="578"/>
       <c r="E1" s="91"/>
-      <c r="F1" s="569" t="s">
+      <c r="F1" s="579" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="569"/>
-      <c r="H1" s="569"/>
-      <c r="I1" s="569"/>
-      <c r="J1" s="569"/>
-      <c r="K1" s="569"/>
-      <c r="L1" s="569"/>
+      <c r="G1" s="579"/>
+      <c r="H1" s="579"/>
+      <c r="I1" s="579"/>
+      <c r="J1" s="579"/>
+      <c r="K1" s="579"/>
+      <c r="L1" s="579"/>
     </row>
     <row r="2" spans="1:13" s="40" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="570" t="s">
+      <c r="A2" s="580" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="570"/>
-      <c r="C2" s="570"/>
-      <c r="D2" s="570"/>
+      <c r="B2" s="580"/>
+      <c r="C2" s="580"/>
+      <c r="D2" s="580"/>
       <c r="E2" s="91"/>
-      <c r="F2" s="571" t="s">
+      <c r="F2" s="581" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="571"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="571"/>
-      <c r="J2" s="571"/>
-      <c r="K2" s="571"/>
-      <c r="L2" s="571"/>
+      <c r="G2" s="581"/>
+      <c r="H2" s="581"/>
+      <c r="I2" s="581"/>
+      <c r="J2" s="581"/>
+      <c r="K2" s="581"/>
+      <c r="L2" s="581"/>
     </row>
     <row r="3" spans="1:13" s="40" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
@@ -16582,45 +16589,45 @@
       <c r="J3" s="92"/>
     </row>
     <row r="4" spans="1:13" s="43" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="572" t="s">
+      <c r="A4" s="582" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="572"/>
-      <c r="C4" s="572"/>
-      <c r="D4" s="572"/>
-      <c r="E4" s="572"/>
-      <c r="F4" s="572"/>
-      <c r="G4" s="572"/>
-      <c r="H4" s="572"/>
-      <c r="I4" s="572"/>
-      <c r="J4" s="572"/>
-      <c r="K4" s="572"/>
-      <c r="L4" s="572"/>
-      <c r="M4" s="572"/>
+      <c r="B4" s="582"/>
+      <c r="C4" s="582"/>
+      <c r="D4" s="582"/>
+      <c r="E4" s="582"/>
+      <c r="F4" s="582"/>
+      <c r="G4" s="582"/>
+      <c r="H4" s="582"/>
+      <c r="I4" s="582"/>
+      <c r="J4" s="582"/>
+      <c r="K4" s="582"/>
+      <c r="L4" s="582"/>
+      <c r="M4" s="582"/>
     </row>
     <row r="5" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="573" t="s">
+      <c r="A5" s="568" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="573"/>
-      <c r="C5" s="573"/>
-      <c r="D5" s="573"/>
-      <c r="E5" s="573"/>
-      <c r="F5" s="573"/>
-      <c r="G5" s="573"/>
-      <c r="H5" s="573"/>
-      <c r="I5" s="573"/>
-      <c r="J5" s="573"/>
-      <c r="K5" s="573"/>
-      <c r="L5" s="573"/>
-      <c r="M5" s="573"/>
+      <c r="B5" s="568"/>
+      <c r="C5" s="568"/>
+      <c r="D5" s="568"/>
+      <c r="E5" s="568"/>
+      <c r="F5" s="568"/>
+      <c r="G5" s="568"/>
+      <c r="H5" s="568"/>
+      <c r="I5" s="568"/>
+      <c r="J5" s="568"/>
+      <c r="K5" s="568"/>
+      <c r="L5" s="568"/>
+      <c r="M5" s="568"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K6" s="574" t="s">
+      <c r="K6" s="569" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="574"/>
-      <c r="M6" s="574"/>
+      <c r="L6" s="569"/>
+      <c r="M6" s="569"/>
     </row>
     <row r="7" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
@@ -16691,10 +16698,10 @@
       <c r="M8" s="52"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="575" t="s">
+      <c r="A9" s="570" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="576"/>
+      <c r="B9" s="571"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
       <c r="E9" s="53"/>
@@ -16875,11 +16882,11 @@
       <c r="M13" s="60"/>
     </row>
     <row r="14" spans="1:13" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="580" t="s">
+      <c r="A14" s="575" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="581"/>
-      <c r="C14" s="582"/>
+      <c r="B14" s="576"/>
+      <c r="C14" s="577"/>
       <c r="D14" s="100">
         <f>SUM(D10:D13)</f>
         <v>37000000</v>
@@ -16913,10 +16920,10 @@
       <c r="M14" s="102"/>
     </row>
     <row r="15" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="577" t="s">
+      <c r="A15" s="572" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="578"/>
+      <c r="B15" s="573"/>
       <c r="C15" s="94"/>
       <c r="D15" s="95"/>
       <c r="E15" s="109"/>
@@ -17049,11 +17056,11 @@
       <c r="M18" s="64"/>
     </row>
     <row r="19" spans="1:13" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="580" t="s">
+      <c r="A19" s="575" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="581"/>
-      <c r="C19" s="582"/>
+      <c r="B19" s="576"/>
+      <c r="C19" s="577"/>
       <c r="D19" s="103">
         <f>SUM(D16:D18)</f>
         <v>18000000</v>
@@ -17087,14 +17094,14 @@
       <c r="M19" s="102"/>
     </row>
     <row r="21" spans="1:13" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="579"/>
-      <c r="C21" s="579"/>
-      <c r="D21" s="579"/>
+      <c r="B21" s="574"/>
+      <c r="C21" s="574"/>
+      <c r="D21" s="574"/>
       <c r="E21" s="93"/>
-      <c r="I21" s="579"/>
-      <c r="J21" s="579"/>
-      <c r="K21" s="579"/>
-      <c r="L21" s="579"/>
+      <c r="I21" s="574"/>
+      <c r="J21" s="574"/>
+      <c r="K21" s="574"/>
+      <c r="L21" s="574"/>
     </row>
     <row r="22" spans="1:13" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" s="110" t="s">
@@ -17137,6 +17144,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="A9:B9"/>
@@ -17145,11 +17157,6 @@
     <mergeCell ref="I21:L21"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.26" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -17194,77 +17201,77 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="583" t="s">
+      <c r="A3" s="605" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="583"/>
-      <c r="C3" s="583"/>
-      <c r="D3" s="583"/>
-      <c r="E3" s="583"/>
-      <c r="F3" s="583"/>
-      <c r="G3" s="583"/>
-      <c r="H3" s="583"/>
-      <c r="I3" s="583"/>
-      <c r="J3" s="583"/>
-      <c r="K3" s="583"/>
-      <c r="L3" s="583"/>
-      <c r="M3" s="583"/>
-      <c r="N3" s="583"/>
-      <c r="O3" s="583"/>
+      <c r="B3" s="605"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="605"/>
+      <c r="E3" s="605"/>
+      <c r="F3" s="605"/>
+      <c r="G3" s="605"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="605"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="605"/>
+      <c r="M3" s="605"/>
+      <c r="N3" s="605"/>
+      <c r="O3" s="605"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="584" t="s">
+      <c r="A4" s="606" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="584"/>
-      <c r="C4" s="584"/>
-      <c r="D4" s="584"/>
-      <c r="E4" s="584"/>
-      <c r="F4" s="584"/>
-      <c r="G4" s="584"/>
-      <c r="H4" s="584"/>
-      <c r="I4" s="584"/>
-      <c r="J4" s="585"/>
-      <c r="K4" s="584"/>
-      <c r="L4" s="584"/>
-      <c r="M4" s="584"/>
-      <c r="N4" s="584"/>
-      <c r="O4" s="584"/>
+      <c r="B4" s="606"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="606"/>
+      <c r="E4" s="606"/>
+      <c r="F4" s="606"/>
+      <c r="G4" s="606"/>
+      <c r="H4" s="606"/>
+      <c r="I4" s="606"/>
+      <c r="J4" s="607"/>
+      <c r="K4" s="606"/>
+      <c r="L4" s="606"/>
+      <c r="M4" s="606"/>
+      <c r="N4" s="606"/>
+      <c r="O4" s="606"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="586" t="s">
+      <c r="A5" s="608" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="610" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="590" t="s">
+      <c r="C5" s="612" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="590"/>
-      <c r="E5" s="590"/>
-      <c r="F5" s="591" t="s">
+      <c r="D5" s="612"/>
+      <c r="E5" s="612"/>
+      <c r="F5" s="613" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="591"/>
-      <c r="H5" s="591"/>
-      <c r="I5" s="591"/>
-      <c r="J5" s="592"/>
-      <c r="K5" s="593" t="s">
+      <c r="G5" s="613"/>
+      <c r="H5" s="613"/>
+      <c r="I5" s="613"/>
+      <c r="J5" s="614"/>
+      <c r="K5" s="615" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="591" t="s">
+      <c r="L5" s="613" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="591"/>
-      <c r="N5" s="591"/>
-      <c r="O5" s="595" t="s">
+      <c r="M5" s="613"/>
+      <c r="N5" s="613"/>
+      <c r="O5" s="617" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="587"/>
-      <c r="B6" s="589"/>
+      <c r="A6" s="609"/>
+      <c r="B6" s="611"/>
       <c r="C6" s="88" t="s">
         <v>48</v>
       </c>
@@ -17289,7 +17296,7 @@
       <c r="J6" s="276" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="594"/>
+      <c r="K6" s="616"/>
       <c r="L6" s="88" t="s">
         <v>53</v>
       </c>
@@ -17299,7 +17306,7 @@
       <c r="N6" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="596"/>
+      <c r="O6" s="618"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="290">
@@ -17341,19 +17348,19 @@
       <c r="O7" s="164"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="610">
+      <c r="A8" s="596">
         <v>1149</v>
       </c>
-      <c r="B8" s="613">
+      <c r="B8" s="599">
         <v>43987</v>
       </c>
-      <c r="C8" s="600" t="s">
+      <c r="C8" s="586" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="597" t="s">
+      <c r="D8" s="583" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="600"/>
+      <c r="E8" s="586"/>
       <c r="F8" s="259" t="s">
         <v>129</v>
       </c>
@@ -17380,11 +17387,11 @@
       <c r="O8" s="263"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="611"/>
-      <c r="B9" s="614"/>
-      <c r="C9" s="601"/>
-      <c r="D9" s="598"/>
-      <c r="E9" s="601"/>
+      <c r="A9" s="597"/>
+      <c r="B9" s="600"/>
+      <c r="C9" s="587"/>
+      <c r="D9" s="584"/>
+      <c r="E9" s="587"/>
       <c r="F9" s="264" t="s">
         <v>130</v>
       </c>
@@ -17411,11 +17418,11 @@
       <c r="O9" s="268"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="612"/>
-      <c r="B10" s="615"/>
-      <c r="C10" s="602"/>
-      <c r="D10" s="599"/>
-      <c r="E10" s="602"/>
+      <c r="A10" s="598"/>
+      <c r="B10" s="601"/>
+      <c r="C10" s="588"/>
+      <c r="D10" s="585"/>
+      <c r="E10" s="588"/>
       <c r="F10" s="269" t="s">
         <v>131</v>
       </c>
@@ -17555,16 +17562,16 @@
       <c r="O13" s="277"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="610">
+      <c r="A14" s="596">
         <v>552</v>
       </c>
-      <c r="B14" s="606">
+      <c r="B14" s="592">
         <v>43975</v>
       </c>
-      <c r="C14" s="616" t="s">
+      <c r="C14" s="602" t="s">
         <v>269</v>
       </c>
-      <c r="D14" s="610" t="s">
+      <c r="D14" s="596" t="s">
         <v>119</v>
       </c>
       <c r="E14" s="278"/>
@@ -17594,10 +17601,10 @@
       <c r="O14" s="278"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="611"/>
-      <c r="B15" s="607"/>
-      <c r="C15" s="617"/>
-      <c r="D15" s="611"/>
+      <c r="A15" s="597"/>
+      <c r="B15" s="593"/>
+      <c r="C15" s="603"/>
+      <c r="D15" s="597"/>
       <c r="E15" s="279"/>
       <c r="F15" s="279" t="s">
         <v>38</v>
@@ -17625,10 +17632,10 @@
       <c r="O15" s="279"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="611"/>
-      <c r="B16" s="607"/>
-      <c r="C16" s="617"/>
-      <c r="D16" s="611"/>
+      <c r="A16" s="597"/>
+      <c r="B16" s="593"/>
+      <c r="C16" s="603"/>
+      <c r="D16" s="597"/>
       <c r="E16" s="279"/>
       <c r="F16" s="279" t="s">
         <v>252</v>
@@ -17656,10 +17663,10 @@
       <c r="O16" s="279"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="612"/>
-      <c r="B17" s="608"/>
-      <c r="C17" s="618"/>
-      <c r="D17" s="612"/>
+      <c r="A17" s="598"/>
+      <c r="B17" s="594"/>
+      <c r="C17" s="604"/>
+      <c r="D17" s="598"/>
       <c r="E17" s="280"/>
       <c r="F17" s="280" t="s">
         <v>39</v>
@@ -17687,13 +17694,13 @@
       <c r="O17" s="280"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="610">
+      <c r="A18" s="596">
         <v>553</v>
       </c>
-      <c r="B18" s="606">
+      <c r="B18" s="592">
         <v>43975</v>
       </c>
-      <c r="C18" s="603" t="s">
+      <c r="C18" s="589" t="s">
         <v>270</v>
       </c>
       <c r="D18" s="278"/>
@@ -17724,9 +17731,9 @@
       <c r="O18" s="278"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="611"/>
-      <c r="B19" s="607"/>
-      <c r="C19" s="604"/>
+      <c r="A19" s="597"/>
+      <c r="B19" s="593"/>
+      <c r="C19" s="590"/>
       <c r="D19" s="279"/>
       <c r="E19" s="279"/>
       <c r="F19" s="279" t="s">
@@ -17755,9 +17762,9 @@
       <c r="O19" s="279"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="612"/>
-      <c r="B20" s="608"/>
-      <c r="C20" s="605"/>
+      <c r="A20" s="598"/>
+      <c r="B20" s="594"/>
+      <c r="C20" s="591"/>
       <c r="D20" s="280"/>
       <c r="E20" s="280"/>
       <c r="F20" s="280" t="s">
@@ -17806,13 +17813,13 @@
       <c r="O21" s="277"/>
     </row>
     <row r="22" spans="1:15" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="609" t="s">
+      <c r="A22" s="595" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="609"/>
-      <c r="C22" s="609"/>
-      <c r="D22" s="609"/>
-      <c r="E22" s="609"/>
+      <c r="B22" s="595"/>
+      <c r="C22" s="595"/>
+      <c r="D22" s="595"/>
+      <c r="E22" s="595"/>
       <c r="F22" s="149"/>
       <c r="G22" s="149">
         <f>SUM(G7:G20)</f>
@@ -17897,6 +17904,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:O6"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="C18:C20"/>
@@ -17910,15 +17926,6 @@
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:O6"/>
   </mergeCells>
   <pageMargins left="0.36" right="0.2" top="0.48" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -17929,8 +17936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17947,13 +17954,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="636" t="s">
+      <c r="A1" s="619" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="636"/>
-      <c r="C1" s="636"/>
-      <c r="D1" s="636"/>
-      <c r="E1" s="636"/>
+      <c r="B1" s="619"/>
+      <c r="C1" s="619"/>
+      <c r="D1" s="619"/>
+      <c r="E1" s="619"/>
       <c r="F1" s="314"/>
       <c r="G1" s="314"/>
       <c r="H1" s="314"/>
@@ -17990,16 +17997,16 @@
       <c r="K3" s="315"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="637" t="s">
+      <c r="A4" s="620" t="s">
         <v>303</v>
       </c>
-      <c r="B4" s="637"/>
-      <c r="C4" s="637"/>
-      <c r="D4" s="637"/>
-      <c r="E4" s="637"/>
-      <c r="F4" s="637"/>
-      <c r="G4" s="637"/>
-      <c r="H4" s="637"/>
+      <c r="B4" s="620"/>
+      <c r="C4" s="620"/>
+      <c r="D4" s="620"/>
+      <c r="E4" s="620"/>
+      <c r="F4" s="620"/>
+      <c r="G4" s="620"/>
+      <c r="H4" s="620"/>
       <c r="I4" s="320"/>
       <c r="J4" s="315"/>
       <c r="K4" s="315"/>
@@ -18018,31 +18025,31 @@
       <c r="K5" s="315"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="638" t="s">
+      <c r="A6" s="621" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="639" t="s">
+      <c r="B6" s="622" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="640" t="s">
+      <c r="C6" s="623" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="640"/>
-      <c r="E6" s="640"/>
-      <c r="F6" s="640"/>
-      <c r="G6" s="641"/>
-      <c r="H6" s="638" t="s">
+      <c r="D6" s="623"/>
+      <c r="E6" s="623"/>
+      <c r="F6" s="623"/>
+      <c r="G6" s="624"/>
+      <c r="H6" s="621" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="620" t="s">
+      <c r="I6" s="626" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="315"/>
       <c r="K6" s="315"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="638"/>
-      <c r="B7" s="639"/>
+      <c r="A7" s="621"/>
+      <c r="B7" s="622"/>
       <c r="C7" s="324" t="s">
         <v>31</v>
       </c>
@@ -18058,8 +18065,8 @@
       <c r="G7" s="325" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="638"/>
-      <c r="I7" s="621"/>
+      <c r="H7" s="621"/>
+      <c r="I7" s="627"/>
       <c r="J7" s="315"/>
       <c r="K7" s="315"/>
     </row>
@@ -18093,10 +18100,10 @@
       <c r="K8" s="315"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="622">
+      <c r="A9" s="628">
         <v>452</v>
       </c>
-      <c r="B9" s="625">
+      <c r="B9" s="631">
         <v>43942</v>
       </c>
       <c r="C9" s="335" t="s">
@@ -18122,8 +18129,8 @@
       <c r="K9" s="315"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="623"/>
-      <c r="B10" s="626"/>
+      <c r="A10" s="629"/>
+      <c r="B10" s="632"/>
       <c r="C10" s="341" t="s">
         <v>39</v>
       </c>
@@ -18147,8 +18154,8 @@
       <c r="K10" s="315"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="624"/>
-      <c r="B11" s="627"/>
+      <c r="A11" s="630"/>
+      <c r="B11" s="633"/>
       <c r="C11" s="347" t="s">
         <v>67</v>
       </c>
@@ -18193,16 +18200,16 @@
       <c r="K12" s="315"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="628" t="s">
+      <c r="A13" s="634" t="s">
         <v>304</v>
       </c>
-      <c r="B13" s="628"/>
-      <c r="C13" s="628"/>
-      <c r="D13" s="628"/>
-      <c r="E13" s="628"/>
-      <c r="F13" s="628"/>
-      <c r="G13" s="628"/>
-      <c r="H13" s="628"/>
+      <c r="B13" s="634"/>
+      <c r="C13" s="634"/>
+      <c r="D13" s="634"/>
+      <c r="E13" s="634"/>
+      <c r="F13" s="634"/>
+      <c r="G13" s="634"/>
+      <c r="H13" s="634"/>
       <c r="I13" s="358">
         <v>19328400.000000004</v>
       </c>
@@ -18210,16 +18217,16 @@
       <c r="K13" s="315"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="628" t="s">
+      <c r="A14" s="634" t="s">
         <v>305</v>
       </c>
-      <c r="B14" s="628"/>
-      <c r="C14" s="628"/>
-      <c r="D14" s="628"/>
-      <c r="E14" s="628"/>
-      <c r="F14" s="628"/>
-      <c r="G14" s="628"/>
-      <c r="H14" s="628"/>
+      <c r="B14" s="634"/>
+      <c r="C14" s="634"/>
+      <c r="D14" s="634"/>
+      <c r="E14" s="634"/>
+      <c r="F14" s="634"/>
+      <c r="G14" s="634"/>
+      <c r="H14" s="634"/>
       <c r="I14" s="358">
         <v>23794300</v>
       </c>
@@ -18227,16 +18234,16 @@
       <c r="K14" s="315"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="629" t="s">
+      <c r="A15" s="635" t="s">
         <v>306</v>
       </c>
-      <c r="B15" s="630"/>
-      <c r="C15" s="630"/>
-      <c r="D15" s="630"/>
-      <c r="E15" s="630"/>
-      <c r="F15" s="630"/>
-      <c r="G15" s="630"/>
-      <c r="H15" s="631"/>
+      <c r="B15" s="636"/>
+      <c r="C15" s="636"/>
+      <c r="D15" s="636"/>
+      <c r="E15" s="636"/>
+      <c r="F15" s="636"/>
+      <c r="G15" s="636"/>
+      <c r="H15" s="637"/>
       <c r="I15" s="358">
         <v>10000000</v>
       </c>
@@ -18244,16 +18251,16 @@
       <c r="K15" s="315"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="629" t="s">
+      <c r="A16" s="635" t="s">
         <v>307</v>
       </c>
-      <c r="B16" s="630"/>
-      <c r="C16" s="630"/>
-      <c r="D16" s="630"/>
-      <c r="E16" s="630"/>
-      <c r="F16" s="630"/>
-      <c r="G16" s="630"/>
-      <c r="H16" s="631"/>
+      <c r="B16" s="636"/>
+      <c r="C16" s="636"/>
+      <c r="D16" s="636"/>
+      <c r="E16" s="636"/>
+      <c r="F16" s="636"/>
+      <c r="G16" s="636"/>
+      <c r="H16" s="637"/>
       <c r="I16" s="358">
         <v>7538461.538461539</v>
       </c>
@@ -18261,16 +18268,16 @@
       <c r="K16" s="315"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="629" t="s">
+      <c r="A17" s="635" t="s">
         <v>308</v>
       </c>
-      <c r="B17" s="630"/>
-      <c r="C17" s="630"/>
-      <c r="D17" s="630"/>
-      <c r="E17" s="630"/>
-      <c r="F17" s="630"/>
-      <c r="G17" s="630"/>
-      <c r="H17" s="631"/>
+      <c r="B17" s="636"/>
+      <c r="C17" s="636"/>
+      <c r="D17" s="636"/>
+      <c r="E17" s="636"/>
+      <c r="F17" s="636"/>
+      <c r="G17" s="636"/>
+      <c r="H17" s="637"/>
       <c r="I17" s="358">
         <v>1783100</v>
       </c>
@@ -18278,16 +18285,16 @@
       <c r="K17" s="315"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="632" t="s">
+      <c r="A18" s="638" t="s">
         <v>309</v>
       </c>
-      <c r="B18" s="633"/>
-      <c r="C18" s="633"/>
-      <c r="D18" s="633"/>
-      <c r="E18" s="633"/>
-      <c r="F18" s="633"/>
-      <c r="G18" s="633"/>
-      <c r="H18" s="634"/>
+      <c r="B18" s="639"/>
+      <c r="C18" s="639"/>
+      <c r="D18" s="639"/>
+      <c r="E18" s="639"/>
+      <c r="F18" s="639"/>
+      <c r="G18" s="639"/>
+      <c r="H18" s="640"/>
       <c r="I18" s="359">
         <f>I13+I14-I15-I16-I17</f>
         <v>23801138.46153846</v>
@@ -18305,8 +18312,8 @@
       <c r="I19" s="361"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="635"/>
-      <c r="B20" s="635"/>
+      <c r="A20" s="641"/>
+      <c r="B20" s="641"/>
       <c r="C20" s="362" t="s">
         <v>310</v>
       </c>
@@ -18315,6 +18322,11 @@
       <c r="G20" s="362"/>
       <c r="H20" s="362" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I21" s="70" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -18326,11 +18338,13 @@
       <c r="F22" s="315"/>
       <c r="G22" s="315"/>
       <c r="H22" s="334"/>
-      <c r="I22" s="315"/>
+      <c r="I22" s="642" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="635"/>
-      <c r="B24" s="635"/>
+      <c r="A24" s="641"/>
+      <c r="B24" s="641"/>
       <c r="C24" s="315"/>
       <c r="D24" s="315"/>
       <c r="E24" s="362"/>
@@ -18340,26 +18354,20 @@
       <c r="I24" s="315"/>
     </row>
     <row r="27" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="619" t="s">
+      <c r="A27" s="625" t="s">
         <v>311</v>
       </c>
-      <c r="B27" s="619"/>
-      <c r="C27" s="619"/>
-      <c r="D27" s="619"/>
-      <c r="E27" s="619"/>
-      <c r="F27" s="619"/>
-      <c r="G27" s="619"/>
-      <c r="H27" s="619"/>
-      <c r="I27" s="619"/>
+      <c r="B27" s="625"/>
+      <c r="C27" s="625"/>
+      <c r="D27" s="625"/>
+      <c r="E27" s="625"/>
+      <c r="F27" s="625"/>
+      <c r="G27" s="625"/>
+      <c r="H27" s="625"/>
+      <c r="I27" s="625"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="A9:A11"/>
@@ -18372,6 +18380,12 @@
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 5_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 5_2020.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
     <sheet name="DOANH THU" sheetId="9" r:id="rId2"/>
-    <sheet name="BÁO CÁO" sheetId="3" r:id="rId3"/>
-    <sheet name="Tiền hàng Tâm" sheetId="4" r:id="rId4"/>
-    <sheet name="bảng chấm công" sheetId="10" r:id="rId5"/>
-    <sheet name="Bảng lương" sheetId="5" r:id="rId6"/>
-    <sheet name="Hàng khách trả" sheetId="8" r:id="rId7"/>
+    <sheet name="Hàng khách trả" sheetId="8" r:id="rId3"/>
+    <sheet name="BÁO CÁO" sheetId="3" r:id="rId4"/>
+    <sheet name="Tiền hàng Tâm" sheetId="4" r:id="rId5"/>
+    <sheet name="bảng chấm công" sheetId="10" r:id="rId6"/>
+    <sheet name="Bảng lương" sheetId="5" r:id="rId7"/>
     <sheet name="tiền hàng triệu sơn" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="324">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1079,6 +1079,9 @@
   </si>
   <si>
     <t>Sơn trả 37 soy CK 35</t>
+  </si>
+  <si>
+    <t>A Lâm</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +1833,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="643">
+  <cellXfs count="655">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2950,6 +2953,28 @@
     <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3046,6 +3071,78 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="34" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="47" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3055,77 +3152,119 @@
     <xf numFmtId="167" fontId="47" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="47" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="34" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="34" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="34" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="34" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="34" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="34" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3442,114 +3581,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="46" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3619,7 +3650,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4005,21 +4044,21 @@
       <c r="L3" s="133"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="419" t="s">
+      <c r="A4" s="427" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="419"/>
-      <c r="C4" s="419"/>
-      <c r="D4" s="419"/>
-      <c r="E4" s="419"/>
-      <c r="F4" s="419"/>
-      <c r="G4" s="419"/>
+      <c r="B4" s="427"/>
+      <c r="C4" s="427"/>
+      <c r="D4" s="427"/>
+      <c r="E4" s="427"/>
+      <c r="F4" s="427"/>
+      <c r="G4" s="427"/>
       <c r="H4" s="133"/>
-      <c r="I4" s="419" t="s">
+      <c r="I4" s="427" t="s">
         <v>313</v>
       </c>
-      <c r="J4" s="419"/>
-      <c r="K4" s="419"/>
+      <c r="J4" s="427"/>
+      <c r="K4" s="427"/>
       <c r="L4" s="133"/>
     </row>
     <row r="5" spans="1:12" s="131" customFormat="1" x14ac:dyDescent="0.25">
@@ -4031,37 +4070,37 @@
       <c r="G5" s="130"/>
     </row>
     <row r="6" spans="1:12" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="424" t="s">
+      <c r="A6" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="424" t="s">
+      <c r="B6" s="432" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="426" t="s">
+      <c r="C6" s="434" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="435" t="s">
+      <c r="D6" s="443" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="435"/>
-      <c r="F6" s="435" t="s">
+      <c r="E6" s="443"/>
+      <c r="F6" s="443" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="435"/>
-      <c r="I6" s="424" t="s">
+      <c r="G6" s="443"/>
+      <c r="I6" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="426" t="s">
+      <c r="J6" s="434" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="420" t="s">
+      <c r="K6" s="428" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="131" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="425"/>
-      <c r="B7" s="425"/>
-      <c r="C7" s="427"/>
+      <c r="A7" s="433"/>
+      <c r="B7" s="433"/>
+      <c r="C7" s="435"/>
       <c r="D7" s="135" t="s">
         <v>100</v>
       </c>
@@ -4074,9 +4113,9 @@
       <c r="G7" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="425"/>
-      <c r="J7" s="427"/>
-      <c r="K7" s="421"/>
+      <c r="I7" s="433"/>
+      <c r="J7" s="435"/>
+      <c r="K7" s="429"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="180">
@@ -4545,10 +4584,10 @@
       <c r="G26" s="136">
         <v>642000</v>
       </c>
-      <c r="I26" s="422" t="s">
+      <c r="I26" s="430" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="423"/>
+      <c r="J26" s="431"/>
       <c r="K26" s="141">
         <f>SUM(K8:K25)</f>
         <v>8766920</v>
@@ -5364,11 +5403,11 @@
       </c>
     </row>
     <row r="74" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="432" t="s">
+      <c r="A74" s="440" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="433"/>
-      <c r="C74" s="434"/>
+      <c r="B74" s="441"/>
+      <c r="C74" s="442"/>
       <c r="D74" s="141">
         <f>SUM(D8:D73)</f>
         <v>132665000</v>
@@ -5399,10 +5438,10 @@
       <c r="I75" s="143"/>
     </row>
     <row r="76" spans="1:9" s="142" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="431" t="s">
+      <c r="A76" s="439" t="s">
         <v>101</v>
       </c>
-      <c r="B76" s="431"/>
+      <c r="B76" s="439"/>
       <c r="C76" s="144"/>
       <c r="D76" s="145"/>
       <c r="E76" s="145"/>
@@ -5422,10 +5461,10 @@
     </row>
     <row r="78" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="181"/>
-      <c r="B78" s="439" t="s">
+      <c r="B78" s="447" t="s">
         <v>293</v>
       </c>
-      <c r="C78" s="439"/>
+      <c r="C78" s="447"/>
       <c r="D78" s="145"/>
       <c r="E78" s="145"/>
       <c r="F78" s="145"/>
@@ -5433,29 +5472,29 @@
       <c r="I78" s="143"/>
     </row>
     <row r="79" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="428" t="s">
+      <c r="A79" s="436" t="s">
         <v>4</v>
       </c>
-      <c r="B79" s="428" t="s">
+      <c r="B79" s="436" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="429" t="s">
+      <c r="C79" s="437" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="430" t="s">
+      <c r="D79" s="438" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="430"/>
-      <c r="F79" s="430" t="s">
+      <c r="E79" s="438"/>
+      <c r="F79" s="438" t="s">
         <v>8</v>
       </c>
-      <c r="G79" s="430"/>
+      <c r="G79" s="438"/>
       <c r="I79" s="143"/>
     </row>
     <row r="80" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="428"/>
-      <c r="B80" s="428"/>
-      <c r="C80" s="429"/>
+      <c r="A80" s="436"/>
+      <c r="B80" s="436"/>
+      <c r="C80" s="437"/>
       <c r="D80" s="412" t="s">
         <v>100</v>
       </c>
@@ -5507,11 +5546,11 @@
       <c r="I82" s="143"/>
     </row>
     <row r="83" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="436" t="s">
+      <c r="A83" s="444" t="s">
         <v>292</v>
       </c>
-      <c r="B83" s="437"/>
-      <c r="C83" s="438"/>
+      <c r="B83" s="445"/>
+      <c r="C83" s="446"/>
       <c r="D83" s="141"/>
       <c r="E83" s="141"/>
       <c r="F83" s="141">
@@ -5533,10 +5572,10 @@
     </row>
     <row r="85" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="181"/>
-      <c r="B85" s="439" t="s">
+      <c r="B85" s="447" t="s">
         <v>299</v>
       </c>
-      <c r="C85" s="439"/>
+      <c r="C85" s="447"/>
       <c r="D85" s="145"/>
       <c r="E85" s="145"/>
       <c r="F85" s="145"/>
@@ -5544,29 +5583,29 @@
       <c r="I85" s="143"/>
     </row>
     <row r="86" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="428" t="s">
+      <c r="A86" s="436" t="s">
         <v>4</v>
       </c>
-      <c r="B86" s="428" t="s">
+      <c r="B86" s="436" t="s">
         <v>5</v>
       </c>
-      <c r="C86" s="429" t="s">
+      <c r="C86" s="437" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="430" t="s">
+      <c r="D86" s="438" t="s">
         <v>7</v>
       </c>
-      <c r="E86" s="430"/>
-      <c r="F86" s="430" t="s">
+      <c r="E86" s="438"/>
+      <c r="F86" s="438" t="s">
         <v>8</v>
       </c>
-      <c r="G86" s="430"/>
+      <c r="G86" s="438"/>
       <c r="I86" s="143"/>
     </row>
     <row r="87" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="428"/>
-      <c r="B87" s="428"/>
-      <c r="C87" s="429"/>
+      <c r="A87" s="436"/>
+      <c r="B87" s="436"/>
+      <c r="C87" s="437"/>
       <c r="D87" s="412" t="s">
         <v>100</v>
       </c>
@@ -5960,11 +5999,11 @@
       <c r="I108" s="143"/>
     </row>
     <row r="109" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A109" s="436" t="s">
+      <c r="A109" s="444" t="s">
         <v>292</v>
       </c>
-      <c r="B109" s="437"/>
-      <c r="C109" s="438"/>
+      <c r="B109" s="445"/>
+      <c r="C109" s="446"/>
       <c r="D109" s="141"/>
       <c r="E109" s="141"/>
       <c r="F109" s="141"/>
@@ -5986,10 +6025,10 @@
     </row>
     <row r="111" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="181"/>
-      <c r="B111" s="439" t="s">
+      <c r="B111" s="447" t="s">
         <v>298</v>
       </c>
-      <c r="C111" s="439"/>
+      <c r="C111" s="447"/>
       <c r="D111" s="145"/>
       <c r="E111" s="145"/>
       <c r="F111" s="145"/>
@@ -5997,29 +6036,29 @@
       <c r="I111" s="143"/>
     </row>
     <row r="112" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A112" s="424" t="s">
+      <c r="A112" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="B112" s="424" t="s">
+      <c r="B112" s="432" t="s">
         <v>5</v>
       </c>
-      <c r="C112" s="426" t="s">
+      <c r="C112" s="434" t="s">
         <v>6</v>
       </c>
-      <c r="D112" s="435" t="s">
+      <c r="D112" s="443" t="s">
         <v>7</v>
       </c>
-      <c r="E112" s="435"/>
-      <c r="F112" s="435" t="s">
+      <c r="E112" s="443"/>
+      <c r="F112" s="443" t="s">
         <v>8</v>
       </c>
-      <c r="G112" s="435"/>
+      <c r="G112" s="443"/>
       <c r="I112" s="143"/>
     </row>
     <row r="113" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A113" s="425"/>
-      <c r="B113" s="425"/>
-      <c r="C113" s="427"/>
+      <c r="A113" s="433"/>
+      <c r="B113" s="433"/>
+      <c r="C113" s="435"/>
       <c r="D113" s="135" t="s">
         <v>100</v>
       </c>
@@ -6286,11 +6325,11 @@
       <c r="G127" s="138"/>
     </row>
     <row r="128" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A128" s="436" t="s">
+      <c r="A128" s="444" t="s">
         <v>292</v>
       </c>
-      <c r="B128" s="437"/>
-      <c r="C128" s="438"/>
+      <c r="B128" s="445"/>
+      <c r="C128" s="446"/>
       <c r="D128" s="141">
         <f>SUBTOTAL(9,D114:D126)</f>
         <v>132665000</v>
@@ -6315,10 +6354,10 @@
     </row>
     <row r="130" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="181"/>
-      <c r="B130" s="439" t="s">
+      <c r="B130" s="447" t="s">
         <v>11</v>
       </c>
-      <c r="C130" s="439"/>
+      <c r="C130" s="447"/>
       <c r="D130" s="145"/>
       <c r="E130" s="145"/>
       <c r="F130" s="145"/>
@@ -6326,29 +6365,29 @@
       <c r="I130" s="143"/>
     </row>
     <row r="131" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A131" s="424" t="s">
+      <c r="A131" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="B131" s="424" t="s">
+      <c r="B131" s="432" t="s">
         <v>5</v>
       </c>
-      <c r="C131" s="426" t="s">
+      <c r="C131" s="434" t="s">
         <v>6</v>
       </c>
-      <c r="D131" s="435" t="s">
+      <c r="D131" s="443" t="s">
         <v>7</v>
       </c>
-      <c r="E131" s="435"/>
-      <c r="F131" s="435" t="s">
+      <c r="E131" s="443"/>
+      <c r="F131" s="443" t="s">
         <v>8</v>
       </c>
-      <c r="G131" s="435"/>
+      <c r="G131" s="443"/>
       <c r="I131" s="143"/>
     </row>
     <row r="132" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A132" s="425"/>
-      <c r="B132" s="425"/>
-      <c r="C132" s="427"/>
+      <c r="A132" s="433"/>
+      <c r="B132" s="433"/>
+      <c r="C132" s="435"/>
       <c r="D132" s="135" t="s">
         <v>100</v>
       </c>
@@ -6490,11 +6529,11 @@
       <c r="I139" s="143"/>
     </row>
     <row r="140" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A140" s="436" t="s">
+      <c r="A140" s="444" t="s">
         <v>292</v>
       </c>
-      <c r="B140" s="437"/>
-      <c r="C140" s="438"/>
+      <c r="B140" s="445"/>
+      <c r="C140" s="446"/>
       <c r="D140" s="141"/>
       <c r="E140" s="141"/>
       <c r="F140" s="141">
@@ -6519,10 +6558,10 @@
     </row>
     <row r="142" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="181"/>
-      <c r="B142" s="439" t="s">
+      <c r="B142" s="447" t="s">
         <v>297</v>
       </c>
-      <c r="C142" s="439"/>
+      <c r="C142" s="447"/>
       <c r="D142" s="145"/>
       <c r="E142" s="145"/>
       <c r="F142" s="145"/>
@@ -6530,29 +6569,29 @@
       <c r="I142" s="143"/>
     </row>
     <row r="143" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A143" s="428" t="s">
+      <c r="A143" s="436" t="s">
         <v>4</v>
       </c>
-      <c r="B143" s="428" t="s">
+      <c r="B143" s="436" t="s">
         <v>5</v>
       </c>
-      <c r="C143" s="429" t="s">
+      <c r="C143" s="437" t="s">
         <v>6</v>
       </c>
-      <c r="D143" s="430" t="s">
+      <c r="D143" s="438" t="s">
         <v>7</v>
       </c>
-      <c r="E143" s="430"/>
-      <c r="F143" s="430" t="s">
+      <c r="E143" s="438"/>
+      <c r="F143" s="438" t="s">
         <v>8</v>
       </c>
-      <c r="G143" s="430"/>
+      <c r="G143" s="438"/>
       <c r="I143" s="143"/>
     </row>
     <row r="144" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A144" s="428"/>
-      <c r="B144" s="428"/>
-      <c r="C144" s="429"/>
+      <c r="A144" s="436"/>
+      <c r="B144" s="436"/>
+      <c r="C144" s="437"/>
       <c r="D144" s="412" t="s">
         <v>100</v>
       </c>
@@ -6730,11 +6769,11 @@
       <c r="I153" s="143"/>
     </row>
     <row r="154" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A154" s="436" t="s">
+      <c r="A154" s="444" t="s">
         <v>292</v>
       </c>
-      <c r="B154" s="437"/>
-      <c r="C154" s="438"/>
+      <c r="B154" s="445"/>
+      <c r="C154" s="446"/>
       <c r="D154" s="141"/>
       <c r="E154" s="141"/>
       <c r="F154" s="141">
@@ -6759,10 +6798,10 @@
     </row>
     <row r="156" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="181"/>
-      <c r="B156" s="439" t="s">
+      <c r="B156" s="447" t="s">
         <v>296</v>
       </c>
-      <c r="C156" s="439"/>
+      <c r="C156" s="447"/>
       <c r="D156" s="145"/>
       <c r="E156" s="145"/>
       <c r="F156" s="145"/>
@@ -6770,29 +6809,29 @@
       <c r="I156" s="143"/>
     </row>
     <row r="157" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A157" s="424" t="s">
+      <c r="A157" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="B157" s="424" t="s">
+      <c r="B157" s="432" t="s">
         <v>5</v>
       </c>
-      <c r="C157" s="426" t="s">
+      <c r="C157" s="434" t="s">
         <v>6</v>
       </c>
-      <c r="D157" s="435" t="s">
+      <c r="D157" s="443" t="s">
         <v>7</v>
       </c>
-      <c r="E157" s="435"/>
-      <c r="F157" s="435" t="s">
+      <c r="E157" s="443"/>
+      <c r="F157" s="443" t="s">
         <v>8</v>
       </c>
-      <c r="G157" s="435"/>
+      <c r="G157" s="443"/>
       <c r="I157" s="143"/>
     </row>
     <row r="158" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A158" s="425"/>
-      <c r="B158" s="425"/>
-      <c r="C158" s="427"/>
+      <c r="A158" s="433"/>
+      <c r="B158" s="433"/>
+      <c r="C158" s="435"/>
       <c r="D158" s="135" t="s">
         <v>100</v>
       </c>
@@ -6880,11 +6919,11 @@
       <c r="I162" s="143"/>
     </row>
     <row r="163" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A163" s="436" t="s">
+      <c r="A163" s="444" t="s">
         <v>292</v>
       </c>
-      <c r="B163" s="437"/>
-      <c r="C163" s="438"/>
+      <c r="B163" s="445"/>
+      <c r="C163" s="446"/>
       <c r="D163" s="141"/>
       <c r="E163" s="141"/>
       <c r="F163" s="141"/>
@@ -6906,10 +6945,10 @@
     </row>
     <row r="165" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="181"/>
-      <c r="B165" s="439" t="s">
+      <c r="B165" s="447" t="s">
         <v>295</v>
       </c>
-      <c r="C165" s="439"/>
+      <c r="C165" s="447"/>
       <c r="D165" s="145"/>
       <c r="E165" s="145"/>
       <c r="F165" s="145"/>
@@ -6917,29 +6956,29 @@
       <c r="I165" s="143"/>
     </row>
     <row r="166" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A166" s="424" t="s">
+      <c r="A166" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="B166" s="424" t="s">
+      <c r="B166" s="432" t="s">
         <v>5</v>
       </c>
-      <c r="C166" s="426" t="s">
+      <c r="C166" s="434" t="s">
         <v>6</v>
       </c>
-      <c r="D166" s="435" t="s">
+      <c r="D166" s="443" t="s">
         <v>7</v>
       </c>
-      <c r="E166" s="435"/>
-      <c r="F166" s="435" t="s">
+      <c r="E166" s="443"/>
+      <c r="F166" s="443" t="s">
         <v>8</v>
       </c>
-      <c r="G166" s="435"/>
+      <c r="G166" s="443"/>
       <c r="I166" s="143"/>
     </row>
     <row r="167" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A167" s="425"/>
-      <c r="B167" s="425"/>
-      <c r="C167" s="427"/>
+      <c r="A167" s="433"/>
+      <c r="B167" s="433"/>
+      <c r="C167" s="435"/>
       <c r="D167" s="135" t="s">
         <v>100</v>
       </c>
@@ -6973,11 +7012,11 @@
       <c r="I168" s="143"/>
     </row>
     <row r="169" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A169" s="436" t="s">
+      <c r="A169" s="444" t="s">
         <v>292</v>
       </c>
-      <c r="B169" s="437"/>
-      <c r="C169" s="438"/>
+      <c r="B169" s="445"/>
+      <c r="C169" s="446"/>
       <c r="D169" s="141"/>
       <c r="E169" s="141"/>
       <c r="F169" s="141"/>
@@ -6999,10 +7038,10 @@
     </row>
     <row r="171" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="181"/>
-      <c r="B171" s="439" t="s">
+      <c r="B171" s="447" t="s">
         <v>294</v>
       </c>
-      <c r="C171" s="439"/>
+      <c r="C171" s="447"/>
       <c r="D171" s="145"/>
       <c r="E171" s="145"/>
       <c r="F171" s="145"/>
@@ -7010,29 +7049,29 @@
       <c r="I171" s="143"/>
     </row>
     <row r="172" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A172" s="424" t="s">
+      <c r="A172" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="B172" s="424" t="s">
+      <c r="B172" s="432" t="s">
         <v>5</v>
       </c>
-      <c r="C172" s="426" t="s">
+      <c r="C172" s="434" t="s">
         <v>6</v>
       </c>
-      <c r="D172" s="435" t="s">
+      <c r="D172" s="443" t="s">
         <v>7</v>
       </c>
-      <c r="E172" s="435"/>
-      <c r="F172" s="435" t="s">
+      <c r="E172" s="443"/>
+      <c r="F172" s="443" t="s">
         <v>8</v>
       </c>
-      <c r="G172" s="435"/>
+      <c r="G172" s="443"/>
       <c r="I172" s="143"/>
     </row>
     <row r="173" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A173" s="425"/>
-      <c r="B173" s="425"/>
-      <c r="C173" s="427"/>
+      <c r="A173" s="433"/>
+      <c r="B173" s="433"/>
+      <c r="C173" s="435"/>
       <c r="D173" s="135" t="s">
         <v>100</v>
       </c>
@@ -7174,11 +7213,11 @@
       <c r="I180" s="143"/>
     </row>
     <row r="181" spans="1:9" s="142" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A181" s="436" t="s">
+      <c r="A181" s="444" t="s">
         <v>292</v>
       </c>
-      <c r="B181" s="437"/>
-      <c r="C181" s="438"/>
+      <c r="B181" s="445"/>
+      <c r="C181" s="446"/>
       <c r="D181" s="141"/>
       <c r="E181" s="141"/>
       <c r="F181" s="141">
@@ -7316,39 +7355,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N109" sqref="N109"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="374" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="387" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="387" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" style="374" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="374" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" style="374" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="374"/>
     <col min="7" max="7" width="5.85546875" style="374" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="393" customWidth="1"/>
+    <col min="8" max="8" width="10" style="393" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="393" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="393" customWidth="1"/>
+    <col min="10" max="10" width="10" style="393" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.140625" style="394" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" style="393" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="393" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="393" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" style="393" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="393" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.140625" style="374" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="374"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="364" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="464" t="s">
+      <c r="A1" s="469" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="464"/>
-      <c r="C1" s="464"/>
-      <c r="D1" s="464"/>
-      <c r="E1" s="464"/>
+      <c r="B1" s="469"/>
+      <c r="C1" s="469"/>
+      <c r="D1" s="469"/>
+      <c r="E1" s="469"/>
       <c r="H1" s="365"/>
       <c r="I1" s="365"/>
       <c r="J1" s="365"/>
@@ -7376,168 +7415,168 @@
       <c r="O2" s="365"/>
     </row>
     <row r="3" spans="1:16" s="364" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="465" t="s">
+      <c r="A3" s="470" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="465"/>
-      <c r="C3" s="465"/>
-      <c r="D3" s="465"/>
-      <c r="E3" s="465"/>
-      <c r="F3" s="465"/>
-      <c r="G3" s="465"/>
-      <c r="H3" s="465"/>
-      <c r="I3" s="465"/>
-      <c r="J3" s="465"/>
-      <c r="K3" s="465"/>
-      <c r="L3" s="465"/>
-      <c r="M3" s="465"/>
-      <c r="N3" s="465"/>
-      <c r="O3" s="465"/>
-      <c r="P3" s="465"/>
+      <c r="B3" s="470"/>
+      <c r="C3" s="470"/>
+      <c r="D3" s="470"/>
+      <c r="E3" s="470"/>
+      <c r="F3" s="470"/>
+      <c r="G3" s="470"/>
+      <c r="H3" s="470"/>
+      <c r="I3" s="470"/>
+      <c r="J3" s="470"/>
+      <c r="K3" s="470"/>
+      <c r="L3" s="470"/>
+      <c r="M3" s="470"/>
+      <c r="N3" s="470"/>
+      <c r="O3" s="470"/>
+      <c r="P3" s="470"/>
     </row>
     <row r="4" spans="1:16" s="364" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="465" t="s">
+      <c r="A4" s="470" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="465"/>
-      <c r="C4" s="465"/>
-      <c r="D4" s="465"/>
-      <c r="E4" s="465"/>
-      <c r="F4" s="465"/>
-      <c r="G4" s="465"/>
-      <c r="H4" s="465"/>
-      <c r="I4" s="465"/>
-      <c r="J4" s="465"/>
-      <c r="K4" s="465"/>
-      <c r="L4" s="465"/>
-      <c r="M4" s="465"/>
-      <c r="N4" s="465"/>
-      <c r="O4" s="465"/>
-      <c r="P4" s="465"/>
+      <c r="B4" s="470"/>
+      <c r="C4" s="470"/>
+      <c r="D4" s="470"/>
+      <c r="E4" s="470"/>
+      <c r="F4" s="470"/>
+      <c r="G4" s="470"/>
+      <c r="H4" s="470"/>
+      <c r="I4" s="470"/>
+      <c r="J4" s="470"/>
+      <c r="K4" s="470"/>
+      <c r="L4" s="470"/>
+      <c r="M4" s="470"/>
+      <c r="N4" s="470"/>
+      <c r="O4" s="470"/>
+      <c r="P4" s="470"/>
     </row>
     <row r="5" spans="1:16" s="364" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="465"/>
-      <c r="B5" s="465"/>
-      <c r="C5" s="465"/>
-      <c r="D5" s="465"/>
-      <c r="E5" s="465"/>
-      <c r="F5" s="465"/>
-      <c r="G5" s="465"/>
-      <c r="H5" s="465"/>
-      <c r="I5" s="465"/>
-      <c r="J5" s="465"/>
-      <c r="K5" s="466"/>
-      <c r="L5" s="466"/>
+      <c r="A5" s="470"/>
+      <c r="B5" s="470"/>
+      <c r="C5" s="470"/>
+      <c r="D5" s="470"/>
+      <c r="E5" s="470"/>
+      <c r="F5" s="470"/>
+      <c r="G5" s="470"/>
+      <c r="H5" s="470"/>
+      <c r="I5" s="470"/>
+      <c r="J5" s="470"/>
+      <c r="K5" s="471"/>
+      <c r="L5" s="471"/>
       <c r="M5" s="365"/>
       <c r="N5" s="365"/>
       <c r="O5" s="365"/>
     </row>
     <row r="6" spans="1:16" s="364" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="461" t="s">
+      <c r="A6" s="466" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="467" t="s">
+      <c r="B6" s="472" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="461" t="s">
+      <c r="C6" s="466" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="469" t="s">
+      <c r="D6" s="474" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="469"/>
-      <c r="F6" s="470" t="s">
+      <c r="E6" s="474"/>
+      <c r="F6" s="475" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="470"/>
-      <c r="H6" s="470"/>
-      <c r="I6" s="470"/>
-      <c r="J6" s="470"/>
-      <c r="K6" s="470"/>
-      <c r="L6" s="470"/>
-      <c r="M6" s="471"/>
-      <c r="N6" s="471"/>
-      <c r="O6" s="471"/>
-      <c r="P6" s="472" t="s">
+      <c r="G6" s="475"/>
+      <c r="H6" s="475"/>
+      <c r="I6" s="475"/>
+      <c r="J6" s="475"/>
+      <c r="K6" s="475"/>
+      <c r="L6" s="475"/>
+      <c r="M6" s="476"/>
+      <c r="N6" s="476"/>
+      <c r="O6" s="476"/>
+      <c r="P6" s="477" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="364" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="462"/>
-      <c r="B7" s="468"/>
-      <c r="C7" s="462"/>
-      <c r="D7" s="461" t="s">
+      <c r="A7" s="467"/>
+      <c r="B7" s="473"/>
+      <c r="C7" s="467"/>
+      <c r="D7" s="466" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="461" t="s">
+      <c r="E7" s="466" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="461" t="s">
+      <c r="F7" s="466" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="461" t="s">
+      <c r="G7" s="466" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="459" t="s">
+      <c r="H7" s="464" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="459" t="s">
+      <c r="I7" s="464" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="463" t="s">
+      <c r="J7" s="468" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="463"/>
-      <c r="L7" s="459" t="s">
+      <c r="K7" s="468"/>
+      <c r="L7" s="464" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="459" t="s">
+      <c r="M7" s="464" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="459" t="s">
+      <c r="N7" s="464" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="459" t="s">
+      <c r="O7" s="464" t="s">
         <v>55</v>
       </c>
-      <c r="P7" s="473"/>
+      <c r="P7" s="478"/>
     </row>
     <row r="8" spans="1:16" s="364" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="462"/>
-      <c r="B8" s="468"/>
-      <c r="C8" s="462"/>
-      <c r="D8" s="462"/>
-      <c r="E8" s="462"/>
-      <c r="F8" s="462"/>
-      <c r="G8" s="462"/>
-      <c r="H8" s="460"/>
-      <c r="I8" s="460"/>
+      <c r="A8" s="467"/>
+      <c r="B8" s="473"/>
+      <c r="C8" s="467"/>
+      <c r="D8" s="467"/>
+      <c r="E8" s="467"/>
+      <c r="F8" s="467"/>
+      <c r="G8" s="467"/>
+      <c r="H8" s="465"/>
+      <c r="I8" s="465"/>
       <c r="J8" s="369" t="s">
         <v>112</v>
       </c>
       <c r="K8" s="370" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="460"/>
-      <c r="M8" s="460"/>
-      <c r="N8" s="460"/>
-      <c r="O8" s="460"/>
-      <c r="P8" s="473"/>
+      <c r="L8" s="465"/>
+      <c r="M8" s="465"/>
+      <c r="N8" s="465"/>
+      <c r="O8" s="465"/>
+      <c r="P8" s="478"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="443">
+      <c r="A9" s="451">
         <v>461</v>
       </c>
-      <c r="B9" s="440">
+      <c r="B9" s="448">
         <v>43951</v>
       </c>
-      <c r="C9" s="443" t="s">
+      <c r="C9" s="451" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="443" t="s">
+      <c r="D9" s="451" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="443" t="s">
+      <c r="E9" s="451" t="s">
         <v>108</v>
       </c>
       <c r="F9" s="371" t="s">
@@ -7572,11 +7611,11 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="444"/>
-      <c r="B10" s="441"/>
-      <c r="C10" s="444"/>
-      <c r="D10" s="444"/>
-      <c r="E10" s="444"/>
+      <c r="A10" s="452"/>
+      <c r="B10" s="449"/>
+      <c r="C10" s="452"/>
+      <c r="D10" s="452"/>
+      <c r="E10" s="452"/>
       <c r="F10" s="371" t="s">
         <v>37</v>
       </c>
@@ -7609,11 +7648,11 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="445"/>
-      <c r="B11" s="442"/>
-      <c r="C11" s="445"/>
-      <c r="D11" s="445"/>
-      <c r="E11" s="445"/>
+      <c r="A11" s="453"/>
+      <c r="B11" s="450"/>
+      <c r="C11" s="453"/>
+      <c r="D11" s="453"/>
+      <c r="E11" s="453"/>
       <c r="F11" s="371" t="s">
         <v>40</v>
       </c>
@@ -7738,19 +7777,17 @@
       <c r="P13" s="379"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="443">
+      <c r="A14" s="451">
         <v>464</v>
       </c>
-      <c r="B14" s="440">
+      <c r="B14" s="448">
         <v>43955</v>
       </c>
-      <c r="C14" s="443" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="455" t="s">
+      <c r="C14" s="451"/>
+      <c r="D14" s="461" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="455" t="s">
+      <c r="E14" s="461" t="s">
         <v>120</v>
       </c>
       <c r="F14" s="371" t="s">
@@ -7783,11 +7820,11 @@
       <c r="P14" s="379"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="444"/>
-      <c r="B15" s="441"/>
-      <c r="C15" s="444"/>
-      <c r="D15" s="456"/>
-      <c r="E15" s="456"/>
+      <c r="A15" s="452"/>
+      <c r="B15" s="449"/>
+      <c r="C15" s="452"/>
+      <c r="D15" s="462"/>
+      <c r="E15" s="462"/>
       <c r="F15" s="371" t="s">
         <v>37</v>
       </c>
@@ -7818,11 +7855,11 @@
       <c r="P15" s="379"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="444"/>
-      <c r="B16" s="441"/>
-      <c r="C16" s="444"/>
-      <c r="D16" s="456"/>
-      <c r="E16" s="456"/>
+      <c r="A16" s="452"/>
+      <c r="B16" s="449"/>
+      <c r="C16" s="452"/>
+      <c r="D16" s="462"/>
+      <c r="E16" s="462"/>
       <c r="F16" s="371" t="s">
         <v>40</v>
       </c>
@@ -7853,11 +7890,11 @@
       <c r="P16" s="379"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="444"/>
-      <c r="B17" s="441"/>
-      <c r="C17" s="444"/>
-      <c r="D17" s="456"/>
-      <c r="E17" s="456"/>
+      <c r="A17" s="452"/>
+      <c r="B17" s="449"/>
+      <c r="C17" s="452"/>
+      <c r="D17" s="462"/>
+      <c r="E17" s="462"/>
       <c r="F17" s="371" t="s">
         <v>42</v>
       </c>
@@ -7888,11 +7925,11 @@
       <c r="P17" s="379"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="444"/>
-      <c r="B18" s="441"/>
-      <c r="C18" s="444"/>
-      <c r="D18" s="456"/>
-      <c r="E18" s="456"/>
+      <c r="A18" s="452"/>
+      <c r="B18" s="449"/>
+      <c r="C18" s="452"/>
+      <c r="D18" s="462"/>
+      <c r="E18" s="462"/>
       <c r="F18" s="371" t="s">
         <v>41</v>
       </c>
@@ -7923,11 +7960,11 @@
       <c r="P18" s="379"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="444"/>
-      <c r="B19" s="441"/>
-      <c r="C19" s="444"/>
-      <c r="D19" s="456"/>
-      <c r="E19" s="456"/>
+      <c r="A19" s="452"/>
+      <c r="B19" s="449"/>
+      <c r="C19" s="452"/>
+      <c r="D19" s="462"/>
+      <c r="E19" s="462"/>
       <c r="F19" s="371" t="s">
         <v>38</v>
       </c>
@@ -7958,11 +7995,11 @@
       <c r="P19" s="379"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="444"/>
-      <c r="B20" s="441"/>
-      <c r="C20" s="444"/>
-      <c r="D20" s="456"/>
-      <c r="E20" s="456"/>
+      <c r="A20" s="452"/>
+      <c r="B20" s="449"/>
+      <c r="C20" s="452"/>
+      <c r="D20" s="462"/>
+      <c r="E20" s="462"/>
       <c r="F20" s="371" t="s">
         <v>39</v>
       </c>
@@ -7993,11 +8030,11 @@
       <c r="P20" s="379"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="445"/>
-      <c r="B21" s="442"/>
-      <c r="C21" s="445"/>
-      <c r="D21" s="457"/>
-      <c r="E21" s="457"/>
+      <c r="A21" s="453"/>
+      <c r="B21" s="450"/>
+      <c r="C21" s="453"/>
+      <c r="D21" s="463"/>
+      <c r="E21" s="463"/>
       <c r="F21" s="371" t="s">
         <v>67</v>
       </c>
@@ -8028,19 +8065,19 @@
       <c r="P21" s="379"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="443">
+      <c r="A22" s="451">
         <v>466</v>
       </c>
-      <c r="B22" s="440">
+      <c r="B22" s="448">
         <v>43955</v>
       </c>
-      <c r="C22" s="443" t="s">
+      <c r="C22" s="451" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="443" t="s">
+      <c r="D22" s="451" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="443" t="s">
+      <c r="E22" s="451" t="s">
         <v>69</v>
       </c>
       <c r="F22" s="371" t="s">
@@ -8056,30 +8093,28 @@
         <f t="shared" si="0"/>
         <v>455000</v>
       </c>
-      <c r="J22" s="475">
-        <v>395000</v>
-      </c>
+      <c r="J22" s="372"/>
       <c r="K22" s="373">
-        <v>0</v>
-      </c>
-      <c r="L22" s="451">
-        <f>I22+I23+I24-J22</f>
-        <v>1000000</v>
-      </c>
-      <c r="M22" s="451">
+        <v>0.41</v>
+      </c>
+      <c r="L22" s="419">
+        <f t="shared" si="1"/>
+        <v>268450.00000000006</v>
+      </c>
+      <c r="M22" s="372">
         <f>L22</f>
-        <v>1000000</v>
+        <v>268450.00000000006</v>
       </c>
       <c r="N22" s="372"/>
       <c r="O22" s="372"/>
       <c r="P22" s="379"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="444"/>
-      <c r="B23" s="441"/>
-      <c r="C23" s="444"/>
-      <c r="D23" s="444"/>
-      <c r="E23" s="444"/>
+      <c r="A23" s="452"/>
+      <c r="B23" s="449"/>
+      <c r="C23" s="452"/>
+      <c r="D23" s="452"/>
+      <c r="E23" s="452"/>
       <c r="F23" s="371" t="s">
         <v>37</v>
       </c>
@@ -8093,22 +8128,28 @@
         <f t="shared" si="0"/>
         <v>465000</v>
       </c>
-      <c r="J23" s="476"/>
+      <c r="J23" s="372"/>
       <c r="K23" s="373">
-        <v>0</v>
-      </c>
-      <c r="L23" s="452"/>
-      <c r="M23" s="452"/>
+        <v>0.41</v>
+      </c>
+      <c r="L23" s="419">
+        <f t="shared" si="1"/>
+        <v>274350.00000000006</v>
+      </c>
+      <c r="M23" s="372">
+        <f t="shared" ref="M23:M24" si="4">L23</f>
+        <v>274350.00000000006</v>
+      </c>
       <c r="N23" s="372"/>
       <c r="O23" s="372"/>
       <c r="P23" s="371"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="445"/>
-      <c r="B24" s="442"/>
-      <c r="C24" s="445"/>
-      <c r="D24" s="445"/>
-      <c r="E24" s="445"/>
+      <c r="A24" s="453"/>
+      <c r="B24" s="450"/>
+      <c r="C24" s="453"/>
+      <c r="D24" s="453"/>
+      <c r="E24" s="453"/>
       <c r="F24" s="371" t="s">
         <v>40</v>
       </c>
@@ -8122,30 +8163,34 @@
         <f t="shared" si="0"/>
         <v>475000</v>
       </c>
-      <c r="J24" s="477"/>
+      <c r="J24" s="372"/>
       <c r="K24" s="373">
-        <v>0</v>
-      </c>
-      <c r="L24" s="453"/>
-      <c r="M24" s="453"/>
+        <v>0.41</v>
+      </c>
+      <c r="L24" s="419">
+        <f t="shared" si="1"/>
+        <v>280250.00000000006</v>
+      </c>
+      <c r="M24" s="372">
+        <f t="shared" si="4"/>
+        <v>280250.00000000006</v>
+      </c>
       <c r="N24" s="372"/>
       <c r="O24" s="372"/>
       <c r="P24" s="371"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="443">
+      <c r="A25" s="451">
         <v>468</v>
       </c>
-      <c r="B25" s="440">
+      <c r="B25" s="448">
         <v>43956</v>
       </c>
-      <c r="C25" s="443" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="443" t="s">
+      <c r="C25" s="451"/>
+      <c r="D25" s="451" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="455" t="s">
+      <c r="E25" s="461" t="s">
         <v>114</v>
       </c>
       <c r="F25" s="371" t="s">
@@ -8161,7 +8206,7 @@
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="J25" s="475">
+      <c r="J25" s="480">
         <v>200000</v>
       </c>
       <c r="K25" s="373">
@@ -8172,19 +8217,19 @@
         <v>6242800.0000000009</v>
       </c>
       <c r="M25" s="372"/>
-      <c r="N25" s="372"/>
-      <c r="O25" s="372">
-        <f>L25</f>
+      <c r="N25" s="372">
+        <f t="shared" ref="N25:N31" si="5">L25</f>
         <v>6242800.0000000009</v>
       </c>
+      <c r="O25" s="372"/>
       <c r="P25" s="371"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="444"/>
-      <c r="B26" s="441"/>
-      <c r="C26" s="444"/>
-      <c r="D26" s="444"/>
-      <c r="E26" s="456"/>
+      <c r="A26" s="452"/>
+      <c r="B26" s="449"/>
+      <c r="C26" s="452"/>
+      <c r="D26" s="452"/>
+      <c r="E26" s="462"/>
       <c r="F26" s="371" t="s">
         <v>42</v>
       </c>
@@ -8198,7 +8243,7 @@
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-      <c r="J26" s="476"/>
+      <c r="J26" s="481"/>
       <c r="K26" s="373">
         <v>0.41</v>
       </c>
@@ -8207,19 +8252,19 @@
         <v>3433800.0000000005</v>
       </c>
       <c r="M26" s="372"/>
-      <c r="N26" s="372"/>
-      <c r="O26" s="372">
-        <f t="shared" ref="O26:O27" si="4">L26</f>
+      <c r="N26" s="372">
+        <f t="shared" si="5"/>
         <v>3433800.0000000005</v>
       </c>
+      <c r="O26" s="372"/>
       <c r="P26" s="371"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="445"/>
-      <c r="B27" s="442"/>
-      <c r="C27" s="445"/>
-      <c r="D27" s="445"/>
-      <c r="E27" s="457"/>
+      <c r="A27" s="453"/>
+      <c r="B27" s="450"/>
+      <c r="C27" s="453"/>
+      <c r="D27" s="453"/>
+      <c r="E27" s="463"/>
       <c r="F27" s="371" t="s">
         <v>41</v>
       </c>
@@ -8233,7 +8278,7 @@
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-      <c r="J27" s="477"/>
+      <c r="J27" s="482"/>
       <c r="K27" s="373">
         <v>0.41</v>
       </c>
@@ -8242,11 +8287,11 @@
         <v>3433800.0000000005</v>
       </c>
       <c r="M27" s="372"/>
-      <c r="N27" s="372"/>
-      <c r="O27" s="372">
-        <f t="shared" si="4"/>
+      <c r="N27" s="372">
+        <f t="shared" si="5"/>
         <v>3433800.0000000005</v>
       </c>
+      <c r="O27" s="372"/>
       <c r="P27" s="371"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -8288,7 +8333,7 @@
       </c>
       <c r="M28" s="372"/>
       <c r="N28" s="372">
-        <f>L28</f>
+        <f t="shared" si="5"/>
         <v>268450.00000000006</v>
       </c>
       <c r="O28" s="372"/>
@@ -8327,16 +8372,16 @@
       </c>
       <c r="J29" s="372"/>
       <c r="K29" s="373">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="L29" s="372">
         <f t="shared" si="1"/>
-        <v>550000</v>
+        <v>324500.00000000006</v>
       </c>
       <c r="M29" s="372"/>
       <c r="N29" s="372">
-        <f>L29</f>
-        <v>550000</v>
+        <f t="shared" si="5"/>
+        <v>324500.00000000006</v>
       </c>
       <c r="O29" s="372"/>
       <c r="P29" s="379" t="s">
@@ -8344,19 +8389,19 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="443">
+      <c r="A30" s="451">
         <v>1150</v>
       </c>
-      <c r="B30" s="446" t="s">
+      <c r="B30" s="454" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="443" t="s">
+      <c r="C30" s="451" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="443" t="s">
+      <c r="D30" s="451" t="s">
         <v>127</v>
       </c>
-      <c r="E30" s="455" t="s">
+      <c r="E30" s="461" t="s">
         <v>132</v>
       </c>
       <c r="F30" s="371" t="s">
@@ -8381,19 +8426,19 @@
         <v>3549000</v>
       </c>
       <c r="M30" s="372"/>
-      <c r="N30" s="372"/>
-      <c r="O30" s="372">
-        <f>L30</f>
+      <c r="N30" s="372">
+        <f t="shared" si="5"/>
         <v>3549000</v>
       </c>
+      <c r="O30" s="372"/>
       <c r="P30" s="371"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="445"/>
-      <c r="B31" s="442"/>
-      <c r="C31" s="445"/>
-      <c r="D31" s="445"/>
-      <c r="E31" s="457"/>
+      <c r="A31" s="453"/>
+      <c r="B31" s="450"/>
+      <c r="C31" s="453"/>
+      <c r="D31" s="453"/>
+      <c r="E31" s="463"/>
       <c r="F31" s="371" t="s">
         <v>67</v>
       </c>
@@ -8416,27 +8461,27 @@
         <v>3549000</v>
       </c>
       <c r="M31" s="372"/>
-      <c r="N31" s="372"/>
-      <c r="O31" s="372">
-        <f>L31</f>
+      <c r="N31" s="372">
+        <f t="shared" si="5"/>
         <v>3549000</v>
       </c>
+      <c r="O31" s="372"/>
       <c r="P31" s="371"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="443">
+      <c r="A32" s="451">
         <v>502</v>
       </c>
-      <c r="B32" s="440">
+      <c r="B32" s="448">
         <v>43956</v>
       </c>
-      <c r="C32" s="443" t="s">
+      <c r="C32" s="451" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="455" t="s">
+      <c r="D32" s="461" t="s">
         <v>133</v>
       </c>
-      <c r="E32" s="443"/>
+      <c r="E32" s="451"/>
       <c r="F32" s="371" t="s">
         <v>36</v>
       </c>
@@ -8447,7 +8492,7 @@
         <v>455000</v>
       </c>
       <c r="I32" s="372">
-        <f t="shared" ref="I32:I37" si="5">G32*H32</f>
+        <f t="shared" ref="I32:I37" si="6">G32*H32</f>
         <v>455000</v>
       </c>
       <c r="J32" s="372"/>
@@ -8455,23 +8500,23 @@
         <v>1</v>
       </c>
       <c r="L32" s="372">
-        <f t="shared" ref="L32:L37" si="6">I32*(1-K32)</f>
+        <f t="shared" ref="L32:L37" si="7">I32*(1-K32)</f>
         <v>0</v>
       </c>
       <c r="M32" s="372"/>
       <c r="N32" s="372"/>
       <c r="O32" s="372">
-        <f t="shared" ref="O32:O37" si="7">L32</f>
+        <f t="shared" ref="O32:O37" si="8">L32</f>
         <v>0</v>
       </c>
       <c r="P32" s="371"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="444"/>
-      <c r="B33" s="441"/>
-      <c r="C33" s="444"/>
-      <c r="D33" s="456"/>
-      <c r="E33" s="444"/>
+      <c r="A33" s="452"/>
+      <c r="B33" s="449"/>
+      <c r="C33" s="452"/>
+      <c r="D33" s="462"/>
+      <c r="E33" s="452"/>
       <c r="F33" s="371" t="s">
         <v>37</v>
       </c>
@@ -8482,7 +8527,7 @@
         <v>465000</v>
       </c>
       <c r="I33" s="372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>465000</v>
       </c>
       <c r="J33" s="372"/>
@@ -8490,23 +8535,23 @@
         <v>1</v>
       </c>
       <c r="L33" s="372">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M33" s="372"/>
       <c r="N33" s="372"/>
       <c r="O33" s="372">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P33" s="371"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="444"/>
-      <c r="B34" s="441"/>
-      <c r="C34" s="444"/>
-      <c r="D34" s="456"/>
-      <c r="E34" s="444"/>
+      <c r="A34" s="452"/>
+      <c r="B34" s="449"/>
+      <c r="C34" s="452"/>
+      <c r="D34" s="462"/>
+      <c r="E34" s="452"/>
       <c r="F34" s="371" t="s">
         <v>40</v>
       </c>
@@ -8517,7 +8562,7 @@
         <v>475000</v>
       </c>
       <c r="I34" s="372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>475000</v>
       </c>
       <c r="J34" s="372"/>
@@ -8525,23 +8570,23 @@
         <v>1</v>
       </c>
       <c r="L34" s="372">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M34" s="372"/>
       <c r="N34" s="372"/>
       <c r="O34" s="372">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P34" s="371"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="444"/>
-      <c r="B35" s="441"/>
-      <c r="C35" s="444"/>
-      <c r="D35" s="456"/>
-      <c r="E35" s="444"/>
+      <c r="A35" s="452"/>
+      <c r="B35" s="449"/>
+      <c r="C35" s="452"/>
+      <c r="D35" s="462"/>
+      <c r="E35" s="452"/>
       <c r="F35" s="371" t="s">
         <v>42</v>
       </c>
@@ -8552,7 +8597,7 @@
         <v>485000</v>
       </c>
       <c r="I35" s="372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>485000</v>
       </c>
       <c r="J35" s="372"/>
@@ -8560,23 +8605,23 @@
         <v>1</v>
       </c>
       <c r="L35" s="372">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M35" s="372"/>
       <c r="N35" s="372"/>
       <c r="O35" s="372">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P35" s="371"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="444"/>
-      <c r="B36" s="441"/>
-      <c r="C36" s="444"/>
-      <c r="D36" s="456"/>
-      <c r="E36" s="444"/>
+      <c r="A36" s="452"/>
+      <c r="B36" s="449"/>
+      <c r="C36" s="452"/>
+      <c r="D36" s="462"/>
+      <c r="E36" s="452"/>
       <c r="F36" s="371" t="s">
         <v>41</v>
       </c>
@@ -8587,7 +8632,7 @@
         <v>485000</v>
       </c>
       <c r="I36" s="372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>485000</v>
       </c>
       <c r="J36" s="372"/>
@@ -8595,23 +8640,23 @@
         <v>1</v>
       </c>
       <c r="L36" s="372">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M36" s="372"/>
       <c r="N36" s="372"/>
       <c r="O36" s="372">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P36" s="371"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="445"/>
-      <c r="B37" s="442"/>
-      <c r="C37" s="445"/>
-      <c r="D37" s="457"/>
-      <c r="E37" s="445"/>
+      <c r="A37" s="453"/>
+      <c r="B37" s="450"/>
+      <c r="C37" s="453"/>
+      <c r="D37" s="463"/>
+      <c r="E37" s="453"/>
       <c r="F37" s="371" t="s">
         <v>38</v>
       </c>
@@ -8622,7 +8667,7 @@
         <v>550000</v>
       </c>
       <c r="I37" s="372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>550000</v>
       </c>
       <c r="J37" s="372"/>
@@ -8630,13 +8675,13 @@
         <v>1</v>
       </c>
       <c r="L37" s="372">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M37" s="372"/>
       <c r="N37" s="372"/>
       <c r="O37" s="372">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P37" s="371"/>
@@ -8648,9 +8693,7 @@
       <c r="B38" s="375">
         <v>43957</v>
       </c>
-      <c r="C38" s="371" t="s">
-        <v>105</v>
-      </c>
+      <c r="C38" s="371"/>
       <c r="D38" s="371" t="s">
         <v>113</v>
       </c>
@@ -8681,27 +8724,27 @@
         <v>3136000.0000000005</v>
       </c>
       <c r="M38" s="372"/>
-      <c r="N38" s="372"/>
-      <c r="O38" s="372">
+      <c r="N38" s="372">
         <f>L38</f>
         <v>3136000.0000000005</v>
       </c>
+      <c r="O38" s="372"/>
       <c r="P38" s="371"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="443">
+      <c r="A39" s="451">
         <v>513</v>
       </c>
-      <c r="B39" s="440">
+      <c r="B39" s="448">
         <v>43987</v>
       </c>
-      <c r="C39" s="443" t="s">
+      <c r="C39" s="451" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="455" t="s">
+      <c r="D39" s="461" t="s">
         <v>140</v>
       </c>
-      <c r="E39" s="443" t="s">
+      <c r="E39" s="451" t="s">
         <v>103</v>
       </c>
       <c r="F39" s="371" t="s">
@@ -8714,7 +8757,7 @@
         <v>485000</v>
       </c>
       <c r="I39" s="372">
-        <f t="shared" ref="I39:I40" si="8">G39*H39</f>
+        <f t="shared" ref="I39:I40" si="9">G39*H39</f>
         <v>485000</v>
       </c>
       <c r="J39" s="372"/>
@@ -8728,17 +8771,17 @@
       <c r="M39" s="372"/>
       <c r="N39" s="372"/>
       <c r="O39" s="372">
-        <f t="shared" ref="O39:O40" si="9">L39</f>
+        <f t="shared" ref="O39:O40" si="10">L39</f>
         <v>0</v>
       </c>
       <c r="P39" s="371"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="445"/>
-      <c r="B40" s="442"/>
-      <c r="C40" s="445"/>
-      <c r="D40" s="457"/>
-      <c r="E40" s="445"/>
+      <c r="A40" s="453"/>
+      <c r="B40" s="450"/>
+      <c r="C40" s="453"/>
+      <c r="D40" s="463"/>
+      <c r="E40" s="453"/>
       <c r="F40" s="371" t="s">
         <v>38</v>
       </c>
@@ -8749,7 +8792,7 @@
         <v>550000</v>
       </c>
       <c r="I40" s="372">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1100000</v>
       </c>
       <c r="J40" s="372"/>
@@ -8763,7 +8806,7 @@
       <c r="M40" s="372"/>
       <c r="N40" s="372"/>
       <c r="O40" s="372">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P40" s="371"/>
@@ -8861,19 +8904,19 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="443">
+      <c r="A43" s="451">
         <v>472</v>
       </c>
-      <c r="B43" s="440">
+      <c r="B43" s="448">
         <v>43960</v>
       </c>
-      <c r="C43" s="443" t="s">
+      <c r="C43" s="451" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="443" t="s">
+      <c r="D43" s="451" t="s">
         <v>118</v>
       </c>
-      <c r="E43" s="443"/>
+      <c r="E43" s="451"/>
       <c r="F43" s="371" t="s">
         <v>36</v>
       </c>
@@ -8901,11 +8944,11 @@
       <c r="P43" s="371"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="444"/>
-      <c r="B44" s="441"/>
-      <c r="C44" s="444"/>
-      <c r="D44" s="444"/>
-      <c r="E44" s="444"/>
+      <c r="A44" s="452"/>
+      <c r="B44" s="449"/>
+      <c r="C44" s="452"/>
+      <c r="D44" s="452"/>
+      <c r="E44" s="452"/>
       <c r="F44" s="371" t="s">
         <v>42</v>
       </c>
@@ -8933,11 +8976,11 @@
       <c r="P44" s="371"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="445"/>
-      <c r="B45" s="442"/>
-      <c r="C45" s="445"/>
-      <c r="D45" s="445"/>
-      <c r="E45" s="445"/>
+      <c r="A45" s="453"/>
+      <c r="B45" s="450"/>
+      <c r="C45" s="453"/>
+      <c r="D45" s="453"/>
+      <c r="E45" s="453"/>
       <c r="F45" s="371" t="s">
         <v>39</v>
       </c>
@@ -8965,19 +9008,17 @@
       <c r="P45" s="371"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="443">
+      <c r="A46" s="451">
         <v>473</v>
       </c>
-      <c r="B46" s="440">
+      <c r="B46" s="448">
         <v>43960</v>
       </c>
-      <c r="C46" s="443" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="455" t="s">
+      <c r="C46" s="451"/>
+      <c r="D46" s="461" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="443" t="s">
+      <c r="E46" s="451" t="s">
         <v>119</v>
       </c>
       <c r="F46" s="371" t="s">
@@ -9004,17 +9045,17 @@
       <c r="M46" s="372"/>
       <c r="N46" s="372"/>
       <c r="O46" s="372">
-        <f t="shared" ref="O46:O68" si="10">L46</f>
+        <f t="shared" ref="O46:O68" si="11">L46</f>
         <v>3348000</v>
       </c>
       <c r="P46" s="371"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="445"/>
-      <c r="B47" s="442"/>
-      <c r="C47" s="445"/>
-      <c r="D47" s="457"/>
-      <c r="E47" s="445"/>
+      <c r="A47" s="453"/>
+      <c r="B47" s="450"/>
+      <c r="C47" s="453"/>
+      <c r="D47" s="463"/>
+      <c r="E47" s="453"/>
       <c r="F47" s="371" t="s">
         <v>36</v>
       </c>
@@ -9039,7 +9080,7 @@
       <c r="M47" s="372"/>
       <c r="N47" s="372"/>
       <c r="O47" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6770400</v>
       </c>
       <c r="P47" s="371"/>
@@ -9051,9 +9092,7 @@
       <c r="B48" s="375">
         <v>43960</v>
       </c>
-      <c r="C48" s="371" t="s">
-        <v>105</v>
-      </c>
+      <c r="C48" s="371"/>
       <c r="D48" s="379" t="s">
         <v>123</v>
       </c>
@@ -9081,30 +9120,29 @@
         <f t="shared" si="1"/>
         <v>2700000</v>
       </c>
-      <c r="M48" s="372">
+      <c r="N48" s="372" t="s">
+        <v>104</v>
+      </c>
+      <c r="O48" s="372">
         <f>L48</f>
         <v>2700000</v>
       </c>
-      <c r="N48" s="372" t="s">
-        <v>104</v>
-      </c>
-      <c r="O48" s="372"/>
       <c r="P48" s="371"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="443">
+      <c r="A49" s="451">
         <v>508</v>
       </c>
-      <c r="B49" s="446" t="s">
+      <c r="B49" s="454" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="443" t="s">
+      <c r="C49" s="451" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="443" t="s">
+      <c r="D49" s="451" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="443" t="s">
+      <c r="E49" s="451" t="s">
         <v>108</v>
       </c>
       <c r="F49" s="371" t="s">
@@ -9117,7 +9155,7 @@
         <v>455000</v>
       </c>
       <c r="I49" s="372">
-        <f t="shared" ref="I49:I100" si="11">G49*H49</f>
+        <f t="shared" ref="I49:I100" si="12">G49*H49</f>
         <v>910000</v>
       </c>
       <c r="J49" s="372"/>
@@ -9139,11 +9177,11 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="445"/>
-      <c r="B50" s="447"/>
-      <c r="C50" s="445"/>
-      <c r="D50" s="445"/>
-      <c r="E50" s="445"/>
+      <c r="A50" s="453"/>
+      <c r="B50" s="455"/>
+      <c r="C50" s="453"/>
+      <c r="D50" s="453"/>
+      <c r="E50" s="453"/>
       <c r="F50" s="371" t="s">
         <v>37</v>
       </c>
@@ -9154,7 +9192,7 @@
         <v>465000</v>
       </c>
       <c r="I50" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2325000</v>
       </c>
       <c r="J50" s="372"/>
@@ -9201,7 +9239,7 @@
         <v>485000</v>
       </c>
       <c r="I51" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5820000</v>
       </c>
       <c r="J51" s="372"/>
@@ -9209,7 +9247,7 @@
         <v>0.41</v>
       </c>
       <c r="L51" s="372">
-        <f t="shared" ref="L51:L100" si="12">I51*(1-K51)</f>
+        <f t="shared" ref="L51:L100" si="13">I51*(1-K51)</f>
         <v>3433800.0000000005</v>
       </c>
       <c r="M51" s="372"/>
@@ -9248,7 +9286,7 @@
         <v>485000</v>
       </c>
       <c r="I52" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>485000</v>
       </c>
       <c r="J52" s="372"/>
@@ -9256,31 +9294,29 @@
         <v>0.41</v>
       </c>
       <c r="L52" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>286150.00000000006</v>
       </c>
-      <c r="M52" s="372"/>
-      <c r="N52" s="372"/>
-      <c r="O52" s="372">
-        <f t="shared" si="10"/>
+      <c r="M52" s="372">
+        <f>L52</f>
         <v>286150.00000000006</v>
       </c>
       <c r="P52" s="371"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="443">
+      <c r="A53" s="451">
         <v>521</v>
       </c>
-      <c r="B53" s="446">
+      <c r="B53" s="454">
         <v>43961</v>
       </c>
-      <c r="C53" s="443" t="s">
+      <c r="C53" s="451" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="455" t="s">
+      <c r="D53" s="461" t="s">
         <v>156</v>
       </c>
-      <c r="E53" s="443" t="s">
+      <c r="E53" s="451" t="s">
         <v>103</v>
       </c>
       <c r="F53" s="371" t="s">
@@ -9293,7 +9329,7 @@
         <v>455000</v>
       </c>
       <c r="I53" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>455000</v>
       </c>
       <c r="J53" s="372"/>
@@ -9301,23 +9337,23 @@
         <v>1</v>
       </c>
       <c r="L53" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M53" s="372"/>
       <c r="N53" s="372"/>
       <c r="O53" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P53" s="371"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="444"/>
-      <c r="B54" s="454"/>
-      <c r="C54" s="444"/>
-      <c r="D54" s="456"/>
-      <c r="E54" s="444"/>
+      <c r="A54" s="452"/>
+      <c r="B54" s="460"/>
+      <c r="C54" s="452"/>
+      <c r="D54" s="462"/>
+      <c r="E54" s="452"/>
       <c r="F54" s="371" t="s">
         <v>37</v>
       </c>
@@ -9328,7 +9364,7 @@
         <v>465000</v>
       </c>
       <c r="I54" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>930000</v>
       </c>
       <c r="J54" s="372"/>
@@ -9336,23 +9372,23 @@
         <v>1</v>
       </c>
       <c r="L54" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M54" s="372"/>
       <c r="N54" s="372"/>
       <c r="O54" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P54" s="371"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="444"/>
-      <c r="B55" s="454"/>
-      <c r="C55" s="444"/>
-      <c r="D55" s="456"/>
-      <c r="E55" s="444"/>
+      <c r="A55" s="452"/>
+      <c r="B55" s="460"/>
+      <c r="C55" s="452"/>
+      <c r="D55" s="462"/>
+      <c r="E55" s="452"/>
       <c r="F55" s="371" t="s">
         <v>40</v>
       </c>
@@ -9363,7 +9399,7 @@
         <v>475000</v>
       </c>
       <c r="I55" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>475000</v>
       </c>
       <c r="J55" s="372"/>
@@ -9371,23 +9407,23 @@
         <v>1</v>
       </c>
       <c r="L55" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M55" s="372"/>
       <c r="N55" s="372"/>
       <c r="O55" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P55" s="371"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="444"/>
-      <c r="B56" s="454"/>
-      <c r="C56" s="444"/>
-      <c r="D56" s="456"/>
-      <c r="E56" s="444"/>
+      <c r="A56" s="452"/>
+      <c r="B56" s="460"/>
+      <c r="C56" s="452"/>
+      <c r="D56" s="462"/>
+      <c r="E56" s="452"/>
       <c r="F56" s="371" t="s">
         <v>42</v>
       </c>
@@ -9398,7 +9434,7 @@
         <v>485000</v>
       </c>
       <c r="I56" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>485000</v>
       </c>
       <c r="J56" s="372"/>
@@ -9406,23 +9442,23 @@
         <v>1</v>
       </c>
       <c r="L56" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M56" s="372"/>
       <c r="N56" s="372"/>
       <c r="O56" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P56" s="371"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="444"/>
-      <c r="B57" s="454"/>
-      <c r="C57" s="444"/>
-      <c r="D57" s="456"/>
-      <c r="E57" s="444"/>
+      <c r="A57" s="452"/>
+      <c r="B57" s="460"/>
+      <c r="C57" s="452"/>
+      <c r="D57" s="462"/>
+      <c r="E57" s="452"/>
       <c r="F57" s="371" t="s">
         <v>41</v>
       </c>
@@ -9433,7 +9469,7 @@
         <v>485000</v>
       </c>
       <c r="I57" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>485000</v>
       </c>
       <c r="J57" s="372"/>
@@ -9441,23 +9477,23 @@
         <v>1</v>
       </c>
       <c r="L57" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M57" s="372"/>
       <c r="N57" s="372"/>
       <c r="O57" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P57" s="371"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="445"/>
-      <c r="B58" s="447"/>
-      <c r="C58" s="445"/>
-      <c r="D58" s="457"/>
-      <c r="E58" s="445"/>
+      <c r="A58" s="453"/>
+      <c r="B58" s="455"/>
+      <c r="C58" s="453"/>
+      <c r="D58" s="463"/>
+      <c r="E58" s="453"/>
       <c r="F58" s="371" t="s">
         <v>38</v>
       </c>
@@ -9468,7 +9504,7 @@
         <v>550000</v>
       </c>
       <c r="I58" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1100000</v>
       </c>
       <c r="J58" s="372"/>
@@ -9476,28 +9512,26 @@
         <v>1</v>
       </c>
       <c r="L58" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M58" s="372"/>
       <c r="N58" s="372"/>
       <c r="O58" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P58" s="371"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="443">
+      <c r="A59" s="451">
         <v>515</v>
       </c>
-      <c r="B59" s="446">
+      <c r="B59" s="454">
         <v>43962</v>
       </c>
-      <c r="C59" s="443" t="s">
-        <v>105</v>
-      </c>
-      <c r="D59" s="443" t="s">
+      <c r="C59" s="451"/>
+      <c r="D59" s="461" t="s">
         <v>150</v>
       </c>
       <c r="E59" s="371"/>
@@ -9511,7 +9545,7 @@
         <v>45500</v>
       </c>
       <c r="I59" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1092000</v>
       </c>
       <c r="J59" s="372"/>
@@ -9519,22 +9553,19 @@
         <v>0.35</v>
       </c>
       <c r="L59" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>709800</v>
       </c>
       <c r="M59" s="372"/>
       <c r="N59" s="372"/>
-      <c r="O59" s="372">
-        <f t="shared" si="10"/>
-        <v>709800</v>
-      </c>
+      <c r="O59" s="372"/>
       <c r="P59" s="371"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="445"/>
-      <c r="B60" s="447"/>
-      <c r="C60" s="445"/>
-      <c r="D60" s="445"/>
+      <c r="A60" s="453"/>
+      <c r="B60" s="455"/>
+      <c r="C60" s="453"/>
+      <c r="D60" s="463"/>
       <c r="E60" s="371"/>
       <c r="F60" s="371" t="s">
         <v>37</v>
@@ -9546,7 +9577,7 @@
         <v>465000</v>
       </c>
       <c r="I60" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11160000</v>
       </c>
       <c r="J60" s="372"/>
@@ -9554,15 +9585,12 @@
         <v>0.35</v>
       </c>
       <c r="L60" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7254000</v>
       </c>
       <c r="M60" s="372"/>
       <c r="N60" s="372"/>
-      <c r="O60" s="372">
-        <f t="shared" si="10"/>
-        <v>7254000</v>
-      </c>
+      <c r="O60" s="372"/>
       <c r="P60" s="371"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -9591,7 +9619,7 @@
         <v>485000</v>
       </c>
       <c r="I61" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5820000</v>
       </c>
       <c r="J61" s="372"/>
@@ -9599,7 +9627,7 @@
         <v>0.41</v>
       </c>
       <c r="L61" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3433800.0000000005</v>
       </c>
       <c r="M61" s="372"/>
@@ -9638,39 +9666,39 @@
         <v>465000</v>
       </c>
       <c r="I62" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>465000</v>
       </c>
       <c r="J62" s="372"/>
       <c r="K62" s="373">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="L62" s="372">
-        <f t="shared" si="12"/>
-        <v>465000</v>
+        <f t="shared" si="13"/>
+        <v>274350.00000000006</v>
       </c>
       <c r="M62" s="372"/>
       <c r="N62" s="372">
         <f>L62</f>
-        <v>465000</v>
+        <v>274350.00000000006</v>
       </c>
       <c r="O62" s="372"/>
       <c r="P62" s="371"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="443">
+      <c r="A63" s="451">
         <v>525</v>
       </c>
-      <c r="B63" s="446">
+      <c r="B63" s="454">
         <v>43965</v>
       </c>
-      <c r="C63" s="443" t="s">
+      <c r="C63" s="451" t="s">
         <v>157</v>
       </c>
-      <c r="D63" s="443" t="s">
+      <c r="D63" s="451" t="s">
         <v>157</v>
       </c>
-      <c r="E63" s="443" t="s">
+      <c r="E63" s="451" t="s">
         <v>103</v>
       </c>
       <c r="F63" s="371" t="s">
@@ -9683,7 +9711,7 @@
         <v>455000</v>
       </c>
       <c r="I63" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>910000</v>
       </c>
       <c r="J63" s="372"/>
@@ -9691,7 +9719,7 @@
         <v>0.41</v>
       </c>
       <c r="L63" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>536900.00000000012</v>
       </c>
       <c r="M63" s="372"/>
@@ -9705,11 +9733,11 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="445"/>
-      <c r="B64" s="447"/>
-      <c r="C64" s="445"/>
-      <c r="D64" s="445"/>
-      <c r="E64" s="445"/>
+      <c r="A64" s="453"/>
+      <c r="B64" s="455"/>
+      <c r="C64" s="453"/>
+      <c r="D64" s="453"/>
+      <c r="E64" s="453"/>
       <c r="F64" s="371" t="s">
         <v>37</v>
       </c>
@@ -9720,7 +9748,7 @@
         <v>465000</v>
       </c>
       <c r="I64" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>465000</v>
       </c>
       <c r="J64" s="372"/>
@@ -9728,7 +9756,7 @@
         <v>0.41</v>
       </c>
       <c r="L64" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>274350.00000000006</v>
       </c>
       <c r="M64" s="372"/>
@@ -9742,19 +9770,17 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="443">
+      <c r="A65" s="451">
         <v>526</v>
       </c>
-      <c r="B65" s="446">
+      <c r="B65" s="454">
         <v>43965</v>
       </c>
-      <c r="C65" s="443" t="s">
-        <v>105</v>
-      </c>
-      <c r="D65" s="443" t="s">
+      <c r="C65" s="451"/>
+      <c r="D65" s="451" t="s">
         <v>158</v>
       </c>
-      <c r="E65" s="443" t="s">
+      <c r="E65" s="451" t="s">
         <v>159</v>
       </c>
       <c r="F65" s="371" t="s">
@@ -9767,7 +9793,7 @@
         <v>455000</v>
       </c>
       <c r="I65" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5460000</v>
       </c>
       <c r="J65" s="372"/>
@@ -9775,23 +9801,23 @@
         <v>0.43</v>
       </c>
       <c r="L65" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3112200.0000000005</v>
       </c>
       <c r="M65" s="372"/>
       <c r="N65" s="372"/>
       <c r="O65" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3112200.0000000005</v>
       </c>
       <c r="P65" s="371"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="444"/>
-      <c r="B66" s="454"/>
-      <c r="C66" s="444"/>
-      <c r="D66" s="444"/>
-      <c r="E66" s="444"/>
+      <c r="A66" s="452"/>
+      <c r="B66" s="460"/>
+      <c r="C66" s="452"/>
+      <c r="D66" s="452"/>
+      <c r="E66" s="452"/>
       <c r="F66" s="371" t="s">
         <v>41</v>
       </c>
@@ -9802,7 +9828,7 @@
         <v>485000</v>
       </c>
       <c r="I66" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5820000</v>
       </c>
       <c r="J66" s="372"/>
@@ -9810,23 +9836,23 @@
         <v>0.43</v>
       </c>
       <c r="L66" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3317400.0000000005</v>
       </c>
       <c r="M66" s="372"/>
       <c r="N66" s="372"/>
       <c r="O66" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3317400.0000000005</v>
       </c>
       <c r="P66" s="371"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="444"/>
-      <c r="B67" s="454"/>
-      <c r="C67" s="444"/>
-      <c r="D67" s="444"/>
-      <c r="E67" s="444"/>
+      <c r="A67" s="452"/>
+      <c r="B67" s="460"/>
+      <c r="C67" s="452"/>
+      <c r="D67" s="452"/>
+      <c r="E67" s="452"/>
       <c r="F67" s="371" t="s">
         <v>39</v>
       </c>
@@ -9837,7 +9863,7 @@
         <v>455000</v>
       </c>
       <c r="I67" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10920000</v>
       </c>
       <c r="J67" s="372"/>
@@ -9845,23 +9871,23 @@
         <v>0.43</v>
       </c>
       <c r="L67" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6224400.0000000009</v>
       </c>
       <c r="M67" s="372"/>
       <c r="N67" s="372"/>
       <c r="O67" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6224400.0000000009</v>
       </c>
       <c r="P67" s="371"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="445"/>
-      <c r="B68" s="447"/>
-      <c r="C68" s="445"/>
-      <c r="D68" s="445"/>
-      <c r="E68" s="445"/>
+      <c r="A68" s="453"/>
+      <c r="B68" s="455"/>
+      <c r="C68" s="453"/>
+      <c r="D68" s="453"/>
+      <c r="E68" s="453"/>
       <c r="F68" s="371" t="s">
         <v>67</v>
       </c>
@@ -9872,7 +9898,7 @@
         <v>455000</v>
       </c>
       <c r="I68" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5460000</v>
       </c>
       <c r="J68" s="372"/>
@@ -9880,31 +9906,31 @@
         <v>0.43</v>
       </c>
       <c r="L68" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3112200.0000000005</v>
       </c>
       <c r="M68" s="372"/>
       <c r="N68" s="372"/>
       <c r="O68" s="372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3112200.0000000005</v>
       </c>
       <c r="P68" s="371"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="443">
+      <c r="A69" s="451">
         <v>527</v>
       </c>
-      <c r="B69" s="446">
+      <c r="B69" s="454">
         <v>43967</v>
       </c>
-      <c r="C69" s="443" t="s">
+      <c r="C69" s="451" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="443" t="s">
+      <c r="D69" s="451" t="s">
         <v>106</v>
       </c>
-      <c r="E69" s="443" t="s">
+      <c r="E69" s="451" t="s">
         <v>108</v>
       </c>
       <c r="F69" s="371" t="s">
@@ -9917,10 +9943,10 @@
         <v>455000</v>
       </c>
       <c r="I69" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4550000</v>
       </c>
-      <c r="J69" s="451">
+      <c r="J69" s="483">
         <v>150000</v>
       </c>
       <c r="K69" s="373">
@@ -9939,11 +9965,11 @@
       <c r="P69" s="371"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="444"/>
-      <c r="B70" s="454"/>
-      <c r="C70" s="444"/>
-      <c r="D70" s="444"/>
-      <c r="E70" s="444"/>
+      <c r="A70" s="452"/>
+      <c r="B70" s="460"/>
+      <c r="C70" s="452"/>
+      <c r="D70" s="452"/>
+      <c r="E70" s="452"/>
       <c r="F70" s="371" t="s">
         <v>37</v>
       </c>
@@ -9954,31 +9980,31 @@
         <v>465000</v>
       </c>
       <c r="I70" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7440000</v>
       </c>
-      <c r="J70" s="452"/>
+      <c r="J70" s="484"/>
       <c r="K70" s="373">
         <v>0.41</v>
       </c>
       <c r="L70" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4389600.0000000009</v>
       </c>
       <c r="M70" s="372"/>
       <c r="N70" s="372">
-        <f t="shared" ref="N70:N71" si="13">L70</f>
+        <f t="shared" ref="N70:N71" si="14">L70</f>
         <v>4389600.0000000009</v>
       </c>
       <c r="O70" s="372"/>
       <c r="P70" s="371"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="445"/>
-      <c r="B71" s="447"/>
-      <c r="C71" s="445"/>
-      <c r="D71" s="445"/>
-      <c r="E71" s="445"/>
+      <c r="A71" s="453"/>
+      <c r="B71" s="455"/>
+      <c r="C71" s="453"/>
+      <c r="D71" s="453"/>
+      <c r="E71" s="453"/>
       <c r="F71" s="371" t="s">
         <v>38</v>
       </c>
@@ -9989,20 +10015,20 @@
         <v>550000</v>
       </c>
       <c r="I71" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3300000</v>
       </c>
-      <c r="J71" s="453"/>
+      <c r="J71" s="485"/>
       <c r="K71" s="373">
         <v>0.41</v>
       </c>
       <c r="L71" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1947000.0000000002</v>
       </c>
       <c r="M71" s="372"/>
       <c r="N71" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1947000.0000000002</v>
       </c>
       <c r="O71" s="372"/>
@@ -10034,7 +10060,7 @@
         <v>485000</v>
       </c>
       <c r="I72" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5820000</v>
       </c>
       <c r="J72" s="372"/>
@@ -10042,31 +10068,29 @@
         <v>0.41</v>
       </c>
       <c r="L72" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3433800.0000000005</v>
       </c>
       <c r="M72" s="372"/>
-      <c r="N72" s="372"/>
-      <c r="O72" s="372">
-        <f>L72</f>
+      <c r="N72" s="372">
+        <f t="shared" ref="N72:N77" si="15">L72</f>
         <v>3433800.0000000005</v>
       </c>
+      <c r="O72" s="372"/>
       <c r="P72" s="371"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="443">
+      <c r="A73" s="451">
         <v>530</v>
       </c>
-      <c r="B73" s="446">
+      <c r="B73" s="454">
         <v>43968</v>
       </c>
-      <c r="C73" s="443" t="s">
-        <v>105</v>
-      </c>
-      <c r="D73" s="455" t="s">
+      <c r="C73" s="451"/>
+      <c r="D73" s="461" t="s">
         <v>113</v>
       </c>
-      <c r="E73" s="455" t="s">
+      <c r="E73" s="461" t="s">
         <v>114</v>
       </c>
       <c r="F73" s="371" t="s">
@@ -10079,10 +10103,10 @@
         <v>455000</v>
       </c>
       <c r="I73" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16380000</v>
       </c>
-      <c r="J73" s="451">
+      <c r="J73" s="483">
         <v>350000</v>
       </c>
       <c r="K73" s="373">
@@ -10093,19 +10117,19 @@
         <v>9314200.0000000019</v>
       </c>
       <c r="M73" s="372"/>
-      <c r="N73" s="372"/>
-      <c r="O73" s="372">
-        <f>L73</f>
+      <c r="N73" s="372">
+        <f t="shared" si="15"/>
         <v>9314200.0000000019</v>
       </c>
+      <c r="O73" s="372"/>
       <c r="P73" s="371"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="444"/>
-      <c r="B74" s="454"/>
-      <c r="C74" s="444"/>
-      <c r="D74" s="456"/>
-      <c r="E74" s="456"/>
+      <c r="A74" s="452"/>
+      <c r="B74" s="460"/>
+      <c r="C74" s="452"/>
+      <c r="D74" s="462"/>
+      <c r="E74" s="462"/>
       <c r="F74" s="371" t="s">
         <v>37</v>
       </c>
@@ -10116,31 +10140,31 @@
         <v>465000</v>
       </c>
       <c r="I74" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11160000</v>
       </c>
-      <c r="J74" s="452"/>
+      <c r="J74" s="484"/>
       <c r="K74" s="373">
         <v>0.41</v>
       </c>
       <c r="L74" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6584400.0000000009</v>
       </c>
       <c r="M74" s="372"/>
-      <c r="N74" s="372"/>
-      <c r="O74" s="372">
-        <f t="shared" ref="O74:O76" si="14">L74</f>
+      <c r="N74" s="372">
+        <f t="shared" si="15"/>
         <v>6584400.0000000009</v>
       </c>
+      <c r="O74" s="372"/>
       <c r="P74" s="371"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="444"/>
-      <c r="B75" s="454"/>
-      <c r="C75" s="444"/>
-      <c r="D75" s="456"/>
-      <c r="E75" s="456"/>
+      <c r="A75" s="452"/>
+      <c r="B75" s="460"/>
+      <c r="C75" s="452"/>
+      <c r="D75" s="462"/>
+      <c r="E75" s="462"/>
       <c r="F75" s="371" t="s">
         <v>42</v>
       </c>
@@ -10151,31 +10175,31 @@
         <v>485000</v>
       </c>
       <c r="I75" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5820000</v>
       </c>
-      <c r="J75" s="452"/>
+      <c r="J75" s="484"/>
       <c r="K75" s="373">
         <v>0.41</v>
       </c>
       <c r="L75" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3433800.0000000005</v>
       </c>
       <c r="M75" s="372"/>
-      <c r="N75" s="372"/>
-      <c r="O75" s="372">
-        <f t="shared" si="14"/>
+      <c r="N75" s="372">
+        <f t="shared" si="15"/>
         <v>3433800.0000000005</v>
       </c>
+      <c r="O75" s="372"/>
       <c r="P75" s="371"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="445"/>
-      <c r="B76" s="447"/>
-      <c r="C76" s="445"/>
-      <c r="D76" s="457"/>
-      <c r="E76" s="457"/>
+      <c r="A76" s="453"/>
+      <c r="B76" s="455"/>
+      <c r="C76" s="453"/>
+      <c r="D76" s="463"/>
+      <c r="E76" s="463"/>
       <c r="F76" s="371" t="s">
         <v>41</v>
       </c>
@@ -10186,23 +10210,23 @@
         <v>485000</v>
       </c>
       <c r="I76" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5820000</v>
       </c>
-      <c r="J76" s="453"/>
+      <c r="J76" s="485"/>
       <c r="K76" s="373">
         <v>0.41</v>
       </c>
       <c r="L76" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3433800.0000000005</v>
       </c>
       <c r="M76" s="372"/>
-      <c r="N76" s="372"/>
-      <c r="O76" s="372">
-        <f t="shared" si="14"/>
+      <c r="N76" s="372">
+        <f t="shared" si="15"/>
         <v>3433800.0000000005</v>
       </c>
+      <c r="O76" s="372"/>
       <c r="P76" s="371"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -10231,7 +10255,7 @@
         <v>465000</v>
       </c>
       <c r="I77" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>465000</v>
       </c>
       <c r="J77" s="372"/>
@@ -10239,12 +10263,12 @@
         <v>0.41</v>
       </c>
       <c r="L77" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>274350.00000000006</v>
       </c>
       <c r="M77" s="372"/>
       <c r="N77" s="372">
-        <f>L77</f>
+        <f t="shared" si="15"/>
         <v>274350.00000000006</v>
       </c>
       <c r="O77" s="372"/>
@@ -10253,19 +10277,19 @@
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="443">
+      <c r="A78" s="451">
         <v>532</v>
       </c>
-      <c r="B78" s="446">
+      <c r="B78" s="454">
         <v>43969</v>
       </c>
-      <c r="C78" s="443" t="s">
+      <c r="C78" s="451" t="s">
         <v>107</v>
       </c>
-      <c r="D78" s="443" t="s">
+      <c r="D78" s="451" t="s">
         <v>106</v>
       </c>
-      <c r="E78" s="443" t="s">
+      <c r="E78" s="451" t="s">
         <v>108</v>
       </c>
       <c r="F78" s="371" t="s">
@@ -10278,7 +10302,7 @@
         <v>255000</v>
       </c>
       <c r="I78" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>510000</v>
       </c>
       <c r="J78" s="372"/>
@@ -10286,12 +10310,12 @@
         <v>0.41</v>
       </c>
       <c r="L78" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>300900.00000000006</v>
       </c>
       <c r="M78" s="372"/>
       <c r="N78" s="372">
-        <f t="shared" ref="N78:N79" si="15">L78</f>
+        <f t="shared" ref="N78:N79" si="16">L78</f>
         <v>300900.00000000006</v>
       </c>
       <c r="O78" s="372"/>
@@ -10300,11 +10324,11 @@
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="445"/>
-      <c r="B79" s="447"/>
-      <c r="C79" s="445"/>
-      <c r="D79" s="445"/>
-      <c r="E79" s="445"/>
+      <c r="A79" s="453"/>
+      <c r="B79" s="455"/>
+      <c r="C79" s="453"/>
+      <c r="D79" s="453"/>
+      <c r="E79" s="453"/>
       <c r="F79" s="371" t="s">
         <v>40</v>
       </c>
@@ -10315,7 +10339,7 @@
         <v>475000</v>
       </c>
       <c r="I79" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>475000</v>
       </c>
       <c r="J79" s="372"/>
@@ -10323,12 +10347,12 @@
         <v>0.41</v>
       </c>
       <c r="L79" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>280250.00000000006</v>
       </c>
       <c r="M79" s="372"/>
       <c r="N79" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>280250.00000000006</v>
       </c>
       <c r="O79" s="372"/>
@@ -10337,19 +10361,19 @@
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="443">
+      <c r="A80" s="451">
         <v>533</v>
       </c>
-      <c r="B80" s="446">
+      <c r="B80" s="454">
         <v>43969</v>
       </c>
-      <c r="C80" s="443" t="s">
+      <c r="C80" s="451" t="s">
         <v>107</v>
       </c>
-      <c r="D80" s="443" t="s">
+      <c r="D80" s="451" t="s">
         <v>162</v>
       </c>
-      <c r="E80" s="443" t="s">
+      <c r="E80" s="451" t="s">
         <v>163</v>
       </c>
       <c r="F80" s="371" t="s">
@@ -10362,7 +10386,7 @@
         <v>465000</v>
       </c>
       <c r="I80" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>465000</v>
       </c>
       <c r="J80" s="372"/>
@@ -10370,12 +10394,12 @@
         <v>0.41</v>
       </c>
       <c r="L80" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>274350.00000000006</v>
       </c>
       <c r="M80" s="372"/>
       <c r="N80" s="372">
-        <f t="shared" ref="N80:N85" si="16">L80</f>
+        <f t="shared" ref="N80:N85" si="17">L80</f>
         <v>274350.00000000006</v>
       </c>
       <c r="O80" s="372"/>
@@ -10384,11 +10408,11 @@
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="445"/>
-      <c r="B81" s="447"/>
-      <c r="C81" s="445"/>
-      <c r="D81" s="445"/>
-      <c r="E81" s="445"/>
+      <c r="A81" s="453"/>
+      <c r="B81" s="455"/>
+      <c r="C81" s="453"/>
+      <c r="D81" s="453"/>
+      <c r="E81" s="453"/>
       <c r="F81" s="371" t="s">
         <v>40</v>
       </c>
@@ -10399,7 +10423,7 @@
         <v>475000</v>
       </c>
       <c r="I81" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>475000</v>
       </c>
       <c r="J81" s="372"/>
@@ -10407,12 +10431,12 @@
         <v>0.41</v>
       </c>
       <c r="L81" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>280250.00000000006</v>
       </c>
       <c r="M81" s="372"/>
       <c r="N81" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>280250.00000000006</v>
       </c>
       <c r="O81" s="372"/>
@@ -10446,7 +10470,7 @@
         <v>455000</v>
       </c>
       <c r="I82" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2275000</v>
       </c>
       <c r="J82" s="372"/>
@@ -10454,12 +10478,12 @@
         <v>0.41</v>
       </c>
       <c r="L82" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1342250.0000000002</v>
       </c>
       <c r="M82" s="372"/>
       <c r="N82" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1342250.0000000002</v>
       </c>
       <c r="O82" s="372"/>
@@ -10491,23 +10515,23 @@
         <v>455000</v>
       </c>
       <c r="I83" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5460000</v>
       </c>
       <c r="J83" s="372" t="s">
         <v>248</v>
       </c>
       <c r="K83" s="373">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="L83" s="372">
-        <f t="shared" si="12"/>
-        <v>3549000</v>
+        <f t="shared" si="13"/>
+        <v>3221400.0000000005</v>
       </c>
       <c r="M83" s="372"/>
       <c r="N83" s="372">
-        <f t="shared" si="16"/>
-        <v>3549000</v>
+        <f t="shared" si="17"/>
+        <v>3221400.0000000005</v>
       </c>
       <c r="O83" s="372"/>
       <c r="P83" s="371"/>
@@ -10538,7 +10562,7 @@
         <v>550000</v>
       </c>
       <c r="I84" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>550000</v>
       </c>
       <c r="J84" s="372"/>
@@ -10546,12 +10570,12 @@
         <v>0.41</v>
       </c>
       <c r="L84" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>324500.00000000006</v>
       </c>
       <c r="M84" s="372"/>
       <c r="N84" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>324500.00000000006</v>
       </c>
       <c r="O84" s="372"/>
@@ -10585,7 +10609,7 @@
         <v>455000</v>
       </c>
       <c r="I85" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>910000</v>
       </c>
       <c r="J85" s="372"/>
@@ -10593,12 +10617,12 @@
         <v>0.41</v>
       </c>
       <c r="L85" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>536900.00000000012</v>
       </c>
       <c r="M85" s="372"/>
       <c r="N85" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>536900.00000000012</v>
       </c>
       <c r="O85" s="372"/>
@@ -10607,19 +10631,17 @@
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="443">
+      <c r="A86" s="451">
         <v>541</v>
       </c>
-      <c r="B86" s="440">
+      <c r="B86" s="448">
         <v>43971</v>
       </c>
-      <c r="C86" s="443" t="s">
-        <v>105</v>
-      </c>
-      <c r="D86" s="443" t="s">
+      <c r="C86" s="451"/>
+      <c r="D86" s="451" t="s">
         <v>249</v>
       </c>
-      <c r="E86" s="443" t="s">
+      <c r="E86" s="451" t="s">
         <v>250</v>
       </c>
       <c r="F86" s="371" t="s">
@@ -10632,7 +10654,7 @@
         <v>455000</v>
       </c>
       <c r="I86" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>455000</v>
       </c>
       <c r="J86" s="372"/>
@@ -10640,7 +10662,7 @@
         <v>0.5</v>
       </c>
       <c r="L86" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>227500</v>
       </c>
       <c r="M86" s="372">
@@ -10652,11 +10674,11 @@
       <c r="P86" s="371"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="444"/>
-      <c r="B87" s="441"/>
-      <c r="C87" s="444"/>
-      <c r="D87" s="444"/>
-      <c r="E87" s="444"/>
+      <c r="A87" s="452"/>
+      <c r="B87" s="449"/>
+      <c r="C87" s="452"/>
+      <c r="D87" s="452"/>
+      <c r="E87" s="452"/>
       <c r="F87" s="371" t="s">
         <v>37</v>
       </c>
@@ -10667,7 +10689,7 @@
         <v>465000</v>
       </c>
       <c r="I87" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>465000</v>
       </c>
       <c r="J87" s="372"/>
@@ -10675,11 +10697,11 @@
         <v>0.5</v>
       </c>
       <c r="L87" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>232500</v>
       </c>
       <c r="M87" s="372">
-        <f t="shared" ref="M87:M92" si="17">L87</f>
+        <f t="shared" ref="M87:M92" si="18">L87</f>
         <v>232500</v>
       </c>
       <c r="N87" s="372"/>
@@ -10687,11 +10709,11 @@
       <c r="P87" s="371"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="444"/>
-      <c r="B88" s="441"/>
-      <c r="C88" s="444"/>
-      <c r="D88" s="444"/>
-      <c r="E88" s="444"/>
+      <c r="A88" s="452"/>
+      <c r="B88" s="449"/>
+      <c r="C88" s="452"/>
+      <c r="D88" s="452"/>
+      <c r="E88" s="452"/>
       <c r="F88" s="371" t="s">
         <v>40</v>
       </c>
@@ -10702,7 +10724,7 @@
         <v>475000</v>
       </c>
       <c r="I88" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>475000</v>
       </c>
       <c r="J88" s="372"/>
@@ -10710,11 +10732,11 @@
         <v>0.5</v>
       </c>
       <c r="L88" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>237500</v>
       </c>
       <c r="M88" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>237500</v>
       </c>
       <c r="N88" s="372"/>
@@ -10722,11 +10744,11 @@
       <c r="P88" s="371"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="444"/>
-      <c r="B89" s="441"/>
-      <c r="C89" s="444"/>
-      <c r="D89" s="444"/>
-      <c r="E89" s="444"/>
+      <c r="A89" s="452"/>
+      <c r="B89" s="449"/>
+      <c r="C89" s="452"/>
+      <c r="D89" s="452"/>
+      <c r="E89" s="452"/>
       <c r="F89" s="371" t="s">
         <v>42</v>
       </c>
@@ -10737,7 +10759,7 @@
         <v>485000</v>
       </c>
       <c r="I89" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>485000</v>
       </c>
       <c r="J89" s="372"/>
@@ -10745,11 +10767,11 @@
         <v>0.5</v>
       </c>
       <c r="L89" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>242500</v>
       </c>
       <c r="M89" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>242500</v>
       </c>
       <c r="N89" s="372"/>
@@ -10757,11 +10779,11 @@
       <c r="P89" s="371"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="444"/>
-      <c r="B90" s="441"/>
-      <c r="C90" s="444"/>
-      <c r="D90" s="444"/>
-      <c r="E90" s="444"/>
+      <c r="A90" s="452"/>
+      <c r="B90" s="449"/>
+      <c r="C90" s="452"/>
+      <c r="D90" s="452"/>
+      <c r="E90" s="452"/>
       <c r="F90" s="371" t="s">
         <v>131</v>
       </c>
@@ -10772,7 +10794,7 @@
         <v>285000</v>
       </c>
       <c r="I90" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>285000</v>
       </c>
       <c r="J90" s="372"/>
@@ -10780,11 +10802,11 @@
         <v>0.5</v>
       </c>
       <c r="L90" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>142500</v>
       </c>
       <c r="M90" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>142500</v>
       </c>
       <c r="N90" s="372"/>
@@ -10792,11 +10814,11 @@
       <c r="P90" s="371"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="444"/>
-      <c r="B91" s="441"/>
-      <c r="C91" s="444"/>
-      <c r="D91" s="444"/>
-      <c r="E91" s="444"/>
+      <c r="A91" s="452"/>
+      <c r="B91" s="449"/>
+      <c r="C91" s="452"/>
+      <c r="D91" s="452"/>
+      <c r="E91" s="452"/>
       <c r="F91" s="371" t="s">
         <v>38</v>
       </c>
@@ -10807,7 +10829,7 @@
         <v>550000</v>
       </c>
       <c r="I91" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>550000</v>
       </c>
       <c r="J91" s="372"/>
@@ -10815,11 +10837,11 @@
         <v>0.5</v>
       </c>
       <c r="L91" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>275000</v>
       </c>
       <c r="M91" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>275000</v>
       </c>
       <c r="N91" s="372"/>
@@ -10827,11 +10849,11 @@
       <c r="P91" s="371"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="445"/>
-      <c r="B92" s="442"/>
-      <c r="C92" s="445"/>
-      <c r="D92" s="445"/>
-      <c r="E92" s="445"/>
+      <c r="A92" s="453"/>
+      <c r="B92" s="450"/>
+      <c r="C92" s="453"/>
+      <c r="D92" s="453"/>
+      <c r="E92" s="453"/>
       <c r="F92" s="371" t="s">
         <v>39</v>
       </c>
@@ -10842,7 +10864,7 @@
         <v>455000</v>
       </c>
       <c r="I92" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>455000</v>
       </c>
       <c r="J92" s="372"/>
@@ -10850,11 +10872,11 @@
         <v>0.5</v>
       </c>
       <c r="L92" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>227500</v>
       </c>
       <c r="M92" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>227500</v>
       </c>
       <c r="N92" s="372"/>
@@ -10885,7 +10907,7 @@
         <v>450000</v>
       </c>
       <c r="I93" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>450000</v>
       </c>
       <c r="J93" s="372"/>
@@ -10893,7 +10915,7 @@
         <v>1</v>
       </c>
       <c r="L93" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M93" s="372"/>
@@ -10902,19 +10924,19 @@
       <c r="P93" s="371"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="443">
+      <c r="A94" s="451">
         <v>549</v>
       </c>
-      <c r="B94" s="440">
+      <c r="B94" s="448">
         <v>43974</v>
       </c>
-      <c r="C94" s="443" t="s">
+      <c r="C94" s="451" t="s">
         <v>105</v>
       </c>
-      <c r="D94" s="443" t="s">
+      <c r="D94" s="451" t="s">
         <v>267</v>
       </c>
-      <c r="E94" s="443" t="s">
+      <c r="E94" s="451" t="s">
         <v>268</v>
       </c>
       <c r="F94" s="371" t="s">
@@ -10927,7 +10949,7 @@
         <v>475000</v>
       </c>
       <c r="I94" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2850000</v>
       </c>
       <c r="J94" s="372"/>
@@ -10935,7 +10957,7 @@
         <v>0.41</v>
       </c>
       <c r="L94" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1681500.0000000002</v>
       </c>
       <c r="M94" s="372">
@@ -10947,11 +10969,11 @@
       <c r="P94" s="371"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="445"/>
-      <c r="B95" s="442"/>
-      <c r="C95" s="445"/>
-      <c r="D95" s="445"/>
-      <c r="E95" s="445"/>
+      <c r="A95" s="453"/>
+      <c r="B95" s="450"/>
+      <c r="C95" s="453"/>
+      <c r="D95" s="453"/>
+      <c r="E95" s="453"/>
       <c r="F95" s="371" t="s">
         <v>42</v>
       </c>
@@ -10962,7 +10984,7 @@
         <v>485000</v>
       </c>
       <c r="I95" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2910000</v>
       </c>
       <c r="J95" s="372"/>
@@ -10970,7 +10992,7 @@
         <v>0.41</v>
       </c>
       <c r="L95" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1716900.0000000002</v>
       </c>
       <c r="M95" s="372">
@@ -10982,19 +11004,17 @@
       <c r="P95" s="371"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="443">
+      <c r="A96" s="451">
         <v>565</v>
       </c>
-      <c r="B96" s="440">
+      <c r="B96" s="448">
         <v>43976</v>
       </c>
-      <c r="C96" s="443" t="s">
-        <v>105</v>
-      </c>
-      <c r="D96" s="443" t="s">
+      <c r="C96" s="451"/>
+      <c r="D96" s="451" t="s">
         <v>271</v>
       </c>
-      <c r="E96" s="443"/>
+      <c r="E96" s="451"/>
       <c r="F96" s="371" t="s">
         <v>36</v>
       </c>
@@ -11005,7 +11025,7 @@
         <v>455000</v>
       </c>
       <c r="I96" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>27300000</v>
       </c>
       <c r="J96" s="372"/>
@@ -11013,7 +11033,7 @@
         <v>0.38</v>
       </c>
       <c r="L96" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16926000</v>
       </c>
       <c r="M96" s="372"/>
@@ -11025,11 +11045,11 @@
       <c r="P96" s="371"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="444"/>
-      <c r="B97" s="441"/>
-      <c r="C97" s="444"/>
-      <c r="D97" s="444"/>
-      <c r="E97" s="444"/>
+      <c r="A97" s="452"/>
+      <c r="B97" s="449"/>
+      <c r="C97" s="452"/>
+      <c r="D97" s="452"/>
+      <c r="E97" s="452"/>
       <c r="F97" s="371" t="s">
         <v>37</v>
       </c>
@@ -11040,7 +11060,7 @@
         <v>465000</v>
       </c>
       <c r="I97" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>22320000</v>
       </c>
       <c r="J97" s="372"/>
@@ -11048,23 +11068,23 @@
         <v>0.38</v>
       </c>
       <c r="L97" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13838400</v>
       </c>
       <c r="M97" s="372"/>
       <c r="N97" s="372"/>
       <c r="O97" s="372">
-        <f t="shared" ref="O97:O98" si="18">L97</f>
+        <f t="shared" ref="O97:O98" si="19">L97</f>
         <v>13838400</v>
       </c>
       <c r="P97" s="371"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="445"/>
-      <c r="B98" s="442"/>
-      <c r="C98" s="445"/>
-      <c r="D98" s="445"/>
-      <c r="E98" s="445"/>
+      <c r="A98" s="453"/>
+      <c r="B98" s="450"/>
+      <c r="C98" s="453"/>
+      <c r="D98" s="453"/>
+      <c r="E98" s="453"/>
       <c r="F98" s="371" t="s">
         <v>40</v>
       </c>
@@ -11075,7 +11095,7 @@
         <v>475000</v>
       </c>
       <c r="I98" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17100000</v>
       </c>
       <c r="J98" s="372"/>
@@ -11083,31 +11103,29 @@
         <v>0.38</v>
       </c>
       <c r="L98" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10602000</v>
       </c>
       <c r="M98" s="372"/>
       <c r="N98" s="372"/>
       <c r="O98" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10602000</v>
       </c>
       <c r="P98" s="371"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="371">
+      <c r="A99" s="451">
         <v>555</v>
       </c>
-      <c r="B99" s="375">
+      <c r="B99" s="448">
         <v>43976</v>
       </c>
-      <c r="C99" s="371" t="s">
-        <v>105</v>
-      </c>
-      <c r="D99" s="371" t="s">
+      <c r="C99" s="451"/>
+      <c r="D99" s="451" t="s">
         <v>272</v>
       </c>
-      <c r="E99" s="371" t="s">
+      <c r="E99" s="451" t="s">
         <v>108</v>
       </c>
       <c r="F99" s="371" t="s">
@@ -11120,7 +11138,7 @@
         <v>225000</v>
       </c>
       <c r="I99" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5400000</v>
       </c>
       <c r="J99" s="372">
@@ -11134,19 +11152,19 @@
         <v>3086000.0000000005</v>
       </c>
       <c r="M99" s="372"/>
-      <c r="N99" s="372"/>
-      <c r="O99" s="372">
+      <c r="N99" s="372">
         <f>L99</f>
         <v>3086000.0000000005</v>
       </c>
+      <c r="O99" s="372"/>
       <c r="P99" s="371"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="371"/>
-      <c r="B100" s="375"/>
-      <c r="C100" s="371"/>
-      <c r="D100" s="371"/>
-      <c r="E100" s="371"/>
+      <c r="A100" s="453"/>
+      <c r="B100" s="450"/>
+      <c r="C100" s="453"/>
+      <c r="D100" s="453"/>
+      <c r="E100" s="453"/>
       <c r="F100" s="371" t="s">
         <v>39</v>
       </c>
@@ -11157,7 +11175,7 @@
         <v>455000</v>
       </c>
       <c r="I100" s="372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5460000</v>
       </c>
       <c r="J100" s="372"/>
@@ -11165,26 +11183,26 @@
         <v>0.41</v>
       </c>
       <c r="L100" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3221400.0000000005</v>
       </c>
       <c r="M100" s="372"/>
-      <c r="N100" s="372"/>
-      <c r="O100" s="372">
+      <c r="N100" s="372">
         <f>L100</f>
         <v>3221400.0000000005</v>
       </c>
+      <c r="O100" s="372"/>
       <c r="P100" s="371"/>
     </row>
     <row r="101" spans="1:16" s="176" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="470" t="s">
+      <c r="A101" s="475" t="s">
         <v>96</v>
       </c>
-      <c r="B101" s="470"/>
-      <c r="C101" s="470"/>
-      <c r="D101" s="470"/>
-      <c r="E101" s="470"/>
-      <c r="F101" s="470"/>
+      <c r="B101" s="475"/>
+      <c r="C101" s="475"/>
+      <c r="D101" s="475"/>
+      <c r="E101" s="475"/>
+      <c r="F101" s="475"/>
       <c r="G101" s="171">
         <f>SUM(G9:G100)</f>
         <v>1127</v>
@@ -11198,22 +11216,22 @@
       <c r="K101" s="173"/>
       <c r="L101" s="175">
         <f>SUM(L9:L100)</f>
-        <v>267866400</v>
+        <v>266945700</v>
       </c>
       <c r="M101" s="172"/>
       <c r="N101" s="172"/>
       <c r="O101" s="172"/>
-      <c r="P101" s="474"/>
+      <c r="P101" s="479"/>
     </row>
     <row r="102" spans="1:16" s="176" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="458" t="s">
+      <c r="A102" s="459" t="s">
         <v>126</v>
       </c>
-      <c r="B102" s="458"/>
-      <c r="C102" s="458"/>
-      <c r="D102" s="458"/>
-      <c r="E102" s="458"/>
-      <c r="F102" s="458"/>
+      <c r="B102" s="459"/>
+      <c r="C102" s="459"/>
+      <c r="D102" s="459"/>
+      <c r="E102" s="459"/>
+      <c r="F102" s="459"/>
       <c r="G102" s="171">
         <f>G101</f>
         <v>1127</v>
@@ -11224,22 +11242,22 @@
       <c r="K102" s="173"/>
       <c r="L102" s="175">
         <f>L101</f>
-        <v>267866400</v>
+        <v>266945700</v>
       </c>
       <c r="M102" s="174"/>
       <c r="N102" s="174"/>
       <c r="O102" s="174"/>
-      <c r="P102" s="474"/>
+      <c r="P102" s="479"/>
     </row>
     <row r="103" spans="1:16" s="176" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="458" t="s">
+      <c r="A103" s="459" t="s">
         <v>97</v>
       </c>
-      <c r="B103" s="458"/>
-      <c r="C103" s="458"/>
-      <c r="D103" s="458"/>
-      <c r="E103" s="458"/>
-      <c r="F103" s="458"/>
+      <c r="B103" s="459"/>
+      <c r="C103" s="459"/>
+      <c r="D103" s="459"/>
+      <c r="E103" s="459"/>
+      <c r="F103" s="459"/>
       <c r="G103" s="363" t="s">
         <v>57</v>
       </c>
@@ -11249,21 +11267,21 @@
       <c r="K103" s="174"/>
       <c r="L103" s="175">
         <f>SUM(M9:M100)</f>
-        <v>8683400</v>
+        <v>6092600</v>
       </c>
       <c r="M103" s="174"/>
       <c r="N103" s="174"/>
       <c r="O103" s="174"/>
     </row>
     <row r="104" spans="1:16" s="176" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="458" t="s">
+      <c r="A104" s="459" t="s">
         <v>98</v>
       </c>
-      <c r="B104" s="458"/>
-      <c r="C104" s="458"/>
-      <c r="D104" s="458"/>
-      <c r="E104" s="458"/>
-      <c r="F104" s="458"/>
+      <c r="B104" s="459"/>
+      <c r="C104" s="459"/>
+      <c r="D104" s="459"/>
+      <c r="E104" s="459"/>
+      <c r="F104" s="459"/>
       <c r="G104" s="363"/>
       <c r="H104" s="174"/>
       <c r="I104" s="172"/>
@@ -11271,43 +11289,43 @@
       <c r="K104" s="173"/>
       <c r="L104" s="175">
         <f>SUM(N9:N100)</f>
-        <v>30687750</v>
+        <v>85795800</v>
       </c>
       <c r="M104" s="174"/>
       <c r="N104" s="174"/>
       <c r="O104" s="174"/>
     </row>
     <row r="105" spans="1:16" s="417" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="448" t="s">
+      <c r="A105" s="456" t="s">
         <v>102</v>
       </c>
-      <c r="B105" s="449"/>
-      <c r="C105" s="449"/>
-      <c r="D105" s="449"/>
-      <c r="E105" s="449"/>
-      <c r="F105" s="450"/>
+      <c r="B105" s="457"/>
+      <c r="C105" s="457"/>
+      <c r="D105" s="457"/>
+      <c r="E105" s="457"/>
+      <c r="F105" s="458"/>
       <c r="G105" s="418"/>
       <c r="H105" s="174"/>
       <c r="I105" s="172"/>
       <c r="J105" s="174"/>
       <c r="K105" s="173"/>
       <c r="L105" s="175">
-        <f>'Hàng khách trả'!K22</f>
-        <v>93174950</v>
+        <f>'Hàng khách trả'!L22</f>
+        <v>92596850</v>
       </c>
       <c r="M105" s="174"/>
       <c r="N105" s="174"/>
       <c r="O105" s="174"/>
     </row>
     <row r="106" spans="1:16" s="176" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="458" t="s">
+      <c r="A106" s="459" t="s">
         <v>99</v>
       </c>
-      <c r="B106" s="458"/>
-      <c r="C106" s="458"/>
-      <c r="D106" s="458"/>
-      <c r="E106" s="458"/>
-      <c r="F106" s="458"/>
+      <c r="B106" s="459"/>
+      <c r="C106" s="459"/>
+      <c r="D106" s="459"/>
+      <c r="E106" s="459"/>
+      <c r="F106" s="459"/>
       <c r="G106" s="363"/>
       <c r="H106" s="174"/>
       <c r="I106" s="172"/>
@@ -11315,7 +11333,7 @@
       <c r="K106" s="173"/>
       <c r="L106" s="175">
         <f>SUM(O9:O100)-L105</f>
-        <v>135320300</v>
+        <v>74496650</v>
       </c>
       <c r="M106" s="174"/>
       <c r="N106" s="174"/>
@@ -11379,10 +11397,7 @@
       <c r="O113" s="398"/>
     </row>
   </sheetData>
-  <mergeCells count="139">
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
+  <mergeCells count="141">
     <mergeCell ref="E46:E47"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
@@ -11407,7 +11422,6 @@
     <mergeCell ref="B96:B98"/>
     <mergeCell ref="C96:C98"/>
     <mergeCell ref="D96:D98"/>
-    <mergeCell ref="M22:M24"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="J25:J27"/>
@@ -11418,8 +11432,16 @@
     <mergeCell ref="E22:E24"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="D25:D27"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="J73:J76"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="A106:F106"/>
     <mergeCell ref="A101:F101"/>
     <mergeCell ref="P101:P102"/>
@@ -11483,13 +11505,6 @@
     <mergeCell ref="P6:P8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="J73:J76"/>
     <mergeCell ref="A73:A76"/>
     <mergeCell ref="B73:B76"/>
     <mergeCell ref="C73:C76"/>
@@ -11519,6 +11534,11 @@
     <mergeCell ref="E96:E98"/>
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A103:F103"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="A99:A100"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.27" top="0.53" bottom="0.39" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -11526,6 +11546,803 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" style="291" customWidth="1"/>
+    <col min="2" max="3" width="11" style="89" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="89" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="89" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="89" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="89" customWidth="1"/>
+    <col min="9" max="9" width="12" style="89" customWidth="1"/>
+    <col min="10" max="10" width="14" style="89" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="116" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="146" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="89" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="89" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="89" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="89"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="405" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="406" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="508" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="508"/>
+      <c r="C3" s="508"/>
+      <c r="D3" s="508"/>
+      <c r="E3" s="508"/>
+      <c r="F3" s="508"/>
+      <c r="G3" s="508"/>
+      <c r="H3" s="508"/>
+      <c r="I3" s="508"/>
+      <c r="J3" s="508"/>
+      <c r="K3" s="508"/>
+      <c r="L3" s="508"/>
+      <c r="M3" s="508"/>
+      <c r="N3" s="508"/>
+      <c r="O3" s="508"/>
+      <c r="P3" s="508"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="509" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="509"/>
+      <c r="C4" s="509"/>
+      <c r="D4" s="509"/>
+      <c r="E4" s="509"/>
+      <c r="F4" s="509"/>
+      <c r="G4" s="509"/>
+      <c r="H4" s="509"/>
+      <c r="I4" s="509"/>
+      <c r="J4" s="509"/>
+      <c r="K4" s="510"/>
+      <c r="L4" s="509"/>
+      <c r="M4" s="509"/>
+      <c r="N4" s="509"/>
+      <c r="O4" s="509"/>
+      <c r="P4" s="509"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="511" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="513" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="522" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="515" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="516" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="516"/>
+      <c r="I5" s="516"/>
+      <c r="J5" s="516"/>
+      <c r="K5" s="517"/>
+      <c r="L5" s="518" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="516" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="516"/>
+      <c r="O5" s="516"/>
+      <c r="P5" s="520" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="512"/>
+      <c r="B6" s="514"/>
+      <c r="C6" s="523"/>
+      <c r="D6" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="274" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="275" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="276" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="519"/>
+      <c r="M6" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="521"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="290">
+        <v>465</v>
+      </c>
+      <c r="B7" s="162">
+        <v>43955</v>
+      </c>
+      <c r="C7" s="162"/>
+      <c r="D7" s="159" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="159" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="159">
+        <v>10</v>
+      </c>
+      <c r="I7" s="163">
+        <v>485000</v>
+      </c>
+      <c r="J7" s="163">
+        <f>H7*I7</f>
+        <v>4850000</v>
+      </c>
+      <c r="K7" s="161">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="160">
+        <f>J7*(1-K7)</f>
+        <v>2425000</v>
+      </c>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="164"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="499">
+        <v>1149</v>
+      </c>
+      <c r="B8" s="502">
+        <v>43987</v>
+      </c>
+      <c r="C8" s="652" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" s="489" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="486" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="489"/>
+      <c r="G8" s="259" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="259">
+        <v>10</v>
+      </c>
+      <c r="I8" s="260">
+        <v>265000</v>
+      </c>
+      <c r="J8" s="260">
+        <f t="shared" ref="J8:J20" si="0">H8*I8</f>
+        <v>2650000</v>
+      </c>
+      <c r="K8" s="261">
+        <v>0.41</v>
+      </c>
+      <c r="L8" s="262">
+        <f t="shared" ref="L8:L12" si="1">J8*(1-K8)</f>
+        <v>1563500.0000000002</v>
+      </c>
+      <c r="M8" s="259"/>
+      <c r="N8" s="259"/>
+      <c r="O8" s="259"/>
+      <c r="P8" s="263"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="500"/>
+      <c r="B9" s="503"/>
+      <c r="C9" s="653"/>
+      <c r="D9" s="490"/>
+      <c r="E9" s="487"/>
+      <c r="F9" s="490"/>
+      <c r="G9" s="264" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="264">
+        <v>14</v>
+      </c>
+      <c r="I9" s="265">
+        <v>275000</v>
+      </c>
+      <c r="J9" s="265">
+        <f t="shared" si="0"/>
+        <v>3850000</v>
+      </c>
+      <c r="K9" s="266">
+        <v>0.41</v>
+      </c>
+      <c r="L9" s="267">
+        <f t="shared" si="1"/>
+        <v>2271500.0000000005</v>
+      </c>
+      <c r="M9" s="264"/>
+      <c r="N9" s="264"/>
+      <c r="O9" s="264"/>
+      <c r="P9" s="268"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="501"/>
+      <c r="B10" s="504"/>
+      <c r="C10" s="654"/>
+      <c r="D10" s="491"/>
+      <c r="E10" s="488"/>
+      <c r="F10" s="491"/>
+      <c r="G10" s="269" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="269">
+        <v>11</v>
+      </c>
+      <c r="I10" s="270">
+        <v>285000</v>
+      </c>
+      <c r="J10" s="270">
+        <f t="shared" si="0"/>
+        <v>3135000</v>
+      </c>
+      <c r="K10" s="271">
+        <v>0.41</v>
+      </c>
+      <c r="L10" s="272">
+        <f t="shared" si="1"/>
+        <v>1849650.0000000002</v>
+      </c>
+      <c r="M10" s="269"/>
+      <c r="N10" s="269"/>
+      <c r="O10" s="269"/>
+      <c r="P10" s="273"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="290">
+        <v>516</v>
+      </c>
+      <c r="B11" s="162">
+        <v>43962</v>
+      </c>
+      <c r="C11" s="162"/>
+      <c r="D11" s="159" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="159">
+        <v>12</v>
+      </c>
+      <c r="I11" s="163">
+        <v>485000</v>
+      </c>
+      <c r="J11" s="163">
+        <f t="shared" si="0"/>
+        <v>5820000</v>
+      </c>
+      <c r="K11" s="161">
+        <v>0.35</v>
+      </c>
+      <c r="L11" s="160">
+        <f t="shared" si="1"/>
+        <v>3783000</v>
+      </c>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="159"/>
+      <c r="P11" s="164"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="290">
+        <v>534</v>
+      </c>
+      <c r="B12" s="162">
+        <v>43965</v>
+      </c>
+      <c r="C12" s="162"/>
+      <c r="D12" s="159" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="159">
+        <v>12</v>
+      </c>
+      <c r="I12" s="163">
+        <v>455000</v>
+      </c>
+      <c r="J12" s="163">
+        <f t="shared" si="0"/>
+        <v>5460000</v>
+      </c>
+      <c r="K12" s="161">
+        <v>0.43</v>
+      </c>
+      <c r="L12" s="160">
+        <f t="shared" si="1"/>
+        <v>3112200.0000000005</v>
+      </c>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="159"/>
+      <c r="P12" s="164"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="289">
+        <v>551</v>
+      </c>
+      <c r="B13" s="285">
+        <v>43974</v>
+      </c>
+      <c r="C13" s="285" t="s">
+        <v>323</v>
+      </c>
+      <c r="D13" s="281" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" s="277" t="s">
+        <v>268</v>
+      </c>
+      <c r="F13" s="277"/>
+      <c r="G13" s="277" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="277">
+        <v>12</v>
+      </c>
+      <c r="I13" s="286">
+        <v>485000</v>
+      </c>
+      <c r="J13" s="286">
+        <f t="shared" si="0"/>
+        <v>5820000</v>
+      </c>
+      <c r="K13" s="287">
+        <v>0.41</v>
+      </c>
+      <c r="L13" s="288">
+        <f>J13*(1-K13)</f>
+        <v>3433800.0000000005</v>
+      </c>
+      <c r="M13" s="277"/>
+      <c r="N13" s="277"/>
+      <c r="O13" s="277"/>
+      <c r="P13" s="277"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="499">
+        <v>552</v>
+      </c>
+      <c r="B14" s="495">
+        <v>43975</v>
+      </c>
+      <c r="C14" s="424"/>
+      <c r="D14" s="505" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" s="499" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="278"/>
+      <c r="G14" s="278" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="278">
+        <v>12</v>
+      </c>
+      <c r="I14" s="260">
+        <v>485000</v>
+      </c>
+      <c r="J14" s="260">
+        <f t="shared" si="0"/>
+        <v>5820000</v>
+      </c>
+      <c r="K14" s="261">
+        <v>0.38</v>
+      </c>
+      <c r="L14" s="262">
+        <f t="shared" ref="L14:L21" si="2">J14*(1-K14)</f>
+        <v>3608400</v>
+      </c>
+      <c r="M14" s="278"/>
+      <c r="N14" s="278"/>
+      <c r="O14" s="278"/>
+      <c r="P14" s="278"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="500"/>
+      <c r="B15" s="496"/>
+      <c r="C15" s="425"/>
+      <c r="D15" s="506"/>
+      <c r="E15" s="500"/>
+      <c r="F15" s="279"/>
+      <c r="G15" s="279" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="279">
+        <v>18</v>
+      </c>
+      <c r="I15" s="265">
+        <v>550000</v>
+      </c>
+      <c r="J15" s="265">
+        <f t="shared" si="0"/>
+        <v>9900000</v>
+      </c>
+      <c r="K15" s="266">
+        <v>0.38</v>
+      </c>
+      <c r="L15" s="267">
+        <f t="shared" si="2"/>
+        <v>6138000</v>
+      </c>
+      <c r="M15" s="279"/>
+      <c r="N15" s="279"/>
+      <c r="O15" s="279"/>
+      <c r="P15" s="279"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="500"/>
+      <c r="B16" s="496"/>
+      <c r="C16" s="425"/>
+      <c r="D16" s="506"/>
+      <c r="E16" s="500"/>
+      <c r="F16" s="279"/>
+      <c r="G16" s="279" t="s">
+        <v>252</v>
+      </c>
+      <c r="H16" s="279">
+        <v>46</v>
+      </c>
+      <c r="I16" s="265">
+        <v>450000</v>
+      </c>
+      <c r="J16" s="265">
+        <f t="shared" si="0"/>
+        <v>20700000</v>
+      </c>
+      <c r="K16" s="266">
+        <v>0.38</v>
+      </c>
+      <c r="L16" s="267">
+        <f t="shared" si="2"/>
+        <v>12834000</v>
+      </c>
+      <c r="M16" s="279"/>
+      <c r="N16" s="279"/>
+      <c r="O16" s="279"/>
+      <c r="P16" s="279"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="501"/>
+      <c r="B17" s="497"/>
+      <c r="C17" s="426"/>
+      <c r="D17" s="507"/>
+      <c r="E17" s="501"/>
+      <c r="F17" s="280"/>
+      <c r="G17" s="280" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="280">
+        <v>24</v>
+      </c>
+      <c r="I17" s="270">
+        <v>455000</v>
+      </c>
+      <c r="J17" s="270">
+        <f t="shared" si="0"/>
+        <v>10920000</v>
+      </c>
+      <c r="K17" s="271">
+        <v>0.38</v>
+      </c>
+      <c r="L17" s="272">
+        <f t="shared" si="2"/>
+        <v>6770400</v>
+      </c>
+      <c r="M17" s="280"/>
+      <c r="N17" s="280"/>
+      <c r="O17" s="280"/>
+      <c r="P17" s="280"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="499">
+        <v>553</v>
+      </c>
+      <c r="B18" s="495">
+        <v>43975</v>
+      </c>
+      <c r="C18" s="420"/>
+      <c r="D18" s="492" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18" s="278"/>
+      <c r="F18" s="278"/>
+      <c r="G18" s="278" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="278">
+        <v>48</v>
+      </c>
+      <c r="I18" s="260">
+        <v>550000</v>
+      </c>
+      <c r="J18" s="260">
+        <f t="shared" si="0"/>
+        <v>26400000</v>
+      </c>
+      <c r="K18" s="261">
+        <v>0.38</v>
+      </c>
+      <c r="L18" s="262">
+        <f t="shared" si="2"/>
+        <v>16368000</v>
+      </c>
+      <c r="M18" s="278"/>
+      <c r="N18" s="278"/>
+      <c r="O18" s="278"/>
+      <c r="P18" s="278"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="500"/>
+      <c r="B19" s="496"/>
+      <c r="C19" s="421"/>
+      <c r="D19" s="493"/>
+      <c r="E19" s="279"/>
+      <c r="F19" s="279"/>
+      <c r="G19" s="279" t="s">
+        <v>252</v>
+      </c>
+      <c r="H19" s="279">
+        <v>17</v>
+      </c>
+      <c r="I19" s="265">
+        <v>450000</v>
+      </c>
+      <c r="J19" s="265">
+        <f t="shared" si="0"/>
+        <v>7650000</v>
+      </c>
+      <c r="K19" s="266">
+        <v>0.38</v>
+      </c>
+      <c r="L19" s="267">
+        <f t="shared" si="2"/>
+        <v>4743000</v>
+      </c>
+      <c r="M19" s="279"/>
+      <c r="N19" s="279"/>
+      <c r="O19" s="279"/>
+      <c r="P19" s="279"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="501"/>
+      <c r="B20" s="497"/>
+      <c r="C20" s="422"/>
+      <c r="D20" s="494"/>
+      <c r="E20" s="280"/>
+      <c r="F20" s="280"/>
+      <c r="G20" s="280" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="280">
+        <v>84</v>
+      </c>
+      <c r="I20" s="270">
+        <v>455000</v>
+      </c>
+      <c r="J20" s="270">
+        <f t="shared" si="0"/>
+        <v>38220000</v>
+      </c>
+      <c r="K20" s="271">
+        <v>0.38</v>
+      </c>
+      <c r="L20" s="272">
+        <f t="shared" si="2"/>
+        <v>23696400</v>
+      </c>
+      <c r="M20" s="280"/>
+      <c r="N20" s="280"/>
+      <c r="O20" s="280"/>
+      <c r="P20" s="280"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="289"/>
+      <c r="B21" s="285"/>
+      <c r="C21" s="285"/>
+      <c r="D21" s="281"/>
+      <c r="E21" s="277"/>
+      <c r="F21" s="277"/>
+      <c r="G21" s="277"/>
+      <c r="H21" s="277"/>
+      <c r="I21" s="286"/>
+      <c r="J21" s="286"/>
+      <c r="K21" s="287"/>
+      <c r="L21" s="288">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="277"/>
+      <c r="N21" s="277"/>
+      <c r="O21" s="277"/>
+      <c r="P21" s="277"/>
+    </row>
+    <row r="22" spans="1:16" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="498" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="498"/>
+      <c r="C22" s="498"/>
+      <c r="D22" s="498"/>
+      <c r="E22" s="498"/>
+      <c r="F22" s="498"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149">
+        <f>SUM(H7:H20)</f>
+        <v>330</v>
+      </c>
+      <c r="I22" s="150">
+        <f>SUM(I7:I20)</f>
+        <v>6130000</v>
+      </c>
+      <c r="J22" s="150">
+        <f>SUM(J7:J20)</f>
+        <v>151195000</v>
+      </c>
+      <c r="K22" s="151"/>
+      <c r="L22" s="152">
+        <f>SUM(L7:L20)</f>
+        <v>92596850</v>
+      </c>
+      <c r="M22" s="149"/>
+      <c r="N22" s="149"/>
+      <c r="O22" s="149"/>
+      <c r="P22" s="149"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+    </row>
+    <row r="24" spans="1:16" s="256" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="292"/>
+      <c r="E24" s="282" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" s="239"/>
+      <c r="G24" s="239"/>
+      <c r="H24" s="239"/>
+      <c r="I24" s="239"/>
+      <c r="L24" s="282" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="256" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="292"/>
+      <c r="E25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="L25" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="L26" s="283"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="L27" s="283"/>
+    </row>
+    <row r="28" spans="1:16" s="131" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="133"/>
+      <c r="E28" s="239"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="L28" s="284"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="C8:C10"/>
+  </mergeCells>
+  <pageMargins left="0.36" right="0.2" top="0.48" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -11579,24 +12396,24 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="478" t="s">
+      <c r="A4" s="524" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="478"/>
-      <c r="C4" s="478"/>
-      <c r="D4" s="478"/>
-      <c r="E4" s="478"/>
+      <c r="B4" s="524"/>
+      <c r="C4" s="524"/>
+      <c r="D4" s="524"/>
+      <c r="E4" s="524"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="479" t="s">
+      <c r="A5" s="525" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="479"/>
-      <c r="C5" s="479"/>
-      <c r="D5" s="479"/>
-      <c r="E5" s="479"/>
+      <c r="B5" s="525"/>
+      <c r="C5" s="525"/>
+      <c r="D5" s="525"/>
+      <c r="E5" s="525"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
@@ -11641,7 +12458,7 @@
       </c>
       <c r="D8" s="79">
         <f>'DOANH THU'!L102</f>
-        <v>267866400</v>
+        <v>266945700</v>
       </c>
       <c r="E8" s="78"/>
       <c r="F8" s="70"/>
@@ -11657,7 +12474,7 @@
       <c r="C9" s="81"/>
       <c r="D9" s="82">
         <f>'DOANH THU'!L103</f>
-        <v>8683400</v>
+        <v>6092600</v>
       </c>
       <c r="E9" s="81"/>
       <c r="F9" s="70"/>
@@ -11673,7 +12490,7 @@
       <c r="C10" s="81"/>
       <c r="D10" s="82">
         <f>'DOANH THU'!L104</f>
-        <v>30687750</v>
+        <v>85795800</v>
       </c>
       <c r="E10" s="81"/>
       <c r="F10" s="70"/>
@@ -11686,8 +12503,8 @@
       </c>
       <c r="C11" s="156"/>
       <c r="D11" s="155">
-        <f>'Hàng khách trả'!K22</f>
-        <v>93174950</v>
+        <f>'Hàng khách trả'!L22</f>
+        <v>92596850</v>
       </c>
       <c r="E11" s="148"/>
       <c r="F11" s="70"/>
@@ -11701,7 +12518,7 @@
       <c r="C12" s="86"/>
       <c r="D12" s="87">
         <f>D8-D9-D10-D11</f>
-        <v>135320300</v>
+        <v>82460450</v>
       </c>
       <c r="E12" s="84"/>
       <c r="F12" s="70"/>
@@ -11868,10 +12685,10 @@
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="480" t="s">
+      <c r="A25" s="526" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="480"/>
+      <c r="B25" s="526"/>
       <c r="C25" s="29"/>
       <c r="D25" s="313">
         <f>C24-D24</f>
@@ -11917,7 +12734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O84"/>
   <sheetViews>
@@ -11946,13 +12763,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="500" t="s">
+      <c r="A1" s="546" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="500"/>
-      <c r="C1" s="500"/>
-      <c r="D1" s="500"/>
-      <c r="E1" s="500"/>
+      <c r="B1" s="546"/>
+      <c r="C1" s="546"/>
+      <c r="D1" s="546"/>
+      <c r="E1" s="546"/>
       <c r="F1" s="72"/>
       <c r="G1" s="72"/>
       <c r="H1" s="72"/>
@@ -11980,144 +12797,144 @@
       <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="481" t="s">
+      <c r="A4" s="527" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="481"/>
-      <c r="C4" s="481"/>
-      <c r="D4" s="481"/>
-      <c r="E4" s="481"/>
-      <c r="F4" s="481"/>
-      <c r="G4" s="481"/>
-      <c r="H4" s="481"/>
-      <c r="I4" s="481"/>
-      <c r="J4" s="481"/>
-      <c r="K4" s="481"/>
-      <c r="L4" s="481"/>
-      <c r="M4" s="481"/>
-      <c r="N4" s="481"/>
-      <c r="O4" s="481"/>
+      <c r="B4" s="527"/>
+      <c r="C4" s="527"/>
+      <c r="D4" s="527"/>
+      <c r="E4" s="527"/>
+      <c r="F4" s="527"/>
+      <c r="G4" s="527"/>
+      <c r="H4" s="527"/>
+      <c r="I4" s="527"/>
+      <c r="J4" s="527"/>
+      <c r="K4" s="527"/>
+      <c r="L4" s="527"/>
+      <c r="M4" s="527"/>
+      <c r="N4" s="527"/>
+      <c r="O4" s="527"/>
     </row>
     <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="539" t="s">
+      <c r="A5" s="585" t="s">
         <v>262</v>
       </c>
-      <c r="B5" s="539"/>
-      <c r="C5" s="539"/>
-      <c r="D5" s="539"/>
-      <c r="E5" s="539"/>
-      <c r="F5" s="539"/>
-      <c r="G5" s="539"/>
-      <c r="H5" s="539"/>
-      <c r="I5" s="539"/>
-      <c r="J5" s="539"/>
-      <c r="K5" s="539"/>
-      <c r="L5" s="539"/>
-      <c r="M5" s="539"/>
-      <c r="N5" s="539"/>
-      <c r="O5" s="539"/>
+      <c r="B5" s="585"/>
+      <c r="C5" s="585"/>
+      <c r="D5" s="585"/>
+      <c r="E5" s="585"/>
+      <c r="F5" s="585"/>
+      <c r="G5" s="585"/>
+      <c r="H5" s="585"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="585"/>
+      <c r="K5" s="585"/>
+      <c r="L5" s="585"/>
+      <c r="M5" s="585"/>
+      <c r="N5" s="585"/>
+      <c r="O5" s="585"/>
     </row>
     <row r="6" spans="1:15" s="165" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="499" t="s">
+      <c r="A6" s="545" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="511" t="s">
+      <c r="B6" s="557" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="499" t="s">
+      <c r="C6" s="545" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="499" t="s">
+      <c r="D6" s="545" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="499"/>
-      <c r="F6" s="505" t="s">
+      <c r="E6" s="545"/>
+      <c r="F6" s="551" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="505"/>
-      <c r="H6" s="505"/>
-      <c r="I6" s="505"/>
-      <c r="J6" s="505"/>
-      <c r="K6" s="505"/>
-      <c r="L6" s="505"/>
-      <c r="M6" s="502"/>
-      <c r="N6" s="502"/>
-      <c r="O6" s="502"/>
+      <c r="G6" s="551"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="551"/>
+      <c r="J6" s="551"/>
+      <c r="K6" s="551"/>
+      <c r="L6" s="551"/>
+      <c r="M6" s="548"/>
+      <c r="N6" s="548"/>
+      <c r="O6" s="548"/>
     </row>
     <row r="7" spans="1:15" s="165" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="499"/>
-      <c r="B7" s="511"/>
-      <c r="C7" s="499"/>
-      <c r="D7" s="499" t="s">
+      <c r="A7" s="545"/>
+      <c r="B7" s="557"/>
+      <c r="C7" s="545"/>
+      <c r="D7" s="545" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="499" t="s">
+      <c r="E7" s="545" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="499" t="s">
+      <c r="F7" s="545" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="499" t="s">
+      <c r="G7" s="545" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="501" t="s">
+      <c r="H7" s="547" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="501" t="s">
+      <c r="I7" s="547" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="503" t="s">
+      <c r="J7" s="549" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="503"/>
-      <c r="L7" s="501" t="s">
+      <c r="K7" s="549"/>
+      <c r="L7" s="547" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="501" t="s">
+      <c r="M7" s="547" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="501" t="s">
+      <c r="N7" s="547" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="501" t="s">
+      <c r="O7" s="547" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="165" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="499"/>
-      <c r="B8" s="511"/>
-      <c r="C8" s="499"/>
-      <c r="D8" s="499"/>
-      <c r="E8" s="499"/>
-      <c r="F8" s="499"/>
-      <c r="G8" s="499"/>
-      <c r="H8" s="501"/>
-      <c r="I8" s="501"/>
+      <c r="A8" s="545"/>
+      <c r="B8" s="557"/>
+      <c r="C8" s="545"/>
+      <c r="D8" s="545"/>
+      <c r="E8" s="545"/>
+      <c r="F8" s="545"/>
+      <c r="G8" s="545"/>
+      <c r="H8" s="547"/>
+      <c r="I8" s="547"/>
       <c r="J8" s="204" t="s">
         <v>112</v>
       </c>
       <c r="K8" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="501"/>
-      <c r="M8" s="501"/>
-      <c r="N8" s="501"/>
-      <c r="O8" s="501"/>
+      <c r="L8" s="547"/>
+      <c r="M8" s="547"/>
+      <c r="N8" s="547"/>
+      <c r="O8" s="547"/>
     </row>
     <row r="9" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="486">
+      <c r="A9" s="532">
         <v>461</v>
       </c>
-      <c r="B9" s="506">
+      <c r="B9" s="552">
         <v>43951</v>
       </c>
-      <c r="C9" s="486" t="s">
+      <c r="C9" s="532" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="486" t="s">
+      <c r="D9" s="532" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="486" t="s">
+      <c r="E9" s="532" t="s">
         <v>108</v>
       </c>
       <c r="F9" s="201" t="s">
@@ -12146,11 +12963,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="487"/>
-      <c r="B10" s="507"/>
-      <c r="C10" s="487"/>
-      <c r="D10" s="487"/>
-      <c r="E10" s="487"/>
+      <c r="A10" s="533"/>
+      <c r="B10" s="553"/>
+      <c r="C10" s="533"/>
+      <c r="D10" s="533"/>
+      <c r="E10" s="533"/>
       <c r="F10" s="202" t="s">
         <v>37</v>
       </c>
@@ -12177,11 +12994,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="488"/>
-      <c r="B11" s="508"/>
-      <c r="C11" s="488"/>
-      <c r="D11" s="488"/>
-      <c r="E11" s="488"/>
+      <c r="A11" s="534"/>
+      <c r="B11" s="554"/>
+      <c r="C11" s="534"/>
+      <c r="D11" s="534"/>
+      <c r="E11" s="534"/>
       <c r="F11" s="203" t="s">
         <v>40</v>
       </c>
@@ -12370,19 +13187,19 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="509">
+      <c r="A16" s="555">
         <v>508</v>
       </c>
-      <c r="B16" s="483" t="s">
+      <c r="B16" s="529" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="486" t="s">
+      <c r="C16" s="532" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="486" t="s">
+      <c r="D16" s="532" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="486" t="s">
+      <c r="E16" s="532" t="s">
         <v>108</v>
       </c>
       <c r="F16" s="201" t="s">
@@ -12411,11 +13228,11 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="510"/>
-      <c r="B17" s="485"/>
-      <c r="C17" s="488"/>
-      <c r="D17" s="488"/>
-      <c r="E17" s="488"/>
+      <c r="A17" s="556"/>
+      <c r="B17" s="531"/>
+      <c r="C17" s="534"/>
+      <c r="D17" s="534"/>
+      <c r="E17" s="534"/>
       <c r="F17" s="203" t="s">
         <v>37</v>
       </c>
@@ -12524,19 +13341,19 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="486">
+      <c r="A20" s="532">
         <v>527</v>
       </c>
-      <c r="B20" s="483">
+      <c r="B20" s="529">
         <v>43967</v>
       </c>
-      <c r="C20" s="486" t="s">
+      <c r="C20" s="532" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="486" t="s">
+      <c r="D20" s="532" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="486" t="s">
+      <c r="E20" s="532" t="s">
         <v>108</v>
       </c>
       <c r="F20" s="201" t="s">
@@ -12551,7 +13368,7 @@
       <c r="I20" s="186">
         <v>4550000</v>
       </c>
-      <c r="J20" s="512">
+      <c r="J20" s="558">
         <v>150000</v>
       </c>
       <c r="K20" s="187">
@@ -12567,11 +13384,11 @@
       <c r="O20" s="186"/>
     </row>
     <row r="21" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="487"/>
-      <c r="B21" s="484"/>
-      <c r="C21" s="487"/>
-      <c r="D21" s="487"/>
-      <c r="E21" s="487"/>
+      <c r="A21" s="533"/>
+      <c r="B21" s="530"/>
+      <c r="C21" s="533"/>
+      <c r="D21" s="533"/>
+      <c r="E21" s="533"/>
       <c r="F21" s="202" t="s">
         <v>37</v>
       </c>
@@ -12584,7 +13401,7 @@
       <c r="I21" s="188">
         <v>7440000</v>
       </c>
-      <c r="J21" s="513"/>
+      <c r="J21" s="559"/>
       <c r="K21" s="189">
         <v>0.41</v>
       </c>
@@ -12598,11 +13415,11 @@
       <c r="O21" s="188"/>
     </row>
     <row r="22" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="488"/>
-      <c r="B22" s="485"/>
-      <c r="C22" s="488"/>
-      <c r="D22" s="488"/>
-      <c r="E22" s="488"/>
+      <c r="A22" s="534"/>
+      <c r="B22" s="531"/>
+      <c r="C22" s="534"/>
+      <c r="D22" s="534"/>
+      <c r="E22" s="534"/>
       <c r="F22" s="203" t="s">
         <v>38</v>
       </c>
@@ -12615,7 +13432,7 @@
       <c r="I22" s="190">
         <v>3300000</v>
       </c>
-      <c r="J22" s="514"/>
+      <c r="J22" s="560"/>
       <c r="K22" s="191">
         <v>0.41</v>
       </c>
@@ -12673,19 +13490,19 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="486">
+      <c r="A24" s="532">
         <v>532</v>
       </c>
-      <c r="B24" s="483">
+      <c r="B24" s="529">
         <v>43969</v>
       </c>
-      <c r="C24" s="486" t="s">
+      <c r="C24" s="532" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="486" t="s">
+      <c r="D24" s="532" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="486" t="s">
+      <c r="E24" s="532" t="s">
         <v>108</v>
       </c>
       <c r="F24" s="201" t="s">
@@ -12714,11 +13531,11 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="488"/>
-      <c r="B25" s="485"/>
-      <c r="C25" s="488"/>
-      <c r="D25" s="488"/>
-      <c r="E25" s="488"/>
+      <c r="A25" s="534"/>
+      <c r="B25" s="531"/>
+      <c r="C25" s="534"/>
+      <c r="D25" s="534"/>
+      <c r="E25" s="534"/>
       <c r="F25" s="203" t="s">
         <v>40</v>
       </c>
@@ -12745,19 +13562,19 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="486">
+      <c r="A26" s="532">
         <v>533</v>
       </c>
-      <c r="B26" s="483">
+      <c r="B26" s="529">
         <v>43969</v>
       </c>
-      <c r="C26" s="486" t="s">
+      <c r="C26" s="532" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="486" t="s">
+      <c r="D26" s="532" t="s">
         <v>162</v>
       </c>
-      <c r="E26" s="486" t="s">
+      <c r="E26" s="532" t="s">
         <v>163</v>
       </c>
       <c r="F26" s="201" t="s">
@@ -12786,11 +13603,11 @@
       </c>
     </row>
     <row r="27" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="488"/>
-      <c r="B27" s="485"/>
-      <c r="C27" s="488"/>
-      <c r="D27" s="488"/>
-      <c r="E27" s="488"/>
+      <c r="A27" s="534"/>
+      <c r="B27" s="531"/>
+      <c r="C27" s="534"/>
+      <c r="D27" s="534"/>
+      <c r="E27" s="534"/>
       <c r="F27" s="203" t="s">
         <v>40</v>
       </c>
@@ -12912,16 +13729,16 @@
       <c r="O31" s="194"/>
     </row>
     <row r="32" spans="1:15" s="239" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="489" t="s">
+      <c r="A32" s="535" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="490"/>
-      <c r="C32" s="490"/>
-      <c r="D32" s="490"/>
-      <c r="E32" s="490"/>
-      <c r="F32" s="490"/>
-      <c r="G32" s="490"/>
-      <c r="H32" s="491"/>
+      <c r="B32" s="536"/>
+      <c r="C32" s="536"/>
+      <c r="D32" s="536"/>
+      <c r="E32" s="536"/>
+      <c r="F32" s="536"/>
+      <c r="G32" s="536"/>
+      <c r="H32" s="537"/>
       <c r="I32" s="240">
         <f>SUM(I9:I31)</f>
         <v>34105000</v>
@@ -12959,20 +13776,20 @@
     <row r="34" spans="1:15" s="248" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="246"/>
       <c r="B34" s="246"/>
-      <c r="C34" s="481" t="s">
+      <c r="C34" s="527" t="s">
         <v>196</v>
       </c>
-      <c r="D34" s="481"/>
-      <c r="E34" s="481"/>
+      <c r="D34" s="527"/>
+      <c r="E34" s="527"/>
       <c r="F34" s="246"/>
       <c r="G34" s="246"/>
       <c r="H34" s="246"/>
       <c r="I34" s="247"/>
       <c r="L34" s="247"/>
-      <c r="M34" s="482" t="s">
+      <c r="M34" s="528" t="s">
         <v>246</v>
       </c>
-      <c r="N34" s="482"/>
+      <c r="N34" s="528"/>
       <c r="O34" s="247"/>
     </row>
     <row r="35" spans="1:15" s="248" customFormat="1" x14ac:dyDescent="0.25">
@@ -13004,108 +13821,108 @@
       <c r="O36" s="247"/>
     </row>
     <row r="37" spans="1:15" s="170" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="492" t="s">
+      <c r="A37" s="538" t="s">
         <v>197</v>
       </c>
-      <c r="B37" s="493"/>
-      <c r="C37" s="493"/>
-      <c r="D37" s="493"/>
-      <c r="E37" s="493"/>
-      <c r="F37" s="493"/>
-      <c r="G37" s="493"/>
-      <c r="H37" s="493"/>
-      <c r="I37" s="493"/>
-      <c r="J37" s="493"/>
-      <c r="K37" s="493"/>
-      <c r="L37" s="493"/>
-      <c r="M37" s="493"/>
-      <c r="N37" s="493"/>
-      <c r="O37" s="493"/>
+      <c r="B37" s="539"/>
+      <c r="C37" s="539"/>
+      <c r="D37" s="539"/>
+      <c r="E37" s="539"/>
+      <c r="F37" s="539"/>
+      <c r="G37" s="539"/>
+      <c r="H37" s="539"/>
+      <c r="I37" s="539"/>
+      <c r="J37" s="539"/>
+      <c r="K37" s="539"/>
+      <c r="L37" s="539"/>
+      <c r="M37" s="539"/>
+      <c r="N37" s="539"/>
+      <c r="O37" s="539"/>
     </row>
     <row r="38" spans="1:15" s="165" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="499" t="s">
+      <c r="A38" s="545" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="511" t="s">
+      <c r="B38" s="557" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="499" t="s">
+      <c r="C38" s="545" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="499" t="s">
+      <c r="D38" s="545" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="499"/>
-      <c r="F38" s="505" t="s">
+      <c r="E38" s="545"/>
+      <c r="F38" s="551" t="s">
         <v>29</v>
       </c>
-      <c r="G38" s="505"/>
-      <c r="H38" s="505"/>
-      <c r="I38" s="505"/>
-      <c r="J38" s="505"/>
-      <c r="K38" s="505"/>
-      <c r="L38" s="505"/>
-      <c r="M38" s="515" t="s">
+      <c r="G38" s="551"/>
+      <c r="H38" s="551"/>
+      <c r="I38" s="551"/>
+      <c r="J38" s="551"/>
+      <c r="K38" s="551"/>
+      <c r="L38" s="551"/>
+      <c r="M38" s="561" t="s">
         <v>58</v>
       </c>
-      <c r="N38" s="516"/>
-      <c r="O38" s="496" t="s">
+      <c r="N38" s="562"/>
+      <c r="O38" s="542" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="165" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="499"/>
-      <c r="B39" s="511"/>
-      <c r="C39" s="499"/>
-      <c r="D39" s="499" t="s">
+      <c r="A39" s="545"/>
+      <c r="B39" s="557"/>
+      <c r="C39" s="545"/>
+      <c r="D39" s="545" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="499" t="s">
+      <c r="E39" s="545" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="499" t="s">
+      <c r="F39" s="545" t="s">
         <v>31</v>
       </c>
-      <c r="G39" s="499" t="s">
+      <c r="G39" s="545" t="s">
         <v>32</v>
       </c>
-      <c r="H39" s="501" t="s">
+      <c r="H39" s="547" t="s">
         <v>33</v>
       </c>
-      <c r="I39" s="501" t="s">
+      <c r="I39" s="547" t="s">
         <v>51</v>
       </c>
-      <c r="J39" s="503" t="s">
+      <c r="J39" s="549" t="s">
         <v>35</v>
       </c>
-      <c r="K39" s="503"/>
-      <c r="L39" s="501" t="s">
+      <c r="K39" s="549"/>
+      <c r="L39" s="547" t="s">
         <v>52</v>
       </c>
-      <c r="M39" s="517"/>
-      <c r="N39" s="518"/>
-      <c r="O39" s="497"/>
+      <c r="M39" s="563"/>
+      <c r="N39" s="564"/>
+      <c r="O39" s="543"/>
     </row>
     <row r="40" spans="1:15" s="165" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="499"/>
-      <c r="B40" s="511"/>
-      <c r="C40" s="499"/>
-      <c r="D40" s="499"/>
-      <c r="E40" s="499"/>
-      <c r="F40" s="499"/>
-      <c r="G40" s="499"/>
-      <c r="H40" s="501"/>
-      <c r="I40" s="501"/>
+      <c r="A40" s="545"/>
+      <c r="B40" s="557"/>
+      <c r="C40" s="545"/>
+      <c r="D40" s="545"/>
+      <c r="E40" s="545"/>
+      <c r="F40" s="545"/>
+      <c r="G40" s="545"/>
+      <c r="H40" s="547"/>
+      <c r="I40" s="547"/>
       <c r="J40" s="204" t="s">
         <v>112</v>
       </c>
       <c r="K40" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="L40" s="501"/>
-      <c r="M40" s="517"/>
-      <c r="N40" s="518"/>
-      <c r="O40" s="498"/>
+      <c r="L40" s="547"/>
+      <c r="M40" s="563"/>
+      <c r="N40" s="564"/>
+      <c r="O40" s="544"/>
     </row>
     <row r="41" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="196">
@@ -13144,11 +13961,11 @@
         <f>I41*(1-K41)</f>
         <v>550000</v>
       </c>
-      <c r="M41" s="519">
+      <c r="M41" s="565">
         <f>L41</f>
         <v>550000</v>
       </c>
-      <c r="N41" s="519"/>
+      <c r="N41" s="565"/>
       <c r="O41" s="238"/>
     </row>
     <row r="42" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -13188,11 +14005,11 @@
         <f t="shared" ref="L42:L47" si="1">I42*(1-K42)</f>
         <v>295750</v>
       </c>
-      <c r="M42" s="494">
+      <c r="M42" s="540">
         <f>L42</f>
         <v>295750</v>
       </c>
-      <c r="N42" s="495"/>
+      <c r="N42" s="541"/>
       <c r="O42" s="168"/>
     </row>
     <row r="43" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -13232,11 +14049,11 @@
         <f t="shared" si="1"/>
         <v>550000</v>
       </c>
-      <c r="M43" s="494">
+      <c r="M43" s="540">
         <f t="shared" ref="M43:M47" si="2">L43</f>
         <v>550000</v>
       </c>
-      <c r="N43" s="495"/>
+      <c r="N43" s="541"/>
       <c r="O43" s="168"/>
     </row>
     <row r="44" spans="1:15" s="170" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -13278,11 +14095,11 @@
         <f>I44*(1-K44)-J44</f>
         <v>388000</v>
       </c>
-      <c r="M44" s="494">
+      <c r="M44" s="540">
         <f t="shared" si="2"/>
         <v>388000</v>
       </c>
-      <c r="N44" s="495"/>
+      <c r="N44" s="541"/>
       <c r="O44" s="168"/>
     </row>
     <row r="45" spans="1:15" s="170" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -13304,11 +14121,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M45" s="494">
+      <c r="M45" s="540">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N45" s="495"/>
+      <c r="N45" s="541"/>
       <c r="O45" s="168"/>
     </row>
     <row r="46" spans="1:15" s="170" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -13330,11 +14147,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M46" s="494">
+      <c r="M46" s="540">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N46" s="495"/>
+      <c r="N46" s="541"/>
       <c r="O46" s="168"/>
     </row>
     <row r="47" spans="1:15" s="170" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -13356,24 +14173,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M47" s="494">
+      <c r="M47" s="540">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N47" s="495"/>
+      <c r="N47" s="541"/>
       <c r="O47" s="168"/>
     </row>
     <row r="48" spans="1:15" s="239" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="489" t="s">
+      <c r="A48" s="535" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="490"/>
-      <c r="C48" s="490"/>
-      <c r="D48" s="490"/>
-      <c r="E48" s="490"/>
-      <c r="F48" s="490"/>
-      <c r="G48" s="490"/>
-      <c r="H48" s="491"/>
+      <c r="B48" s="536"/>
+      <c r="C48" s="536"/>
+      <c r="D48" s="536"/>
+      <c r="E48" s="536"/>
+      <c r="F48" s="536"/>
+      <c r="G48" s="536"/>
+      <c r="H48" s="537"/>
       <c r="I48" s="240">
         <f>SUM(I41:I47)</f>
         <v>2040000</v>
@@ -13384,373 +14201,373 @@
         <f>SUM(L41:L47)</f>
         <v>1783750</v>
       </c>
-      <c r="M48" s="530">
+      <c r="M48" s="576">
         <f>SUM(M41:N47)</f>
         <v>1783750</v>
       </c>
-      <c r="N48" s="531"/>
+      <c r="N48" s="577"/>
       <c r="O48" s="242"/>
     </row>
     <row r="49" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="520" t="s">
+      <c r="A49" s="566" t="s">
         <v>214</v>
       </c>
-      <c r="B49" s="520"/>
-      <c r="C49" s="520"/>
-      <c r="D49" s="520"/>
-      <c r="E49" s="520"/>
-      <c r="F49" s="520"/>
-      <c r="G49" s="520"/>
-      <c r="H49" s="520"/>
-      <c r="I49" s="520"/>
-      <c r="J49" s="520"/>
-      <c r="K49" s="520"/>
-      <c r="L49" s="520"/>
-      <c r="M49" s="520"/>
-      <c r="N49" s="520"/>
-      <c r="O49" s="520"/>
+      <c r="B49" s="566"/>
+      <c r="C49" s="566"/>
+      <c r="D49" s="566"/>
+      <c r="E49" s="566"/>
+      <c r="F49" s="566"/>
+      <c r="G49" s="566"/>
+      <c r="H49" s="566"/>
+      <c r="I49" s="566"/>
+      <c r="J49" s="566"/>
+      <c r="K49" s="566"/>
+      <c r="L49" s="566"/>
+      <c r="M49" s="566"/>
+      <c r="N49" s="566"/>
+      <c r="O49" s="566"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="521" t="s">
+      <c r="A50" s="567" t="s">
         <v>204</v>
       </c>
-      <c r="B50" s="521"/>
-      <c r="C50" s="521"/>
-      <c r="D50" s="521"/>
-      <c r="E50" s="521"/>
-      <c r="F50" s="521"/>
-      <c r="G50" s="521"/>
-      <c r="H50" s="521" t="s">
+      <c r="B50" s="567"/>
+      <c r="C50" s="567"/>
+      <c r="D50" s="567"/>
+      <c r="E50" s="567"/>
+      <c r="F50" s="567"/>
+      <c r="G50" s="567"/>
+      <c r="H50" s="567" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="521"/>
-      <c r="J50" s="521" t="s">
+      <c r="I50" s="567"/>
+      <c r="J50" s="567" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="521"/>
-      <c r="L50" s="521"/>
+      <c r="K50" s="567"/>
+      <c r="L50" s="567"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="522" t="s">
+      <c r="A51" s="568" t="s">
         <v>205</v>
       </c>
-      <c r="B51" s="523"/>
-      <c r="C51" s="523"/>
-      <c r="D51" s="523"/>
-      <c r="E51" s="523"/>
-      <c r="F51" s="523"/>
-      <c r="G51" s="524"/>
-      <c r="H51" s="525">
+      <c r="B51" s="569"/>
+      <c r="C51" s="569"/>
+      <c r="D51" s="569"/>
+      <c r="E51" s="569"/>
+      <c r="F51" s="569"/>
+      <c r="G51" s="570"/>
+      <c r="H51" s="571">
         <v>523000</v>
       </c>
-      <c r="I51" s="526"/>
-      <c r="J51" s="527" t="s">
+      <c r="I51" s="572"/>
+      <c r="J51" s="573" t="s">
         <v>206</v>
       </c>
-      <c r="K51" s="528"/>
-      <c r="L51" s="529"/>
+      <c r="K51" s="574"/>
+      <c r="L51" s="575"/>
     </row>
     <row r="52" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="532" t="s">
+      <c r="A52" s="578" t="s">
         <v>218</v>
       </c>
-      <c r="B52" s="533"/>
-      <c r="C52" s="533"/>
-      <c r="D52" s="533"/>
-      <c r="E52" s="533"/>
-      <c r="F52" s="533"/>
-      <c r="G52" s="534"/>
-      <c r="H52" s="525">
+      <c r="B52" s="579"/>
+      <c r="C52" s="579"/>
+      <c r="D52" s="579"/>
+      <c r="E52" s="579"/>
+      <c r="F52" s="579"/>
+      <c r="G52" s="580"/>
+      <c r="H52" s="571">
         <v>2079000</v>
       </c>
-      <c r="I52" s="526"/>
-      <c r="J52" s="527" t="s">
+      <c r="I52" s="572"/>
+      <c r="J52" s="573" t="s">
         <v>206</v>
       </c>
-      <c r="K52" s="528"/>
-      <c r="L52" s="529"/>
+      <c r="K52" s="574"/>
+      <c r="L52" s="575"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="522" t="s">
+      <c r="A53" s="568" t="s">
         <v>207</v>
       </c>
-      <c r="B53" s="523"/>
-      <c r="C53" s="523"/>
-      <c r="D53" s="523"/>
-      <c r="E53" s="523"/>
-      <c r="F53" s="523"/>
-      <c r="G53" s="524"/>
-      <c r="H53" s="525">
+      <c r="B53" s="569"/>
+      <c r="C53" s="569"/>
+      <c r="D53" s="569"/>
+      <c r="E53" s="569"/>
+      <c r="F53" s="569"/>
+      <c r="G53" s="570"/>
+      <c r="H53" s="571">
         <v>2563000</v>
       </c>
-      <c r="I53" s="526"/>
-      <c r="J53" s="527" t="s">
+      <c r="I53" s="572"/>
+      <c r="J53" s="573" t="s">
         <v>206</v>
       </c>
-      <c r="K53" s="528"/>
-      <c r="L53" s="529"/>
+      <c r="K53" s="574"/>
+      <c r="L53" s="575"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="522" t="s">
+      <c r="A54" s="568" t="s">
         <v>215</v>
       </c>
-      <c r="B54" s="523"/>
-      <c r="C54" s="523"/>
-      <c r="D54" s="523"/>
-      <c r="E54" s="523"/>
-      <c r="F54" s="523"/>
-      <c r="G54" s="524"/>
-      <c r="H54" s="525">
+      <c r="B54" s="569"/>
+      <c r="C54" s="569"/>
+      <c r="D54" s="569"/>
+      <c r="E54" s="569"/>
+      <c r="F54" s="569"/>
+      <c r="G54" s="570"/>
+      <c r="H54" s="571">
         <v>82000</v>
       </c>
-      <c r="I54" s="526"/>
-      <c r="J54" s="527" t="s">
+      <c r="I54" s="572"/>
+      <c r="J54" s="573" t="s">
         <v>206</v>
       </c>
-      <c r="K54" s="528"/>
-      <c r="L54" s="529"/>
+      <c r="K54" s="574"/>
+      <c r="L54" s="575"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="522" t="s">
+      <c r="A55" s="568" t="s">
         <v>219</v>
       </c>
-      <c r="B55" s="523"/>
-      <c r="C55" s="523"/>
-      <c r="D55" s="523"/>
-      <c r="E55" s="523"/>
-      <c r="F55" s="523"/>
-      <c r="G55" s="524"/>
-      <c r="H55" s="525">
+      <c r="B55" s="569"/>
+      <c r="C55" s="569"/>
+      <c r="D55" s="569"/>
+      <c r="E55" s="569"/>
+      <c r="F55" s="569"/>
+      <c r="G55" s="570"/>
+      <c r="H55" s="571">
         <v>866000</v>
       </c>
-      <c r="I55" s="526"/>
-      <c r="J55" s="527" t="s">
+      <c r="I55" s="572"/>
+      <c r="J55" s="573" t="s">
         <v>206</v>
       </c>
-      <c r="K55" s="528"/>
-      <c r="L55" s="529"/>
+      <c r="K55" s="574"/>
+      <c r="L55" s="575"/>
     </row>
     <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="522"/>
-      <c r="B56" s="523"/>
-      <c r="C56" s="523"/>
-      <c r="D56" s="523"/>
-      <c r="E56" s="523"/>
-      <c r="F56" s="523"/>
-      <c r="G56" s="524"/>
-      <c r="H56" s="525"/>
-      <c r="I56" s="526"/>
-      <c r="J56" s="527" t="s">
+      <c r="A56" s="568"/>
+      <c r="B56" s="569"/>
+      <c r="C56" s="569"/>
+      <c r="D56" s="569"/>
+      <c r="E56" s="569"/>
+      <c r="F56" s="569"/>
+      <c r="G56" s="570"/>
+      <c r="H56" s="571"/>
+      <c r="I56" s="572"/>
+      <c r="J56" s="573" t="s">
         <v>206</v>
       </c>
-      <c r="K56" s="528"/>
-      <c r="L56" s="529"/>
+      <c r="K56" s="574"/>
+      <c r="L56" s="575"/>
     </row>
     <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="522"/>
-      <c r="B57" s="523"/>
-      <c r="C57" s="523"/>
-      <c r="D57" s="523"/>
-      <c r="E57" s="523"/>
-      <c r="F57" s="523"/>
-      <c r="G57" s="524"/>
-      <c r="H57" s="525"/>
-      <c r="I57" s="526"/>
-      <c r="J57" s="527" t="s">
+      <c r="A57" s="568"/>
+      <c r="B57" s="569"/>
+      <c r="C57" s="569"/>
+      <c r="D57" s="569"/>
+      <c r="E57" s="569"/>
+      <c r="F57" s="569"/>
+      <c r="G57" s="570"/>
+      <c r="H57" s="571"/>
+      <c r="I57" s="572"/>
+      <c r="J57" s="573" t="s">
         <v>206</v>
       </c>
-      <c r="K57" s="528"/>
-      <c r="L57" s="529"/>
+      <c r="K57" s="574"/>
+      <c r="L57" s="575"/>
     </row>
     <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="522"/>
-      <c r="B58" s="523"/>
-      <c r="C58" s="523"/>
-      <c r="D58" s="523"/>
-      <c r="E58" s="523"/>
-      <c r="F58" s="523"/>
-      <c r="G58" s="524"/>
-      <c r="H58" s="525"/>
-      <c r="I58" s="526"/>
-      <c r="J58" s="527" t="s">
+      <c r="A58" s="568"/>
+      <c r="B58" s="569"/>
+      <c r="C58" s="569"/>
+      <c r="D58" s="569"/>
+      <c r="E58" s="569"/>
+      <c r="F58" s="569"/>
+      <c r="G58" s="570"/>
+      <c r="H58" s="571"/>
+      <c r="I58" s="572"/>
+      <c r="J58" s="573" t="s">
         <v>206</v>
       </c>
-      <c r="K58" s="528"/>
-      <c r="L58" s="529"/>
+      <c r="K58" s="574"/>
+      <c r="L58" s="575"/>
     </row>
     <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="522"/>
-      <c r="B59" s="523"/>
-      <c r="C59" s="523"/>
-      <c r="D59" s="523"/>
-      <c r="E59" s="523"/>
-      <c r="F59" s="523"/>
-      <c r="G59" s="524"/>
-      <c r="H59" s="525"/>
-      <c r="I59" s="526"/>
-      <c r="J59" s="527" t="s">
+      <c r="A59" s="568"/>
+      <c r="B59" s="569"/>
+      <c r="C59" s="569"/>
+      <c r="D59" s="569"/>
+      <c r="E59" s="569"/>
+      <c r="F59" s="569"/>
+      <c r="G59" s="570"/>
+      <c r="H59" s="571"/>
+      <c r="I59" s="572"/>
+      <c r="J59" s="573" t="s">
         <v>206</v>
       </c>
-      <c r="K59" s="528"/>
-      <c r="L59" s="529"/>
+      <c r="K59" s="574"/>
+      <c r="L59" s="575"/>
     </row>
     <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="522"/>
-      <c r="B60" s="523"/>
-      <c r="C60" s="523"/>
-      <c r="D60" s="523"/>
-      <c r="E60" s="523"/>
-      <c r="F60" s="523"/>
-      <c r="G60" s="524"/>
-      <c r="H60" s="525"/>
-      <c r="I60" s="526"/>
-      <c r="J60" s="527" t="s">
+      <c r="A60" s="568"/>
+      <c r="B60" s="569"/>
+      <c r="C60" s="569"/>
+      <c r="D60" s="569"/>
+      <c r="E60" s="569"/>
+      <c r="F60" s="569"/>
+      <c r="G60" s="570"/>
+      <c r="H60" s="571"/>
+      <c r="I60" s="572"/>
+      <c r="J60" s="573" t="s">
         <v>206</v>
       </c>
-      <c r="K60" s="528"/>
-      <c r="L60" s="529"/>
+      <c r="K60" s="574"/>
+      <c r="L60" s="575"/>
     </row>
     <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="522"/>
-      <c r="B61" s="523"/>
-      <c r="C61" s="523"/>
-      <c r="D61" s="523"/>
-      <c r="E61" s="523"/>
-      <c r="F61" s="523"/>
-      <c r="G61" s="524"/>
-      <c r="H61" s="525"/>
-      <c r="I61" s="526"/>
-      <c r="J61" s="527" t="s">
+      <c r="A61" s="568"/>
+      <c r="B61" s="569"/>
+      <c r="C61" s="569"/>
+      <c r="D61" s="569"/>
+      <c r="E61" s="569"/>
+      <c r="F61" s="569"/>
+      <c r="G61" s="570"/>
+      <c r="H61" s="571"/>
+      <c r="I61" s="572"/>
+      <c r="J61" s="573" t="s">
         <v>206</v>
       </c>
-      <c r="K61" s="528"/>
-      <c r="L61" s="529"/>
+      <c r="K61" s="574"/>
+      <c r="L61" s="575"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="489" t="s">
+      <c r="A62" s="535" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="490"/>
-      <c r="C62" s="490"/>
-      <c r="D62" s="490"/>
-      <c r="E62" s="490"/>
-      <c r="F62" s="490"/>
-      <c r="G62" s="491"/>
-      <c r="H62" s="545">
+      <c r="B62" s="536"/>
+      <c r="C62" s="536"/>
+      <c r="D62" s="536"/>
+      <c r="E62" s="536"/>
+      <c r="F62" s="536"/>
+      <c r="G62" s="537"/>
+      <c r="H62" s="591">
         <f>SUM(H51:I61)</f>
         <v>6113000</v>
       </c>
-      <c r="I62" s="546"/>
-      <c r="J62" s="527"/>
-      <c r="K62" s="528"/>
-      <c r="L62" s="529"/>
+      <c r="I62" s="592"/>
+      <c r="J62" s="573"/>
+      <c r="K62" s="574"/>
+      <c r="L62" s="575"/>
     </row>
     <row r="63" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="547" t="s">
+      <c r="A63" s="593" t="s">
         <v>208</v>
       </c>
-      <c r="B63" s="547"/>
-      <c r="C63" s="547"/>
-      <c r="D63" s="547"/>
-      <c r="E63" s="547"/>
-      <c r="F63" s="547"/>
-      <c r="G63" s="547"/>
-      <c r="H63" s="547"/>
-      <c r="I63" s="547"/>
+      <c r="B63" s="593"/>
+      <c r="C63" s="593"/>
+      <c r="D63" s="593"/>
+      <c r="E63" s="593"/>
+      <c r="F63" s="593"/>
+      <c r="G63" s="593"/>
+      <c r="H63" s="593"/>
+      <c r="I63" s="593"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="489" t="s">
+      <c r="B64" s="535" t="s">
         <v>204</v>
       </c>
-      <c r="C64" s="490"/>
-      <c r="D64" s="490"/>
-      <c r="E64" s="490"/>
-      <c r="F64" s="490"/>
-      <c r="G64" s="490"/>
-      <c r="H64" s="491"/>
-      <c r="I64" s="521" t="s">
+      <c r="C64" s="536"/>
+      <c r="D64" s="536"/>
+      <c r="E64" s="536"/>
+      <c r="F64" s="536"/>
+      <c r="G64" s="536"/>
+      <c r="H64" s="537"/>
+      <c r="I64" s="567" t="s">
         <v>210</v>
       </c>
-      <c r="J64" s="521"/>
+      <c r="J64" s="567"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="74">
         <v>1</v>
       </c>
-      <c r="B65" s="535" t="s">
+      <c r="B65" s="581" t="s">
         <v>211</v>
       </c>
-      <c r="C65" s="536"/>
-      <c r="D65" s="536"/>
-      <c r="E65" s="536"/>
-      <c r="F65" s="536"/>
-      <c r="G65" s="536"/>
-      <c r="H65" s="537"/>
-      <c r="I65" s="538">
+      <c r="C65" s="582"/>
+      <c r="D65" s="582"/>
+      <c r="E65" s="582"/>
+      <c r="F65" s="582"/>
+      <c r="G65" s="582"/>
+      <c r="H65" s="583"/>
+      <c r="I65" s="584">
         <f>L32</f>
         <v>19849100.000000004</v>
       </c>
-      <c r="J65" s="491"/>
+      <c r="J65" s="537"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="74">
         <v>2</v>
       </c>
-      <c r="B66" s="535" t="s">
+      <c r="B66" s="581" t="s">
         <v>212</v>
       </c>
-      <c r="C66" s="536"/>
-      <c r="D66" s="536"/>
-      <c r="E66" s="536"/>
-      <c r="F66" s="536"/>
-      <c r="G66" s="536"/>
-      <c r="H66" s="537"/>
-      <c r="I66" s="544">
+      <c r="C66" s="582"/>
+      <c r="D66" s="582"/>
+      <c r="E66" s="582"/>
+      <c r="F66" s="582"/>
+      <c r="G66" s="582"/>
+      <c r="H66" s="583"/>
+      <c r="I66" s="590">
         <f>M48</f>
         <v>1783750</v>
       </c>
-      <c r="J66" s="544"/>
+      <c r="J66" s="590"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="74">
         <v>3</v>
       </c>
-      <c r="B67" s="535" t="s">
+      <c r="B67" s="581" t="s">
         <v>213</v>
       </c>
-      <c r="C67" s="536"/>
-      <c r="D67" s="536"/>
-      <c r="E67" s="536"/>
-      <c r="F67" s="536"/>
-      <c r="G67" s="536"/>
-      <c r="H67" s="537"/>
-      <c r="I67" s="544">
+      <c r="C67" s="582"/>
+      <c r="D67" s="582"/>
+      <c r="E67" s="582"/>
+      <c r="F67" s="582"/>
+      <c r="G67" s="582"/>
+      <c r="H67" s="583"/>
+      <c r="I67" s="590">
         <f>N32</f>
         <v>9000000.0000000019</v>
       </c>
-      <c r="J67" s="544"/>
+      <c r="J67" s="590"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="74">
         <v>4</v>
       </c>
-      <c r="B68" s="535" t="s">
+      <c r="B68" s="581" t="s">
         <v>209</v>
       </c>
-      <c r="C68" s="536"/>
-      <c r="D68" s="536"/>
-      <c r="E68" s="536"/>
-      <c r="F68" s="536"/>
-      <c r="G68" s="536"/>
-      <c r="H68" s="537"/>
-      <c r="I68" s="544">
+      <c r="C68" s="582"/>
+      <c r="D68" s="582"/>
+      <c r="E68" s="582"/>
+      <c r="F68" s="582"/>
+      <c r="G68" s="582"/>
+      <c r="H68" s="583"/>
+      <c r="I68" s="590">
         <f>H62</f>
         <v>6113000</v>
       </c>
-      <c r="J68" s="544"/>
+      <c r="J68" s="590"/>
       <c r="L68" s="258"/>
       <c r="M68" s="258"/>
     </row>
@@ -13758,39 +14575,39 @@
       <c r="A69" s="74">
         <v>5</v>
       </c>
-      <c r="B69" s="535" t="s">
+      <c r="B69" s="581" t="s">
         <v>263</v>
       </c>
-      <c r="C69" s="536"/>
-      <c r="D69" s="536"/>
-      <c r="E69" s="536"/>
-      <c r="F69" s="536"/>
-      <c r="G69" s="536"/>
-      <c r="H69" s="537"/>
-      <c r="I69" s="538">
+      <c r="C69" s="582"/>
+      <c r="D69" s="582"/>
+      <c r="E69" s="582"/>
+      <c r="F69" s="582"/>
+      <c r="G69" s="582"/>
+      <c r="H69" s="583"/>
+      <c r="I69" s="584">
         <f>'Bảng lương'!K18</f>
         <v>4407604.153846154</v>
       </c>
-      <c r="J69" s="540"/>
+      <c r="J69" s="586"/>
     </row>
     <row r="70" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="74">
         <v>6</v>
       </c>
-      <c r="B70" s="541" t="s">
+      <c r="B70" s="587" t="s">
         <v>217</v>
       </c>
-      <c r="C70" s="542"/>
-      <c r="D70" s="542"/>
-      <c r="E70" s="542"/>
-      <c r="F70" s="542"/>
-      <c r="G70" s="542"/>
-      <c r="H70" s="543"/>
-      <c r="I70" s="544">
+      <c r="C70" s="588"/>
+      <c r="D70" s="588"/>
+      <c r="E70" s="588"/>
+      <c r="F70" s="588"/>
+      <c r="G70" s="588"/>
+      <c r="H70" s="589"/>
+      <c r="I70" s="590">
         <f>I65+I66-I67-I68-I69</f>
         <v>2112245.8461538479</v>
       </c>
-      <c r="J70" s="544"/>
+      <c r="J70" s="590"/>
       <c r="N70" s="258"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -13806,19 +14623,19 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="111"/>
-      <c r="B72" s="481" t="s">
+      <c r="B72" s="527" t="s">
         <v>193</v>
       </c>
-      <c r="C72" s="481"/>
-      <c r="D72" s="481"/>
+      <c r="C72" s="527"/>
+      <c r="D72" s="527"/>
       <c r="E72" s="111"/>
       <c r="F72" s="111"/>
       <c r="G72" s="111"/>
       <c r="H72" s="111"/>
-      <c r="K72" s="481" t="s">
+      <c r="K72" s="527" t="s">
         <v>246</v>
       </c>
-      <c r="L72" s="481"/>
+      <c r="L72" s="527"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="111"/>
@@ -13898,8 +14715,8 @@
       <c r="I79" s="244"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="504"/>
-      <c r="B80" s="504"/>
+      <c r="A80" s="550"/>
+      <c r="B80" s="550"/>
       <c r="E80" s="37"/>
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
@@ -13909,8 +14726,8 @@
       <c r="H82" s="245"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="504"/>
-      <c r="B84" s="504"/>
+      <c r="A84" s="550"/>
+      <c r="B84" s="550"/>
       <c r="E84" s="37"/>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -14057,7 +14874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI21"/>
   <sheetViews>
@@ -14588,16 +15405,16 @@
       <c r="C1" s="206"/>
       <c r="D1" s="206"/>
       <c r="E1" s="206"/>
-      <c r="Z1" s="565" t="s">
+      <c r="Z1" s="611" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="566"/>
-      <c r="AB1" s="566"/>
-      <c r="AC1" s="566"/>
-      <c r="AD1" s="566"/>
-      <c r="AE1" s="566"/>
-      <c r="AF1" s="566"/>
-      <c r="AG1" s="567"/>
+      <c r="AA1" s="612"/>
+      <c r="AB1" s="612"/>
+      <c r="AC1" s="612"/>
+      <c r="AD1" s="612"/>
+      <c r="AE1" s="612"/>
+      <c r="AF1" s="612"/>
+      <c r="AG1" s="613"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="209" t="s">
@@ -14607,18 +15424,18 @@
       <c r="C2" s="210"/>
       <c r="D2" s="210"/>
       <c r="E2" s="210"/>
-      <c r="Z2" s="552" t="s">
+      <c r="Z2" s="598" t="s">
         <v>170</v>
       </c>
-      <c r="AA2" s="553"/>
-      <c r="AB2" s="553"/>
-      <c r="AC2" s="553"/>
-      <c r="AD2" s="553"/>
-      <c r="AE2" s="554"/>
-      <c r="AF2" s="555" t="s">
+      <c r="AA2" s="599"/>
+      <c r="AB2" s="599"/>
+      <c r="AC2" s="599"/>
+      <c r="AD2" s="599"/>
+      <c r="AE2" s="600"/>
+      <c r="AF2" s="601" t="s">
         <v>171</v>
       </c>
-      <c r="AG2" s="556"/>
+      <c r="AG2" s="602"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="209" t="s">
@@ -14628,18 +15445,18 @@
       <c r="C3" s="90"/>
       <c r="D3" s="90"/>
       <c r="E3" s="90"/>
-      <c r="Z3" s="552" t="s">
+      <c r="Z3" s="598" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" s="553"/>
-      <c r="AB3" s="553"/>
-      <c r="AC3" s="553"/>
-      <c r="AD3" s="553"/>
-      <c r="AE3" s="554"/>
-      <c r="AF3" s="555" t="s">
+      <c r="AA3" s="599"/>
+      <c r="AB3" s="599"/>
+      <c r="AC3" s="599"/>
+      <c r="AD3" s="599"/>
+      <c r="AE3" s="600"/>
+      <c r="AF3" s="601" t="s">
         <v>174</v>
       </c>
-      <c r="AG3" s="556"/>
+      <c r="AG3" s="602"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="209" t="s">
@@ -14649,18 +15466,18 @@
       <c r="C4" s="90"/>
       <c r="D4" s="90"/>
       <c r="E4" s="90"/>
-      <c r="Z4" s="552" t="s">
+      <c r="Z4" s="598" t="s">
         <v>176</v>
       </c>
-      <c r="AA4" s="553"/>
-      <c r="AB4" s="553"/>
-      <c r="AC4" s="553"/>
-      <c r="AD4" s="553"/>
-      <c r="AE4" s="554"/>
-      <c r="AF4" s="555" t="s">
+      <c r="AA4" s="599"/>
+      <c r="AB4" s="599"/>
+      <c r="AC4" s="599"/>
+      <c r="AD4" s="599"/>
+      <c r="AE4" s="600"/>
+      <c r="AF4" s="601" t="s">
         <v>177</v>
       </c>
-      <c r="AG4" s="556"/>
+      <c r="AG4" s="602"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="209" t="s">
@@ -14670,18 +15487,18 @@
       <c r="C5" s="90"/>
       <c r="D5" s="90"/>
       <c r="E5" s="90"/>
-      <c r="Z5" s="552" t="s">
+      <c r="Z5" s="598" t="s">
         <v>179</v>
       </c>
-      <c r="AA5" s="553"/>
-      <c r="AB5" s="553"/>
-      <c r="AC5" s="553"/>
-      <c r="AD5" s="553"/>
-      <c r="AE5" s="554"/>
-      <c r="AF5" s="555" t="s">
+      <c r="AA5" s="599"/>
+      <c r="AB5" s="599"/>
+      <c r="AC5" s="599"/>
+      <c r="AD5" s="599"/>
+      <c r="AE5" s="600"/>
+      <c r="AF5" s="601" t="s">
         <v>180</v>
       </c>
-      <c r="AG5" s="556"/>
+      <c r="AG5" s="602"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="211"/>
@@ -14691,95 +15508,95 @@
       <c r="E6" s="211"/>
     </row>
     <row r="7" spans="1:35" s="213" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="557" t="s">
+      <c r="A7" s="603" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="557"/>
-      <c r="C7" s="557"/>
-      <c r="D7" s="557"/>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="557"/>
-      <c r="J7" s="557"/>
-      <c r="K7" s="557"/>
-      <c r="L7" s="557"/>
-      <c r="M7" s="557"/>
-      <c r="N7" s="557"/>
-      <c r="O7" s="557"/>
-      <c r="P7" s="557"/>
-      <c r="Q7" s="557"/>
-      <c r="R7" s="557"/>
-      <c r="S7" s="557"/>
-      <c r="T7" s="557"/>
-      <c r="U7" s="557"/>
-      <c r="V7" s="557"/>
-      <c r="W7" s="557"/>
-      <c r="X7" s="557"/>
-      <c r="Y7" s="557"/>
-      <c r="Z7" s="557"/>
-      <c r="AA7" s="557"/>
-      <c r="AB7" s="557"/>
-      <c r="AC7" s="557"/>
-      <c r="AD7" s="557"/>
-      <c r="AE7" s="557"/>
-      <c r="AF7" s="557"/>
-      <c r="AG7" s="557"/>
-      <c r="AH7" s="557"/>
-      <c r="AI7" s="557"/>
+      <c r="B7" s="603"/>
+      <c r="C7" s="603"/>
+      <c r="D7" s="603"/>
+      <c r="E7" s="603"/>
+      <c r="F7" s="603"/>
+      <c r="G7" s="603"/>
+      <c r="H7" s="603"/>
+      <c r="I7" s="603"/>
+      <c r="J7" s="603"/>
+      <c r="K7" s="603"/>
+      <c r="L7" s="603"/>
+      <c r="M7" s="603"/>
+      <c r="N7" s="603"/>
+      <c r="O7" s="603"/>
+      <c r="P7" s="603"/>
+      <c r="Q7" s="603"/>
+      <c r="R7" s="603"/>
+      <c r="S7" s="603"/>
+      <c r="T7" s="603"/>
+      <c r="U7" s="603"/>
+      <c r="V7" s="603"/>
+      <c r="W7" s="603"/>
+      <c r="X7" s="603"/>
+      <c r="Y7" s="603"/>
+      <c r="Z7" s="603"/>
+      <c r="AA7" s="603"/>
+      <c r="AB7" s="603"/>
+      <c r="AC7" s="603"/>
+      <c r="AD7" s="603"/>
+      <c r="AE7" s="603"/>
+      <c r="AF7" s="603"/>
+      <c r="AG7" s="603"/>
+      <c r="AH7" s="603"/>
+      <c r="AI7" s="603"/>
     </row>
     <row r="9" spans="1:35" s="214" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="558" t="s">
+      <c r="A9" s="604" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="558" t="s">
+      <c r="B9" s="604" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="558" t="s">
+      <c r="C9" s="604" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="561" t="s">
+      <c r="D9" s="607" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="562"/>
-      <c r="F9" s="562"/>
-      <c r="G9" s="562"/>
-      <c r="H9" s="562"/>
-      <c r="I9" s="562"/>
-      <c r="J9" s="562"/>
-      <c r="K9" s="562"/>
-      <c r="L9" s="562"/>
-      <c r="M9" s="562"/>
-      <c r="N9" s="562"/>
-      <c r="O9" s="562"/>
-      <c r="P9" s="562"/>
-      <c r="Q9" s="562"/>
-      <c r="R9" s="562"/>
-      <c r="S9" s="562"/>
-      <c r="T9" s="562"/>
-      <c r="U9" s="562"/>
-      <c r="V9" s="562"/>
-      <c r="W9" s="562"/>
-      <c r="X9" s="562"/>
-      <c r="Y9" s="562"/>
-      <c r="Z9" s="562"/>
-      <c r="AA9" s="562"/>
-      <c r="AB9" s="562"/>
-      <c r="AC9" s="562"/>
-      <c r="AD9" s="562"/>
-      <c r="AE9" s="562"/>
-      <c r="AF9" s="562"/>
-      <c r="AG9" s="562"/>
-      <c r="AH9" s="563"/>
-      <c r="AI9" s="564" t="s">
+      <c r="E9" s="608"/>
+      <c r="F9" s="608"/>
+      <c r="G9" s="608"/>
+      <c r="H9" s="608"/>
+      <c r="I9" s="608"/>
+      <c r="J9" s="608"/>
+      <c r="K9" s="608"/>
+      <c r="L9" s="608"/>
+      <c r="M9" s="608"/>
+      <c r="N9" s="608"/>
+      <c r="O9" s="608"/>
+      <c r="P9" s="608"/>
+      <c r="Q9" s="608"/>
+      <c r="R9" s="608"/>
+      <c r="S9" s="608"/>
+      <c r="T9" s="608"/>
+      <c r="U9" s="608"/>
+      <c r="V9" s="608"/>
+      <c r="W9" s="608"/>
+      <c r="X9" s="608"/>
+      <c r="Y9" s="608"/>
+      <c r="Z9" s="608"/>
+      <c r="AA9" s="608"/>
+      <c r="AB9" s="608"/>
+      <c r="AC9" s="608"/>
+      <c r="AD9" s="608"/>
+      <c r="AE9" s="608"/>
+      <c r="AF9" s="608"/>
+      <c r="AG9" s="608"/>
+      <c r="AH9" s="609"/>
+      <c r="AI9" s="610" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:35" s="214" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="559"/>
-      <c r="B10" s="559"/>
-      <c r="C10" s="559"/>
+      <c r="A10" s="605"/>
+      <c r="B10" s="605"/>
+      <c r="C10" s="605"/>
       <c r="D10" s="215">
         <v>1</v>
       </c>
@@ -14873,12 +15690,12 @@
       <c r="AH10" s="215">
         <v>31</v>
       </c>
-      <c r="AI10" s="564"/>
+      <c r="AI10" s="610"/>
     </row>
     <row r="11" spans="1:35" s="222" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="560"/>
-      <c r="B11" s="560"/>
-      <c r="C11" s="560"/>
+      <c r="A11" s="606"/>
+      <c r="B11" s="606"/>
+      <c r="C11" s="606"/>
       <c r="D11" s="215" t="s">
         <v>186</v>
       </c>
@@ -14972,7 +15789,7 @@
       <c r="AH11" s="220" t="s">
         <v>188</v>
       </c>
-      <c r="AI11" s="564"/>
+      <c r="AI11" s="610"/>
     </row>
     <row r="12" spans="1:35" s="222" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="249">
@@ -15587,10 +16404,10 @@
       </c>
     </row>
     <row r="19" spans="1:35" s="222" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="548" t="s">
+      <c r="A19" s="594" t="s">
         <v>195</v>
       </c>
-      <c r="B19" s="549"/>
+      <c r="B19" s="595"/>
       <c r="C19" s="230"/>
       <c r="D19" s="230"/>
       <c r="E19" s="231"/>
@@ -15629,45 +16446,45 @@
       </c>
     </row>
     <row r="21" spans="1:35" s="236" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="550" t="s">
+      <c r="A21" s="596" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="550"/>
-      <c r="C21" s="550"/>
-      <c r="D21" s="550"/>
-      <c r="E21" s="550"/>
-      <c r="F21" s="550"/>
-      <c r="G21" s="550"/>
+      <c r="B21" s="596"/>
+      <c r="C21" s="596"/>
+      <c r="D21" s="596"/>
+      <c r="E21" s="596"/>
+      <c r="F21" s="596"/>
+      <c r="G21" s="596"/>
       <c r="H21" s="232"/>
-      <c r="I21" s="551"/>
-      <c r="J21" s="551"/>
-      <c r="K21" s="551"/>
-      <c r="L21" s="551"/>
-      <c r="M21" s="551"/>
+      <c r="I21" s="597"/>
+      <c r="J21" s="597"/>
+      <c r="K21" s="597"/>
+      <c r="L21" s="597"/>
+      <c r="M21" s="597"/>
       <c r="N21" s="233"/>
-      <c r="O21" s="551" t="s">
+      <c r="O21" s="597" t="s">
         <v>196</v>
       </c>
-      <c r="P21" s="551"/>
-      <c r="Q21" s="551"/>
-      <c r="R21" s="551"/>
-      <c r="S21" s="551"/>
-      <c r="T21" s="551"/>
-      <c r="U21" s="551"/>
-      <c r="V21" s="551"/>
-      <c r="W21" s="551"/>
-      <c r="X21" s="551"/>
-      <c r="Y21" s="551"/>
+      <c r="P21" s="597"/>
+      <c r="Q21" s="597"/>
+      <c r="R21" s="597"/>
+      <c r="S21" s="597"/>
+      <c r="T21" s="597"/>
+      <c r="U21" s="597"/>
+      <c r="V21" s="597"/>
+      <c r="W21" s="597"/>
+      <c r="X21" s="597"/>
+      <c r="Y21" s="597"/>
       <c r="Z21" s="234"/>
       <c r="AA21" s="234"/>
       <c r="AB21" s="235"/>
-      <c r="AC21" s="551"/>
-      <c r="AD21" s="551"/>
-      <c r="AE21" s="551"/>
-      <c r="AF21" s="551"/>
-      <c r="AG21" s="551"/>
-      <c r="AH21" s="551"/>
-      <c r="AI21" s="551"/>
+      <c r="AC21" s="597"/>
+      <c r="AD21" s="597"/>
+      <c r="AE21" s="597"/>
+      <c r="AF21" s="597"/>
+      <c r="AG21" s="597"/>
+      <c r="AH21" s="597"/>
+      <c r="AI21" s="597"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -15697,7 +16514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
@@ -16542,40 +17359,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="40" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="578" t="s">
+      <c r="A1" s="624" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="578"/>
-      <c r="C1" s="578"/>
-      <c r="D1" s="578"/>
+      <c r="B1" s="624"/>
+      <c r="C1" s="624"/>
+      <c r="D1" s="624"/>
       <c r="E1" s="91"/>
-      <c r="F1" s="579" t="s">
+      <c r="F1" s="625" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="579"/>
-      <c r="H1" s="579"/>
-      <c r="I1" s="579"/>
-      <c r="J1" s="579"/>
-      <c r="K1" s="579"/>
-      <c r="L1" s="579"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
+      <c r="K1" s="625"/>
+      <c r="L1" s="625"/>
     </row>
     <row r="2" spans="1:13" s="40" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="580" t="s">
+      <c r="A2" s="626" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="580"/>
-      <c r="C2" s="580"/>
-      <c r="D2" s="580"/>
+      <c r="B2" s="626"/>
+      <c r="C2" s="626"/>
+      <c r="D2" s="626"/>
       <c r="E2" s="91"/>
-      <c r="F2" s="581" t="s">
+      <c r="F2" s="627" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="581"/>
-      <c r="H2" s="581"/>
-      <c r="I2" s="581"/>
-      <c r="J2" s="581"/>
-      <c r="K2" s="581"/>
-      <c r="L2" s="581"/>
+      <c r="G2" s="627"/>
+      <c r="H2" s="627"/>
+      <c r="I2" s="627"/>
+      <c r="J2" s="627"/>
+      <c r="K2" s="627"/>
+      <c r="L2" s="627"/>
     </row>
     <row r="3" spans="1:13" s="40" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
@@ -16589,45 +17406,45 @@
       <c r="J3" s="92"/>
     </row>
     <row r="4" spans="1:13" s="43" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="582" t="s">
+      <c r="A4" s="628" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="582"/>
-      <c r="C4" s="582"/>
-      <c r="D4" s="582"/>
-      <c r="E4" s="582"/>
-      <c r="F4" s="582"/>
-      <c r="G4" s="582"/>
-      <c r="H4" s="582"/>
-      <c r="I4" s="582"/>
-      <c r="J4" s="582"/>
-      <c r="K4" s="582"/>
-      <c r="L4" s="582"/>
-      <c r="M4" s="582"/>
+      <c r="B4" s="628"/>
+      <c r="C4" s="628"/>
+      <c r="D4" s="628"/>
+      <c r="E4" s="628"/>
+      <c r="F4" s="628"/>
+      <c r="G4" s="628"/>
+      <c r="H4" s="628"/>
+      <c r="I4" s="628"/>
+      <c r="J4" s="628"/>
+      <c r="K4" s="628"/>
+      <c r="L4" s="628"/>
+      <c r="M4" s="628"/>
     </row>
     <row r="5" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="568" t="s">
+      <c r="A5" s="614" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="568"/>
-      <c r="C5" s="568"/>
-      <c r="D5" s="568"/>
-      <c r="E5" s="568"/>
-      <c r="F5" s="568"/>
-      <c r="G5" s="568"/>
-      <c r="H5" s="568"/>
-      <c r="I5" s="568"/>
-      <c r="J5" s="568"/>
-      <c r="K5" s="568"/>
-      <c r="L5" s="568"/>
-      <c r="M5" s="568"/>
+      <c r="B5" s="614"/>
+      <c r="C5" s="614"/>
+      <c r="D5" s="614"/>
+      <c r="E5" s="614"/>
+      <c r="F5" s="614"/>
+      <c r="G5" s="614"/>
+      <c r="H5" s="614"/>
+      <c r="I5" s="614"/>
+      <c r="J5" s="614"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="614"/>
+      <c r="M5" s="614"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K6" s="569" t="s">
+      <c r="K6" s="615" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="569"/>
-      <c r="M6" s="569"/>
+      <c r="L6" s="615"/>
+      <c r="M6" s="615"/>
     </row>
     <row r="7" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
@@ -16698,10 +17515,10 @@
       <c r="M8" s="52"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="570" t="s">
+      <c r="A9" s="616" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="571"/>
+      <c r="B9" s="617"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
       <c r="E9" s="53"/>
@@ -16882,11 +17699,11 @@
       <c r="M13" s="60"/>
     </row>
     <row r="14" spans="1:13" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="575" t="s">
+      <c r="A14" s="621" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="576"/>
-      <c r="C14" s="577"/>
+      <c r="B14" s="622"/>
+      <c r="C14" s="623"/>
       <c r="D14" s="100">
         <f>SUM(D10:D13)</f>
         <v>37000000</v>
@@ -16920,10 +17737,10 @@
       <c r="M14" s="102"/>
     </row>
     <row r="15" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="572" t="s">
+      <c r="A15" s="618" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="573"/>
+      <c r="B15" s="619"/>
       <c r="C15" s="94"/>
       <c r="D15" s="95"/>
       <c r="E15" s="109"/>
@@ -17056,11 +17873,11 @@
       <c r="M18" s="64"/>
     </row>
     <row r="19" spans="1:13" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="575" t="s">
+      <c r="A19" s="621" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="576"/>
-      <c r="C19" s="577"/>
+      <c r="B19" s="622"/>
+      <c r="C19" s="623"/>
       <c r="D19" s="103">
         <f>SUM(D16:D18)</f>
         <v>18000000</v>
@@ -17094,14 +17911,14 @@
       <c r="M19" s="102"/>
     </row>
     <row r="21" spans="1:13" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="574"/>
-      <c r="C21" s="574"/>
-      <c r="D21" s="574"/>
+      <c r="B21" s="620"/>
+      <c r="C21" s="620"/>
+      <c r="D21" s="620"/>
       <c r="E21" s="93"/>
-      <c r="I21" s="574"/>
-      <c r="J21" s="574"/>
-      <c r="K21" s="574"/>
-      <c r="L21" s="574"/>
+      <c r="I21" s="620"/>
+      <c r="J21" s="620"/>
+      <c r="K21" s="620"/>
+      <c r="L21" s="620"/>
     </row>
     <row r="22" spans="1:13" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" s="110" t="s">
@@ -17163,780 +17980,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6" style="291" customWidth="1"/>
-    <col min="2" max="2" width="11" style="89" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="89" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="89" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="89" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="89" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="89" customWidth="1"/>
-    <col min="8" max="8" width="12" style="89" customWidth="1"/>
-    <col min="9" max="9" width="14" style="89" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" style="116" customWidth="1"/>
-    <col min="11" max="11" width="14" style="146" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" style="89" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="89" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" style="89" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="89"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="405" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="406" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="605" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="605"/>
-      <c r="C3" s="605"/>
-      <c r="D3" s="605"/>
-      <c r="E3" s="605"/>
-      <c r="F3" s="605"/>
-      <c r="G3" s="605"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="605"/>
-      <c r="J3" s="605"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="605"/>
-      <c r="M3" s="605"/>
-      <c r="N3" s="605"/>
-      <c r="O3" s="605"/>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="606" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="606"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="606"/>
-      <c r="E4" s="606"/>
-      <c r="F4" s="606"/>
-      <c r="G4" s="606"/>
-      <c r="H4" s="606"/>
-      <c r="I4" s="606"/>
-      <c r="J4" s="607"/>
-      <c r="K4" s="606"/>
-      <c r="L4" s="606"/>
-      <c r="M4" s="606"/>
-      <c r="N4" s="606"/>
-      <c r="O4" s="606"/>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="608" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="610" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="612" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="612"/>
-      <c r="E5" s="612"/>
-      <c r="F5" s="613" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="613"/>
-      <c r="H5" s="613"/>
-      <c r="I5" s="613"/>
-      <c r="J5" s="614"/>
-      <c r="K5" s="615" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="613" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="613"/>
-      <c r="N5" s="613"/>
-      <c r="O5" s="617" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="609"/>
-      <c r="B6" s="611"/>
-      <c r="C6" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="274" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="275" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="276" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="616"/>
-      <c r="L6" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="88" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="618"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="290">
-        <v>465</v>
-      </c>
-      <c r="B7" s="162">
-        <v>43955</v>
-      </c>
-      <c r="C7" s="159" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="159" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="159">
-        <v>10</v>
-      </c>
-      <c r="H7" s="163">
-        <v>485000</v>
-      </c>
-      <c r="I7" s="163">
-        <f>G7*H7</f>
-        <v>4850000</v>
-      </c>
-      <c r="J7" s="161">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="160">
-        <f>I7*(1-J7)</f>
-        <v>2425000</v>
-      </c>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="164"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="596">
-        <v>1149</v>
-      </c>
-      <c r="B8" s="599">
-        <v>43987</v>
-      </c>
-      <c r="C8" s="586" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="583" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="586"/>
-      <c r="F8" s="259" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="259">
-        <v>10</v>
-      </c>
-      <c r="H8" s="260">
-        <v>265000</v>
-      </c>
-      <c r="I8" s="260">
-        <f t="shared" ref="I8:I20" si="0">G8*H8</f>
-        <v>2650000</v>
-      </c>
-      <c r="J8" s="261">
-        <v>0.35</v>
-      </c>
-      <c r="K8" s="262">
-        <f t="shared" ref="K8:K12" si="1">I8*(1-J8)</f>
-        <v>1722500</v>
-      </c>
-      <c r="L8" s="259"/>
-      <c r="M8" s="259"/>
-      <c r="N8" s="259"/>
-      <c r="O8" s="263"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="597"/>
-      <c r="B9" s="600"/>
-      <c r="C9" s="587"/>
-      <c r="D9" s="584"/>
-      <c r="E9" s="587"/>
-      <c r="F9" s="264" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="264">
-        <v>14</v>
-      </c>
-      <c r="H9" s="265">
-        <v>275000</v>
-      </c>
-      <c r="I9" s="265">
-        <f t="shared" si="0"/>
-        <v>3850000</v>
-      </c>
-      <c r="J9" s="266">
-        <v>0.35</v>
-      </c>
-      <c r="K9" s="267">
-        <f t="shared" si="1"/>
-        <v>2502500</v>
-      </c>
-      <c r="L9" s="264"/>
-      <c r="M9" s="264"/>
-      <c r="N9" s="264"/>
-      <c r="O9" s="268"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="598"/>
-      <c r="B10" s="601"/>
-      <c r="C10" s="588"/>
-      <c r="D10" s="585"/>
-      <c r="E10" s="588"/>
-      <c r="F10" s="269" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" s="269">
-        <v>11</v>
-      </c>
-      <c r="H10" s="270">
-        <v>285000</v>
-      </c>
-      <c r="I10" s="270">
-        <f t="shared" si="0"/>
-        <v>3135000</v>
-      </c>
-      <c r="J10" s="271">
-        <v>0.35</v>
-      </c>
-      <c r="K10" s="272">
-        <f t="shared" si="1"/>
-        <v>2037750</v>
-      </c>
-      <c r="L10" s="269"/>
-      <c r="M10" s="269"/>
-      <c r="N10" s="269"/>
-      <c r="O10" s="273"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="290">
-        <v>516</v>
-      </c>
-      <c r="B11" s="162">
-        <v>43962</v>
-      </c>
-      <c r="C11" s="159" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="159"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="159">
-        <v>12</v>
-      </c>
-      <c r="H11" s="163">
-        <v>485000</v>
-      </c>
-      <c r="I11" s="163">
-        <f t="shared" si="0"/>
-        <v>5820000</v>
-      </c>
-      <c r="J11" s="161">
-        <v>0.35</v>
-      </c>
-      <c r="K11" s="160">
-        <f t="shared" si="1"/>
-        <v>3783000</v>
-      </c>
-      <c r="L11" s="159"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="159"/>
-      <c r="O11" s="164"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="290">
-        <v>534</v>
-      </c>
-      <c r="B12" s="162">
-        <v>43965</v>
-      </c>
-      <c r="C12" s="159" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="159">
-        <v>12</v>
-      </c>
-      <c r="H12" s="163">
-        <v>455000</v>
-      </c>
-      <c r="I12" s="163">
-        <f t="shared" si="0"/>
-        <v>5460000</v>
-      </c>
-      <c r="J12" s="161">
-        <v>0.43</v>
-      </c>
-      <c r="K12" s="160">
-        <f t="shared" si="1"/>
-        <v>3112200.0000000005</v>
-      </c>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="164"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="289">
-        <v>551</v>
-      </c>
-      <c r="B13" s="285">
-        <v>43974</v>
-      </c>
-      <c r="C13" s="281" t="s">
-        <v>267</v>
-      </c>
-      <c r="D13" s="277" t="s">
-        <v>268</v>
-      </c>
-      <c r="E13" s="277"/>
-      <c r="F13" s="277" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="277">
-        <v>12</v>
-      </c>
-      <c r="H13" s="286">
-        <v>485000</v>
-      </c>
-      <c r="I13" s="286">
-        <f t="shared" si="0"/>
-        <v>5820000</v>
-      </c>
-      <c r="J13" s="287">
-        <v>0.41</v>
-      </c>
-      <c r="K13" s="288">
-        <f>I13*(1-J13)</f>
-        <v>3433800.0000000005</v>
-      </c>
-      <c r="L13" s="277"/>
-      <c r="M13" s="277"/>
-      <c r="N13" s="277"/>
-      <c r="O13" s="277"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="596">
-        <v>552</v>
-      </c>
-      <c r="B14" s="592">
-        <v>43975</v>
-      </c>
-      <c r="C14" s="602" t="s">
-        <v>269</v>
-      </c>
-      <c r="D14" s="596" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="278"/>
-      <c r="F14" s="278" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="278">
-        <v>12</v>
-      </c>
-      <c r="H14" s="260">
-        <v>485000</v>
-      </c>
-      <c r="I14" s="260">
-        <f t="shared" si="0"/>
-        <v>5820000</v>
-      </c>
-      <c r="J14" s="261">
-        <v>0.38</v>
-      </c>
-      <c r="K14" s="262">
-        <f t="shared" ref="K14:K21" si="2">I14*(1-J14)</f>
-        <v>3608400</v>
-      </c>
-      <c r="L14" s="278"/>
-      <c r="M14" s="278"/>
-      <c r="N14" s="278"/>
-      <c r="O14" s="278"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="597"/>
-      <c r="B15" s="593"/>
-      <c r="C15" s="603"/>
-      <c r="D15" s="597"/>
-      <c r="E15" s="279"/>
-      <c r="F15" s="279" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="279">
-        <v>18</v>
-      </c>
-      <c r="H15" s="265">
-        <v>550000</v>
-      </c>
-      <c r="I15" s="265">
-        <f t="shared" si="0"/>
-        <v>9900000</v>
-      </c>
-      <c r="J15" s="266">
-        <v>0.38</v>
-      </c>
-      <c r="K15" s="267">
-        <f t="shared" si="2"/>
-        <v>6138000</v>
-      </c>
-      <c r="L15" s="279"/>
-      <c r="M15" s="279"/>
-      <c r="N15" s="279"/>
-      <c r="O15" s="279"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="597"/>
-      <c r="B16" s="593"/>
-      <c r="C16" s="603"/>
-      <c r="D16" s="597"/>
-      <c r="E16" s="279"/>
-      <c r="F16" s="279" t="s">
-        <v>252</v>
-      </c>
-      <c r="G16" s="279">
-        <v>46</v>
-      </c>
-      <c r="H16" s="265">
-        <v>450000</v>
-      </c>
-      <c r="I16" s="265">
-        <f t="shared" si="0"/>
-        <v>20700000</v>
-      </c>
-      <c r="J16" s="266">
-        <v>0.38</v>
-      </c>
-      <c r="K16" s="267">
-        <f t="shared" si="2"/>
-        <v>12834000</v>
-      </c>
-      <c r="L16" s="279"/>
-      <c r="M16" s="279"/>
-      <c r="N16" s="279"/>
-      <c r="O16" s="279"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="598"/>
-      <c r="B17" s="594"/>
-      <c r="C17" s="604"/>
-      <c r="D17" s="598"/>
-      <c r="E17" s="280"/>
-      <c r="F17" s="280" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="280">
-        <v>24</v>
-      </c>
-      <c r="H17" s="270">
-        <v>455000</v>
-      </c>
-      <c r="I17" s="270">
-        <f t="shared" si="0"/>
-        <v>10920000</v>
-      </c>
-      <c r="J17" s="271">
-        <v>0.38</v>
-      </c>
-      <c r="K17" s="272">
-        <f t="shared" si="2"/>
-        <v>6770400</v>
-      </c>
-      <c r="L17" s="280"/>
-      <c r="M17" s="280"/>
-      <c r="N17" s="280"/>
-      <c r="O17" s="280"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="596">
-        <v>553</v>
-      </c>
-      <c r="B18" s="592">
-        <v>43975</v>
-      </c>
-      <c r="C18" s="589" t="s">
-        <v>270</v>
-      </c>
-      <c r="D18" s="278"/>
-      <c r="E18" s="278"/>
-      <c r="F18" s="278" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="278">
-        <v>48</v>
-      </c>
-      <c r="H18" s="260">
-        <v>550000</v>
-      </c>
-      <c r="I18" s="260">
-        <f t="shared" si="0"/>
-        <v>26400000</v>
-      </c>
-      <c r="J18" s="261">
-        <v>0.38</v>
-      </c>
-      <c r="K18" s="262">
-        <f t="shared" si="2"/>
-        <v>16368000</v>
-      </c>
-      <c r="L18" s="278"/>
-      <c r="M18" s="278"/>
-      <c r="N18" s="278"/>
-      <c r="O18" s="278"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="597"/>
-      <c r="B19" s="593"/>
-      <c r="C19" s="590"/>
-      <c r="D19" s="279"/>
-      <c r="E19" s="279"/>
-      <c r="F19" s="279" t="s">
-        <v>252</v>
-      </c>
-      <c r="G19" s="279">
-        <v>17</v>
-      </c>
-      <c r="H19" s="265">
-        <v>450000</v>
-      </c>
-      <c r="I19" s="265">
-        <f t="shared" si="0"/>
-        <v>7650000</v>
-      </c>
-      <c r="J19" s="266">
-        <v>0.38</v>
-      </c>
-      <c r="K19" s="267">
-        <f t="shared" si="2"/>
-        <v>4743000</v>
-      </c>
-      <c r="L19" s="279"/>
-      <c r="M19" s="279"/>
-      <c r="N19" s="279"/>
-      <c r="O19" s="279"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="598"/>
-      <c r="B20" s="594"/>
-      <c r="C20" s="591"/>
-      <c r="D20" s="280"/>
-      <c r="E20" s="280"/>
-      <c r="F20" s="280" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="280">
-        <v>84</v>
-      </c>
-      <c r="H20" s="270">
-        <v>455000</v>
-      </c>
-      <c r="I20" s="270">
-        <f t="shared" si="0"/>
-        <v>38220000</v>
-      </c>
-      <c r="J20" s="271">
-        <v>0.38</v>
-      </c>
-      <c r="K20" s="272">
-        <f t="shared" si="2"/>
-        <v>23696400</v>
-      </c>
-      <c r="L20" s="280"/>
-      <c r="M20" s="280"/>
-      <c r="N20" s="280"/>
-      <c r="O20" s="280"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="289"/>
-      <c r="B21" s="285"/>
-      <c r="C21" s="281"/>
-      <c r="D21" s="277"/>
-      <c r="E21" s="277"/>
-      <c r="F21" s="277"/>
-      <c r="G21" s="277"/>
-      <c r="H21" s="286"/>
-      <c r="I21" s="286"/>
-      <c r="J21" s="287"/>
-      <c r="K21" s="288">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="277"/>
-      <c r="M21" s="277"/>
-      <c r="N21" s="277"/>
-      <c r="O21" s="277"/>
-    </row>
-    <row r="22" spans="1:15" s="153" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="595" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="595"/>
-      <c r="C22" s="595"/>
-      <c r="D22" s="595"/>
-      <c r="E22" s="595"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149">
-        <f>SUM(G7:G20)</f>
-        <v>330</v>
-      </c>
-      <c r="H22" s="150">
-        <f>SUM(H7:H20)</f>
-        <v>6130000</v>
-      </c>
-      <c r="I22" s="150">
-        <f>SUM(I7:I20)</f>
-        <v>151195000</v>
-      </c>
-      <c r="J22" s="151"/>
-      <c r="K22" s="152">
-        <f>SUM(K7:K20)</f>
-        <v>93174950</v>
-      </c>
-      <c r="L22" s="149"/>
-      <c r="M22" s="149"/>
-      <c r="N22" s="149"/>
-      <c r="O22" s="149"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-    </row>
-    <row r="24" spans="1:15" s="256" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="292"/>
-      <c r="D24" s="282" t="s">
-        <v>193</v>
-      </c>
-      <c r="E24" s="239"/>
-      <c r="F24" s="239"/>
-      <c r="G24" s="239"/>
-      <c r="H24" s="239"/>
-      <c r="K24" s="282" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="256" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="292"/>
-      <c r="D25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="K25" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="K26" s="283"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="K27" s="283"/>
-    </row>
-    <row r="28" spans="1:15" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="133"/>
-      <c r="D28" s="239"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="K28" s="284"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A14:A17"/>
-  </mergeCells>
-  <pageMargins left="0.36" right="0.2" top="0.48" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -17954,13 +18002,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="619" t="s">
+      <c r="A1" s="629" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="619"/>
-      <c r="C1" s="619"/>
-      <c r="D1" s="619"/>
-      <c r="E1" s="619"/>
+      <c r="B1" s="629"/>
+      <c r="C1" s="629"/>
+      <c r="D1" s="629"/>
+      <c r="E1" s="629"/>
       <c r="F1" s="314"/>
       <c r="G1" s="314"/>
       <c r="H1" s="314"/>
@@ -17997,16 +18045,16 @@
       <c r="K3" s="315"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="620" t="s">
+      <c r="A4" s="630" t="s">
         <v>303</v>
       </c>
-      <c r="B4" s="620"/>
-      <c r="C4" s="620"/>
-      <c r="D4" s="620"/>
-      <c r="E4" s="620"/>
-      <c r="F4" s="620"/>
-      <c r="G4" s="620"/>
-      <c r="H4" s="620"/>
+      <c r="B4" s="630"/>
+      <c r="C4" s="630"/>
+      <c r="D4" s="630"/>
+      <c r="E4" s="630"/>
+      <c r="F4" s="630"/>
+      <c r="G4" s="630"/>
+      <c r="H4" s="630"/>
       <c r="I4" s="320"/>
       <c r="J4" s="315"/>
       <c r="K4" s="315"/>
@@ -18025,31 +18073,31 @@
       <c r="K5" s="315"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="621" t="s">
+      <c r="A6" s="631" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="622" t="s">
+      <c r="B6" s="632" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="623" t="s">
+      <c r="C6" s="633" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="623"/>
-      <c r="E6" s="623"/>
-      <c r="F6" s="623"/>
-      <c r="G6" s="624"/>
-      <c r="H6" s="621" t="s">
+      <c r="D6" s="633"/>
+      <c r="E6" s="633"/>
+      <c r="F6" s="633"/>
+      <c r="G6" s="634"/>
+      <c r="H6" s="631" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="626" t="s">
+      <c r="I6" s="636" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="315"/>
       <c r="K6" s="315"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="621"/>
-      <c r="B7" s="622"/>
+      <c r="A7" s="631"/>
+      <c r="B7" s="632"/>
       <c r="C7" s="324" t="s">
         <v>31</v>
       </c>
@@ -18065,8 +18113,8 @@
       <c r="G7" s="325" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="621"/>
-      <c r="I7" s="627"/>
+      <c r="H7" s="631"/>
+      <c r="I7" s="637"/>
       <c r="J7" s="315"/>
       <c r="K7" s="315"/>
     </row>
@@ -18100,10 +18148,10 @@
       <c r="K8" s="315"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="628">
+      <c r="A9" s="638">
         <v>452</v>
       </c>
-      <c r="B9" s="631">
+      <c r="B9" s="641">
         <v>43942</v>
       </c>
       <c r="C9" s="335" t="s">
@@ -18129,8 +18177,8 @@
       <c r="K9" s="315"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="629"/>
-      <c r="B10" s="632"/>
+      <c r="A10" s="639"/>
+      <c r="B10" s="642"/>
       <c r="C10" s="341" t="s">
         <v>39</v>
       </c>
@@ -18154,8 +18202,8 @@
       <c r="K10" s="315"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="630"/>
-      <c r="B11" s="633"/>
+      <c r="A11" s="640"/>
+      <c r="B11" s="643"/>
       <c r="C11" s="347" t="s">
         <v>67</v>
       </c>
@@ -18200,16 +18248,16 @@
       <c r="K12" s="315"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="634" t="s">
+      <c r="A13" s="644" t="s">
         <v>304</v>
       </c>
-      <c r="B13" s="634"/>
-      <c r="C13" s="634"/>
-      <c r="D13" s="634"/>
-      <c r="E13" s="634"/>
-      <c r="F13" s="634"/>
-      <c r="G13" s="634"/>
-      <c r="H13" s="634"/>
+      <c r="B13" s="644"/>
+      <c r="C13" s="644"/>
+      <c r="D13" s="644"/>
+      <c r="E13" s="644"/>
+      <c r="F13" s="644"/>
+      <c r="G13" s="644"/>
+      <c r="H13" s="644"/>
       <c r="I13" s="358">
         <v>19328400.000000004</v>
       </c>
@@ -18217,16 +18265,16 @@
       <c r="K13" s="315"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="634" t="s">
+      <c r="A14" s="644" t="s">
         <v>305</v>
       </c>
-      <c r="B14" s="634"/>
-      <c r="C14" s="634"/>
-      <c r="D14" s="634"/>
-      <c r="E14" s="634"/>
-      <c r="F14" s="634"/>
-      <c r="G14" s="634"/>
-      <c r="H14" s="634"/>
+      <c r="B14" s="644"/>
+      <c r="C14" s="644"/>
+      <c r="D14" s="644"/>
+      <c r="E14" s="644"/>
+      <c r="F14" s="644"/>
+      <c r="G14" s="644"/>
+      <c r="H14" s="644"/>
       <c r="I14" s="358">
         <v>23794300</v>
       </c>
@@ -18234,16 +18282,16 @@
       <c r="K14" s="315"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="635" t="s">
+      <c r="A15" s="645" t="s">
         <v>306</v>
       </c>
-      <c r="B15" s="636"/>
-      <c r="C15" s="636"/>
-      <c r="D15" s="636"/>
-      <c r="E15" s="636"/>
-      <c r="F15" s="636"/>
-      <c r="G15" s="636"/>
-      <c r="H15" s="637"/>
+      <c r="B15" s="646"/>
+      <c r="C15" s="646"/>
+      <c r="D15" s="646"/>
+      <c r="E15" s="646"/>
+      <c r="F15" s="646"/>
+      <c r="G15" s="646"/>
+      <c r="H15" s="647"/>
       <c r="I15" s="358">
         <v>10000000</v>
       </c>
@@ -18251,16 +18299,16 @@
       <c r="K15" s="315"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="635" t="s">
+      <c r="A16" s="645" t="s">
         <v>307</v>
       </c>
-      <c r="B16" s="636"/>
-      <c r="C16" s="636"/>
-      <c r="D16" s="636"/>
-      <c r="E16" s="636"/>
-      <c r="F16" s="636"/>
-      <c r="G16" s="636"/>
-      <c r="H16" s="637"/>
+      <c r="B16" s="646"/>
+      <c r="C16" s="646"/>
+      <c r="D16" s="646"/>
+      <c r="E16" s="646"/>
+      <c r="F16" s="646"/>
+      <c r="G16" s="646"/>
+      <c r="H16" s="647"/>
       <c r="I16" s="358">
         <v>7538461.538461539</v>
       </c>
@@ -18268,16 +18316,16 @@
       <c r="K16" s="315"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="635" t="s">
+      <c r="A17" s="645" t="s">
         <v>308</v>
       </c>
-      <c r="B17" s="636"/>
-      <c r="C17" s="636"/>
-      <c r="D17" s="636"/>
-      <c r="E17" s="636"/>
-      <c r="F17" s="636"/>
-      <c r="G17" s="636"/>
-      <c r="H17" s="637"/>
+      <c r="B17" s="646"/>
+      <c r="C17" s="646"/>
+      <c r="D17" s="646"/>
+      <c r="E17" s="646"/>
+      <c r="F17" s="646"/>
+      <c r="G17" s="646"/>
+      <c r="H17" s="647"/>
       <c r="I17" s="358">
         <v>1783100</v>
       </c>
@@ -18285,16 +18333,16 @@
       <c r="K17" s="315"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="638" t="s">
+      <c r="A18" s="648" t="s">
         <v>309</v>
       </c>
-      <c r="B18" s="639"/>
-      <c r="C18" s="639"/>
-      <c r="D18" s="639"/>
-      <c r="E18" s="639"/>
-      <c r="F18" s="639"/>
-      <c r="G18" s="639"/>
-      <c r="H18" s="640"/>
+      <c r="B18" s="649"/>
+      <c r="C18" s="649"/>
+      <c r="D18" s="649"/>
+      <c r="E18" s="649"/>
+      <c r="F18" s="649"/>
+      <c r="G18" s="649"/>
+      <c r="H18" s="650"/>
       <c r="I18" s="359">
         <f>I13+I14-I15-I16-I17</f>
         <v>23801138.46153846</v>
@@ -18312,8 +18360,8 @@
       <c r="I19" s="361"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="641"/>
-      <c r="B20" s="641"/>
+      <c r="A20" s="651"/>
+      <c r="B20" s="651"/>
       <c r="C20" s="362" t="s">
         <v>310</v>
       </c>
@@ -18338,13 +18386,13 @@
       <c r="F22" s="315"/>
       <c r="G22" s="315"/>
       <c r="H22" s="334"/>
-      <c r="I22" s="642" t="s">
+      <c r="I22" s="423" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="641"/>
-      <c r="B24" s="641"/>
+      <c r="A24" s="651"/>
+      <c r="B24" s="651"/>
       <c r="C24" s="315"/>
       <c r="D24" s="315"/>
       <c r="E24" s="362"/>
@@ -18354,17 +18402,17 @@
       <c r="I24" s="315"/>
     </row>
     <row r="27" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="625" t="s">
+      <c r="A27" s="635" t="s">
         <v>311</v>
       </c>
-      <c r="B27" s="625"/>
-      <c r="C27" s="625"/>
-      <c r="D27" s="625"/>
-      <c r="E27" s="625"/>
-      <c r="F27" s="625"/>
-      <c r="G27" s="625"/>
-      <c r="H27" s="625"/>
-      <c r="I27" s="625"/>
+      <c r="B27" s="635"/>
+      <c r="C27" s="635"/>
+      <c r="D27" s="635"/>
+      <c r="E27" s="635"/>
+      <c r="F27" s="635"/>
+      <c r="G27" s="635"/>
+      <c r="H27" s="635"/>
+      <c r="I27" s="635"/>
     </row>
   </sheetData>
   <mergeCells count="18">

--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 5_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 5_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="428">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1325,6 +1325,75 @@
   </si>
   <si>
     <t xml:space="preserve"> Số:T-NNM052020./PKD. MST: 0108806878</t>
+  </si>
+  <si>
+    <t>em Hằng kế toán thanh toán tiền hàng 1145</t>
+  </si>
+  <si>
+    <t>Chị Thực Vĩnh Phúc (Anh Lâm) 466</t>
+  </si>
+  <si>
+    <t>Chị Huệ ĐB 468</t>
+  </si>
+  <si>
+    <t>Chị Hằng bệnh viện K3 (Anh Lâm) 469</t>
+  </si>
+  <si>
+    <t>Chị Huệ ĐB 470</t>
+  </si>
+  <si>
+    <t>Tâm thanh toán tiền hàng đại lý Quỳnh Trang 784</t>
+  </si>
+  <si>
+    <t>Hằng thanh toán tiền hàng đại lý Quỳnh Trang 784</t>
+  </si>
+  <si>
+    <t>Dung Phi thanh toán tiền hàng 515</t>
+  </si>
+  <si>
+    <t>Triệu sơn  thanh toán tiền hàng mất 517</t>
+  </si>
+  <si>
+    <t>Văn sơn thanh toán tiền hàng mất 517</t>
+  </si>
+  <si>
+    <t>Chị Hà la khê thanh toán tiền hàng (AL) 518</t>
+  </si>
+  <si>
+    <t>Chị Thanh thanh toán tiền hàng 525</t>
+  </si>
+  <si>
+    <t>Khách lẻ anh lâm 542</t>
+  </si>
+  <si>
+    <t>Chị phương yên châu thanh toán tiền hàng 528</t>
+  </si>
+  <si>
+    <t>Tâm Thanh toán tiền hàng 527</t>
+  </si>
+  <si>
+    <t>Chị Huệ ĐB 530</t>
+  </si>
+  <si>
+    <t>Anh Tùng CTV thanh toán tiền hàng 535</t>
+  </si>
+  <si>
+    <t>Chị hảo linh đàm chuyển tiền hàng 536</t>
+  </si>
+  <si>
+    <t>Hằng Kế toán thanh toán tiền hàng 537</t>
+  </si>
+  <si>
+    <t>Chị Sáu thanh toán công nợ 1150+1149</t>
+  </si>
+  <si>
+    <t>Chị Nguyệt thanh toán tiền hàng 541</t>
+  </si>
+  <si>
+    <t>Thu tiền hàng em mến HFC - hàng em mến trả 549</t>
+  </si>
+  <si>
+    <t>Tình thu thanh toán tiền hàng 556</t>
   </si>
 </sst>
 </file>
@@ -3174,7 +3243,64 @@
     <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3189,61 +3315,31 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="46" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="46" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="46" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3251,6 +3347,105 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="33" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="46" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="46" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="46" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="46" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3261,130 +3456,97 @@
     <xf numFmtId="167" fontId="46" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="46" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="46" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="46" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="33" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="33" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="46" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="46" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="46" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="46" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="46" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="46" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3435,99 +3597,6 @@
     <xf numFmtId="166" fontId="27" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3543,6 +3612,165 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3555,9 +3783,6 @@
     <xf numFmtId="167" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3573,173 +3798,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3789,11 +3864,8 @@
     <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3834,7 +3906,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3887,24 +3974,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -4219,11 +4288,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M232"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D239" sqref="D239"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4294,22 +4364,22 @@
       <c r="M3" s="113"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="447" t="s">
+      <c r="A4" s="428" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="447"/>
-      <c r="C4" s="447"/>
-      <c r="D4" s="447"/>
-      <c r="E4" s="447"/>
-      <c r="F4" s="447"/>
-      <c r="G4" s="447"/>
-      <c r="H4" s="447"/>
+      <c r="B4" s="428"/>
+      <c r="C4" s="428"/>
+      <c r="D4" s="428"/>
+      <c r="E4" s="428"/>
+      <c r="F4" s="428"/>
+      <c r="G4" s="428"/>
+      <c r="H4" s="428"/>
       <c r="I4" s="113"/>
-      <c r="J4" s="447" t="s">
+      <c r="J4" s="428" t="s">
         <v>296</v>
       </c>
-      <c r="K4" s="447"/>
-      <c r="L4" s="447"/>
+      <c r="K4" s="428"/>
+      <c r="L4" s="428"/>
       <c r="M4" s="113"/>
     </row>
     <row r="5" spans="1:13" s="111" customFormat="1" x14ac:dyDescent="0.25">
@@ -4322,41 +4392,41 @@
       <c r="H5" s="110"/>
     </row>
     <row r="6" spans="1:13" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="437" t="s">
+      <c r="A6" s="433" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="434" t="s">
+      <c r="B6" s="440" t="s">
         <v>324</v>
       </c>
-      <c r="C6" s="437" t="s">
+      <c r="C6" s="433" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="439" t="s">
+      <c r="D6" s="435" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="441" t="s">
+      <c r="E6" s="446" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="441"/>
-      <c r="G6" s="441" t="s">
+      <c r="F6" s="446"/>
+      <c r="G6" s="446" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="441"/>
-      <c r="J6" s="437" t="s">
+      <c r="H6" s="446"/>
+      <c r="J6" s="433" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="439" t="s">
+      <c r="K6" s="435" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="448" t="s">
+      <c r="L6" s="429" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="111" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="438"/>
-      <c r="B7" s="442"/>
-      <c r="C7" s="438"/>
-      <c r="D7" s="440"/>
+    <row r="7" spans="1:13" s="111" customFormat="1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="434"/>
+      <c r="B7" s="447"/>
+      <c r="C7" s="434"/>
+      <c r="D7" s="436"/>
       <c r="E7" s="115" t="s">
         <v>97</v>
       </c>
@@ -4369,11 +4439,11 @@
       <c r="H7" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="438"/>
-      <c r="K7" s="440"/>
-      <c r="L7" s="449"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J7" s="434"/>
+      <c r="K7" s="436"/>
+      <c r="L7" s="430"/>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="160">
         <v>43744</v>
       </c>
@@ -4402,7 +4472,7 @@
         <v>268000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="160">
         <v>43792</v>
       </c>
@@ -4431,7 +4501,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="160">
         <v>43951</v>
       </c>
@@ -4460,7 +4530,7 @@
         <v>526000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="160">
         <v>43952</v>
       </c>
@@ -4489,7 +4559,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="160">
         <v>43952</v>
       </c>
@@ -4518,7 +4588,7 @@
         <v>1006480</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="160">
         <v>43953</v>
       </c>
@@ -4577,7 +4647,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="160">
         <v>43952</v>
       </c>
@@ -4606,7 +4676,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="160">
         <v>43952</v>
       </c>
@@ -4629,7 +4699,7 @@
       <c r="K16" s="98"/>
       <c r="L16" s="99"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="160">
         <v>43952</v>
       </c>
@@ -4658,7 +4728,7 @@
         <v>1057500</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="160">
         <v>43953</v>
       </c>
@@ -4698,7 +4768,7 @@
         <v>219</v>
       </c>
       <c r="D19" s="98" t="s">
-        <v>230</v>
+        <v>405</v>
       </c>
       <c r="E19" s="99">
         <v>649000</v>
@@ -4716,7 +4786,7 @@
         <v>1022540</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="160">
         <v>43954</v>
       </c>
@@ -4744,7 +4814,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="160">
         <v>43954</v>
       </c>
@@ -4772,7 +4842,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="160">
         <v>43954</v>
       </c>
@@ -4800,7 +4870,7 @@
         <v>235000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="160">
         <v>43955</v>
       </c>
@@ -4839,7 +4909,7 @@
         <v>219</v>
       </c>
       <c r="D24" s="98" t="s">
-        <v>314</v>
+        <v>406</v>
       </c>
       <c r="E24" s="99"/>
       <c r="F24" s="116">
@@ -4862,7 +4932,7 @@
         <v>219</v>
       </c>
       <c r="D25" s="98" t="s">
-        <v>315</v>
+        <v>407</v>
       </c>
       <c r="E25" s="99">
         <v>13310400</v>
@@ -4885,7 +4955,7 @@
         <v>219</v>
       </c>
       <c r="D26" s="98" t="s">
-        <v>316</v>
+        <v>408</v>
       </c>
       <c r="E26" s="99"/>
       <c r="F26" s="116">
@@ -4897,7 +4967,7 @@
       <c r="K26" s="98"/>
       <c r="L26" s="99"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="160">
         <v>43956</v>
       </c>
@@ -4936,7 +5006,7 @@
         <v>219</v>
       </c>
       <c r="D28" s="98" t="s">
-        <v>315</v>
+        <v>409</v>
       </c>
       <c r="E28" s="99">
         <v>3186000</v>
@@ -4948,7 +5018,7 @@
       <c r="K28" s="264"/>
       <c r="L28" s="265"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="160">
         <v>43957</v>
       </c>
@@ -4975,7 +5045,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="160">
         <v>43958</v>
       </c>
@@ -4994,16 +5064,16 @@
       <c r="H30" s="116">
         <v>642000</v>
       </c>
-      <c r="J30" s="450" t="s">
+      <c r="J30" s="431" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="451"/>
+      <c r="K30" s="432"/>
       <c r="L30" s="121">
         <f>SUM(L8:L29)</f>
         <v>8766920</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="160">
         <v>43959</v>
       </c>
@@ -5054,7 +5124,7 @@
         <v>219</v>
       </c>
       <c r="D33" s="98" t="s">
-        <v>327</v>
+        <v>410</v>
       </c>
       <c r="E33" s="99">
         <v>1630000</v>
@@ -5074,7 +5144,7 @@
         <v>219</v>
       </c>
       <c r="D34" s="98" t="s">
-        <v>325</v>
+        <v>411</v>
       </c>
       <c r="E34" s="99"/>
       <c r="F34" s="116">
@@ -5083,7 +5153,7 @@
       <c r="G34" s="99"/>
       <c r="H34" s="116"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="160">
         <v>43962</v>
       </c>
@@ -5103,7 +5173,7 @@
       </c>
       <c r="H35" s="116"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="160">
         <v>43962</v>
       </c>
@@ -5134,7 +5204,7 @@
         <v>219</v>
       </c>
       <c r="D37" s="98" t="s">
-        <v>221</v>
+        <v>412</v>
       </c>
       <c r="E37" s="99">
         <v>14352000</v>
@@ -5154,7 +5224,7 @@
         <v>219</v>
       </c>
       <c r="D38" s="98" t="s">
-        <v>317</v>
+        <v>413</v>
       </c>
       <c r="E38" s="99"/>
       <c r="F38" s="116">
@@ -5175,7 +5245,7 @@
         <v>219</v>
       </c>
       <c r="D39" s="98" t="s">
-        <v>318</v>
+        <v>414</v>
       </c>
       <c r="E39" s="99"/>
       <c r="F39" s="116">
@@ -5196,7 +5266,7 @@
         <v>219</v>
       </c>
       <c r="D40" s="98" t="s">
-        <v>319</v>
+        <v>415</v>
       </c>
       <c r="E40" s="99">
         <v>274350</v>
@@ -5205,7 +5275,7 @@
       <c r="G40" s="99"/>
       <c r="H40" s="116"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="160">
         <v>43965</v>
       </c>
@@ -5225,7 +5295,7 @@
         <v>32800000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="160">
         <v>43965</v>
       </c>
@@ -5245,7 +5315,7 @@
         <v>14500000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="160">
         <v>43965</v>
       </c>
@@ -5297,7 +5367,7 @@
         <v>219</v>
       </c>
       <c r="D45" s="98" t="s">
-        <v>320</v>
+        <v>416</v>
       </c>
       <c r="E45" s="99"/>
       <c r="F45" s="116">
@@ -5317,7 +5387,7 @@
         <v>219</v>
       </c>
       <c r="D46" s="98" t="s">
-        <v>321</v>
+        <v>417</v>
       </c>
       <c r="E46" s="99"/>
       <c r="F46" s="116">
@@ -5337,7 +5407,7 @@
         <v>219</v>
       </c>
       <c r="D47" s="98" t="s">
-        <v>322</v>
+        <v>418</v>
       </c>
       <c r="E47" s="99"/>
       <c r="F47" s="116">
@@ -5357,7 +5427,7 @@
         <v>219</v>
       </c>
       <c r="D48" s="117" t="s">
-        <v>220</v>
+        <v>419</v>
       </c>
       <c r="E48" s="99">
         <v>9000000</v>
@@ -5366,7 +5436,7 @@
       <c r="G48" s="99"/>
       <c r="H48" s="116"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="160">
         <v>43968</v>
       </c>
@@ -5386,7 +5456,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="160">
         <v>43968</v>
       </c>
@@ -5417,7 +5487,7 @@
         <v>219</v>
       </c>
       <c r="D51" s="98" t="s">
-        <v>315</v>
+        <v>420</v>
       </c>
       <c r="E51" s="99">
         <v>23116200</v>
@@ -5426,7 +5496,7 @@
       <c r="G51" s="99"/>
       <c r="H51" s="118"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="160">
         <v>43968</v>
       </c>
@@ -5446,7 +5516,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="160">
         <v>43968</v>
       </c>
@@ -5467,7 +5537,7 @@
         <v>8766920</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="160">
         <v>43969</v>
       </c>
@@ -5487,7 +5557,7 @@
       </c>
       <c r="H54" s="118"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="160">
         <v>43969</v>
       </c>
@@ -5518,7 +5588,7 @@
         <v>219</v>
       </c>
       <c r="D56" s="117" t="s">
-        <v>234</v>
+        <v>421</v>
       </c>
       <c r="E56" s="99">
         <v>1342250</v>
@@ -5527,7 +5597,7 @@
       <c r="G56" s="99"/>
       <c r="H56" s="118"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="160">
         <v>43970</v>
       </c>
@@ -5558,7 +5628,7 @@
         <v>219</v>
       </c>
       <c r="D58" s="98" t="s">
-        <v>228</v>
+        <v>422</v>
       </c>
       <c r="E58" s="99">
         <v>3221400</v>
@@ -5578,7 +5648,7 @@
         <v>219</v>
       </c>
       <c r="D59" s="98" t="s">
-        <v>323</v>
+        <v>423</v>
       </c>
       <c r="E59" s="99"/>
       <c r="F59" s="116">
@@ -5598,7 +5668,7 @@
         <v>219</v>
       </c>
       <c r="D60" s="98" t="s">
-        <v>229</v>
+        <v>424</v>
       </c>
       <c r="E60" s="99">
         <v>836000</v>
@@ -5619,7 +5689,7 @@
         <v>219</v>
       </c>
       <c r="D61" s="98" t="s">
-        <v>244</v>
+        <v>425</v>
       </c>
       <c r="E61" s="99">
         <v>1585000</v>
@@ -5628,7 +5698,7 @@
       <c r="G61" s="99"/>
       <c r="H61" s="118"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="160">
         <v>43972</v>
       </c>
@@ -5648,7 +5718,7 @@
       </c>
       <c r="H62" s="118"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="160">
         <v>43972</v>
       </c>
@@ -5692,7 +5762,7 @@
       <c r="H64" s="118"/>
       <c r="J64" s="120"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="160">
         <v>43972</v>
       </c>
@@ -5733,7 +5803,7 @@
       <c r="G66" s="99"/>
       <c r="H66" s="118"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="160">
         <v>43972</v>
       </c>
@@ -5753,7 +5823,7 @@
       </c>
       <c r="H67" s="118"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="160">
         <v>43973</v>
       </c>
@@ -5773,7 +5843,7 @@
         <v>1057500</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="160">
         <v>43973</v>
       </c>
@@ -5793,7 +5863,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="160">
         <v>43975</v>
       </c>
@@ -5825,7 +5895,7 @@
         <v>219</v>
       </c>
       <c r="D71" s="98" t="s">
-        <v>359</v>
+        <v>426</v>
       </c>
       <c r="E71" s="99"/>
       <c r="F71" s="116">
@@ -5834,7 +5904,7 @@
       <c r="G71" s="99"/>
       <c r="H71" s="118"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="160">
         <v>43976</v>
       </c>
@@ -5865,7 +5935,7 @@
         <v>219</v>
       </c>
       <c r="D73" s="98" t="s">
-        <v>312</v>
+        <v>427</v>
       </c>
       <c r="E73" s="99"/>
       <c r="F73" s="116">
@@ -5894,7 +5964,7 @@
       <c r="G74" s="99"/>
       <c r="H74" s="118"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="160">
         <v>43976</v>
       </c>
@@ -5914,7 +5984,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="160">
         <v>43976</v>
       </c>
@@ -5934,7 +6004,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="160">
         <v>43977</v>
       </c>
@@ -5954,7 +6024,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="160">
         <v>43978</v>
       </c>
@@ -5974,7 +6044,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="160">
         <v>43980</v>
       </c>
@@ -5994,7 +6064,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="160">
         <v>43981</v>
       </c>
@@ -6014,7 +6084,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="160">
         <v>43981</v>
       </c>
@@ -6034,7 +6104,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="160">
         <v>43982</v>
       </c>
@@ -6054,7 +6124,7 @@
       </c>
       <c r="H82" s="118"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="160">
         <v>43982</v>
       </c>
@@ -6075,7 +6145,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="160">
         <v>43982</v>
       </c>
@@ -6096,7 +6166,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="160">
         <v>43982</v>
       </c>
@@ -6116,7 +6186,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="160">
         <v>43982</v>
       </c>
@@ -6136,7 +6206,7 @@
         <v>470000</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="160">
         <v>43982</v>
       </c>
@@ -6156,7 +6226,7 @@
       </c>
       <c r="H87" s="118"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="160">
         <v>43982</v>
       </c>
@@ -6176,7 +6246,7 @@
       <c r="G88" s="99"/>
       <c r="H88" s="118"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="160">
         <v>43982</v>
       </c>
@@ -6196,7 +6266,7 @@
       </c>
       <c r="H89" s="118"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="160">
         <v>43982</v>
       </c>
@@ -6216,7 +6286,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="160">
         <v>43982</v>
       </c>
@@ -6236,7 +6306,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="160">
         <v>43982</v>
       </c>
@@ -6256,13 +6326,13 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="444" t="s">
+    <row r="93" spans="1:10" s="122" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="443" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="445"/>
-      <c r="C93" s="445"/>
-      <c r="D93" s="446"/>
+      <c r="B93" s="444"/>
+      <c r="C93" s="444"/>
+      <c r="D93" s="445"/>
       <c r="E93" s="121">
         <f>SUM(E8:E92)</f>
         <v>78910000</v>
@@ -6294,11 +6364,11 @@
       <c r="J94" s="123"/>
     </row>
     <row r="95" spans="1:10" s="122" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A95" s="443" t="s">
+      <c r="A95" s="442" t="s">
         <v>98</v>
       </c>
-      <c r="B95" s="443"/>
-      <c r="C95" s="443"/>
+      <c r="B95" s="442"/>
+      <c r="C95" s="442"/>
       <c r="D95" s="124"/>
       <c r="E95" s="125"/>
       <c r="F95" s="125"/>
@@ -6320,10 +6390,10 @@
     <row r="97" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="161"/>
       <c r="B97" s="161"/>
-      <c r="C97" s="432" t="s">
+      <c r="C97" s="451" t="s">
         <v>389</v>
       </c>
-      <c r="D97" s="432"/>
+      <c r="D97" s="451"/>
       <c r="E97" s="125"/>
       <c r="F97" s="125"/>
       <c r="G97" s="125"/>
@@ -6331,33 +6401,33 @@
       <c r="J97" s="123"/>
     </row>
     <row r="98" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="433" t="s">
+      <c r="A98" s="437" t="s">
         <v>4</v>
       </c>
-      <c r="B98" s="434" t="s">
+      <c r="B98" s="440" t="s">
         <v>324</v>
       </c>
-      <c r="C98" s="433" t="s">
+      <c r="C98" s="437" t="s">
         <v>5</v>
       </c>
-      <c r="D98" s="436" t="s">
+      <c r="D98" s="438" t="s">
         <v>6</v>
       </c>
-      <c r="E98" s="428" t="s">
+      <c r="E98" s="439" t="s">
         <v>7</v>
       </c>
-      <c r="F98" s="428"/>
-      <c r="G98" s="428" t="s">
+      <c r="F98" s="439"/>
+      <c r="G98" s="439" t="s">
         <v>8</v>
       </c>
-      <c r="H98" s="428"/>
+      <c r="H98" s="439"/>
       <c r="J98" s="123"/>
     </row>
     <row r="99" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="433"/>
-      <c r="B99" s="435"/>
-      <c r="C99" s="433"/>
-      <c r="D99" s="436"/>
+      <c r="A99" s="437"/>
+      <c r="B99" s="441"/>
+      <c r="C99" s="437"/>
+      <c r="D99" s="438"/>
       <c r="E99" s="377" t="s">
         <v>97</v>
       </c>
@@ -6393,12 +6463,12 @@
       <c r="H100" s="118"/>
     </row>
     <row r="101" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A101" s="429" t="s">
+      <c r="A101" s="448" t="s">
         <v>279</v>
       </c>
-      <c r="B101" s="430"/>
-      <c r="C101" s="430"/>
-      <c r="D101" s="431"/>
+      <c r="B101" s="449"/>
+      <c r="C101" s="449"/>
+      <c r="D101" s="450"/>
       <c r="E101" s="121"/>
       <c r="F101" s="121">
         <f>SUM(F100)</f>
@@ -6433,10 +6503,10 @@
     <row r="104" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="161"/>
       <c r="B104" s="161"/>
-      <c r="C104" s="432" t="s">
+      <c r="C104" s="451" t="s">
         <v>280</v>
       </c>
-      <c r="D104" s="432"/>
+      <c r="D104" s="451"/>
       <c r="E104" s="125"/>
       <c r="F104" s="125"/>
       <c r="G104" s="125"/>
@@ -6444,33 +6514,33 @@
       <c r="J104" s="123"/>
     </row>
     <row r="105" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A105" s="433" t="s">
+      <c r="A105" s="437" t="s">
         <v>4</v>
       </c>
-      <c r="B105" s="434" t="s">
+      <c r="B105" s="440" t="s">
         <v>324</v>
       </c>
-      <c r="C105" s="433" t="s">
+      <c r="C105" s="437" t="s">
         <v>5</v>
       </c>
-      <c r="D105" s="436" t="s">
+      <c r="D105" s="438" t="s">
         <v>6</v>
       </c>
-      <c r="E105" s="428" t="s">
+      <c r="E105" s="439" t="s">
         <v>7</v>
       </c>
-      <c r="F105" s="428"/>
-      <c r="G105" s="428" t="s">
+      <c r="F105" s="439"/>
+      <c r="G105" s="439" t="s">
         <v>8</v>
       </c>
-      <c r="H105" s="428"/>
+      <c r="H105" s="439"/>
       <c r="J105" s="123"/>
     </row>
     <row r="106" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A106" s="433"/>
-      <c r="B106" s="435"/>
-      <c r="C106" s="433"/>
-      <c r="D106" s="436"/>
+      <c r="A106" s="437"/>
+      <c r="B106" s="441"/>
+      <c r="C106" s="437"/>
+      <c r="D106" s="438"/>
       <c r="E106" s="377" t="s">
         <v>97</v>
       </c>
@@ -6570,12 +6640,12 @@
       <c r="J110" s="123"/>
     </row>
     <row r="111" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A111" s="429" t="s">
+      <c r="A111" s="448" t="s">
         <v>279</v>
       </c>
-      <c r="B111" s="430"/>
-      <c r="C111" s="430"/>
-      <c r="D111" s="431"/>
+      <c r="B111" s="449"/>
+      <c r="C111" s="449"/>
+      <c r="D111" s="450"/>
       <c r="E111" s="121"/>
       <c r="F111" s="121"/>
       <c r="G111" s="121">
@@ -6602,10 +6672,10 @@
     <row r="113" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="161"/>
       <c r="B113" s="161"/>
-      <c r="C113" s="432" t="s">
+      <c r="C113" s="451" t="s">
         <v>286</v>
       </c>
-      <c r="D113" s="432"/>
+      <c r="D113" s="451"/>
       <c r="E113" s="125"/>
       <c r="F113" s="125"/>
       <c r="G113" s="125"/>
@@ -6613,33 +6683,33 @@
       <c r="J113" s="123"/>
     </row>
     <row r="114" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A114" s="433" t="s">
+      <c r="A114" s="437" t="s">
         <v>4</v>
       </c>
-      <c r="B114" s="434" t="s">
+      <c r="B114" s="440" t="s">
         <v>324</v>
       </c>
-      <c r="C114" s="433" t="s">
+      <c r="C114" s="437" t="s">
         <v>5</v>
       </c>
-      <c r="D114" s="436" t="s">
+      <c r="D114" s="438" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="428" t="s">
+      <c r="E114" s="439" t="s">
         <v>7</v>
       </c>
-      <c r="F114" s="428"/>
-      <c r="G114" s="428" t="s">
+      <c r="F114" s="439"/>
+      <c r="G114" s="439" t="s">
         <v>8</v>
       </c>
-      <c r="H114" s="428"/>
+      <c r="H114" s="439"/>
       <c r="J114" s="123"/>
     </row>
     <row r="115" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A115" s="433"/>
-      <c r="B115" s="435"/>
-      <c r="C115" s="433"/>
-      <c r="D115" s="436"/>
+      <c r="A115" s="437"/>
+      <c r="B115" s="441"/>
+      <c r="C115" s="437"/>
+      <c r="D115" s="438"/>
       <c r="E115" s="377" t="s">
         <v>97</v>
       </c>
@@ -7096,12 +7166,12 @@
       <c r="J136" s="123"/>
     </row>
     <row r="137" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A137" s="429" t="s">
+      <c r="A137" s="448" t="s">
         <v>279</v>
       </c>
-      <c r="B137" s="430"/>
-      <c r="C137" s="430"/>
-      <c r="D137" s="431"/>
+      <c r="B137" s="449"/>
+      <c r="C137" s="449"/>
+      <c r="D137" s="450"/>
       <c r="E137" s="121"/>
       <c r="F137" s="121"/>
       <c r="G137" s="121"/>
@@ -7125,10 +7195,10 @@
     <row r="139" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="161"/>
       <c r="B139" s="161"/>
-      <c r="C139" s="432" t="s">
+      <c r="C139" s="451" t="s">
         <v>285</v>
       </c>
-      <c r="D139" s="432"/>
+      <c r="D139" s="451"/>
       <c r="E139" s="125"/>
       <c r="F139" s="125"/>
       <c r="G139" s="125"/>
@@ -7136,33 +7206,33 @@
       <c r="J139" s="123"/>
     </row>
     <row r="140" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A140" s="437" t="s">
+      <c r="A140" s="433" t="s">
         <v>4</v>
       </c>
-      <c r="B140" s="434" t="s">
+      <c r="B140" s="440" t="s">
         <v>324</v>
       </c>
-      <c r="C140" s="437" t="s">
+      <c r="C140" s="433" t="s">
         <v>5</v>
       </c>
-      <c r="D140" s="439" t="s">
+      <c r="D140" s="435" t="s">
         <v>6</v>
       </c>
-      <c r="E140" s="441" t="s">
+      <c r="E140" s="446" t="s">
         <v>7</v>
       </c>
-      <c r="F140" s="441"/>
-      <c r="G140" s="441" t="s">
+      <c r="F140" s="446"/>
+      <c r="G140" s="446" t="s">
         <v>8</v>
       </c>
-      <c r="H140" s="441"/>
+      <c r="H140" s="446"/>
       <c r="J140" s="123"/>
     </row>
     <row r="141" spans="1:10" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="438"/>
-      <c r="B141" s="442"/>
-      <c r="C141" s="438"/>
-      <c r="D141" s="440"/>
+      <c r="A141" s="434"/>
+      <c r="B141" s="447"/>
+      <c r="C141" s="434"/>
+      <c r="D141" s="436"/>
       <c r="E141" s="115" t="s">
         <v>97</v>
       </c>
@@ -7787,12 +7857,12 @@
       <c r="J170" s="123"/>
     </row>
     <row r="171" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A171" s="429" t="s">
+      <c r="A171" s="448" t="s">
         <v>279</v>
       </c>
-      <c r="B171" s="430"/>
-      <c r="C171" s="430"/>
-      <c r="D171" s="431"/>
+      <c r="B171" s="449"/>
+      <c r="C171" s="449"/>
+      <c r="D171" s="450"/>
       <c r="E171" s="121">
         <f>SUBTOTAL(9,E142:E170)</f>
         <v>78910000</v>
@@ -7825,10 +7895,10 @@
     <row r="173" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="161"/>
       <c r="B173" s="161"/>
-      <c r="C173" s="432" t="s">
+      <c r="C173" s="451" t="s">
         <v>11</v>
       </c>
-      <c r="D173" s="432"/>
+      <c r="D173" s="451"/>
       <c r="E173" s="125"/>
       <c r="F173" s="125"/>
       <c r="G173" s="125"/>
@@ -7836,33 +7906,33 @@
       <c r="J173" s="123"/>
     </row>
     <row r="174" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A174" s="437" t="s">
+      <c r="A174" s="433" t="s">
         <v>4</v>
       </c>
-      <c r="B174" s="434" t="s">
+      <c r="B174" s="440" t="s">
         <v>324</v>
       </c>
-      <c r="C174" s="437" t="s">
+      <c r="C174" s="433" t="s">
         <v>5</v>
       </c>
-      <c r="D174" s="439" t="s">
+      <c r="D174" s="435" t="s">
         <v>6</v>
       </c>
-      <c r="E174" s="441" t="s">
+      <c r="E174" s="446" t="s">
         <v>7</v>
       </c>
-      <c r="F174" s="441"/>
-      <c r="G174" s="441" t="s">
+      <c r="F174" s="446"/>
+      <c r="G174" s="446" t="s">
         <v>8</v>
       </c>
-      <c r="H174" s="441"/>
+      <c r="H174" s="446"/>
       <c r="J174" s="123"/>
     </row>
     <row r="175" spans="1:10" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="438"/>
-      <c r="B175" s="442"/>
-      <c r="C175" s="438"/>
-      <c r="D175" s="440"/>
+      <c r="A175" s="434"/>
+      <c r="B175" s="447"/>
+      <c r="C175" s="434"/>
+      <c r="D175" s="436"/>
       <c r="E175" s="115" t="s">
         <v>97</v>
       </c>
@@ -8046,12 +8116,12 @@
       <c r="J183" s="123"/>
     </row>
     <row r="184" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A184" s="429" t="s">
+      <c r="A184" s="448" t="s">
         <v>279</v>
       </c>
-      <c r="B184" s="430"/>
-      <c r="C184" s="430"/>
-      <c r="D184" s="431"/>
+      <c r="B184" s="449"/>
+      <c r="C184" s="449"/>
+      <c r="D184" s="450"/>
       <c r="E184" s="121"/>
       <c r="F184" s="121"/>
       <c r="G184" s="121">
@@ -8078,10 +8148,10 @@
     <row r="186" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="161"/>
       <c r="B186" s="161"/>
-      <c r="C186" s="432" t="s">
+      <c r="C186" s="451" t="s">
         <v>284</v>
       </c>
-      <c r="D186" s="432"/>
+      <c r="D186" s="451"/>
       <c r="E186" s="125"/>
       <c r="F186" s="125"/>
       <c r="G186" s="125"/>
@@ -8089,33 +8159,33 @@
       <c r="J186" s="123"/>
     </row>
     <row r="187" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A187" s="433" t="s">
+      <c r="A187" s="437" t="s">
         <v>4</v>
       </c>
-      <c r="B187" s="434" t="s">
+      <c r="B187" s="440" t="s">
         <v>324</v>
       </c>
-      <c r="C187" s="433" t="s">
+      <c r="C187" s="437" t="s">
         <v>5</v>
       </c>
-      <c r="D187" s="436" t="s">
+      <c r="D187" s="438" t="s">
         <v>6</v>
       </c>
-      <c r="E187" s="428" t="s">
+      <c r="E187" s="439" t="s">
         <v>7</v>
       </c>
-      <c r="F187" s="428"/>
-      <c r="G187" s="428" t="s">
+      <c r="F187" s="439"/>
+      <c r="G187" s="439" t="s">
         <v>8</v>
       </c>
-      <c r="H187" s="428"/>
+      <c r="H187" s="439"/>
       <c r="J187" s="123"/>
     </row>
     <row r="188" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A188" s="433"/>
-      <c r="B188" s="435"/>
-      <c r="C188" s="433"/>
-      <c r="D188" s="436"/>
+      <c r="A188" s="437"/>
+      <c r="B188" s="441"/>
+      <c r="C188" s="437"/>
+      <c r="D188" s="438"/>
       <c r="E188" s="377" t="s">
         <v>97</v>
       </c>
@@ -8320,12 +8390,12 @@
       <c r="J197" s="123"/>
     </row>
     <row r="198" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A198" s="429" t="s">
+      <c r="A198" s="448" t="s">
         <v>279</v>
       </c>
-      <c r="B198" s="430"/>
-      <c r="C198" s="430"/>
-      <c r="D198" s="431"/>
+      <c r="B198" s="449"/>
+      <c r="C198" s="449"/>
+      <c r="D198" s="450"/>
       <c r="E198" s="121"/>
       <c r="F198" s="121"/>
       <c r="G198" s="121">
@@ -8352,10 +8422,10 @@
     <row r="200" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="161"/>
       <c r="B200" s="161"/>
-      <c r="C200" s="432" t="s">
+      <c r="C200" s="451" t="s">
         <v>283</v>
       </c>
-      <c r="D200" s="432"/>
+      <c r="D200" s="451"/>
       <c r="E200" s="125"/>
       <c r="F200" s="125"/>
       <c r="G200" s="125"/>
@@ -8363,33 +8433,33 @@
       <c r="J200" s="123"/>
     </row>
     <row r="201" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A201" s="437" t="s">
+      <c r="A201" s="433" t="s">
         <v>4</v>
       </c>
-      <c r="B201" s="434" t="s">
+      <c r="B201" s="440" t="s">
         <v>324</v>
       </c>
-      <c r="C201" s="437" t="s">
+      <c r="C201" s="433" t="s">
         <v>5</v>
       </c>
-      <c r="D201" s="439" t="s">
+      <c r="D201" s="435" t="s">
         <v>6</v>
       </c>
-      <c r="E201" s="441" t="s">
+      <c r="E201" s="446" t="s">
         <v>7</v>
       </c>
-      <c r="F201" s="441"/>
-      <c r="G201" s="441" t="s">
+      <c r="F201" s="446"/>
+      <c r="G201" s="446" t="s">
         <v>8</v>
       </c>
-      <c r="H201" s="441"/>
+      <c r="H201" s="446"/>
       <c r="J201" s="123"/>
     </row>
     <row r="202" spans="1:10" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="438"/>
-      <c r="B202" s="442"/>
-      <c r="C202" s="438"/>
-      <c r="D202" s="440"/>
+      <c r="A202" s="434"/>
+      <c r="B202" s="447"/>
+      <c r="C202" s="434"/>
+      <c r="D202" s="436"/>
       <c r="E202" s="115" t="s">
         <v>97</v>
       </c>
@@ -8531,12 +8601,12 @@
       <c r="J208" s="123"/>
     </row>
     <row r="209" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A209" s="429" t="s">
+      <c r="A209" s="448" t="s">
         <v>279</v>
       </c>
-      <c r="B209" s="430"/>
-      <c r="C209" s="430"/>
-      <c r="D209" s="431"/>
+      <c r="B209" s="449"/>
+      <c r="C209" s="449"/>
+      <c r="D209" s="450"/>
       <c r="E209" s="121"/>
       <c r="F209" s="121"/>
       <c r="G209" s="121"/>
@@ -8560,10 +8630,10 @@
     <row r="211" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="161"/>
       <c r="B211" s="161"/>
-      <c r="C211" s="432" t="s">
+      <c r="C211" s="451" t="s">
         <v>282</v>
       </c>
-      <c r="D211" s="432"/>
+      <c r="D211" s="451"/>
       <c r="E211" s="125"/>
       <c r="F211" s="125"/>
       <c r="G211" s="125"/>
@@ -8571,33 +8641,33 @@
       <c r="J211" s="123"/>
     </row>
     <row r="212" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A212" s="437" t="s">
+      <c r="A212" s="433" t="s">
         <v>4</v>
       </c>
-      <c r="B212" s="434" t="s">
+      <c r="B212" s="440" t="s">
         <v>324</v>
       </c>
-      <c r="C212" s="437" t="s">
+      <c r="C212" s="433" t="s">
         <v>5</v>
       </c>
-      <c r="D212" s="439" t="s">
+      <c r="D212" s="435" t="s">
         <v>6</v>
       </c>
-      <c r="E212" s="441" t="s">
+      <c r="E212" s="446" t="s">
         <v>7</v>
       </c>
-      <c r="F212" s="441"/>
-      <c r="G212" s="441" t="s">
+      <c r="F212" s="446"/>
+      <c r="G212" s="446" t="s">
         <v>8</v>
       </c>
-      <c r="H212" s="441"/>
+      <c r="H212" s="446"/>
       <c r="J212" s="123"/>
     </row>
     <row r="213" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A213" s="438"/>
-      <c r="B213" s="442"/>
-      <c r="C213" s="438"/>
-      <c r="D213" s="440"/>
+      <c r="A213" s="434"/>
+      <c r="B213" s="447"/>
+      <c r="C213" s="434"/>
+      <c r="D213" s="436"/>
       <c r="E213" s="115" t="s">
         <v>97</v>
       </c>
@@ -8634,12 +8704,12 @@
       <c r="J214" s="123"/>
     </row>
     <row r="215" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A215" s="429" t="s">
+      <c r="A215" s="448" t="s">
         <v>279</v>
       </c>
-      <c r="B215" s="430"/>
-      <c r="C215" s="430"/>
-      <c r="D215" s="431"/>
+      <c r="B215" s="449"/>
+      <c r="C215" s="449"/>
+      <c r="D215" s="450"/>
       <c r="E215" s="121"/>
       <c r="F215" s="121"/>
       <c r="G215" s="121"/>
@@ -8663,10 +8733,10 @@
     <row r="217" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="161"/>
       <c r="B217" s="161"/>
-      <c r="C217" s="432" t="s">
+      <c r="C217" s="451" t="s">
         <v>281</v>
       </c>
-      <c r="D217" s="432"/>
+      <c r="D217" s="451"/>
       <c r="E217" s="125"/>
       <c r="F217" s="125"/>
       <c r="G217" s="125"/>
@@ -8674,33 +8744,33 @@
       <c r="J217" s="123"/>
     </row>
     <row r="218" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A218" s="437" t="s">
+      <c r="A218" s="433" t="s">
         <v>4</v>
       </c>
-      <c r="B218" s="434" t="s">
+      <c r="B218" s="440" t="s">
         <v>324</v>
       </c>
-      <c r="C218" s="437" t="s">
+      <c r="C218" s="433" t="s">
         <v>5</v>
       </c>
-      <c r="D218" s="439" t="s">
+      <c r="D218" s="435" t="s">
         <v>6</v>
       </c>
-      <c r="E218" s="441" t="s">
+      <c r="E218" s="446" t="s">
         <v>7</v>
       </c>
-      <c r="F218" s="441"/>
-      <c r="G218" s="441" t="s">
+      <c r="F218" s="446"/>
+      <c r="G218" s="446" t="s">
         <v>8</v>
       </c>
-      <c r="H218" s="441"/>
+      <c r="H218" s="446"/>
       <c r="J218" s="123"/>
     </row>
     <row r="219" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A219" s="438"/>
-      <c r="B219" s="442"/>
-      <c r="C219" s="438"/>
-      <c r="D219" s="440"/>
+      <c r="A219" s="434"/>
+      <c r="B219" s="447"/>
+      <c r="C219" s="434"/>
+      <c r="D219" s="436"/>
       <c r="E219" s="115" t="s">
         <v>97</v>
       </c>
@@ -8842,12 +8912,12 @@
       <c r="J225" s="123"/>
     </row>
     <row r="226" spans="1:10" s="122" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A226" s="429" t="s">
+      <c r="A226" s="448" t="s">
         <v>279</v>
       </c>
-      <c r="B226" s="430"/>
-      <c r="C226" s="430"/>
-      <c r="D226" s="431"/>
+      <c r="B226" s="449"/>
+      <c r="C226" s="449"/>
+      <c r="D226" s="450"/>
       <c r="E226" s="121"/>
       <c r="F226" s="121"/>
       <c r="G226" s="121">
@@ -8905,72 +8975,23 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:H93">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Hàng hóa"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="86">
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="E201:F201"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="D212:D213"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="G212:H212"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="E218:F218"/>
-    <mergeCell ref="G218:H218"/>
-    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
     <mergeCell ref="A209:D209"/>
     <mergeCell ref="A215:D215"/>
     <mergeCell ref="A226:D226"/>
@@ -8987,14 +9008,68 @@
     <mergeCell ref="A171:D171"/>
     <mergeCell ref="A184:D184"/>
     <mergeCell ref="A198:D198"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="E218:F218"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="D212:D213"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="G212:H212"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="E201:F201"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.21" top="0.46" bottom="0.45" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -9006,8 +9081,8 @@
   <dimension ref="A1:P123"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N108" sqref="N108"/>
+      <pane ySplit="8" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -9032,13 +9107,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="329" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="481" t="s">
+      <c r="A1" s="482" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="481"/>
-      <c r="C1" s="481"/>
-      <c r="D1" s="481"/>
-      <c r="E1" s="481"/>
+      <c r="B1" s="482"/>
+      <c r="C1" s="482"/>
+      <c r="D1" s="482"/>
+      <c r="E1" s="482"/>
       <c r="H1" s="330"/>
       <c r="I1" s="330"/>
       <c r="J1" s="330"/>
@@ -9066,168 +9141,168 @@
       <c r="O2" s="330"/>
     </row>
     <row r="3" spans="1:16" s="329" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="482" t="s">
+      <c r="A3" s="483" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="482"/>
-      <c r="C3" s="482"/>
-      <c r="D3" s="482"/>
-      <c r="E3" s="482"/>
-      <c r="F3" s="482"/>
-      <c r="G3" s="482"/>
-      <c r="H3" s="482"/>
-      <c r="I3" s="482"/>
-      <c r="J3" s="482"/>
-      <c r="K3" s="482"/>
-      <c r="L3" s="482"/>
-      <c r="M3" s="482"/>
-      <c r="N3" s="482"/>
-      <c r="O3" s="482"/>
-      <c r="P3" s="482"/>
+      <c r="B3" s="483"/>
+      <c r="C3" s="483"/>
+      <c r="D3" s="483"/>
+      <c r="E3" s="483"/>
+      <c r="F3" s="483"/>
+      <c r="G3" s="483"/>
+      <c r="H3" s="483"/>
+      <c r="I3" s="483"/>
+      <c r="J3" s="483"/>
+      <c r="K3" s="483"/>
+      <c r="L3" s="483"/>
+      <c r="M3" s="483"/>
+      <c r="N3" s="483"/>
+      <c r="O3" s="483"/>
+      <c r="P3" s="483"/>
     </row>
     <row r="4" spans="1:16" s="329" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="482" t="s">
+      <c r="A4" s="483" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="482"/>
-      <c r="C4" s="482"/>
-      <c r="D4" s="482"/>
-      <c r="E4" s="482"/>
-      <c r="F4" s="482"/>
-      <c r="G4" s="482"/>
-      <c r="H4" s="482"/>
-      <c r="I4" s="482"/>
-      <c r="J4" s="482"/>
-      <c r="K4" s="482"/>
-      <c r="L4" s="482"/>
-      <c r="M4" s="482"/>
-      <c r="N4" s="482"/>
-      <c r="O4" s="482"/>
-      <c r="P4" s="482"/>
+      <c r="B4" s="483"/>
+      <c r="C4" s="483"/>
+      <c r="D4" s="483"/>
+      <c r="E4" s="483"/>
+      <c r="F4" s="483"/>
+      <c r="G4" s="483"/>
+      <c r="H4" s="483"/>
+      <c r="I4" s="483"/>
+      <c r="J4" s="483"/>
+      <c r="K4" s="483"/>
+      <c r="L4" s="483"/>
+      <c r="M4" s="483"/>
+      <c r="N4" s="483"/>
+      <c r="O4" s="483"/>
+      <c r="P4" s="483"/>
     </row>
     <row r="5" spans="1:16" s="329" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="482"/>
-      <c r="B5" s="482"/>
-      <c r="C5" s="482"/>
-      <c r="D5" s="482"/>
-      <c r="E5" s="482"/>
-      <c r="F5" s="482"/>
-      <c r="G5" s="482"/>
-      <c r="H5" s="482"/>
-      <c r="I5" s="482"/>
-      <c r="J5" s="482"/>
-      <c r="K5" s="483"/>
-      <c r="L5" s="483"/>
+      <c r="A5" s="483"/>
+      <c r="B5" s="483"/>
+      <c r="C5" s="483"/>
+      <c r="D5" s="483"/>
+      <c r="E5" s="483"/>
+      <c r="F5" s="483"/>
+      <c r="G5" s="483"/>
+      <c r="H5" s="483"/>
+      <c r="I5" s="483"/>
+      <c r="J5" s="483"/>
+      <c r="K5" s="484"/>
+      <c r="L5" s="484"/>
       <c r="M5" s="330"/>
       <c r="N5" s="330"/>
       <c r="O5" s="330"/>
     </row>
     <row r="6" spans="1:16" s="329" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="478" t="s">
+      <c r="A6" s="479" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="484" t="s">
+      <c r="B6" s="485" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="478" t="s">
+      <c r="C6" s="479" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="486" t="s">
+      <c r="D6" s="487" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="486"/>
-      <c r="F6" s="474" t="s">
+      <c r="E6" s="487"/>
+      <c r="F6" s="488" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="474"/>
-      <c r="H6" s="474"/>
-      <c r="I6" s="474"/>
-      <c r="J6" s="474"/>
-      <c r="K6" s="474"/>
-      <c r="L6" s="474"/>
-      <c r="M6" s="487"/>
-      <c r="N6" s="487"/>
-      <c r="O6" s="487"/>
-      <c r="P6" s="488" t="s">
+      <c r="G6" s="488"/>
+      <c r="H6" s="488"/>
+      <c r="I6" s="488"/>
+      <c r="J6" s="488"/>
+      <c r="K6" s="488"/>
+      <c r="L6" s="488"/>
+      <c r="M6" s="489"/>
+      <c r="N6" s="489"/>
+      <c r="O6" s="489"/>
+      <c r="P6" s="490" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="329" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="479"/>
-      <c r="B7" s="485"/>
-      <c r="C7" s="479"/>
-      <c r="D7" s="478" t="s">
+      <c r="A7" s="480"/>
+      <c r="B7" s="486"/>
+      <c r="C7" s="480"/>
+      <c r="D7" s="479" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="478" t="s">
+      <c r="E7" s="479" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="478" t="s">
+      <c r="F7" s="479" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="478" t="s">
+      <c r="G7" s="479" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="476" t="s">
+      <c r="H7" s="477" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="476" t="s">
+      <c r="I7" s="477" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="480" t="s">
+      <c r="J7" s="481" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="480"/>
-      <c r="L7" s="476" t="s">
+      <c r="K7" s="481"/>
+      <c r="L7" s="477" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="476" t="s">
+      <c r="M7" s="477" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="476" t="s">
+      <c r="N7" s="477" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="476" t="s">
+      <c r="O7" s="477" t="s">
         <v>55</v>
       </c>
-      <c r="P7" s="489"/>
+      <c r="P7" s="491"/>
     </row>
     <row r="8" spans="1:16" s="329" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="479"/>
-      <c r="B8" s="485"/>
-      <c r="C8" s="479"/>
-      <c r="D8" s="479"/>
-      <c r="E8" s="479"/>
-      <c r="F8" s="479"/>
-      <c r="G8" s="479"/>
-      <c r="H8" s="477"/>
-      <c r="I8" s="477"/>
+      <c r="A8" s="480"/>
+      <c r="B8" s="486"/>
+      <c r="C8" s="480"/>
+      <c r="D8" s="480"/>
+      <c r="E8" s="480"/>
+      <c r="F8" s="480"/>
+      <c r="G8" s="480"/>
+      <c r="H8" s="478"/>
+      <c r="I8" s="478"/>
       <c r="J8" s="334" t="s">
         <v>309</v>
       </c>
       <c r="K8" s="335" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="477"/>
-      <c r="M8" s="477"/>
-      <c r="N8" s="477"/>
-      <c r="O8" s="477"/>
-      <c r="P8" s="489"/>
+      <c r="L8" s="478"/>
+      <c r="M8" s="478"/>
+      <c r="N8" s="478"/>
+      <c r="O8" s="478"/>
+      <c r="P8" s="491"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="461">
+      <c r="A9" s="464">
         <v>461</v>
       </c>
-      <c r="B9" s="457">
+      <c r="B9" s="466">
         <v>43951</v>
       </c>
-      <c r="C9" s="452" t="s">
+      <c r="C9" s="461" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="452" t="s">
+      <c r="D9" s="461" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="452" t="s">
+      <c r="E9" s="461" t="s">
         <v>105</v>
       </c>
       <c r="F9" s="336" t="s">
@@ -9262,11 +9337,11 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="462"/>
-      <c r="B10" s="472"/>
-      <c r="C10" s="467"/>
-      <c r="D10" s="467"/>
-      <c r="E10" s="467"/>
+      <c r="A10" s="469"/>
+      <c r="B10" s="470"/>
+      <c r="C10" s="468"/>
+      <c r="D10" s="468"/>
+      <c r="E10" s="468"/>
       <c r="F10" s="336" t="s">
         <v>37</v>
       </c>
@@ -9299,11 +9374,11 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="463"/>
-      <c r="B11" s="458"/>
-      <c r="C11" s="453"/>
-      <c r="D11" s="453"/>
-      <c r="E11" s="453"/>
+      <c r="A11" s="465"/>
+      <c r="B11" s="467"/>
+      <c r="C11" s="462"/>
+      <c r="D11" s="462"/>
+      <c r="E11" s="462"/>
       <c r="F11" s="336" t="s">
         <v>40</v>
       </c>
@@ -9428,17 +9503,17 @@
       <c r="P13" s="344"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="461">
+      <c r="A14" s="464">
         <v>464</v>
       </c>
-      <c r="B14" s="457">
+      <c r="B14" s="466">
         <v>43955</v>
       </c>
-      <c r="C14" s="452"/>
-      <c r="D14" s="459" t="s">
+      <c r="C14" s="461"/>
+      <c r="D14" s="471" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="459" t="s">
+      <c r="E14" s="471" t="s">
         <v>117</v>
       </c>
       <c r="F14" s="336" t="s">
@@ -9471,11 +9546,11 @@
       <c r="P14" s="344"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="462"/>
-      <c r="B15" s="472"/>
-      <c r="C15" s="467"/>
-      <c r="D15" s="468"/>
-      <c r="E15" s="468"/>
+      <c r="A15" s="469"/>
+      <c r="B15" s="470"/>
+      <c r="C15" s="468"/>
+      <c r="D15" s="472"/>
+      <c r="E15" s="472"/>
       <c r="F15" s="336" t="s">
         <v>37</v>
       </c>
@@ -9506,11 +9581,11 @@
       <c r="P15" s="344"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="462"/>
-      <c r="B16" s="472"/>
-      <c r="C16" s="467"/>
-      <c r="D16" s="468"/>
-      <c r="E16" s="468"/>
+      <c r="A16" s="469"/>
+      <c r="B16" s="470"/>
+      <c r="C16" s="468"/>
+      <c r="D16" s="472"/>
+      <c r="E16" s="472"/>
       <c r="F16" s="336" t="s">
         <v>40</v>
       </c>
@@ -9541,11 +9616,11 @@
       <c r="P16" s="344"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="462"/>
-      <c r="B17" s="472"/>
-      <c r="C17" s="467"/>
-      <c r="D17" s="468"/>
-      <c r="E17" s="468"/>
+      <c r="A17" s="469"/>
+      <c r="B17" s="470"/>
+      <c r="C17" s="468"/>
+      <c r="D17" s="472"/>
+      <c r="E17" s="472"/>
       <c r="F17" s="336" t="s">
         <v>42</v>
       </c>
@@ -9576,11 +9651,11 @@
       <c r="P17" s="344"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="462"/>
-      <c r="B18" s="472"/>
-      <c r="C18" s="467"/>
-      <c r="D18" s="468"/>
-      <c r="E18" s="468"/>
+      <c r="A18" s="469"/>
+      <c r="B18" s="470"/>
+      <c r="C18" s="468"/>
+      <c r="D18" s="472"/>
+      <c r="E18" s="472"/>
       <c r="F18" s="336" t="s">
         <v>41</v>
       </c>
@@ -9611,11 +9686,11 @@
       <c r="P18" s="344"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="462"/>
-      <c r="B19" s="472"/>
-      <c r="C19" s="467"/>
-      <c r="D19" s="468"/>
-      <c r="E19" s="468"/>
+      <c r="A19" s="469"/>
+      <c r="B19" s="470"/>
+      <c r="C19" s="468"/>
+      <c r="D19" s="472"/>
+      <c r="E19" s="472"/>
       <c r="F19" s="336" t="s">
         <v>38</v>
       </c>
@@ -9646,11 +9721,11 @@
       <c r="P19" s="344"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="462"/>
-      <c r="B20" s="472"/>
-      <c r="C20" s="467"/>
-      <c r="D20" s="468"/>
-      <c r="E20" s="468"/>
+      <c r="A20" s="469"/>
+      <c r="B20" s="470"/>
+      <c r="C20" s="468"/>
+      <c r="D20" s="472"/>
+      <c r="E20" s="472"/>
       <c r="F20" s="336" t="s">
         <v>39</v>
       </c>
@@ -9681,11 +9756,11 @@
       <c r="P20" s="344"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="463"/>
-      <c r="B21" s="458"/>
-      <c r="C21" s="453"/>
-      <c r="D21" s="460"/>
-      <c r="E21" s="460"/>
+      <c r="A21" s="465"/>
+      <c r="B21" s="467"/>
+      <c r="C21" s="462"/>
+      <c r="D21" s="473"/>
+      <c r="E21" s="473"/>
       <c r="F21" s="336" t="s">
         <v>67</v>
       </c>
@@ -9716,19 +9791,19 @@
       <c r="P21" s="344"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="461">
+      <c r="A22" s="464">
         <v>466</v>
       </c>
-      <c r="B22" s="457">
+      <c r="B22" s="466">
         <v>43955</v>
       </c>
-      <c r="C22" s="452" t="s">
+      <c r="C22" s="461" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="452" t="s">
+      <c r="D22" s="461" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="452" t="s">
+      <c r="E22" s="461" t="s">
         <v>69</v>
       </c>
       <c r="F22" s="336" t="s">
@@ -9761,11 +9836,11 @@
       <c r="P22" s="344"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="462"/>
-      <c r="B23" s="472"/>
-      <c r="C23" s="467"/>
-      <c r="D23" s="467"/>
-      <c r="E23" s="467"/>
+      <c r="A23" s="469"/>
+      <c r="B23" s="470"/>
+      <c r="C23" s="468"/>
+      <c r="D23" s="468"/>
+      <c r="E23" s="468"/>
       <c r="F23" s="336" t="s">
         <v>37</v>
       </c>
@@ -9796,11 +9871,11 @@
       <c r="P23" s="336"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="462"/>
-      <c r="B24" s="472"/>
-      <c r="C24" s="467"/>
-      <c r="D24" s="467"/>
-      <c r="E24" s="467"/>
+      <c r="A24" s="469"/>
+      <c r="B24" s="470"/>
+      <c r="C24" s="468"/>
+      <c r="D24" s="468"/>
+      <c r="E24" s="468"/>
       <c r="F24" s="336" t="s">
         <v>67</v>
       </c>
@@ -9831,11 +9906,11 @@
       <c r="P24" s="336"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="463"/>
-      <c r="B25" s="458"/>
-      <c r="C25" s="453"/>
-      <c r="D25" s="453"/>
-      <c r="E25" s="453"/>
+      <c r="A25" s="465"/>
+      <c r="B25" s="467"/>
+      <c r="C25" s="462"/>
+      <c r="D25" s="462"/>
+      <c r="E25" s="462"/>
       <c r="F25" s="336" t="s">
         <v>40</v>
       </c>
@@ -9866,17 +9941,17 @@
       <c r="P25" s="336"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="461">
+      <c r="A26" s="464">
         <v>468</v>
       </c>
-      <c r="B26" s="457">
+      <c r="B26" s="466">
         <v>43956</v>
       </c>
-      <c r="C26" s="452"/>
-      <c r="D26" s="452" t="s">
+      <c r="C26" s="461"/>
+      <c r="D26" s="461" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="459" t="s">
+      <c r="E26" s="471" t="s">
         <v>111</v>
       </c>
       <c r="F26" s="336" t="s">
@@ -9892,7 +9967,7 @@
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="J26" s="469">
+      <c r="J26" s="493">
         <v>200000</v>
       </c>
       <c r="K26" s="338">
@@ -9911,11 +9986,11 @@
       <c r="P26" s="336"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="462"/>
-      <c r="B27" s="472"/>
-      <c r="C27" s="467"/>
-      <c r="D27" s="467"/>
-      <c r="E27" s="468"/>
+      <c r="A27" s="469"/>
+      <c r="B27" s="470"/>
+      <c r="C27" s="468"/>
+      <c r="D27" s="468"/>
+      <c r="E27" s="472"/>
       <c r="F27" s="336" t="s">
         <v>42</v>
       </c>
@@ -9929,7 +10004,7 @@
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-      <c r="J27" s="470"/>
+      <c r="J27" s="494"/>
       <c r="K27" s="338">
         <v>0.41</v>
       </c>
@@ -9946,11 +10021,11 @@
       <c r="P27" s="336"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="463"/>
-      <c r="B28" s="458"/>
-      <c r="C28" s="453"/>
-      <c r="D28" s="453"/>
-      <c r="E28" s="460"/>
+      <c r="A28" s="465"/>
+      <c r="B28" s="467"/>
+      <c r="C28" s="462"/>
+      <c r="D28" s="462"/>
+      <c r="E28" s="473"/>
       <c r="F28" s="336" t="s">
         <v>41</v>
       </c>
@@ -9964,7 +10039,7 @@
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-      <c r="J28" s="471"/>
+      <c r="J28" s="495"/>
       <c r="K28" s="338">
         <v>0.41</v>
       </c>
@@ -10075,17 +10150,17 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="461">
+      <c r="A31" s="464">
         <v>1150</v>
       </c>
-      <c r="B31" s="464" t="s">
+      <c r="B31" s="474" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="452"/>
-      <c r="D31" s="452" t="s">
+      <c r="C31" s="461"/>
+      <c r="D31" s="461" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="459" t="s">
+      <c r="E31" s="471" t="s">
         <v>129</v>
       </c>
       <c r="F31" s="336" t="s">
@@ -10118,11 +10193,11 @@
       <c r="P31" s="336"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="463"/>
-      <c r="B32" s="458"/>
-      <c r="C32" s="453"/>
-      <c r="D32" s="453"/>
-      <c r="E32" s="460"/>
+      <c r="A32" s="465"/>
+      <c r="B32" s="467"/>
+      <c r="C32" s="462"/>
+      <c r="D32" s="462"/>
+      <c r="E32" s="473"/>
       <c r="F32" s="336" t="s">
         <v>67</v>
       </c>
@@ -10153,19 +10228,19 @@
       <c r="P32" s="336"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="461">
+      <c r="A33" s="464">
         <v>502</v>
       </c>
-      <c r="B33" s="457">
+      <c r="B33" s="466">
         <v>43956</v>
       </c>
-      <c r="C33" s="452" t="s">
+      <c r="C33" s="461" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="459" t="s">
+      <c r="D33" s="471" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="452"/>
+      <c r="E33" s="461"/>
       <c r="F33" s="336" t="s">
         <v>36</v>
       </c>
@@ -10196,11 +10271,11 @@
       <c r="P33" s="336"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="462"/>
-      <c r="B34" s="472"/>
-      <c r="C34" s="467"/>
-      <c r="D34" s="468"/>
-      <c r="E34" s="467"/>
+      <c r="A34" s="469"/>
+      <c r="B34" s="470"/>
+      <c r="C34" s="468"/>
+      <c r="D34" s="472"/>
+      <c r="E34" s="468"/>
       <c r="F34" s="336" t="s">
         <v>37</v>
       </c>
@@ -10231,11 +10306,11 @@
       <c r="P34" s="336"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="462"/>
-      <c r="B35" s="472"/>
-      <c r="C35" s="467"/>
-      <c r="D35" s="468"/>
-      <c r="E35" s="467"/>
+      <c r="A35" s="469"/>
+      <c r="B35" s="470"/>
+      <c r="C35" s="468"/>
+      <c r="D35" s="472"/>
+      <c r="E35" s="468"/>
       <c r="F35" s="336" t="s">
         <v>40</v>
       </c>
@@ -10266,11 +10341,11 @@
       <c r="P35" s="336"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="462"/>
-      <c r="B36" s="472"/>
-      <c r="C36" s="467"/>
-      <c r="D36" s="468"/>
-      <c r="E36" s="467"/>
+      <c r="A36" s="469"/>
+      <c r="B36" s="470"/>
+      <c r="C36" s="468"/>
+      <c r="D36" s="472"/>
+      <c r="E36" s="468"/>
       <c r="F36" s="336" t="s">
         <v>42</v>
       </c>
@@ -10301,11 +10376,11 @@
       <c r="P36" s="336"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="462"/>
-      <c r="B37" s="472"/>
-      <c r="C37" s="467"/>
-      <c r="D37" s="468"/>
-      <c r="E37" s="467"/>
+      <c r="A37" s="469"/>
+      <c r="B37" s="470"/>
+      <c r="C37" s="468"/>
+      <c r="D37" s="472"/>
+      <c r="E37" s="468"/>
       <c r="F37" s="336" t="s">
         <v>41</v>
       </c>
@@ -10336,11 +10411,11 @@
       <c r="P37" s="336"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="463"/>
-      <c r="B38" s="458"/>
-      <c r="C38" s="453"/>
-      <c r="D38" s="460"/>
-      <c r="E38" s="453"/>
+      <c r="A38" s="465"/>
+      <c r="B38" s="467"/>
+      <c r="C38" s="462"/>
+      <c r="D38" s="473"/>
+      <c r="E38" s="462"/>
       <c r="F38" s="336" t="s">
         <v>38</v>
       </c>
@@ -10416,19 +10491,19 @@
       <c r="P39" s="336"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="461">
+      <c r="A40" s="464">
         <v>513</v>
       </c>
-      <c r="B40" s="457">
+      <c r="B40" s="466">
         <v>43987</v>
       </c>
-      <c r="C40" s="452" t="s">
+      <c r="C40" s="461" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="459" t="s">
+      <c r="D40" s="471" t="s">
         <v>137</v>
       </c>
-      <c r="E40" s="452" t="s">
+      <c r="E40" s="461" t="s">
         <v>100</v>
       </c>
       <c r="F40" s="336" t="s">
@@ -10461,11 +10536,11 @@
       <c r="P40" s="336"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="463"/>
-      <c r="B41" s="458"/>
-      <c r="C41" s="453"/>
-      <c r="D41" s="460"/>
-      <c r="E41" s="453"/>
+      <c r="A41" s="465"/>
+      <c r="B41" s="467"/>
+      <c r="C41" s="462"/>
+      <c r="D41" s="473"/>
+      <c r="E41" s="462"/>
       <c r="F41" s="336" t="s">
         <v>38</v>
       </c>
@@ -10588,17 +10663,17 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="461">
+      <c r="A44" s="464">
         <v>472</v>
       </c>
-      <c r="B44" s="457">
+      <c r="B44" s="466">
         <v>43960</v>
       </c>
-      <c r="C44" s="452"/>
-      <c r="D44" s="452" t="s">
+      <c r="C44" s="461"/>
+      <c r="D44" s="461" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="452"/>
+      <c r="E44" s="461"/>
       <c r="F44" s="336" t="s">
         <v>36</v>
       </c>
@@ -10626,11 +10701,11 @@
       <c r="P44" s="336"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="462"/>
-      <c r="B45" s="472"/>
-      <c r="C45" s="467"/>
-      <c r="D45" s="467"/>
-      <c r="E45" s="467"/>
+      <c r="A45" s="469"/>
+      <c r="B45" s="470"/>
+      <c r="C45" s="468"/>
+      <c r="D45" s="468"/>
+      <c r="E45" s="468"/>
       <c r="F45" s="336" t="s">
         <v>42</v>
       </c>
@@ -10658,11 +10733,11 @@
       <c r="P45" s="336"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="463"/>
-      <c r="B46" s="458"/>
-      <c r="C46" s="453"/>
-      <c r="D46" s="453"/>
-      <c r="E46" s="453"/>
+      <c r="A46" s="465"/>
+      <c r="B46" s="467"/>
+      <c r="C46" s="462"/>
+      <c r="D46" s="462"/>
+      <c r="E46" s="462"/>
       <c r="F46" s="336" t="s">
         <v>39</v>
       </c>
@@ -10690,17 +10765,17 @@
       <c r="P46" s="336"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="461">
+      <c r="A47" s="464">
         <v>473</v>
       </c>
-      <c r="B47" s="457">
+      <c r="B47" s="466">
         <v>43960</v>
       </c>
-      <c r="C47" s="452"/>
-      <c r="D47" s="459" t="s">
+      <c r="C47" s="461"/>
+      <c r="D47" s="471" t="s">
         <v>121</v>
       </c>
-      <c r="E47" s="452" t="s">
+      <c r="E47" s="461" t="s">
         <v>116</v>
       </c>
       <c r="F47" s="336" t="s">
@@ -10733,11 +10808,11 @@
       <c r="P47" s="336"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="463"/>
-      <c r="B48" s="458"/>
-      <c r="C48" s="453"/>
-      <c r="D48" s="460"/>
-      <c r="E48" s="453"/>
+      <c r="A48" s="465"/>
+      <c r="B48" s="467"/>
+      <c r="C48" s="462"/>
+      <c r="D48" s="473"/>
+      <c r="E48" s="462"/>
       <c r="F48" s="336" t="s">
         <v>36</v>
       </c>
@@ -10812,19 +10887,19 @@
       <c r="P49" s="336"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="461">
+      <c r="A50" s="464">
         <v>508</v>
       </c>
-      <c r="B50" s="464" t="s">
+      <c r="B50" s="474" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="452" t="s">
+      <c r="C50" s="461" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="452" t="s">
+      <c r="D50" s="461" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="452" t="s">
+      <c r="E50" s="461" t="s">
         <v>105</v>
       </c>
       <c r="F50" s="336" t="s">
@@ -10859,11 +10934,11 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="463"/>
-      <c r="B51" s="466"/>
-      <c r="C51" s="453"/>
-      <c r="D51" s="453"/>
-      <c r="E51" s="453"/>
+      <c r="A51" s="465"/>
+      <c r="B51" s="476"/>
+      <c r="C51" s="462"/>
+      <c r="D51" s="462"/>
+      <c r="E51" s="462"/>
       <c r="F51" s="336" t="s">
         <v>37</v>
       </c>
@@ -10986,19 +11061,19 @@
       <c r="P53" s="336"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="461">
+      <c r="A54" s="464">
         <v>521</v>
       </c>
-      <c r="B54" s="464">
+      <c r="B54" s="474">
         <v>43961</v>
       </c>
-      <c r="C54" s="452" t="s">
+      <c r="C54" s="461" t="s">
         <v>102</v>
       </c>
-      <c r="D54" s="459" t="s">
+      <c r="D54" s="471" t="s">
         <v>153</v>
       </c>
-      <c r="E54" s="452" t="s">
+      <c r="E54" s="461" t="s">
         <v>100</v>
       </c>
       <c r="F54" s="336" t="s">
@@ -11031,11 +11106,11 @@
       <c r="P54" s="336"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="462"/>
-      <c r="B55" s="465"/>
-      <c r="C55" s="467"/>
-      <c r="D55" s="468"/>
-      <c r="E55" s="467"/>
+      <c r="A55" s="469"/>
+      <c r="B55" s="475"/>
+      <c r="C55" s="468"/>
+      <c r="D55" s="472"/>
+      <c r="E55" s="468"/>
       <c r="F55" s="336" t="s">
         <v>37</v>
       </c>
@@ -11066,11 +11141,11 @@
       <c r="P55" s="336"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="462"/>
-      <c r="B56" s="465"/>
-      <c r="C56" s="467"/>
-      <c r="D56" s="468"/>
-      <c r="E56" s="467"/>
+      <c r="A56" s="469"/>
+      <c r="B56" s="475"/>
+      <c r="C56" s="468"/>
+      <c r="D56" s="472"/>
+      <c r="E56" s="468"/>
       <c r="F56" s="336" t="s">
         <v>40</v>
       </c>
@@ -11101,11 +11176,11 @@
       <c r="P56" s="336"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="462"/>
-      <c r="B57" s="465"/>
-      <c r="C57" s="467"/>
-      <c r="D57" s="468"/>
-      <c r="E57" s="467"/>
+      <c r="A57" s="469"/>
+      <c r="B57" s="475"/>
+      <c r="C57" s="468"/>
+      <c r="D57" s="472"/>
+      <c r="E57" s="468"/>
       <c r="F57" s="336" t="s">
         <v>42</v>
       </c>
@@ -11136,11 +11211,11 @@
       <c r="P57" s="336"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="462"/>
-      <c r="B58" s="465"/>
-      <c r="C58" s="467"/>
-      <c r="D58" s="468"/>
-      <c r="E58" s="467"/>
+      <c r="A58" s="469"/>
+      <c r="B58" s="475"/>
+      <c r="C58" s="468"/>
+      <c r="D58" s="472"/>
+      <c r="E58" s="468"/>
       <c r="F58" s="336" t="s">
         <v>41</v>
       </c>
@@ -11171,11 +11246,11 @@
       <c r="P58" s="336"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="463"/>
-      <c r="B59" s="466"/>
-      <c r="C59" s="453"/>
-      <c r="D59" s="460"/>
-      <c r="E59" s="453"/>
+      <c r="A59" s="465"/>
+      <c r="B59" s="476"/>
+      <c r="C59" s="462"/>
+      <c r="D59" s="473"/>
+      <c r="E59" s="462"/>
       <c r="F59" s="336" t="s">
         <v>38</v>
       </c>
@@ -11206,17 +11281,17 @@
       <c r="P59" s="336"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="461">
+      <c r="A60" s="464">
         <v>515</v>
       </c>
-      <c r="B60" s="464">
+      <c r="B60" s="474">
         <v>43962</v>
       </c>
-      <c r="C60" s="452"/>
-      <c r="D60" s="459" t="s">
+      <c r="C60" s="461"/>
+      <c r="D60" s="471" t="s">
         <v>147</v>
       </c>
-      <c r="E60" s="452"/>
+      <c r="E60" s="461"/>
       <c r="F60" s="336" t="s">
         <v>36</v>
       </c>
@@ -11247,11 +11322,11 @@
       <c r="P60" s="336"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="463"/>
-      <c r="B61" s="466"/>
-      <c r="C61" s="453"/>
-      <c r="D61" s="460"/>
-      <c r="E61" s="453"/>
+      <c r="A61" s="465"/>
+      <c r="B61" s="476"/>
+      <c r="C61" s="462"/>
+      <c r="D61" s="473"/>
+      <c r="E61" s="462"/>
       <c r="F61" s="336" t="s">
         <v>37</v>
       </c>
@@ -11374,19 +11449,19 @@
       <c r="P63" s="336"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="461">
+      <c r="A64" s="464">
         <v>525</v>
       </c>
-      <c r="B64" s="464">
+      <c r="B64" s="474">
         <v>43965</v>
       </c>
-      <c r="C64" s="452" t="s">
+      <c r="C64" s="461" t="s">
         <v>154</v>
       </c>
-      <c r="D64" s="452" t="s">
+      <c r="D64" s="461" t="s">
         <v>154</v>
       </c>
-      <c r="E64" s="452" t="s">
+      <c r="E64" s="461" t="s">
         <v>100</v>
       </c>
       <c r="F64" s="336" t="s">
@@ -11421,11 +11496,11 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="462"/>
-      <c r="B65" s="465"/>
-      <c r="C65" s="467"/>
-      <c r="D65" s="467"/>
-      <c r="E65" s="467"/>
+      <c r="A65" s="469"/>
+      <c r="B65" s="475"/>
+      <c r="C65" s="468"/>
+      <c r="D65" s="468"/>
+      <c r="E65" s="468"/>
       <c r="F65" s="336" t="s">
         <v>37</v>
       </c>
@@ -11458,11 +11533,11 @@
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="463"/>
-      <c r="B66" s="466"/>
-      <c r="C66" s="453"/>
-      <c r="D66" s="453"/>
-      <c r="E66" s="453"/>
+      <c r="A66" s="465"/>
+      <c r="B66" s="476"/>
+      <c r="C66" s="462"/>
+      <c r="D66" s="462"/>
+      <c r="E66" s="462"/>
       <c r="F66" s="336" t="s">
         <v>67</v>
       </c>
@@ -11493,17 +11568,17 @@
       <c r="P66" s="336"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="461">
+      <c r="A67" s="464">
         <v>526</v>
       </c>
-      <c r="B67" s="464">
+      <c r="B67" s="474">
         <v>43965</v>
       </c>
-      <c r="C67" s="452"/>
-      <c r="D67" s="452" t="s">
+      <c r="C67" s="461"/>
+      <c r="D67" s="461" t="s">
         <v>155</v>
       </c>
-      <c r="E67" s="452" t="s">
+      <c r="E67" s="461" t="s">
         <v>156</v>
       </c>
       <c r="F67" s="336" t="s">
@@ -11536,11 +11611,11 @@
       <c r="P67" s="336"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="462"/>
-      <c r="B68" s="465"/>
-      <c r="C68" s="467"/>
-      <c r="D68" s="467"/>
-      <c r="E68" s="467"/>
+      <c r="A68" s="469"/>
+      <c r="B68" s="475"/>
+      <c r="C68" s="468"/>
+      <c r="D68" s="468"/>
+      <c r="E68" s="468"/>
       <c r="F68" s="336" t="s">
         <v>41</v>
       </c>
@@ -11571,11 +11646,11 @@
       <c r="P68" s="336"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="462"/>
-      <c r="B69" s="465"/>
-      <c r="C69" s="467"/>
-      <c r="D69" s="467"/>
-      <c r="E69" s="467"/>
+      <c r="A69" s="469"/>
+      <c r="B69" s="475"/>
+      <c r="C69" s="468"/>
+      <c r="D69" s="468"/>
+      <c r="E69" s="468"/>
       <c r="F69" s="336" t="s">
         <v>39</v>
       </c>
@@ -11606,11 +11681,11 @@
       <c r="P69" s="336"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="463"/>
-      <c r="B70" s="466"/>
-      <c r="C70" s="453"/>
-      <c r="D70" s="453"/>
-      <c r="E70" s="453"/>
+      <c r="A70" s="465"/>
+      <c r="B70" s="476"/>
+      <c r="C70" s="462"/>
+      <c r="D70" s="462"/>
+      <c r="E70" s="462"/>
       <c r="F70" s="336" t="s">
         <v>67</v>
       </c>
@@ -11641,19 +11716,19 @@
       <c r="P70" s="336"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="461">
+      <c r="A71" s="464">
         <v>527</v>
       </c>
-      <c r="B71" s="464">
+      <c r="B71" s="474">
         <v>43967</v>
       </c>
-      <c r="C71" s="452" t="s">
+      <c r="C71" s="461" t="s">
         <v>104</v>
       </c>
-      <c r="D71" s="452" t="s">
+      <c r="D71" s="461" t="s">
         <v>103</v>
       </c>
-      <c r="E71" s="452" t="s">
+      <c r="E71" s="461" t="s">
         <v>105</v>
       </c>
       <c r="F71" s="336" t="s">
@@ -11669,7 +11744,7 @@
         <f t="shared" si="12"/>
         <v>4550000</v>
       </c>
-      <c r="J71" s="454">
+      <c r="J71" s="496">
         <v>150000</v>
       </c>
       <c r="K71" s="338">
@@ -11688,11 +11763,11 @@
       <c r="P71" s="336"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="462"/>
-      <c r="B72" s="465"/>
-      <c r="C72" s="467"/>
-      <c r="D72" s="467"/>
-      <c r="E72" s="467"/>
+      <c r="A72" s="469"/>
+      <c r="B72" s="475"/>
+      <c r="C72" s="468"/>
+      <c r="D72" s="468"/>
+      <c r="E72" s="468"/>
       <c r="F72" s="336" t="s">
         <v>37</v>
       </c>
@@ -11706,7 +11781,7 @@
         <f t="shared" si="12"/>
         <v>7440000</v>
       </c>
-      <c r="J72" s="455"/>
+      <c r="J72" s="497"/>
       <c r="K72" s="338">
         <v>0.41</v>
       </c>
@@ -11723,11 +11798,11 @@
       <c r="P72" s="336"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="463"/>
-      <c r="B73" s="466"/>
-      <c r="C73" s="453"/>
-      <c r="D73" s="453"/>
-      <c r="E73" s="453"/>
+      <c r="A73" s="465"/>
+      <c r="B73" s="476"/>
+      <c r="C73" s="462"/>
+      <c r="D73" s="462"/>
+      <c r="E73" s="462"/>
       <c r="F73" s="336" t="s">
         <v>38</v>
       </c>
@@ -11741,7 +11816,7 @@
         <f t="shared" si="12"/>
         <v>3300000</v>
       </c>
-      <c r="J73" s="456"/>
+      <c r="J73" s="498"/>
       <c r="K73" s="338">
         <v>0.41</v>
       </c>
@@ -11846,17 +11921,17 @@
       <c r="P75" s="336"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="461">
+      <c r="A76" s="464">
         <v>530</v>
       </c>
-      <c r="B76" s="464">
+      <c r="B76" s="474">
         <v>43968</v>
       </c>
-      <c r="C76" s="452"/>
-      <c r="D76" s="459" t="s">
+      <c r="C76" s="461"/>
+      <c r="D76" s="471" t="s">
         <v>110</v>
       </c>
-      <c r="E76" s="459" t="s">
+      <c r="E76" s="471" t="s">
         <v>111</v>
       </c>
       <c r="F76" s="336" t="s">
@@ -11872,7 +11947,7 @@
         <f t="shared" si="12"/>
         <v>16380000</v>
       </c>
-      <c r="J76" s="454">
+      <c r="J76" s="496">
         <v>350000</v>
       </c>
       <c r="K76" s="338">
@@ -11891,11 +11966,11 @@
       <c r="P76" s="336"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="462"/>
-      <c r="B77" s="465"/>
-      <c r="C77" s="467"/>
-      <c r="D77" s="468"/>
-      <c r="E77" s="468"/>
+      <c r="A77" s="469"/>
+      <c r="B77" s="475"/>
+      <c r="C77" s="468"/>
+      <c r="D77" s="472"/>
+      <c r="E77" s="472"/>
       <c r="F77" s="336" t="s">
         <v>37</v>
       </c>
@@ -11909,7 +11984,7 @@
         <f t="shared" si="12"/>
         <v>11160000</v>
       </c>
-      <c r="J77" s="455"/>
+      <c r="J77" s="497"/>
       <c r="K77" s="338">
         <v>0.41</v>
       </c>
@@ -11926,11 +12001,11 @@
       <c r="P77" s="336"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="462"/>
-      <c r="B78" s="465"/>
-      <c r="C78" s="467"/>
-      <c r="D78" s="468"/>
-      <c r="E78" s="468"/>
+      <c r="A78" s="469"/>
+      <c r="B78" s="475"/>
+      <c r="C78" s="468"/>
+      <c r="D78" s="472"/>
+      <c r="E78" s="472"/>
       <c r="F78" s="336" t="s">
         <v>42</v>
       </c>
@@ -11944,7 +12019,7 @@
         <f t="shared" si="12"/>
         <v>5820000</v>
       </c>
-      <c r="J78" s="455"/>
+      <c r="J78" s="497"/>
       <c r="K78" s="338">
         <v>0.41</v>
       </c>
@@ -11961,11 +12036,11 @@
       <c r="P78" s="336"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="463"/>
-      <c r="B79" s="466"/>
-      <c r="C79" s="453"/>
-      <c r="D79" s="460"/>
-      <c r="E79" s="460"/>
+      <c r="A79" s="465"/>
+      <c r="B79" s="476"/>
+      <c r="C79" s="462"/>
+      <c r="D79" s="473"/>
+      <c r="E79" s="473"/>
       <c r="F79" s="336" t="s">
         <v>41</v>
       </c>
@@ -11979,7 +12054,7 @@
         <f t="shared" si="12"/>
         <v>5820000</v>
       </c>
-      <c r="J79" s="456"/>
+      <c r="J79" s="498"/>
       <c r="K79" s="338">
         <v>0.41</v>
       </c>
@@ -12043,19 +12118,19 @@
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="461">
+      <c r="A81" s="464">
         <v>532</v>
       </c>
-      <c r="B81" s="464">
+      <c r="B81" s="474">
         <v>43969</v>
       </c>
-      <c r="C81" s="452" t="s">
+      <c r="C81" s="461" t="s">
         <v>104</v>
       </c>
-      <c r="D81" s="452" t="s">
+      <c r="D81" s="461" t="s">
         <v>103</v>
       </c>
-      <c r="E81" s="452" t="s">
+      <c r="E81" s="461" t="s">
         <v>105</v>
       </c>
       <c r="F81" s="336" t="s">
@@ -12090,11 +12165,11 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="463"/>
-      <c r="B82" s="466"/>
-      <c r="C82" s="453"/>
-      <c r="D82" s="453"/>
-      <c r="E82" s="453"/>
+      <c r="A82" s="465"/>
+      <c r="B82" s="476"/>
+      <c r="C82" s="462"/>
+      <c r="D82" s="462"/>
+      <c r="E82" s="462"/>
       <c r="F82" s="336" t="s">
         <v>40</v>
       </c>
@@ -12127,19 +12202,19 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="461">
+      <c r="A83" s="464">
         <v>533</v>
       </c>
-      <c r="B83" s="464">
+      <c r="B83" s="474">
         <v>43969</v>
       </c>
-      <c r="C83" s="452" t="s">
+      <c r="C83" s="461" t="s">
         <v>104</v>
       </c>
-      <c r="D83" s="452" t="s">
+      <c r="D83" s="461" t="s">
         <v>159</v>
       </c>
-      <c r="E83" s="452" t="s">
+      <c r="E83" s="461" t="s">
         <v>160</v>
       </c>
       <c r="F83" s="336" t="s">
@@ -12174,11 +12249,11 @@
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="463"/>
-      <c r="B84" s="466"/>
-      <c r="C84" s="453"/>
-      <c r="D84" s="453"/>
-      <c r="E84" s="453"/>
+      <c r="A84" s="465"/>
+      <c r="B84" s="476"/>
+      <c r="C84" s="462"/>
+      <c r="D84" s="462"/>
+      <c r="E84" s="462"/>
       <c r="F84" s="336" t="s">
         <v>40</v>
       </c>
@@ -12397,17 +12472,17 @@
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="461">
+      <c r="A89" s="464">
         <v>541</v>
       </c>
-      <c r="B89" s="457">
+      <c r="B89" s="466">
         <v>43971</v>
       </c>
-      <c r="C89" s="452"/>
-      <c r="D89" s="452" t="s">
+      <c r="C89" s="461"/>
+      <c r="D89" s="461" t="s">
         <v>239</v>
       </c>
-      <c r="E89" s="452" t="s">
+      <c r="E89" s="461" t="s">
         <v>240</v>
       </c>
       <c r="F89" s="336" t="s">
@@ -12440,11 +12515,11 @@
       <c r="P89" s="336"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="462"/>
-      <c r="B90" s="472"/>
-      <c r="C90" s="467"/>
-      <c r="D90" s="467"/>
-      <c r="E90" s="467"/>
+      <c r="A90" s="469"/>
+      <c r="B90" s="470"/>
+      <c r="C90" s="468"/>
+      <c r="D90" s="468"/>
+      <c r="E90" s="468"/>
       <c r="F90" s="336" t="s">
         <v>37</v>
       </c>
@@ -12475,11 +12550,11 @@
       <c r="P90" s="336"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="462"/>
-      <c r="B91" s="472"/>
-      <c r="C91" s="467"/>
-      <c r="D91" s="467"/>
-      <c r="E91" s="467"/>
+      <c r="A91" s="469"/>
+      <c r="B91" s="470"/>
+      <c r="C91" s="468"/>
+      <c r="D91" s="468"/>
+      <c r="E91" s="468"/>
       <c r="F91" s="336" t="s">
         <v>40</v>
       </c>
@@ -12510,11 +12585,11 @@
       <c r="P91" s="336"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="462"/>
-      <c r="B92" s="472"/>
-      <c r="C92" s="467"/>
-      <c r="D92" s="467"/>
-      <c r="E92" s="467"/>
+      <c r="A92" s="469"/>
+      <c r="B92" s="470"/>
+      <c r="C92" s="468"/>
+      <c r="D92" s="468"/>
+      <c r="E92" s="468"/>
       <c r="F92" s="336" t="s">
         <v>42</v>
       </c>
@@ -12545,11 +12620,11 @@
       <c r="P92" s="336"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="462"/>
-      <c r="B93" s="472"/>
-      <c r="C93" s="467"/>
-      <c r="D93" s="467"/>
-      <c r="E93" s="467"/>
+      <c r="A93" s="469"/>
+      <c r="B93" s="470"/>
+      <c r="C93" s="468"/>
+      <c r="D93" s="468"/>
+      <c r="E93" s="468"/>
       <c r="F93" s="336" t="s">
         <v>128</v>
       </c>
@@ -12580,11 +12655,11 @@
       <c r="P93" s="336"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="462"/>
-      <c r="B94" s="472"/>
-      <c r="C94" s="467"/>
-      <c r="D94" s="467"/>
-      <c r="E94" s="467"/>
+      <c r="A94" s="469"/>
+      <c r="B94" s="470"/>
+      <c r="C94" s="468"/>
+      <c r="D94" s="468"/>
+      <c r="E94" s="468"/>
       <c r="F94" s="336" t="s">
         <v>38</v>
       </c>
@@ -12615,11 +12690,11 @@
       <c r="P94" s="336"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="463"/>
-      <c r="B95" s="458"/>
-      <c r="C95" s="453"/>
-      <c r="D95" s="453"/>
-      <c r="E95" s="453"/>
+      <c r="A95" s="465"/>
+      <c r="B95" s="467"/>
+      <c r="C95" s="462"/>
+      <c r="D95" s="462"/>
+      <c r="E95" s="462"/>
       <c r="F95" s="336" t="s">
         <v>39</v>
       </c>
@@ -12690,19 +12765,19 @@
       <c r="P96" s="336"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="461">
+      <c r="A97" s="464">
         <v>549</v>
       </c>
-      <c r="B97" s="457">
+      <c r="B97" s="466">
         <v>43974</v>
       </c>
-      <c r="C97" s="452" t="s">
+      <c r="C97" s="461" t="s">
         <v>102</v>
       </c>
-      <c r="D97" s="452" t="s">
+      <c r="D97" s="461" t="s">
         <v>254</v>
       </c>
-      <c r="E97" s="452" t="s">
+      <c r="E97" s="461" t="s">
         <v>255</v>
       </c>
       <c r="F97" s="336" t="s">
@@ -12735,11 +12810,11 @@
       <c r="P97" s="336"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="463"/>
-      <c r="B98" s="458"/>
-      <c r="C98" s="453"/>
-      <c r="D98" s="453"/>
-      <c r="E98" s="453"/>
+      <c r="A98" s="465"/>
+      <c r="B98" s="467"/>
+      <c r="C98" s="462"/>
+      <c r="D98" s="462"/>
+      <c r="E98" s="462"/>
       <c r="F98" s="336" t="s">
         <v>42</v>
       </c>
@@ -12770,17 +12845,17 @@
       <c r="P98" s="336"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="461">
+      <c r="A99" s="464">
         <v>565</v>
       </c>
-      <c r="B99" s="457">
+      <c r="B99" s="466">
         <v>43976</v>
       </c>
-      <c r="C99" s="452"/>
-      <c r="D99" s="452" t="s">
+      <c r="C99" s="461"/>
+      <c r="D99" s="461" t="s">
         <v>258</v>
       </c>
-      <c r="E99" s="452"/>
+      <c r="E99" s="461"/>
       <c r="F99" s="336" t="s">
         <v>36</v>
       </c>
@@ -12811,11 +12886,11 @@
       <c r="P99" s="336"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="462"/>
-      <c r="B100" s="472"/>
-      <c r="C100" s="467"/>
-      <c r="D100" s="467"/>
-      <c r="E100" s="467"/>
+      <c r="A100" s="469"/>
+      <c r="B100" s="470"/>
+      <c r="C100" s="468"/>
+      <c r="D100" s="468"/>
+      <c r="E100" s="468"/>
       <c r="F100" s="336" t="s">
         <v>37</v>
       </c>
@@ -12846,11 +12921,11 @@
       <c r="P100" s="336"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="463"/>
-      <c r="B101" s="458"/>
-      <c r="C101" s="453"/>
-      <c r="D101" s="453"/>
-      <c r="E101" s="453"/>
+      <c r="A101" s="465"/>
+      <c r="B101" s="467"/>
+      <c r="C101" s="462"/>
+      <c r="D101" s="462"/>
+      <c r="E101" s="462"/>
       <c r="F101" s="336" t="s">
         <v>40</v>
       </c>
@@ -12881,17 +12956,17 @@
       <c r="P101" s="336"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="461">
+      <c r="A102" s="464">
         <v>784</v>
       </c>
-      <c r="B102" s="457">
+      <c r="B102" s="466">
         <v>43982</v>
       </c>
-      <c r="C102" s="452"/>
-      <c r="D102" s="459" t="s">
+      <c r="C102" s="461"/>
+      <c r="D102" s="471" t="s">
         <v>313</v>
       </c>
-      <c r="E102" s="452"/>
+      <c r="E102" s="461"/>
       <c r="F102" s="336" t="s">
         <v>114</v>
       </c>
@@ -12905,12 +12980,12 @@
         <f t="shared" si="12"/>
         <v>900000</v>
       </c>
-      <c r="J102" s="490"/>
-      <c r="K102" s="493"/>
-      <c r="L102" s="490">
+      <c r="J102" s="452"/>
+      <c r="K102" s="455"/>
+      <c r="L102" s="452">
         <v>4379000</v>
       </c>
-      <c r="M102" s="490">
+      <c r="M102" s="452">
         <f>L102</f>
         <v>4379000</v>
       </c>
@@ -12919,11 +12994,11 @@
       <c r="P102" s="336"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="462"/>
-      <c r="B103" s="472"/>
-      <c r="C103" s="467"/>
-      <c r="D103" s="468"/>
-      <c r="E103" s="467"/>
+      <c r="A103" s="469"/>
+      <c r="B103" s="470"/>
+      <c r="C103" s="468"/>
+      <c r="D103" s="472"/>
+      <c r="E103" s="468"/>
       <c r="F103" s="336" t="s">
         <v>36</v>
       </c>
@@ -12937,20 +13012,20 @@
         <f t="shared" si="12"/>
         <v>910000</v>
       </c>
-      <c r="J103" s="491"/>
-      <c r="K103" s="494"/>
-      <c r="L103" s="491"/>
-      <c r="M103" s="491"/>
+      <c r="J103" s="453"/>
+      <c r="K103" s="456"/>
+      <c r="L103" s="453"/>
+      <c r="M103" s="453"/>
       <c r="N103" s="337"/>
       <c r="O103" s="337"/>
       <c r="P103" s="336"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="462"/>
-      <c r="B104" s="472"/>
-      <c r="C104" s="467"/>
-      <c r="D104" s="468"/>
-      <c r="E104" s="467"/>
+      <c r="A104" s="469"/>
+      <c r="B104" s="470"/>
+      <c r="C104" s="468"/>
+      <c r="D104" s="472"/>
+      <c r="E104" s="468"/>
       <c r="F104" s="336" t="s">
         <v>37</v>
       </c>
@@ -12964,20 +13039,20 @@
         <f t="shared" si="12"/>
         <v>930000</v>
       </c>
-      <c r="J104" s="491"/>
-      <c r="K104" s="494"/>
-      <c r="L104" s="491"/>
-      <c r="M104" s="491"/>
+      <c r="J104" s="453"/>
+      <c r="K104" s="456"/>
+      <c r="L104" s="453"/>
+      <c r="M104" s="453"/>
       <c r="N104" s="337"/>
       <c r="O104" s="337"/>
       <c r="P104" s="336"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="462"/>
-      <c r="B105" s="472"/>
-      <c r="C105" s="467"/>
-      <c r="D105" s="468"/>
-      <c r="E105" s="467"/>
+      <c r="A105" s="469"/>
+      <c r="B105" s="470"/>
+      <c r="C105" s="468"/>
+      <c r="D105" s="472"/>
+      <c r="E105" s="468"/>
       <c r="F105" s="336" t="s">
         <v>40</v>
       </c>
@@ -12991,20 +13066,20 @@
         <f t="shared" si="12"/>
         <v>475000</v>
       </c>
-      <c r="J105" s="491"/>
-      <c r="K105" s="494"/>
-      <c r="L105" s="491"/>
-      <c r="M105" s="491"/>
+      <c r="J105" s="453"/>
+      <c r="K105" s="456"/>
+      <c r="L105" s="453"/>
+      <c r="M105" s="453"/>
       <c r="N105" s="337"/>
       <c r="O105" s="337"/>
       <c r="P105" s="336"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="462"/>
-      <c r="B106" s="472"/>
-      <c r="C106" s="467"/>
-      <c r="D106" s="468"/>
-      <c r="E106" s="467"/>
+      <c r="A106" s="469"/>
+      <c r="B106" s="470"/>
+      <c r="C106" s="468"/>
+      <c r="D106" s="472"/>
+      <c r="E106" s="468"/>
       <c r="F106" s="336" t="s">
         <v>42</v>
       </c>
@@ -13018,20 +13093,20 @@
         <f t="shared" si="12"/>
         <v>6790000</v>
       </c>
-      <c r="J106" s="491"/>
-      <c r="K106" s="494"/>
-      <c r="L106" s="491"/>
-      <c r="M106" s="491"/>
+      <c r="J106" s="453"/>
+      <c r="K106" s="456"/>
+      <c r="L106" s="453"/>
+      <c r="M106" s="453"/>
       <c r="N106" s="337"/>
       <c r="O106" s="337"/>
       <c r="P106" s="336"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="462"/>
-      <c r="B107" s="472"/>
-      <c r="C107" s="467"/>
-      <c r="D107" s="468"/>
-      <c r="E107" s="467"/>
+      <c r="A107" s="469"/>
+      <c r="B107" s="470"/>
+      <c r="C107" s="468"/>
+      <c r="D107" s="472"/>
+      <c r="E107" s="468"/>
       <c r="F107" s="336" t="s">
         <v>67</v>
       </c>
@@ -13045,20 +13120,20 @@
         <f t="shared" si="12"/>
         <v>455000</v>
       </c>
-      <c r="J107" s="491"/>
-      <c r="K107" s="494"/>
-      <c r="L107" s="491"/>
-      <c r="M107" s="491"/>
+      <c r="J107" s="453"/>
+      <c r="K107" s="456"/>
+      <c r="L107" s="453"/>
+      <c r="M107" s="453"/>
       <c r="N107" s="337"/>
       <c r="O107" s="337"/>
       <c r="P107" s="336"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="463"/>
-      <c r="B108" s="458"/>
-      <c r="C108" s="453"/>
-      <c r="D108" s="460"/>
-      <c r="E108" s="453"/>
+      <c r="A108" s="465"/>
+      <c r="B108" s="467"/>
+      <c r="C108" s="462"/>
+      <c r="D108" s="473"/>
+      <c r="E108" s="462"/>
       <c r="F108" s="336" t="s">
         <v>38</v>
       </c>
@@ -13072,26 +13147,26 @@
         <f t="shared" si="12"/>
         <v>3300000</v>
       </c>
-      <c r="J108" s="492"/>
-      <c r="K108" s="495"/>
-      <c r="L108" s="492"/>
-      <c r="M108" s="492"/>
+      <c r="J108" s="454"/>
+      <c r="K108" s="457"/>
+      <c r="L108" s="454"/>
+      <c r="M108" s="454"/>
       <c r="N108" s="337"/>
       <c r="O108" s="337"/>
       <c r="P108" s="336"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="461">
+      <c r="A109" s="464">
         <v>556</v>
       </c>
-      <c r="B109" s="457">
+      <c r="B109" s="466">
         <v>43976</v>
       </c>
-      <c r="C109" s="452"/>
-      <c r="D109" s="452" t="s">
+      <c r="C109" s="461"/>
+      <c r="D109" s="461" t="s">
         <v>259</v>
       </c>
-      <c r="E109" s="452" t="s">
+      <c r="E109" s="461" t="s">
         <v>105</v>
       </c>
       <c r="F109" s="336" t="s">
@@ -13126,11 +13201,11 @@
       <c r="P109" s="336"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="463"/>
-      <c r="B110" s="458"/>
-      <c r="C110" s="453"/>
-      <c r="D110" s="453"/>
-      <c r="E110" s="453"/>
+      <c r="A110" s="465"/>
+      <c r="B110" s="467"/>
+      <c r="C110" s="462"/>
+      <c r="D110" s="462"/>
+      <c r="E110" s="462"/>
       <c r="F110" s="336" t="s">
         <v>39</v>
       </c>
@@ -13161,14 +13236,14 @@
       <c r="P110" s="336"/>
     </row>
     <row r="111" spans="1:16" s="156" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="474" t="s">
+      <c r="A111" s="488" t="s">
         <v>93</v>
       </c>
-      <c r="B111" s="474"/>
-      <c r="C111" s="474"/>
-      <c r="D111" s="474"/>
-      <c r="E111" s="474"/>
-      <c r="F111" s="474"/>
+      <c r="B111" s="488"/>
+      <c r="C111" s="488"/>
+      <c r="D111" s="488"/>
+      <c r="E111" s="488"/>
+      <c r="F111" s="488"/>
       <c r="G111" s="151">
         <f>SUM(G9:G110)</f>
         <v>1160</v>
@@ -13187,17 +13262,17 @@
       <c r="M111" s="152"/>
       <c r="N111" s="152"/>
       <c r="O111" s="152"/>
-      <c r="P111" s="475"/>
+      <c r="P111" s="492"/>
     </row>
     <row r="112" spans="1:16" s="156" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="473" t="s">
+      <c r="A112" s="463" t="s">
         <v>123</v>
       </c>
-      <c r="B112" s="473"/>
-      <c r="C112" s="473"/>
-      <c r="D112" s="473"/>
-      <c r="E112" s="473"/>
-      <c r="F112" s="473"/>
+      <c r="B112" s="463"/>
+      <c r="C112" s="463"/>
+      <c r="D112" s="463"/>
+      <c r="E112" s="463"/>
+      <c r="F112" s="463"/>
       <c r="G112" s="151">
         <f>G111</f>
         <v>1160</v>
@@ -13213,17 +13288,17 @@
       <c r="M112" s="154"/>
       <c r="N112" s="154"/>
       <c r="O112" s="154"/>
-      <c r="P112" s="475"/>
+      <c r="P112" s="492"/>
     </row>
     <row r="113" spans="1:15" s="156" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="473" t="s">
+      <c r="A113" s="463" t="s">
         <v>94</v>
       </c>
-      <c r="B113" s="473"/>
-      <c r="C113" s="473"/>
-      <c r="D113" s="473"/>
-      <c r="E113" s="473"/>
-      <c r="F113" s="473"/>
+      <c r="B113" s="463"/>
+      <c r="C113" s="463"/>
+      <c r="D113" s="463"/>
+      <c r="E113" s="463"/>
+      <c r="F113" s="463"/>
       <c r="G113" s="328" t="s">
         <v>57</v>
       </c>
@@ -13240,14 +13315,14 @@
       <c r="O113" s="154"/>
     </row>
     <row r="114" spans="1:15" s="156" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="473" t="s">
+      <c r="A114" s="463" t="s">
         <v>95</v>
       </c>
-      <c r="B114" s="473"/>
-      <c r="C114" s="473"/>
-      <c r="D114" s="473"/>
-      <c r="E114" s="473"/>
-      <c r="F114" s="473"/>
+      <c r="B114" s="463"/>
+      <c r="C114" s="463"/>
+      <c r="D114" s="463"/>
+      <c r="E114" s="463"/>
+      <c r="F114" s="463"/>
       <c r="G114" s="328"/>
       <c r="H114" s="154"/>
       <c r="I114" s="152"/>
@@ -13262,14 +13337,14 @@
       <c r="O114" s="154"/>
     </row>
     <row r="115" spans="1:15" s="382" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="496" t="s">
+      <c r="A115" s="458" t="s">
         <v>99</v>
       </c>
-      <c r="B115" s="497"/>
-      <c r="C115" s="497"/>
-      <c r="D115" s="497"/>
-      <c r="E115" s="497"/>
-      <c r="F115" s="498"/>
+      <c r="B115" s="459"/>
+      <c r="C115" s="459"/>
+      <c r="D115" s="459"/>
+      <c r="E115" s="459"/>
+      <c r="F115" s="460"/>
       <c r="G115" s="383"/>
       <c r="H115" s="154"/>
       <c r="I115" s="152"/>
@@ -13284,14 +13359,14 @@
       <c r="O115" s="154"/>
     </row>
     <row r="116" spans="1:15" s="156" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="473" t="s">
+      <c r="A116" s="463" t="s">
         <v>96</v>
       </c>
-      <c r="B116" s="473"/>
-      <c r="C116" s="473"/>
-      <c r="D116" s="473"/>
-      <c r="E116" s="473"/>
-      <c r="F116" s="473"/>
+      <c r="B116" s="463"/>
+      <c r="C116" s="463"/>
+      <c r="D116" s="463"/>
+      <c r="E116" s="463"/>
+      <c r="F116" s="463"/>
       <c r="G116" s="328"/>
       <c r="H116" s="154"/>
       <c r="I116" s="152"/>
@@ -13364,6 +13439,133 @@
     </row>
   </sheetData>
   <mergeCells count="151">
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="J76:J79"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="D54:D59"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="J71:J73"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="P111:P112"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E54:E59"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="E14:E21"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E102:E108"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="C89:C95"/>
+    <mergeCell ref="D89:D95"/>
+    <mergeCell ref="E89:E95"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
     <mergeCell ref="L102:L108"/>
     <mergeCell ref="M102:M108"/>
     <mergeCell ref="K102:K108"/>
@@ -13388,133 +13590,6 @@
     <mergeCell ref="B102:B108"/>
     <mergeCell ref="D102:D108"/>
     <mergeCell ref="C102:C108"/>
-    <mergeCell ref="E102:E108"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="B89:B95"/>
-    <mergeCell ref="C89:C95"/>
-    <mergeCell ref="D89:D95"/>
-    <mergeCell ref="E89:E95"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="E14:E21"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="P111:P112"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E54:E59"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="J71:J73"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="J76:J79"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="D54:D59"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="C64:C66"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.27" top="0.53" bottom="0.39" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -13560,83 +13635,83 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="499" t="s">
+      <c r="A3" s="530" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="499"/>
-      <c r="C3" s="499"/>
-      <c r="D3" s="499"/>
-      <c r="E3" s="499"/>
-      <c r="F3" s="499"/>
-      <c r="G3" s="499"/>
-      <c r="H3" s="499"/>
-      <c r="I3" s="499"/>
-      <c r="J3" s="499"/>
-      <c r="K3" s="499"/>
-      <c r="L3" s="499"/>
-      <c r="M3" s="499"/>
-      <c r="N3" s="499"/>
-      <c r="O3" s="499"/>
-      <c r="P3" s="499"/>
+      <c r="B3" s="530"/>
+      <c r="C3" s="530"/>
+      <c r="D3" s="530"/>
+      <c r="E3" s="530"/>
+      <c r="F3" s="530"/>
+      <c r="G3" s="530"/>
+      <c r="H3" s="530"/>
+      <c r="I3" s="530"/>
+      <c r="J3" s="530"/>
+      <c r="K3" s="530"/>
+      <c r="L3" s="530"/>
+      <c r="M3" s="530"/>
+      <c r="N3" s="530"/>
+      <c r="O3" s="530"/>
+      <c r="P3" s="530"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="500" t="s">
+      <c r="A4" s="531" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="500"/>
-      <c r="C4" s="500"/>
-      <c r="D4" s="500"/>
-      <c r="E4" s="500"/>
-      <c r="F4" s="500"/>
-      <c r="G4" s="500"/>
-      <c r="H4" s="500"/>
-      <c r="I4" s="500"/>
-      <c r="J4" s="500"/>
-      <c r="K4" s="501"/>
-      <c r="L4" s="500"/>
-      <c r="M4" s="500"/>
-      <c r="N4" s="500"/>
-      <c r="O4" s="500"/>
-      <c r="P4" s="500"/>
+      <c r="B4" s="531"/>
+      <c r="C4" s="531"/>
+      <c r="D4" s="531"/>
+      <c r="E4" s="531"/>
+      <c r="F4" s="531"/>
+      <c r="G4" s="531"/>
+      <c r="H4" s="531"/>
+      <c r="I4" s="531"/>
+      <c r="J4" s="531"/>
+      <c r="K4" s="532"/>
+      <c r="L4" s="531"/>
+      <c r="M4" s="531"/>
+      <c r="N4" s="531"/>
+      <c r="O4" s="531"/>
+      <c r="P4" s="531"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="502" t="s">
+      <c r="A5" s="533" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="504" t="s">
+      <c r="B5" s="535" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="513" t="s">
+      <c r="C5" s="544" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="506" t="s">
+      <c r="D5" s="537" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="506"/>
-      <c r="F5" s="506"/>
-      <c r="G5" s="507" t="s">
+      <c r="E5" s="537"/>
+      <c r="F5" s="537"/>
+      <c r="G5" s="538" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="507"/>
-      <c r="I5" s="507"/>
-      <c r="J5" s="507"/>
-      <c r="K5" s="508"/>
-      <c r="L5" s="509" t="s">
+      <c r="H5" s="538"/>
+      <c r="I5" s="538"/>
+      <c r="J5" s="538"/>
+      <c r="K5" s="539"/>
+      <c r="L5" s="540" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="507" t="s">
+      <c r="M5" s="538" t="s">
         <v>66</v>
       </c>
-      <c r="N5" s="507"/>
-      <c r="O5" s="507"/>
-      <c r="P5" s="511" t="s">
+      <c r="N5" s="538"/>
+      <c r="O5" s="538"/>
+      <c r="P5" s="542" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="503"/>
-      <c r="B6" s="505"/>
-      <c r="C6" s="514"/>
+      <c r="A6" s="534"/>
+      <c r="B6" s="536"/>
+      <c r="C6" s="545"/>
       <c r="D6" s="77" t="s">
         <v>48</v>
       </c>
@@ -13661,7 +13736,7 @@
       <c r="K6" s="247" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="510"/>
+      <c r="L6" s="541"/>
       <c r="M6" s="77" t="s">
         <v>53</v>
       </c>
@@ -13671,7 +13746,7 @@
       <c r="O6" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="512"/>
+      <c r="P6" s="543"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="398">
@@ -13717,20 +13792,20 @@
       <c r="P7" s="144"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="516">
+      <c r="A8" s="515">
         <v>1149</v>
       </c>
-      <c r="B8" s="519">
+      <c r="B8" s="518">
         <v>43987</v>
       </c>
-      <c r="C8" s="534"/>
-      <c r="D8" s="522" t="s">
+      <c r="C8" s="527"/>
+      <c r="D8" s="505" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="540" t="s">
+      <c r="E8" s="502" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="522"/>
+      <c r="F8" s="505"/>
       <c r="G8" s="233" t="s">
         <v>126</v>
       </c>
@@ -13757,17 +13832,17 @@
       </c>
       <c r="N8" s="233"/>
       <c r="O8" s="233"/>
-      <c r="P8" s="537" t="s">
+      <c r="P8" s="499" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="517"/>
-      <c r="B9" s="520"/>
-      <c r="C9" s="535"/>
-      <c r="D9" s="523"/>
-      <c r="E9" s="541"/>
-      <c r="F9" s="523"/>
+      <c r="A9" s="516"/>
+      <c r="B9" s="519"/>
+      <c r="C9" s="528"/>
+      <c r="D9" s="506"/>
+      <c r="E9" s="503"/>
+      <c r="F9" s="506"/>
       <c r="G9" s="237" t="s">
         <v>127</v>
       </c>
@@ -13794,15 +13869,15 @@
       </c>
       <c r="N9" s="237"/>
       <c r="O9" s="237"/>
-      <c r="P9" s="538"/>
+      <c r="P9" s="500"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="518"/>
-      <c r="B10" s="521"/>
-      <c r="C10" s="536"/>
-      <c r="D10" s="524"/>
-      <c r="E10" s="542"/>
-      <c r="F10" s="524"/>
+      <c r="A10" s="517"/>
+      <c r="B10" s="520"/>
+      <c r="C10" s="529"/>
+      <c r="D10" s="507"/>
+      <c r="E10" s="504"/>
+      <c r="F10" s="507"/>
       <c r="G10" s="241" t="s">
         <v>128</v>
       </c>
@@ -13829,7 +13904,7 @@
       </c>
       <c r="N10" s="241"/>
       <c r="O10" s="241"/>
-      <c r="P10" s="539"/>
+      <c r="P10" s="501"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="398">
@@ -13961,17 +14036,17 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="516">
+      <c r="A14" s="515">
         <v>552</v>
       </c>
-      <c r="B14" s="531">
+      <c r="B14" s="511">
         <v>43975</v>
       </c>
       <c r="C14" s="388"/>
-      <c r="D14" s="528" t="s">
+      <c r="D14" s="524" t="s">
         <v>256</v>
       </c>
-      <c r="E14" s="525" t="s">
+      <c r="E14" s="521" t="s">
         <v>116</v>
       </c>
       <c r="F14" s="249"/>
@@ -14004,11 +14079,11 @@
       <c r="P14" s="249"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="517"/>
-      <c r="B15" s="532"/>
+      <c r="A15" s="516"/>
+      <c r="B15" s="512"/>
       <c r="C15" s="389"/>
-      <c r="D15" s="529"/>
-      <c r="E15" s="526"/>
+      <c r="D15" s="525"/>
+      <c r="E15" s="522"/>
       <c r="F15" s="250"/>
       <c r="G15" s="250" t="s">
         <v>38</v>
@@ -14039,11 +14114,11 @@
       <c r="P15" s="250"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="517"/>
-      <c r="B16" s="532"/>
+      <c r="A16" s="516"/>
+      <c r="B16" s="512"/>
       <c r="C16" s="389"/>
-      <c r="D16" s="529"/>
-      <c r="E16" s="526"/>
+      <c r="D16" s="525"/>
+      <c r="E16" s="522"/>
       <c r="F16" s="250"/>
       <c r="G16" s="250" t="s">
         <v>242</v>
@@ -14074,11 +14149,11 @@
       <c r="P16" s="250"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="518"/>
-      <c r="B17" s="533"/>
+      <c r="A17" s="517"/>
+      <c r="B17" s="513"/>
       <c r="C17" s="390"/>
-      <c r="D17" s="530"/>
-      <c r="E17" s="527"/>
+      <c r="D17" s="526"/>
+      <c r="E17" s="523"/>
       <c r="F17" s="251"/>
       <c r="G17" s="251" t="s">
         <v>39</v>
@@ -14109,14 +14184,14 @@
       <c r="P17" s="251"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="516">
+      <c r="A18" s="515">
         <v>553</v>
       </c>
-      <c r="B18" s="531">
+      <c r="B18" s="511">
         <v>43975</v>
       </c>
       <c r="C18" s="385"/>
-      <c r="D18" s="543" t="s">
+      <c r="D18" s="508" t="s">
         <v>257</v>
       </c>
       <c r="E18" s="249"/>
@@ -14150,10 +14225,10 @@
       <c r="P18" s="249"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="517"/>
-      <c r="B19" s="532"/>
+      <c r="A19" s="516"/>
+      <c r="B19" s="512"/>
       <c r="C19" s="386"/>
-      <c r="D19" s="544"/>
+      <c r="D19" s="509"/>
       <c r="E19" s="250"/>
       <c r="F19" s="250"/>
       <c r="G19" s="250" t="s">
@@ -14185,10 +14260,10 @@
       <c r="P19" s="250"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="518"/>
-      <c r="B20" s="533"/>
+      <c r="A20" s="517"/>
+      <c r="B20" s="513"/>
       <c r="C20" s="387"/>
-      <c r="D20" s="545"/>
+      <c r="D20" s="510"/>
       <c r="E20" s="251"/>
       <c r="F20" s="251"/>
       <c r="G20" s="251" t="s">
@@ -14241,14 +14316,14 @@
       <c r="P21" s="248"/>
     </row>
     <row r="22" spans="1:16" s="133" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="515" t="s">
+      <c r="A22" s="514" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="515"/>
-      <c r="C22" s="515"/>
-      <c r="D22" s="515"/>
-      <c r="E22" s="515"/>
-      <c r="F22" s="515"/>
+      <c r="B22" s="514"/>
+      <c r="C22" s="514"/>
+      <c r="D22" s="514"/>
+      <c r="E22" s="514"/>
+      <c r="F22" s="514"/>
       <c r="G22" s="129"/>
       <c r="H22" s="129">
         <f>SUM(H7:H20)</f>
@@ -14333,11 +14408,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
@@ -14348,16 +14428,11 @@
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <pageMargins left="0.36" right="0.2" top="0.48" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -14853,13 +14928,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="608" t="s">
+      <c r="A1" s="568" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="608"/>
-      <c r="C1" s="608"/>
-      <c r="D1" s="608"/>
-      <c r="E1" s="608"/>
+      <c r="B1" s="568"/>
+      <c r="C1" s="568"/>
+      <c r="D1" s="568"/>
+      <c r="E1" s="568"/>
       <c r="F1" s="61"/>
       <c r="G1" s="61"/>
       <c r="H1" s="61"/>
@@ -14887,144 +14962,144 @@
       <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="609" t="s">
+      <c r="A4" s="569" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="609"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="609"/>
-      <c r="E4" s="609"/>
-      <c r="F4" s="609"/>
-      <c r="G4" s="609"/>
-      <c r="H4" s="609"/>
-      <c r="I4" s="609"/>
-      <c r="J4" s="609"/>
-      <c r="K4" s="609"/>
-      <c r="L4" s="609"/>
-      <c r="M4" s="609"/>
-      <c r="N4" s="609"/>
-      <c r="O4" s="609"/>
+      <c r="B4" s="569"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="569"/>
+      <c r="E4" s="569"/>
+      <c r="F4" s="569"/>
+      <c r="G4" s="569"/>
+      <c r="H4" s="569"/>
+      <c r="I4" s="569"/>
+      <c r="J4" s="569"/>
+      <c r="K4" s="569"/>
+      <c r="L4" s="569"/>
+      <c r="M4" s="569"/>
+      <c r="N4" s="569"/>
+      <c r="O4" s="569"/>
     </row>
     <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="556" t="s">
+      <c r="A5" s="608" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="556"/>
-      <c r="C5" s="556"/>
-      <c r="D5" s="556"/>
-      <c r="E5" s="556"/>
-      <c r="F5" s="556"/>
-      <c r="G5" s="556"/>
-      <c r="H5" s="556"/>
-      <c r="I5" s="556"/>
-      <c r="J5" s="556"/>
-      <c r="K5" s="556"/>
-      <c r="L5" s="556"/>
-      <c r="M5" s="556"/>
-      <c r="N5" s="556"/>
-      <c r="O5" s="556"/>
+      <c r="B5" s="608"/>
+      <c r="C5" s="608"/>
+      <c r="D5" s="608"/>
+      <c r="E5" s="608"/>
+      <c r="F5" s="608"/>
+      <c r="G5" s="608"/>
+      <c r="H5" s="608"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="608"/>
+      <c r="K5" s="608"/>
+      <c r="L5" s="608"/>
+      <c r="M5" s="608"/>
+      <c r="N5" s="608"/>
+      <c r="O5" s="608"/>
     </row>
     <row r="6" spans="1:15" s="145" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="584" t="s">
+      <c r="A6" s="558" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="580" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="584" t="s">
+      <c r="C6" s="558" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="584" t="s">
+      <c r="D6" s="558" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="584"/>
-      <c r="F6" s="593" t="s">
+      <c r="E6" s="558"/>
+      <c r="F6" s="574" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="593"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="593"/>
-      <c r="J6" s="593"/>
-      <c r="K6" s="593"/>
-      <c r="L6" s="593"/>
-      <c r="M6" s="610"/>
-      <c r="N6" s="610"/>
-      <c r="O6" s="610"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="574"/>
+      <c r="I6" s="574"/>
+      <c r="J6" s="574"/>
+      <c r="K6" s="574"/>
+      <c r="L6" s="574"/>
+      <c r="M6" s="571"/>
+      <c r="N6" s="571"/>
+      <c r="O6" s="571"/>
     </row>
     <row r="7" spans="1:15" s="145" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="584"/>
-      <c r="B7" s="592"/>
-      <c r="C7" s="584"/>
-      <c r="D7" s="584" t="s">
+      <c r="A7" s="558"/>
+      <c r="B7" s="580"/>
+      <c r="C7" s="558"/>
+      <c r="D7" s="558" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="584" t="s">
+      <c r="E7" s="558" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="584" t="s">
+      <c r="F7" s="558" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="584" t="s">
+      <c r="G7" s="558" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="585" t="s">
+      <c r="H7" s="570" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="585" t="s">
+      <c r="I7" s="570" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="586" t="s">
+      <c r="J7" s="572" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="586"/>
-      <c r="L7" s="585" t="s">
+      <c r="K7" s="572"/>
+      <c r="L7" s="570" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="585" t="s">
+      <c r="M7" s="570" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="585" t="s">
+      <c r="N7" s="570" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="585" t="s">
+      <c r="O7" s="570" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="145" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="584"/>
-      <c r="B8" s="592"/>
-      <c r="C8" s="584"/>
-      <c r="D8" s="584"/>
-      <c r="E8" s="584"/>
-      <c r="F8" s="584"/>
-      <c r="G8" s="584"/>
-      <c r="H8" s="585"/>
-      <c r="I8" s="585"/>
+      <c r="A8" s="558"/>
+      <c r="B8" s="580"/>
+      <c r="C8" s="558"/>
+      <c r="D8" s="558"/>
+      <c r="E8" s="558"/>
+      <c r="F8" s="558"/>
+      <c r="G8" s="558"/>
+      <c r="H8" s="570"/>
+      <c r="I8" s="570"/>
       <c r="J8" s="184" t="s">
         <v>109</v>
       </c>
       <c r="K8" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="585"/>
-      <c r="M8" s="585"/>
-      <c r="N8" s="585"/>
-      <c r="O8" s="585"/>
+      <c r="L8" s="570"/>
+      <c r="M8" s="570"/>
+      <c r="N8" s="570"/>
+      <c r="O8" s="570"/>
     </row>
     <row r="9" spans="1:15" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="595">
+      <c r="A9" s="562">
         <v>461</v>
       </c>
-      <c r="B9" s="598">
+      <c r="B9" s="575">
         <v>43951</v>
       </c>
-      <c r="C9" s="595" t="s">
+      <c r="C9" s="562" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="595" t="s">
+      <c r="D9" s="562" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="595" t="s">
+      <c r="E9" s="562" t="s">
         <v>105</v>
       </c>
       <c r="F9" s="181" t="s">
@@ -15053,11 +15128,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="596"/>
-      <c r="B10" s="599"/>
-      <c r="C10" s="596"/>
-      <c r="D10" s="596"/>
-      <c r="E10" s="596"/>
+      <c r="A10" s="563"/>
+      <c r="B10" s="576"/>
+      <c r="C10" s="563"/>
+      <c r="D10" s="563"/>
+      <c r="E10" s="563"/>
       <c r="F10" s="182" t="s">
         <v>37</v>
       </c>
@@ -15084,11 +15159,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="597"/>
-      <c r="B11" s="600"/>
-      <c r="C11" s="597"/>
-      <c r="D11" s="597"/>
-      <c r="E11" s="597"/>
+      <c r="A11" s="564"/>
+      <c r="B11" s="577"/>
+      <c r="C11" s="564"/>
+      <c r="D11" s="564"/>
+      <c r="E11" s="564"/>
       <c r="F11" s="183" t="s">
         <v>40</v>
       </c>
@@ -15277,19 +15352,19 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="601">
+      <c r="A16" s="578">
         <v>508</v>
       </c>
-      <c r="B16" s="603" t="s">
+      <c r="B16" s="559" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="595" t="s">
+      <c r="C16" s="562" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="595" t="s">
+      <c r="D16" s="562" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="595" t="s">
+      <c r="E16" s="562" t="s">
         <v>105</v>
       </c>
       <c r="F16" s="181" t="s">
@@ -15318,11 +15393,11 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="602"/>
-      <c r="B17" s="604"/>
-      <c r="C17" s="597"/>
-      <c r="D17" s="597"/>
-      <c r="E17" s="597"/>
+      <c r="A17" s="579"/>
+      <c r="B17" s="561"/>
+      <c r="C17" s="564"/>
+      <c r="D17" s="564"/>
+      <c r="E17" s="564"/>
       <c r="F17" s="183" t="s">
         <v>37</v>
       </c>
@@ -15431,19 +15506,19 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="595">
+      <c r="A20" s="562">
         <v>527</v>
       </c>
-      <c r="B20" s="603">
+      <c r="B20" s="559">
         <v>43967</v>
       </c>
-      <c r="C20" s="595" t="s">
+      <c r="C20" s="562" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="595" t="s">
+      <c r="D20" s="562" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="595" t="s">
+      <c r="E20" s="562" t="s">
         <v>105</v>
       </c>
       <c r="F20" s="181" t="s">
@@ -15458,7 +15533,7 @@
       <c r="I20" s="166">
         <v>4550000</v>
       </c>
-      <c r="J20" s="605">
+      <c r="J20" s="581">
         <v>150000</v>
       </c>
       <c r="K20" s="167">
@@ -15474,11 +15549,11 @@
       <c r="O20" s="166"/>
     </row>
     <row r="21" spans="1:15" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="596"/>
-      <c r="B21" s="611"/>
-      <c r="C21" s="596"/>
-      <c r="D21" s="596"/>
-      <c r="E21" s="596"/>
+      <c r="A21" s="563"/>
+      <c r="B21" s="560"/>
+      <c r="C21" s="563"/>
+      <c r="D21" s="563"/>
+      <c r="E21" s="563"/>
       <c r="F21" s="182" t="s">
         <v>37</v>
       </c>
@@ -15491,7 +15566,7 @@
       <c r="I21" s="168">
         <v>7440000</v>
       </c>
-      <c r="J21" s="606"/>
+      <c r="J21" s="582"/>
       <c r="K21" s="169">
         <v>0.41</v>
       </c>
@@ -15505,11 +15580,11 @@
       <c r="O21" s="168"/>
     </row>
     <row r="22" spans="1:15" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="597"/>
-      <c r="B22" s="604"/>
-      <c r="C22" s="597"/>
-      <c r="D22" s="597"/>
-      <c r="E22" s="597"/>
+      <c r="A22" s="564"/>
+      <c r="B22" s="561"/>
+      <c r="C22" s="564"/>
+      <c r="D22" s="564"/>
+      <c r="E22" s="564"/>
       <c r="F22" s="183" t="s">
         <v>38</v>
       </c>
@@ -15522,7 +15597,7 @@
       <c r="I22" s="170">
         <v>3300000</v>
       </c>
-      <c r="J22" s="607"/>
+      <c r="J22" s="583"/>
       <c r="K22" s="171">
         <v>0.41</v>
       </c>
@@ -15580,19 +15655,19 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="595">
+      <c r="A24" s="562">
         <v>532</v>
       </c>
-      <c r="B24" s="603">
+      <c r="B24" s="559">
         <v>43969</v>
       </c>
-      <c r="C24" s="595" t="s">
+      <c r="C24" s="562" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="595" t="s">
+      <c r="D24" s="562" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="595" t="s">
+      <c r="E24" s="562" t="s">
         <v>105</v>
       </c>
       <c r="F24" s="181" t="s">
@@ -15621,11 +15696,11 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="597"/>
-      <c r="B25" s="604"/>
-      <c r="C25" s="597"/>
-      <c r="D25" s="597"/>
-      <c r="E25" s="597"/>
+      <c r="A25" s="564"/>
+      <c r="B25" s="561"/>
+      <c r="C25" s="564"/>
+      <c r="D25" s="564"/>
+      <c r="E25" s="564"/>
       <c r="F25" s="183" t="s">
         <v>40</v>
       </c>
@@ -15652,19 +15727,19 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="595">
+      <c r="A26" s="562">
         <v>533</v>
       </c>
-      <c r="B26" s="603">
+      <c r="B26" s="559">
         <v>43969</v>
       </c>
-      <c r="C26" s="595" t="s">
+      <c r="C26" s="562" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="595" t="s">
+      <c r="D26" s="562" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="595" t="s">
+      <c r="E26" s="562" t="s">
         <v>160</v>
       </c>
       <c r="F26" s="181" t="s">
@@ -15693,11 +15768,11 @@
       </c>
     </row>
     <row r="27" spans="1:15" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="597"/>
-      <c r="B27" s="604"/>
-      <c r="C27" s="597"/>
-      <c r="D27" s="597"/>
-      <c r="E27" s="597"/>
+      <c r="A27" s="564"/>
+      <c r="B27" s="561"/>
+      <c r="C27" s="564"/>
+      <c r="D27" s="564"/>
+      <c r="E27" s="564"/>
       <c r="F27" s="183" t="s">
         <v>40</v>
       </c>
@@ -15819,16 +15894,16 @@
       <c r="O31" s="174"/>
     </row>
     <row r="32" spans="1:15" s="214" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="561" t="s">
+      <c r="A32" s="565" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="562"/>
-      <c r="C32" s="562"/>
-      <c r="D32" s="562"/>
-      <c r="E32" s="562"/>
-      <c r="F32" s="562"/>
-      <c r="G32" s="562"/>
-      <c r="H32" s="555"/>
+      <c r="B32" s="566"/>
+      <c r="C32" s="566"/>
+      <c r="D32" s="566"/>
+      <c r="E32" s="566"/>
+      <c r="F32" s="566"/>
+      <c r="G32" s="566"/>
+      <c r="H32" s="567"/>
       <c r="I32" s="215">
         <f>SUM(I9:I31)</f>
         <v>34105000</v>
@@ -15910,108 +15985,108 @@
       <c r="O36" s="222"/>
     </row>
     <row r="37" spans="1:15" s="150" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="612" t="s">
+      <c r="A37" s="551" t="s">
         <v>192</v>
       </c>
-      <c r="B37" s="613"/>
-      <c r="C37" s="613"/>
-      <c r="D37" s="613"/>
-      <c r="E37" s="613"/>
-      <c r="F37" s="613"/>
-      <c r="G37" s="613"/>
-      <c r="H37" s="613"/>
-      <c r="I37" s="613"/>
-      <c r="J37" s="613"/>
-      <c r="K37" s="613"/>
-      <c r="L37" s="613"/>
-      <c r="M37" s="613"/>
-      <c r="N37" s="613"/>
-      <c r="O37" s="613"/>
+      <c r="B37" s="552"/>
+      <c r="C37" s="552"/>
+      <c r="D37" s="552"/>
+      <c r="E37" s="552"/>
+      <c r="F37" s="552"/>
+      <c r="G37" s="552"/>
+      <c r="H37" s="552"/>
+      <c r="I37" s="552"/>
+      <c r="J37" s="552"/>
+      <c r="K37" s="552"/>
+      <c r="L37" s="552"/>
+      <c r="M37" s="552"/>
+      <c r="N37" s="552"/>
+      <c r="O37" s="552"/>
     </row>
     <row r="38" spans="1:15" s="145" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="584" t="s">
+      <c r="A38" s="558" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="592" t="s">
+      <c r="B38" s="580" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="584" t="s">
+      <c r="C38" s="558" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="584" t="s">
+      <c r="D38" s="558" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="584"/>
-      <c r="F38" s="593" t="s">
+      <c r="E38" s="558"/>
+      <c r="F38" s="574" t="s">
         <v>29</v>
       </c>
-      <c r="G38" s="593"/>
-      <c r="H38" s="593"/>
-      <c r="I38" s="593"/>
-      <c r="J38" s="593"/>
-      <c r="K38" s="593"/>
-      <c r="L38" s="593"/>
-      <c r="M38" s="587" t="s">
+      <c r="G38" s="574"/>
+      <c r="H38" s="574"/>
+      <c r="I38" s="574"/>
+      <c r="J38" s="574"/>
+      <c r="K38" s="574"/>
+      <c r="L38" s="574"/>
+      <c r="M38" s="584" t="s">
         <v>58</v>
       </c>
-      <c r="N38" s="588"/>
-      <c r="O38" s="614" t="s">
+      <c r="N38" s="585"/>
+      <c r="O38" s="555" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="145" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="584"/>
-      <c r="B39" s="592"/>
-      <c r="C39" s="584"/>
-      <c r="D39" s="584" t="s">
+      <c r="A39" s="558"/>
+      <c r="B39" s="580"/>
+      <c r="C39" s="558"/>
+      <c r="D39" s="558" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="584" t="s">
+      <c r="E39" s="558" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="584" t="s">
+      <c r="F39" s="558" t="s">
         <v>31</v>
       </c>
-      <c r="G39" s="584" t="s">
+      <c r="G39" s="558" t="s">
         <v>32</v>
       </c>
-      <c r="H39" s="585" t="s">
+      <c r="H39" s="570" t="s">
         <v>33</v>
       </c>
-      <c r="I39" s="585" t="s">
+      <c r="I39" s="570" t="s">
         <v>51</v>
       </c>
-      <c r="J39" s="586" t="s">
+      <c r="J39" s="572" t="s">
         <v>35</v>
       </c>
-      <c r="K39" s="586"/>
-      <c r="L39" s="585" t="s">
+      <c r="K39" s="572"/>
+      <c r="L39" s="570" t="s">
         <v>52</v>
       </c>
-      <c r="M39" s="589"/>
-      <c r="N39" s="590"/>
-      <c r="O39" s="615"/>
+      <c r="M39" s="586"/>
+      <c r="N39" s="587"/>
+      <c r="O39" s="556"/>
     </row>
     <row r="40" spans="1:15" s="145" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="584"/>
-      <c r="B40" s="592"/>
-      <c r="C40" s="584"/>
-      <c r="D40" s="584"/>
-      <c r="E40" s="584"/>
-      <c r="F40" s="584"/>
-      <c r="G40" s="584"/>
-      <c r="H40" s="585"/>
-      <c r="I40" s="585"/>
+      <c r="A40" s="558"/>
+      <c r="B40" s="580"/>
+      <c r="C40" s="558"/>
+      <c r="D40" s="558"/>
+      <c r="E40" s="558"/>
+      <c r="F40" s="558"/>
+      <c r="G40" s="558"/>
+      <c r="H40" s="570"/>
+      <c r="I40" s="570"/>
       <c r="J40" s="184" t="s">
         <v>109</v>
       </c>
       <c r="K40" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="L40" s="585"/>
-      <c r="M40" s="589"/>
-      <c r="N40" s="590"/>
-      <c r="O40" s="616"/>
+      <c r="L40" s="570"/>
+      <c r="M40" s="586"/>
+      <c r="N40" s="587"/>
+      <c r="O40" s="557"/>
     </row>
     <row r="41" spans="1:15" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="176">
@@ -16050,11 +16125,11 @@
         <f>I41*(1-K41)</f>
         <v>550000</v>
       </c>
-      <c r="M41" s="591">
+      <c r="M41" s="588">
         <f>L41</f>
         <v>550000</v>
       </c>
-      <c r="N41" s="591"/>
+      <c r="N41" s="588"/>
       <c r="O41" s="213"/>
     </row>
     <row r="42" spans="1:15" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -16094,11 +16169,11 @@
         <f t="shared" ref="L42:L47" si="1">I42*(1-K42)</f>
         <v>295750</v>
       </c>
-      <c r="M42" s="580">
+      <c r="M42" s="553">
         <f>L42</f>
         <v>295750</v>
       </c>
-      <c r="N42" s="581"/>
+      <c r="N42" s="554"/>
       <c r="O42" s="148"/>
     </row>
     <row r="43" spans="1:15" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -16138,11 +16213,11 @@
         <f t="shared" si="1"/>
         <v>550000</v>
       </c>
-      <c r="M43" s="580">
+      <c r="M43" s="553">
         <f t="shared" ref="M43:M47" si="2">L43</f>
         <v>550000</v>
       </c>
-      <c r="N43" s="581"/>
+      <c r="N43" s="554"/>
       <c r="O43" s="148"/>
     </row>
     <row r="44" spans="1:15" s="150" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -16184,11 +16259,11 @@
         <f>I44*(1-K44)-J44</f>
         <v>388000</v>
       </c>
-      <c r="M44" s="580">
+      <c r="M44" s="553">
         <f t="shared" si="2"/>
         <v>388000</v>
       </c>
-      <c r="N44" s="581"/>
+      <c r="N44" s="554"/>
       <c r="O44" s="148"/>
     </row>
     <row r="45" spans="1:15" s="150" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -16210,11 +16285,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M45" s="580">
+      <c r="M45" s="553">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N45" s="581"/>
+      <c r="N45" s="554"/>
       <c r="O45" s="148"/>
     </row>
     <row r="46" spans="1:15" s="150" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -16236,11 +16311,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M46" s="580">
+      <c r="M46" s="553">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N46" s="581"/>
+      <c r="N46" s="554"/>
       <c r="O46" s="148"/>
     </row>
     <row r="47" spans="1:15" s="150" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -16262,24 +16337,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M47" s="580">
+      <c r="M47" s="553">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N47" s="581"/>
+      <c r="N47" s="554"/>
       <c r="O47" s="148"/>
     </row>
     <row r="48" spans="1:15" s="214" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="561" t="s">
+      <c r="A48" s="565" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="562"/>
-      <c r="C48" s="562"/>
-      <c r="D48" s="562"/>
-      <c r="E48" s="562"/>
-      <c r="F48" s="562"/>
-      <c r="G48" s="562"/>
-      <c r="H48" s="555"/>
+      <c r="B48" s="566"/>
+      <c r="C48" s="566"/>
+      <c r="D48" s="566"/>
+      <c r="E48" s="566"/>
+      <c r="F48" s="566"/>
+      <c r="G48" s="566"/>
+      <c r="H48" s="567"/>
       <c r="I48" s="215">
         <f>SUM(I41:I47)</f>
         <v>2040000</v>
@@ -16290,373 +16365,373 @@
         <f>SUM(L41:L47)</f>
         <v>1783750</v>
       </c>
-      <c r="M48" s="582">
+      <c r="M48" s="599">
         <f>SUM(M41:N47)</f>
         <v>1783750</v>
       </c>
-      <c r="N48" s="583"/>
+      <c r="N48" s="600"/>
       <c r="O48" s="217"/>
     </row>
     <row r="49" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="579" t="s">
+      <c r="A49" s="589" t="s">
         <v>209</v>
       </c>
-      <c r="B49" s="579"/>
-      <c r="C49" s="579"/>
-      <c r="D49" s="579"/>
-      <c r="E49" s="579"/>
-      <c r="F49" s="579"/>
-      <c r="G49" s="579"/>
-      <c r="H49" s="579"/>
-      <c r="I49" s="579"/>
-      <c r="J49" s="579"/>
-      <c r="K49" s="579"/>
-      <c r="L49" s="579"/>
-      <c r="M49" s="579"/>
-      <c r="N49" s="579"/>
-      <c r="O49" s="579"/>
+      <c r="B49" s="589"/>
+      <c r="C49" s="589"/>
+      <c r="D49" s="589"/>
+      <c r="E49" s="589"/>
+      <c r="F49" s="589"/>
+      <c r="G49" s="589"/>
+      <c r="H49" s="589"/>
+      <c r="I49" s="589"/>
+      <c r="J49" s="589"/>
+      <c r="K49" s="589"/>
+      <c r="L49" s="589"/>
+      <c r="M49" s="589"/>
+      <c r="N49" s="589"/>
+      <c r="O49" s="589"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="564" t="s">
+      <c r="A50" s="590" t="s">
         <v>199</v>
       </c>
-      <c r="B50" s="564"/>
-      <c r="C50" s="564"/>
-      <c r="D50" s="564"/>
-      <c r="E50" s="564"/>
-      <c r="F50" s="564"/>
-      <c r="G50" s="564"/>
-      <c r="H50" s="564" t="s">
+      <c r="B50" s="590"/>
+      <c r="C50" s="590"/>
+      <c r="D50" s="590"/>
+      <c r="E50" s="590"/>
+      <c r="F50" s="590"/>
+      <c r="G50" s="590"/>
+      <c r="H50" s="590" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="564"/>
-      <c r="J50" s="564" t="s">
+      <c r="I50" s="590"/>
+      <c r="J50" s="590" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="564"/>
-      <c r="L50" s="564"/>
+      <c r="K50" s="590"/>
+      <c r="L50" s="590"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="571" t="s">
+      <c r="A51" s="591" t="s">
         <v>200</v>
       </c>
-      <c r="B51" s="572"/>
-      <c r="C51" s="572"/>
-      <c r="D51" s="572"/>
-      <c r="E51" s="572"/>
-      <c r="F51" s="572"/>
-      <c r="G51" s="573"/>
-      <c r="H51" s="574">
+      <c r="B51" s="592"/>
+      <c r="C51" s="592"/>
+      <c r="D51" s="592"/>
+      <c r="E51" s="592"/>
+      <c r="F51" s="592"/>
+      <c r="G51" s="593"/>
+      <c r="H51" s="594">
         <v>523000</v>
       </c>
-      <c r="I51" s="575"/>
-      <c r="J51" s="567" t="s">
+      <c r="I51" s="595"/>
+      <c r="J51" s="596" t="s">
         <v>201</v>
       </c>
-      <c r="K51" s="568"/>
-      <c r="L51" s="569"/>
+      <c r="K51" s="597"/>
+      <c r="L51" s="598"/>
     </row>
     <row r="52" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="576" t="s">
+      <c r="A52" s="601" t="s">
         <v>213</v>
       </c>
-      <c r="B52" s="577"/>
-      <c r="C52" s="577"/>
-      <c r="D52" s="577"/>
-      <c r="E52" s="577"/>
-      <c r="F52" s="577"/>
-      <c r="G52" s="578"/>
-      <c r="H52" s="574">
+      <c r="B52" s="602"/>
+      <c r="C52" s="602"/>
+      <c r="D52" s="602"/>
+      <c r="E52" s="602"/>
+      <c r="F52" s="602"/>
+      <c r="G52" s="603"/>
+      <c r="H52" s="594">
         <v>2079000</v>
       </c>
-      <c r="I52" s="575"/>
-      <c r="J52" s="567" t="s">
+      <c r="I52" s="595"/>
+      <c r="J52" s="596" t="s">
         <v>201</v>
       </c>
-      <c r="K52" s="568"/>
-      <c r="L52" s="569"/>
+      <c r="K52" s="597"/>
+      <c r="L52" s="598"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="571" t="s">
+      <c r="A53" s="591" t="s">
         <v>202</v>
       </c>
-      <c r="B53" s="572"/>
-      <c r="C53" s="572"/>
-      <c r="D53" s="572"/>
-      <c r="E53" s="572"/>
-      <c r="F53" s="572"/>
-      <c r="G53" s="573"/>
-      <c r="H53" s="574">
+      <c r="B53" s="592"/>
+      <c r="C53" s="592"/>
+      <c r="D53" s="592"/>
+      <c r="E53" s="592"/>
+      <c r="F53" s="592"/>
+      <c r="G53" s="593"/>
+      <c r="H53" s="594">
         <v>2563000</v>
       </c>
-      <c r="I53" s="575"/>
-      <c r="J53" s="567" t="s">
+      <c r="I53" s="595"/>
+      <c r="J53" s="596" t="s">
         <v>201</v>
       </c>
-      <c r="K53" s="568"/>
-      <c r="L53" s="569"/>
+      <c r="K53" s="597"/>
+      <c r="L53" s="598"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="571" t="s">
+      <c r="A54" s="591" t="s">
         <v>210</v>
       </c>
-      <c r="B54" s="572"/>
-      <c r="C54" s="572"/>
-      <c r="D54" s="572"/>
-      <c r="E54" s="572"/>
-      <c r="F54" s="572"/>
-      <c r="G54" s="573"/>
-      <c r="H54" s="574">
+      <c r="B54" s="592"/>
+      <c r="C54" s="592"/>
+      <c r="D54" s="592"/>
+      <c r="E54" s="592"/>
+      <c r="F54" s="592"/>
+      <c r="G54" s="593"/>
+      <c r="H54" s="594">
         <v>82000</v>
       </c>
-      <c r="I54" s="575"/>
-      <c r="J54" s="567" t="s">
+      <c r="I54" s="595"/>
+      <c r="J54" s="596" t="s">
         <v>201</v>
       </c>
-      <c r="K54" s="568"/>
-      <c r="L54" s="569"/>
+      <c r="K54" s="597"/>
+      <c r="L54" s="598"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="571" t="s">
+      <c r="A55" s="591" t="s">
         <v>214</v>
       </c>
-      <c r="B55" s="572"/>
-      <c r="C55" s="572"/>
-      <c r="D55" s="572"/>
-      <c r="E55" s="572"/>
-      <c r="F55" s="572"/>
-      <c r="G55" s="573"/>
-      <c r="H55" s="574">
+      <c r="B55" s="592"/>
+      <c r="C55" s="592"/>
+      <c r="D55" s="592"/>
+      <c r="E55" s="592"/>
+      <c r="F55" s="592"/>
+      <c r="G55" s="593"/>
+      <c r="H55" s="594">
         <v>866000</v>
       </c>
-      <c r="I55" s="575"/>
-      <c r="J55" s="567" t="s">
+      <c r="I55" s="595"/>
+      <c r="J55" s="596" t="s">
         <v>201</v>
       </c>
-      <c r="K55" s="568"/>
-      <c r="L55" s="569"/>
+      <c r="K55" s="597"/>
+      <c r="L55" s="598"/>
     </row>
     <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="571"/>
-      <c r="B56" s="572"/>
-      <c r="C56" s="572"/>
-      <c r="D56" s="572"/>
-      <c r="E56" s="572"/>
-      <c r="F56" s="572"/>
-      <c r="G56" s="573"/>
-      <c r="H56" s="574"/>
-      <c r="I56" s="575"/>
-      <c r="J56" s="567" t="s">
+      <c r="A56" s="591"/>
+      <c r="B56" s="592"/>
+      <c r="C56" s="592"/>
+      <c r="D56" s="592"/>
+      <c r="E56" s="592"/>
+      <c r="F56" s="592"/>
+      <c r="G56" s="593"/>
+      <c r="H56" s="594"/>
+      <c r="I56" s="595"/>
+      <c r="J56" s="596" t="s">
         <v>201</v>
       </c>
-      <c r="K56" s="568"/>
-      <c r="L56" s="569"/>
+      <c r="K56" s="597"/>
+      <c r="L56" s="598"/>
     </row>
     <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="571"/>
-      <c r="B57" s="572"/>
-      <c r="C57" s="572"/>
-      <c r="D57" s="572"/>
-      <c r="E57" s="572"/>
-      <c r="F57" s="572"/>
-      <c r="G57" s="573"/>
-      <c r="H57" s="574"/>
-      <c r="I57" s="575"/>
-      <c r="J57" s="567" t="s">
+      <c r="A57" s="591"/>
+      <c r="B57" s="592"/>
+      <c r="C57" s="592"/>
+      <c r="D57" s="592"/>
+      <c r="E57" s="592"/>
+      <c r="F57" s="592"/>
+      <c r="G57" s="593"/>
+      <c r="H57" s="594"/>
+      <c r="I57" s="595"/>
+      <c r="J57" s="596" t="s">
         <v>201</v>
       </c>
-      <c r="K57" s="568"/>
-      <c r="L57" s="569"/>
+      <c r="K57" s="597"/>
+      <c r="L57" s="598"/>
     </row>
     <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="571"/>
-      <c r="B58" s="572"/>
-      <c r="C58" s="572"/>
-      <c r="D58" s="572"/>
-      <c r="E58" s="572"/>
-      <c r="F58" s="572"/>
-      <c r="G58" s="573"/>
-      <c r="H58" s="574"/>
-      <c r="I58" s="575"/>
-      <c r="J58" s="567" t="s">
+      <c r="A58" s="591"/>
+      <c r="B58" s="592"/>
+      <c r="C58" s="592"/>
+      <c r="D58" s="592"/>
+      <c r="E58" s="592"/>
+      <c r="F58" s="592"/>
+      <c r="G58" s="593"/>
+      <c r="H58" s="594"/>
+      <c r="I58" s="595"/>
+      <c r="J58" s="596" t="s">
         <v>201</v>
       </c>
-      <c r="K58" s="568"/>
-      <c r="L58" s="569"/>
+      <c r="K58" s="597"/>
+      <c r="L58" s="598"/>
     </row>
     <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="571"/>
-      <c r="B59" s="572"/>
-      <c r="C59" s="572"/>
-      <c r="D59" s="572"/>
-      <c r="E59" s="572"/>
-      <c r="F59" s="572"/>
-      <c r="G59" s="573"/>
-      <c r="H59" s="574"/>
-      <c r="I59" s="575"/>
-      <c r="J59" s="567" t="s">
+      <c r="A59" s="591"/>
+      <c r="B59" s="592"/>
+      <c r="C59" s="592"/>
+      <c r="D59" s="592"/>
+      <c r="E59" s="592"/>
+      <c r="F59" s="592"/>
+      <c r="G59" s="593"/>
+      <c r="H59" s="594"/>
+      <c r="I59" s="595"/>
+      <c r="J59" s="596" t="s">
         <v>201</v>
       </c>
-      <c r="K59" s="568"/>
-      <c r="L59" s="569"/>
+      <c r="K59" s="597"/>
+      <c r="L59" s="598"/>
     </row>
     <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="571"/>
-      <c r="B60" s="572"/>
-      <c r="C60" s="572"/>
-      <c r="D60" s="572"/>
-      <c r="E60" s="572"/>
-      <c r="F60" s="572"/>
-      <c r="G60" s="573"/>
-      <c r="H60" s="574"/>
-      <c r="I60" s="575"/>
-      <c r="J60" s="567" t="s">
+      <c r="A60" s="591"/>
+      <c r="B60" s="592"/>
+      <c r="C60" s="592"/>
+      <c r="D60" s="592"/>
+      <c r="E60" s="592"/>
+      <c r="F60" s="592"/>
+      <c r="G60" s="593"/>
+      <c r="H60" s="594"/>
+      <c r="I60" s="595"/>
+      <c r="J60" s="596" t="s">
         <v>201</v>
       </c>
-      <c r="K60" s="568"/>
-      <c r="L60" s="569"/>
+      <c r="K60" s="597"/>
+      <c r="L60" s="598"/>
     </row>
     <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="571"/>
-      <c r="B61" s="572"/>
-      <c r="C61" s="572"/>
-      <c r="D61" s="572"/>
-      <c r="E61" s="572"/>
-      <c r="F61" s="572"/>
-      <c r="G61" s="573"/>
-      <c r="H61" s="574"/>
-      <c r="I61" s="575"/>
-      <c r="J61" s="567" t="s">
+      <c r="A61" s="591"/>
+      <c r="B61" s="592"/>
+      <c r="C61" s="592"/>
+      <c r="D61" s="592"/>
+      <c r="E61" s="592"/>
+      <c r="F61" s="592"/>
+      <c r="G61" s="593"/>
+      <c r="H61" s="594"/>
+      <c r="I61" s="595"/>
+      <c r="J61" s="596" t="s">
         <v>201</v>
       </c>
-      <c r="K61" s="568"/>
-      <c r="L61" s="569"/>
+      <c r="K61" s="597"/>
+      <c r="L61" s="598"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="561" t="s">
+      <c r="A62" s="565" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="562"/>
-      <c r="C62" s="562"/>
-      <c r="D62" s="562"/>
-      <c r="E62" s="562"/>
-      <c r="F62" s="562"/>
-      <c r="G62" s="555"/>
-      <c r="H62" s="565">
+      <c r="B62" s="566"/>
+      <c r="C62" s="566"/>
+      <c r="D62" s="566"/>
+      <c r="E62" s="566"/>
+      <c r="F62" s="566"/>
+      <c r="G62" s="567"/>
+      <c r="H62" s="614">
         <f>SUM(H51:I61)</f>
         <v>6113000</v>
       </c>
-      <c r="I62" s="566"/>
-      <c r="J62" s="567"/>
-      <c r="K62" s="568"/>
-      <c r="L62" s="569"/>
+      <c r="I62" s="615"/>
+      <c r="J62" s="596"/>
+      <c r="K62" s="597"/>
+      <c r="L62" s="598"/>
     </row>
     <row r="63" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="570" t="s">
+      <c r="A63" s="616" t="s">
         <v>203</v>
       </c>
-      <c r="B63" s="570"/>
-      <c r="C63" s="570"/>
-      <c r="D63" s="570"/>
-      <c r="E63" s="570"/>
-      <c r="F63" s="570"/>
-      <c r="G63" s="570"/>
-      <c r="H63" s="570"/>
-      <c r="I63" s="570"/>
+      <c r="B63" s="616"/>
+      <c r="C63" s="616"/>
+      <c r="D63" s="616"/>
+      <c r="E63" s="616"/>
+      <c r="F63" s="616"/>
+      <c r="G63" s="616"/>
+      <c r="H63" s="616"/>
+      <c r="I63" s="616"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="561" t="s">
+      <c r="B64" s="565" t="s">
         <v>199</v>
       </c>
-      <c r="C64" s="562"/>
-      <c r="D64" s="562"/>
-      <c r="E64" s="562"/>
-      <c r="F64" s="562"/>
-      <c r="G64" s="562"/>
-      <c r="H64" s="555"/>
-      <c r="I64" s="564" t="s">
+      <c r="C64" s="566"/>
+      <c r="D64" s="566"/>
+      <c r="E64" s="566"/>
+      <c r="F64" s="566"/>
+      <c r="G64" s="566"/>
+      <c r="H64" s="567"/>
+      <c r="I64" s="590" t="s">
         <v>205</v>
       </c>
-      <c r="J64" s="564"/>
+      <c r="J64" s="590"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="63">
         <v>1</v>
       </c>
-      <c r="B65" s="551" t="s">
+      <c r="B65" s="604" t="s">
         <v>206</v>
       </c>
-      <c r="C65" s="552"/>
-      <c r="D65" s="552"/>
-      <c r="E65" s="552"/>
-      <c r="F65" s="552"/>
-      <c r="G65" s="552"/>
-      <c r="H65" s="553"/>
-      <c r="I65" s="554">
+      <c r="C65" s="605"/>
+      <c r="D65" s="605"/>
+      <c r="E65" s="605"/>
+      <c r="F65" s="605"/>
+      <c r="G65" s="605"/>
+      <c r="H65" s="606"/>
+      <c r="I65" s="607">
         <f>L32</f>
         <v>19849100.000000004</v>
       </c>
-      <c r="J65" s="555"/>
+      <c r="J65" s="567"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="63">
         <v>2</v>
       </c>
-      <c r="B66" s="551" t="s">
+      <c r="B66" s="604" t="s">
         <v>207</v>
       </c>
-      <c r="C66" s="552"/>
-      <c r="D66" s="552"/>
-      <c r="E66" s="552"/>
-      <c r="F66" s="552"/>
-      <c r="G66" s="552"/>
-      <c r="H66" s="553"/>
-      <c r="I66" s="563">
+      <c r="C66" s="605"/>
+      <c r="D66" s="605"/>
+      <c r="E66" s="605"/>
+      <c r="F66" s="605"/>
+      <c r="G66" s="605"/>
+      <c r="H66" s="606"/>
+      <c r="I66" s="613">
         <f>M48</f>
         <v>1783750</v>
       </c>
-      <c r="J66" s="563"/>
+      <c r="J66" s="613"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="63">
         <v>3</v>
       </c>
-      <c r="B67" s="551" t="s">
+      <c r="B67" s="604" t="s">
         <v>208</v>
       </c>
-      <c r="C67" s="552"/>
-      <c r="D67" s="552"/>
-      <c r="E67" s="552"/>
-      <c r="F67" s="552"/>
-      <c r="G67" s="552"/>
-      <c r="H67" s="553"/>
-      <c r="I67" s="563">
+      <c r="C67" s="605"/>
+      <c r="D67" s="605"/>
+      <c r="E67" s="605"/>
+      <c r="F67" s="605"/>
+      <c r="G67" s="605"/>
+      <c r="H67" s="606"/>
+      <c r="I67" s="613">
         <f>N32</f>
         <v>9000000.0000000019</v>
       </c>
-      <c r="J67" s="563"/>
+      <c r="J67" s="613"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="63">
         <v>4</v>
       </c>
-      <c r="B68" s="551" t="s">
+      <c r="B68" s="604" t="s">
         <v>204</v>
       </c>
-      <c r="C68" s="552"/>
-      <c r="D68" s="552"/>
-      <c r="E68" s="552"/>
-      <c r="F68" s="552"/>
-      <c r="G68" s="552"/>
-      <c r="H68" s="553"/>
-      <c r="I68" s="563">
+      <c r="C68" s="605"/>
+      <c r="D68" s="605"/>
+      <c r="E68" s="605"/>
+      <c r="F68" s="605"/>
+      <c r="G68" s="605"/>
+      <c r="H68" s="606"/>
+      <c r="I68" s="613">
         <f>H62</f>
         <v>6113000</v>
       </c>
-      <c r="J68" s="563"/>
+      <c r="J68" s="613"/>
       <c r="L68" s="232"/>
       <c r="M68" s="232"/>
     </row>
@@ -16664,39 +16739,39 @@
       <c r="A69" s="63">
         <v>5</v>
       </c>
-      <c r="B69" s="551" t="s">
+      <c r="B69" s="604" t="s">
         <v>251</v>
       </c>
-      <c r="C69" s="552"/>
-      <c r="D69" s="552"/>
-      <c r="E69" s="552"/>
-      <c r="F69" s="552"/>
-      <c r="G69" s="552"/>
-      <c r="H69" s="553"/>
-      <c r="I69" s="554">
+      <c r="C69" s="605"/>
+      <c r="D69" s="605"/>
+      <c r="E69" s="605"/>
+      <c r="F69" s="605"/>
+      <c r="G69" s="605"/>
+      <c r="H69" s="606"/>
+      <c r="I69" s="607">
         <f>'Bảng lương'!K17</f>
         <v>4407604.153846154</v>
       </c>
-      <c r="J69" s="557"/>
+      <c r="J69" s="609"/>
     </row>
     <row r="70" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="63">
         <v>6</v>
       </c>
-      <c r="B70" s="558" t="s">
+      <c r="B70" s="610" t="s">
         <v>212</v>
       </c>
-      <c r="C70" s="559"/>
-      <c r="D70" s="559"/>
-      <c r="E70" s="559"/>
-      <c r="F70" s="559"/>
-      <c r="G70" s="559"/>
-      <c r="H70" s="560"/>
-      <c r="I70" s="563">
+      <c r="C70" s="611"/>
+      <c r="D70" s="611"/>
+      <c r="E70" s="611"/>
+      <c r="F70" s="611"/>
+      <c r="G70" s="611"/>
+      <c r="H70" s="612"/>
+      <c r="I70" s="613">
         <f>I65+I66-I67-I68-I69</f>
         <v>2112245.8461538479</v>
       </c>
-      <c r="J70" s="563"/>
+      <c r="J70" s="613"/>
       <c r="N70" s="232"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -16809,8 +16884,8 @@
       <c r="I79" s="219"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="594"/>
-      <c r="B80" s="594"/>
+      <c r="A80" s="573"/>
+      <c r="B80" s="573"/>
       <c r="E80" s="35"/>
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
@@ -16820,8 +16895,8 @@
       <c r="H82" s="220"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="594"/>
-      <c r="B84" s="594"/>
+      <c r="A84" s="573"/>
+      <c r="B84" s="573"/>
       <c r="E84" s="35"/>
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
@@ -16829,40 +16904,65 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="A37:O37"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O38:O40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="A49:O49"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="A48:H48"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="D6:E6"/>
@@ -16887,6 +16987,40 @@
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A37:O37"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O38:O40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="I39:I40"/>
@@ -16899,65 +17033,6 @@
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:L38"/>
-    <mergeCell ref="A49:O49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="H61:I61"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -16968,7 +17043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -17495,16 +17570,16 @@
       <c r="C1" s="186"/>
       <c r="D1" s="186"/>
       <c r="E1" s="186"/>
-      <c r="Z1" s="622" t="s">
+      <c r="Z1" s="624" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="623"/>
-      <c r="AB1" s="623"/>
-      <c r="AC1" s="623"/>
-      <c r="AD1" s="623"/>
-      <c r="AE1" s="623"/>
-      <c r="AF1" s="623"/>
-      <c r="AG1" s="624"/>
+      <c r="AA1" s="625"/>
+      <c r="AB1" s="625"/>
+      <c r="AC1" s="625"/>
+      <c r="AD1" s="625"/>
+      <c r="AE1" s="625"/>
+      <c r="AF1" s="625"/>
+      <c r="AG1" s="626"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="189" t="s">
@@ -17514,18 +17589,18 @@
       <c r="C2" s="190"/>
       <c r="D2" s="190"/>
       <c r="E2" s="190"/>
-      <c r="Z2" s="617" t="s">
+      <c r="Z2" s="619" t="s">
         <v>167</v>
       </c>
-      <c r="AA2" s="618"/>
-      <c r="AB2" s="618"/>
-      <c r="AC2" s="618"/>
-      <c r="AD2" s="618"/>
-      <c r="AE2" s="619"/>
-      <c r="AF2" s="620" t="s">
+      <c r="AA2" s="620"/>
+      <c r="AB2" s="620"/>
+      <c r="AC2" s="620"/>
+      <c r="AD2" s="620"/>
+      <c r="AE2" s="621"/>
+      <c r="AF2" s="622" t="s">
         <v>168</v>
       </c>
-      <c r="AG2" s="621"/>
+      <c r="AG2" s="623"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="189" t="s">
@@ -17535,18 +17610,18 @@
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="617" t="s">
+      <c r="Z3" s="619" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" s="618"/>
-      <c r="AB3" s="618"/>
-      <c r="AC3" s="618"/>
-      <c r="AD3" s="618"/>
-      <c r="AE3" s="619"/>
-      <c r="AF3" s="620" t="s">
+      <c r="AA3" s="620"/>
+      <c r="AB3" s="620"/>
+      <c r="AC3" s="620"/>
+      <c r="AD3" s="620"/>
+      <c r="AE3" s="621"/>
+      <c r="AF3" s="622" t="s">
         <v>171</v>
       </c>
-      <c r="AG3" s="621"/>
+      <c r="AG3" s="623"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="189" t="s">
@@ -17556,18 +17631,18 @@
       <c r="C4" s="79"/>
       <c r="D4" s="79"/>
       <c r="E4" s="79"/>
-      <c r="Z4" s="617" t="s">
+      <c r="Z4" s="619" t="s">
         <v>173</v>
       </c>
-      <c r="AA4" s="618"/>
-      <c r="AB4" s="618"/>
-      <c r="AC4" s="618"/>
-      <c r="AD4" s="618"/>
-      <c r="AE4" s="619"/>
-      <c r="AF4" s="620" t="s">
+      <c r="AA4" s="620"/>
+      <c r="AB4" s="620"/>
+      <c r="AC4" s="620"/>
+      <c r="AD4" s="620"/>
+      <c r="AE4" s="621"/>
+      <c r="AF4" s="622" t="s">
         <v>174</v>
       </c>
-      <c r="AG4" s="621"/>
+      <c r="AG4" s="623"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="189" t="s">
@@ -17577,18 +17652,18 @@
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="617" t="s">
+      <c r="Z5" s="619" t="s">
         <v>176</v>
       </c>
-      <c r="AA5" s="618"/>
-      <c r="AB5" s="618"/>
-      <c r="AC5" s="618"/>
-      <c r="AD5" s="618"/>
-      <c r="AE5" s="619"/>
-      <c r="AF5" s="620" t="s">
+      <c r="AA5" s="620"/>
+      <c r="AB5" s="620"/>
+      <c r="AC5" s="620"/>
+      <c r="AD5" s="620"/>
+      <c r="AE5" s="621"/>
+      <c r="AF5" s="622" t="s">
         <v>177</v>
       </c>
-      <c r="AG5" s="621"/>
+      <c r="AG5" s="623"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="191"/>
@@ -17598,95 +17673,95 @@
       <c r="E6" s="191"/>
     </row>
     <row r="7" spans="1:35" s="193" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="625" t="s">
+      <c r="A7" s="627" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="625"/>
-      <c r="C7" s="625"/>
-      <c r="D7" s="625"/>
-      <c r="E7" s="625"/>
-      <c r="F7" s="625"/>
-      <c r="G7" s="625"/>
-      <c r="H7" s="625"/>
-      <c r="I7" s="625"/>
-      <c r="J7" s="625"/>
-      <c r="K7" s="625"/>
-      <c r="L7" s="625"/>
-      <c r="M7" s="625"/>
-      <c r="N7" s="625"/>
-      <c r="O7" s="625"/>
-      <c r="P7" s="625"/>
-      <c r="Q7" s="625"/>
-      <c r="R7" s="625"/>
-      <c r="S7" s="625"/>
-      <c r="T7" s="625"/>
-      <c r="U7" s="625"/>
-      <c r="V7" s="625"/>
-      <c r="W7" s="625"/>
-      <c r="X7" s="625"/>
-      <c r="Y7" s="625"/>
-      <c r="Z7" s="625"/>
-      <c r="AA7" s="625"/>
-      <c r="AB7" s="625"/>
-      <c r="AC7" s="625"/>
-      <c r="AD7" s="625"/>
-      <c r="AE7" s="625"/>
-      <c r="AF7" s="625"/>
-      <c r="AG7" s="625"/>
-      <c r="AH7" s="625"/>
-      <c r="AI7" s="625"/>
+      <c r="B7" s="627"/>
+      <c r="C7" s="627"/>
+      <c r="D7" s="627"/>
+      <c r="E7" s="627"/>
+      <c r="F7" s="627"/>
+      <c r="G7" s="627"/>
+      <c r="H7" s="627"/>
+      <c r="I7" s="627"/>
+      <c r="J7" s="627"/>
+      <c r="K7" s="627"/>
+      <c r="L7" s="627"/>
+      <c r="M7" s="627"/>
+      <c r="N7" s="627"/>
+      <c r="O7" s="627"/>
+      <c r="P7" s="627"/>
+      <c r="Q7" s="627"/>
+      <c r="R7" s="627"/>
+      <c r="S7" s="627"/>
+      <c r="T7" s="627"/>
+      <c r="U7" s="627"/>
+      <c r="V7" s="627"/>
+      <c r="W7" s="627"/>
+      <c r="X7" s="627"/>
+      <c r="Y7" s="627"/>
+      <c r="Z7" s="627"/>
+      <c r="AA7" s="627"/>
+      <c r="AB7" s="627"/>
+      <c r="AC7" s="627"/>
+      <c r="AD7" s="627"/>
+      <c r="AE7" s="627"/>
+      <c r="AF7" s="627"/>
+      <c r="AG7" s="627"/>
+      <c r="AH7" s="627"/>
+      <c r="AI7" s="627"/>
     </row>
     <row r="9" spans="1:35" s="194" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="626" t="s">
+      <c r="A9" s="628" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="626" t="s">
+      <c r="B9" s="628" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="626" t="s">
+      <c r="C9" s="628" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="629" t="s">
+      <c r="D9" s="631" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="630"/>
-      <c r="F9" s="630"/>
-      <c r="G9" s="630"/>
-      <c r="H9" s="630"/>
-      <c r="I9" s="630"/>
-      <c r="J9" s="630"/>
-      <c r="K9" s="630"/>
-      <c r="L9" s="630"/>
-      <c r="M9" s="630"/>
-      <c r="N9" s="630"/>
-      <c r="O9" s="630"/>
-      <c r="P9" s="630"/>
-      <c r="Q9" s="630"/>
-      <c r="R9" s="630"/>
-      <c r="S9" s="630"/>
-      <c r="T9" s="630"/>
-      <c r="U9" s="630"/>
-      <c r="V9" s="630"/>
-      <c r="W9" s="630"/>
-      <c r="X9" s="630"/>
-      <c r="Y9" s="630"/>
-      <c r="Z9" s="630"/>
-      <c r="AA9" s="630"/>
-      <c r="AB9" s="630"/>
-      <c r="AC9" s="630"/>
-      <c r="AD9" s="630"/>
-      <c r="AE9" s="630"/>
-      <c r="AF9" s="630"/>
-      <c r="AG9" s="630"/>
-      <c r="AH9" s="631"/>
-      <c r="AI9" s="632" t="s">
+      <c r="E9" s="632"/>
+      <c r="F9" s="632"/>
+      <c r="G9" s="632"/>
+      <c r="H9" s="632"/>
+      <c r="I9" s="632"/>
+      <c r="J9" s="632"/>
+      <c r="K9" s="632"/>
+      <c r="L9" s="632"/>
+      <c r="M9" s="632"/>
+      <c r="N9" s="632"/>
+      <c r="O9" s="632"/>
+      <c r="P9" s="632"/>
+      <c r="Q9" s="632"/>
+      <c r="R9" s="632"/>
+      <c r="S9" s="632"/>
+      <c r="T9" s="632"/>
+      <c r="U9" s="632"/>
+      <c r="V9" s="632"/>
+      <c r="W9" s="632"/>
+      <c r="X9" s="632"/>
+      <c r="Y9" s="632"/>
+      <c r="Z9" s="632"/>
+      <c r="AA9" s="632"/>
+      <c r="AB9" s="632"/>
+      <c r="AC9" s="632"/>
+      <c r="AD9" s="632"/>
+      <c r="AE9" s="632"/>
+      <c r="AF9" s="632"/>
+      <c r="AG9" s="632"/>
+      <c r="AH9" s="633"/>
+      <c r="AI9" s="634" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:35" s="194" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="627"/>
-      <c r="B10" s="627"/>
-      <c r="C10" s="627"/>
+      <c r="A10" s="629"/>
+      <c r="B10" s="629"/>
+      <c r="C10" s="629"/>
       <c r="D10" s="195">
         <v>1</v>
       </c>
@@ -17780,12 +17855,12 @@
       <c r="AH10" s="195">
         <v>31</v>
       </c>
-      <c r="AI10" s="632"/>
+      <c r="AI10" s="634"/>
     </row>
     <row r="11" spans="1:35" s="202" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="628"/>
-      <c r="B11" s="628"/>
-      <c r="C11" s="628"/>
+      <c r="A11" s="630"/>
+      <c r="B11" s="630"/>
+      <c r="C11" s="630"/>
       <c r="D11" s="195" t="s">
         <v>183</v>
       </c>
@@ -17879,7 +17954,7 @@
       <c r="AH11" s="200" t="s">
         <v>185</v>
       </c>
-      <c r="AI11" s="632"/>
+      <c r="AI11" s="634"/>
     </row>
     <row r="12" spans="1:35" s="202" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="224">
@@ -18494,10 +18569,10 @@
       </c>
     </row>
     <row r="19" spans="1:35" s="202" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="633" t="s">
+      <c r="A19" s="617" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="634"/>
+      <c r="B19" s="618"/>
       <c r="C19" s="210"/>
       <c r="D19" s="210"/>
       <c r="E19" s="211"/>
@@ -18572,16 +18647,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="AB21:AE21"/>
     <mergeCell ref="AB22:AE22"/>
     <mergeCell ref="Z4:AE4"/>
     <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
     <mergeCell ref="A7:AI7"/>
@@ -19441,40 +19516,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="641" t="s">
+      <c r="A1" s="642" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="641"/>
-      <c r="C1" s="641"/>
-      <c r="D1" s="641"/>
+      <c r="B1" s="642"/>
+      <c r="C1" s="642"/>
+      <c r="D1" s="642"/>
       <c r="E1" s="80"/>
-      <c r="F1" s="642" t="s">
+      <c r="F1" s="643" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="642"/>
-      <c r="H1" s="642"/>
-      <c r="I1" s="642"/>
-      <c r="J1" s="642"/>
-      <c r="K1" s="642"/>
-      <c r="L1" s="642"/>
+      <c r="G1" s="643"/>
+      <c r="H1" s="643"/>
+      <c r="I1" s="643"/>
+      <c r="J1" s="643"/>
+      <c r="K1" s="643"/>
+      <c r="L1" s="643"/>
     </row>
     <row r="2" spans="1:13" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="643" t="s">
+      <c r="A2" s="644" t="s">
         <v>399</v>
       </c>
-      <c r="B2" s="643"/>
-      <c r="C2" s="643"/>
-      <c r="D2" s="643"/>
+      <c r="B2" s="644"/>
+      <c r="C2" s="644"/>
+      <c r="D2" s="644"/>
       <c r="E2" s="80"/>
-      <c r="F2" s="644" t="s">
+      <c r="F2" s="645" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="644"/>
-      <c r="H2" s="644"/>
-      <c r="I2" s="644"/>
-      <c r="J2" s="644"/>
-      <c r="K2" s="644"/>
-      <c r="L2" s="644"/>
+      <c r="G2" s="645"/>
+      <c r="H2" s="645"/>
+      <c r="I2" s="645"/>
+      <c r="J2" s="645"/>
+      <c r="K2" s="645"/>
+      <c r="L2" s="645"/>
     </row>
     <row r="3" spans="1:13" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39"/>
@@ -19488,45 +19563,45 @@
       <c r="J3" s="81"/>
     </row>
     <row r="4" spans="1:13" s="41" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="645" t="s">
+      <c r="A4" s="646" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="645"/>
-      <c r="C4" s="645"/>
-      <c r="D4" s="645"/>
-      <c r="E4" s="645"/>
-      <c r="F4" s="645"/>
-      <c r="G4" s="645"/>
-      <c r="H4" s="645"/>
-      <c r="I4" s="645"/>
-      <c r="J4" s="645"/>
-      <c r="K4" s="645"/>
-      <c r="L4" s="645"/>
-      <c r="M4" s="645"/>
+      <c r="B4" s="646"/>
+      <c r="C4" s="646"/>
+      <c r="D4" s="646"/>
+      <c r="E4" s="646"/>
+      <c r="F4" s="646"/>
+      <c r="G4" s="646"/>
+      <c r="H4" s="646"/>
+      <c r="I4" s="646"/>
+      <c r="J4" s="646"/>
+      <c r="K4" s="646"/>
+      <c r="L4" s="646"/>
+      <c r="M4" s="646"/>
     </row>
     <row r="5" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="646" t="s">
+      <c r="A5" s="647" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="646"/>
-      <c r="C5" s="646"/>
-      <c r="D5" s="646"/>
-      <c r="E5" s="646"/>
-      <c r="F5" s="646"/>
-      <c r="G5" s="646"/>
-      <c r="H5" s="646"/>
-      <c r="I5" s="646"/>
-      <c r="J5" s="646"/>
-      <c r="K5" s="646"/>
-      <c r="L5" s="646"/>
-      <c r="M5" s="646"/>
+      <c r="B5" s="647"/>
+      <c r="C5" s="647"/>
+      <c r="D5" s="647"/>
+      <c r="E5" s="647"/>
+      <c r="F5" s="647"/>
+      <c r="G5" s="647"/>
+      <c r="H5" s="647"/>
+      <c r="I5" s="647"/>
+      <c r="J5" s="647"/>
+      <c r="K5" s="647"/>
+      <c r="L5" s="647"/>
+      <c r="M5" s="647"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K6" s="647" t="s">
+      <c r="K6" s="648" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="647"/>
-      <c r="M6" s="647"/>
+      <c r="L6" s="648"/>
+      <c r="M6" s="648"/>
     </row>
     <row r="7" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="421" t="s">
@@ -19597,13 +19672,13 @@
       <c r="M8" s="421"/>
     </row>
     <row r="9" spans="1:13" s="48" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="635" t="s">
+      <c r="A9" s="636" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="636"/>
-      <c r="C9" s="636"/>
-      <c r="D9" s="636"/>
-      <c r="E9" s="637"/>
+      <c r="B9" s="637"/>
+      <c r="C9" s="637"/>
+      <c r="D9" s="637"/>
+      <c r="E9" s="638"/>
       <c r="F9" s="425">
         <f>SUM(F10:F13)</f>
         <v>31307692.307692308</v>
@@ -19795,13 +19870,13 @@
       <c r="M13" s="49"/>
     </row>
     <row r="14" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="638" t="s">
+      <c r="A14" s="639" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="639"/>
-      <c r="C14" s="639"/>
-      <c r="D14" s="639"/>
-      <c r="E14" s="640"/>
+      <c r="B14" s="640"/>
+      <c r="C14" s="640"/>
+      <c r="D14" s="640"/>
+      <c r="E14" s="641"/>
       <c r="F14" s="426">
         <f>SUM(F15:F17)</f>
         <v>11653846.153846154</v>
@@ -19945,11 +20020,11 @@
       <c r="M17" s="53"/>
     </row>
     <row r="18" spans="1:13" s="57" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="648" t="s">
+      <c r="A18" s="635" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="648"/>
-      <c r="C18" s="648"/>
+      <c r="B18" s="635"/>
+      <c r="C18" s="635"/>
       <c r="D18" s="85"/>
       <c r="E18" s="86"/>
       <c r="F18" s="85">
@@ -20072,13 +20147,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="666" t="s">
+      <c r="A1" s="649" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="666"/>
-      <c r="C1" s="666"/>
-      <c r="D1" s="666"/>
-      <c r="E1" s="666"/>
+      <c r="B1" s="649"/>
+      <c r="C1" s="649"/>
+      <c r="D1" s="649"/>
+      <c r="E1" s="649"/>
       <c r="F1" s="279"/>
       <c r="G1" s="279"/>
       <c r="H1" s="279"/>
@@ -20115,16 +20190,16 @@
       <c r="K3" s="280"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="667" t="s">
+      <c r="A4" s="650" t="s">
         <v>288</v>
       </c>
-      <c r="B4" s="667"/>
-      <c r="C4" s="667"/>
-      <c r="D4" s="667"/>
-      <c r="E4" s="667"/>
-      <c r="F4" s="667"/>
-      <c r="G4" s="667"/>
-      <c r="H4" s="667"/>
+      <c r="B4" s="650"/>
+      <c r="C4" s="650"/>
+      <c r="D4" s="650"/>
+      <c r="E4" s="650"/>
+      <c r="F4" s="650"/>
+      <c r="G4" s="650"/>
+      <c r="H4" s="650"/>
       <c r="I4" s="285"/>
       <c r="J4" s="280"/>
       <c r="K4" s="280"/>
@@ -20143,31 +20218,31 @@
       <c r="K5" s="280"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="668" t="s">
+      <c r="A6" s="651" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="669" t="s">
+      <c r="B6" s="652" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="670" t="s">
+      <c r="C6" s="653" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="670"/>
-      <c r="E6" s="670"/>
-      <c r="F6" s="670"/>
-      <c r="G6" s="671"/>
-      <c r="H6" s="668" t="s">
+      <c r="D6" s="653"/>
+      <c r="E6" s="653"/>
+      <c r="F6" s="653"/>
+      <c r="G6" s="654"/>
+      <c r="H6" s="651" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="650" t="s">
+      <c r="I6" s="656" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="280"/>
       <c r="K6" s="280"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="668"/>
-      <c r="B7" s="669"/>
+      <c r="A7" s="651"/>
+      <c r="B7" s="652"/>
       <c r="C7" s="289" t="s">
         <v>31</v>
       </c>
@@ -20183,8 +20258,8 @@
       <c r="G7" s="290" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="668"/>
-      <c r="I7" s="651"/>
+      <c r="H7" s="651"/>
+      <c r="I7" s="657"/>
       <c r="J7" s="280"/>
       <c r="K7" s="280"/>
     </row>
@@ -20218,10 +20293,10 @@
       <c r="K8" s="280"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="652">
+      <c r="A9" s="658">
         <v>452</v>
       </c>
-      <c r="B9" s="655">
+      <c r="B9" s="661">
         <v>43942</v>
       </c>
       <c r="C9" s="300" t="s">
@@ -20247,8 +20322,8 @@
       <c r="K9" s="280"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="653"/>
-      <c r="B10" s="656"/>
+      <c r="A10" s="659"/>
+      <c r="B10" s="662"/>
       <c r="C10" s="306" t="s">
         <v>39</v>
       </c>
@@ -20272,8 +20347,8 @@
       <c r="K10" s="280"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="654"/>
-      <c r="B11" s="657"/>
+      <c r="A11" s="660"/>
+      <c r="B11" s="663"/>
       <c r="C11" s="312" t="s">
         <v>67</v>
       </c>
@@ -20318,16 +20393,16 @@
       <c r="K12" s="280"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="658" t="s">
+      <c r="A13" s="664" t="s">
         <v>289</v>
       </c>
-      <c r="B13" s="658"/>
-      <c r="C13" s="658"/>
-      <c r="D13" s="658"/>
-      <c r="E13" s="658"/>
-      <c r="F13" s="658"/>
-      <c r="G13" s="658"/>
-      <c r="H13" s="658"/>
+      <c r="B13" s="664"/>
+      <c r="C13" s="664"/>
+      <c r="D13" s="664"/>
+      <c r="E13" s="664"/>
+      <c r="F13" s="664"/>
+      <c r="G13" s="664"/>
+      <c r="H13" s="664"/>
       <c r="I13" s="323">
         <v>19328400.000000004</v>
       </c>
@@ -20335,16 +20410,16 @@
       <c r="K13" s="280"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="658" t="s">
+      <c r="A14" s="664" t="s">
         <v>290</v>
       </c>
-      <c r="B14" s="658"/>
-      <c r="C14" s="658"/>
-      <c r="D14" s="658"/>
-      <c r="E14" s="658"/>
-      <c r="F14" s="658"/>
-      <c r="G14" s="658"/>
-      <c r="H14" s="658"/>
+      <c r="B14" s="664"/>
+      <c r="C14" s="664"/>
+      <c r="D14" s="664"/>
+      <c r="E14" s="664"/>
+      <c r="F14" s="664"/>
+      <c r="G14" s="664"/>
+      <c r="H14" s="664"/>
       <c r="I14" s="323">
         <v>23794300</v>
       </c>
@@ -20352,16 +20427,16 @@
       <c r="K14" s="280"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="659" t="s">
+      <c r="A15" s="665" t="s">
         <v>291</v>
       </c>
-      <c r="B15" s="660"/>
-      <c r="C15" s="660"/>
-      <c r="D15" s="660"/>
-      <c r="E15" s="660"/>
-      <c r="F15" s="660"/>
-      <c r="G15" s="660"/>
-      <c r="H15" s="661"/>
+      <c r="B15" s="666"/>
+      <c r="C15" s="666"/>
+      <c r="D15" s="666"/>
+      <c r="E15" s="666"/>
+      <c r="F15" s="666"/>
+      <c r="G15" s="666"/>
+      <c r="H15" s="667"/>
       <c r="I15" s="323">
         <v>10000000</v>
       </c>
@@ -20369,16 +20444,16 @@
       <c r="K15" s="280"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="659" t="s">
+      <c r="A16" s="665" t="s">
         <v>292</v>
       </c>
-      <c r="B16" s="660"/>
-      <c r="C16" s="660"/>
-      <c r="D16" s="660"/>
-      <c r="E16" s="660"/>
-      <c r="F16" s="660"/>
-      <c r="G16" s="660"/>
-      <c r="H16" s="661"/>
+      <c r="B16" s="666"/>
+      <c r="C16" s="666"/>
+      <c r="D16" s="666"/>
+      <c r="E16" s="666"/>
+      <c r="F16" s="666"/>
+      <c r="G16" s="666"/>
+      <c r="H16" s="667"/>
       <c r="I16" s="323">
         <v>7538461.538461539</v>
       </c>
@@ -20386,16 +20461,16 @@
       <c r="K16" s="280"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="659" t="s">
+      <c r="A17" s="665" t="s">
         <v>293</v>
       </c>
-      <c r="B17" s="660"/>
-      <c r="C17" s="660"/>
-      <c r="D17" s="660"/>
-      <c r="E17" s="660"/>
-      <c r="F17" s="660"/>
-      <c r="G17" s="660"/>
-      <c r="H17" s="661"/>
+      <c r="B17" s="666"/>
+      <c r="C17" s="666"/>
+      <c r="D17" s="666"/>
+      <c r="E17" s="666"/>
+      <c r="F17" s="666"/>
+      <c r="G17" s="666"/>
+      <c r="H17" s="667"/>
       <c r="I17" s="323">
         <v>1783100</v>
       </c>
@@ -20403,16 +20478,16 @@
       <c r="K17" s="280"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="659" t="s">
+      <c r="A18" s="665" t="s">
         <v>356</v>
       </c>
-      <c r="B18" s="660"/>
-      <c r="C18" s="660"/>
-      <c r="D18" s="660"/>
-      <c r="E18" s="660"/>
-      <c r="F18" s="660"/>
-      <c r="G18" s="660"/>
-      <c r="H18" s="661"/>
+      <c r="B18" s="666"/>
+      <c r="C18" s="666"/>
+      <c r="D18" s="666"/>
+      <c r="E18" s="666"/>
+      <c r="F18" s="666"/>
+      <c r="G18" s="666"/>
+      <c r="H18" s="667"/>
       <c r="I18" s="323">
         <f>(450000*37)*(1-35%)</f>
         <v>10822500</v>
@@ -20422,16 +20497,16 @@
       <c r="M18" s="403"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="659" t="s">
+      <c r="A19" s="665" t="s">
         <v>357</v>
       </c>
-      <c r="B19" s="660"/>
-      <c r="C19" s="660"/>
-      <c r="D19" s="660"/>
-      <c r="E19" s="660"/>
-      <c r="F19" s="660"/>
-      <c r="G19" s="660"/>
-      <c r="H19" s="661"/>
+      <c r="B19" s="666"/>
+      <c r="C19" s="666"/>
+      <c r="D19" s="666"/>
+      <c r="E19" s="666"/>
+      <c r="F19" s="666"/>
+      <c r="G19" s="666"/>
+      <c r="H19" s="667"/>
       <c r="I19" s="323">
         <v>9800000</v>
       </c>
@@ -20439,16 +20514,16 @@
       <c r="K19" s="280"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="662" t="s">
+      <c r="A20" s="668" t="s">
         <v>358</v>
       </c>
-      <c r="B20" s="663"/>
-      <c r="C20" s="663"/>
-      <c r="D20" s="663"/>
-      <c r="E20" s="663"/>
-      <c r="F20" s="663"/>
-      <c r="G20" s="663"/>
-      <c r="H20" s="664"/>
+      <c r="B20" s="669"/>
+      <c r="C20" s="669"/>
+      <c r="D20" s="669"/>
+      <c r="E20" s="669"/>
+      <c r="F20" s="669"/>
+      <c r="G20" s="669"/>
+      <c r="H20" s="670"/>
       <c r="I20" s="324">
         <f>I13+I14-I15-I16-I17-I18-I19</f>
         <v>3178638.4615384601</v>
@@ -20500,8 +20575,8 @@
       <c r="K23" s="414"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="665"/>
-      <c r="B25" s="665"/>
+      <c r="A25" s="671"/>
+      <c r="B25" s="671"/>
       <c r="C25" s="280"/>
       <c r="D25" s="280"/>
       <c r="E25" s="327"/>
@@ -20511,26 +20586,20 @@
       <c r="I25" s="280"/>
     </row>
     <row r="28" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="649" t="s">
+      <c r="A28" s="655" t="s">
         <v>294</v>
       </c>
-      <c r="B28" s="649"/>
-      <c r="C28" s="649"/>
-      <c r="D28" s="649"/>
-      <c r="E28" s="649"/>
-      <c r="F28" s="649"/>
-      <c r="G28" s="649"/>
-      <c r="H28" s="649"/>
-      <c r="I28" s="649"/>
+      <c r="B28" s="655"/>
+      <c r="C28" s="655"/>
+      <c r="D28" s="655"/>
+      <c r="E28" s="655"/>
+      <c r="F28" s="655"/>
+      <c r="G28" s="655"/>
+      <c r="H28" s="655"/>
+      <c r="I28" s="655"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A28:I28"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="A9:A11"/>
@@ -20544,6 +20613,12 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
